--- a/phase_shift_scanlist.xlsx
+++ b/phase_shift_scanlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,563 +462,5425 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>43.33201508440825</v>
+        <v>43.27647931584137</v>
       </c>
       <c r="B2" t="n">
-        <v>3.890684915591748</v>
+        <v>3.94622068415863</v>
       </c>
       <c r="C2" t="n">
         <v>4.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.77</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>43.28201508440826</v>
+        <v>43.2661513281243</v>
       </c>
       <c r="B3" t="n">
-        <v>3.940684915591748</v>
+        <v>3.956548671875701</v>
       </c>
       <c r="C3" t="n">
         <v>4.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.77</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>43.259009738792</v>
+        <v>43.25752772378315</v>
       </c>
       <c r="B4" t="n">
-        <v>3.963690261208009</v>
+        <v>3.965172276216852</v>
       </c>
       <c r="C4" t="n">
         <v>4.5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.77</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>43.24868175107492</v>
+        <v>43.24948466145764</v>
       </c>
       <c r="B5" t="n">
-        <v>3.974018248925081</v>
+        <v>3.973215338542368</v>
       </c>
       <c r="C5" t="n">
         <v>4.5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.77</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>43.24005814673377</v>
+        <v>43.24144159913212</v>
       </c>
       <c r="B6" t="n">
-        <v>3.982641853266231</v>
+        <v>3.981258400867885</v>
       </c>
       <c r="C6" t="n">
         <v>4.5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.77</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>43.23201508440825</v>
+        <v>43.23281799479097</v>
       </c>
       <c r="B7" t="n">
-        <v>3.990684915591748</v>
+        <v>3.989882005209035</v>
       </c>
       <c r="C7" t="n">
         <v>4.5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.77</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>43.22397202208274</v>
+        <v>43.22249000707389</v>
       </c>
       <c r="B8" t="n">
-        <v>3.998727977917264</v>
+        <v>4.000209992926107</v>
       </c>
       <c r="C8" t="n">
         <v>4.5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.77</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>43.21534841774159</v>
+        <v>43.27647931584137</v>
       </c>
       <c r="B9" t="n">
-        <v>4.007351582258415</v>
+        <v>3.94622068415863</v>
       </c>
       <c r="C9" t="n">
         <v>4.5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.77</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>43.20502043002452</v>
+        <v>43.2661513281243</v>
       </c>
       <c r="B10" t="n">
-        <v>4.017679569975486</v>
+        <v>3.956548671875701</v>
       </c>
       <c r="C10" t="n">
         <v>4.5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.77</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43.15701508440826</v>
+        <v>43.25752772378315</v>
       </c>
       <c r="B11" t="n">
-        <v>4.065684915591747</v>
+        <v>3.965172276216852</v>
       </c>
       <c r="C11" t="n">
         <v>4.5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.77</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43</v>
+        <v>43.24948466145764</v>
       </c>
       <c r="B12" t="n">
-        <v>4.222700000000003</v>
+        <v>3.973215338542368</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.77</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43.36315</v>
+        <v>43.24144159913212</v>
       </c>
       <c r="B13" t="n">
-        <v>3.85955</v>
+        <v>3.981258400867885</v>
       </c>
       <c r="C13" t="n">
         <v>4.5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.705</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.255</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43.31315</v>
+        <v>43.23281799479097</v>
       </c>
       <c r="B14" t="n">
-        <v>3.90955</v>
+        <v>3.989882005209035</v>
       </c>
       <c r="C14" t="n">
         <v>4.5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.705</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.255</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43.29014465438374</v>
+        <v>43.22249000707389</v>
       </c>
       <c r="B15" t="n">
-        <v>3.932555345616262</v>
+        <v>4.000209992926107</v>
       </c>
       <c r="C15" t="n">
         <v>4.5</v>
       </c>
       <c r="D15" t="n">
-        <v>0.705</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.255</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43.27981666666667</v>
+        <v>43.27647931584137</v>
       </c>
       <c r="B16" t="n">
-        <v>3.942883333333334</v>
+        <v>3.94622068415863</v>
       </c>
       <c r="C16" t="n">
         <v>4.5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.705</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.255</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43.27119306232552</v>
+        <v>43.2661513281243</v>
       </c>
       <c r="B17" t="n">
-        <v>3.951506937674484</v>
+        <v>3.956548671875701</v>
       </c>
       <c r="C17" t="n">
         <v>4.5</v>
       </c>
       <c r="D17" t="n">
-        <v>0.705</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.255</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43.26315</v>
+        <v>43.25752772378315</v>
       </c>
       <c r="B18" t="n">
-        <v>3.95955</v>
+        <v>3.965172276216852</v>
       </c>
       <c r="C18" t="n">
         <v>4.5</v>
       </c>
       <c r="D18" t="n">
-        <v>0.705</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.255</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43.25510693767448</v>
+        <v>43.24948466145764</v>
       </c>
       <c r="B19" t="n">
-        <v>3.967593062325517</v>
+        <v>3.973215338542368</v>
       </c>
       <c r="C19" t="n">
         <v>4.5</v>
       </c>
       <c r="D19" t="n">
-        <v>0.705</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.255</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43.24648333333334</v>
+        <v>43.24144159913212</v>
       </c>
       <c r="B20" t="n">
-        <v>3.976216666666667</v>
+        <v>3.981258400867885</v>
       </c>
       <c r="C20" t="n">
         <v>4.5</v>
       </c>
       <c r="D20" t="n">
-        <v>0.705</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.255</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43.23615534561627</v>
+        <v>43.23281799479097</v>
       </c>
       <c r="B21" t="n">
-        <v>3.986544654383739</v>
+        <v>3.989882005209035</v>
       </c>
       <c r="C21" t="n">
         <v>4.5</v>
       </c>
       <c r="D21" t="n">
-        <v>0.705</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.255</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43.18815</v>
+        <v>43.22249000707389</v>
       </c>
       <c r="B22" t="n">
-        <v>4.03455</v>
+        <v>4.000209992926107</v>
       </c>
       <c r="C22" t="n">
         <v>4.5</v>
       </c>
       <c r="D22" t="n">
-        <v>0.705</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.255</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43</v>
+        <v>43.27647931584137</v>
       </c>
       <c r="B23" t="n">
-        <v>4.222700000000003</v>
+        <v>3.94622068415863</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="D23" t="n">
-        <v>0.705</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.255</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43.313886</v>
+        <v>43.2661513281243</v>
       </c>
       <c r="B24" t="n">
-        <v>3.908814</v>
+        <v>3.956548671875701</v>
       </c>
       <c r="C24" t="n">
         <v>4.5</v>
       </c>
       <c r="D24" t="n">
-        <v>0.655</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.305</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43.263886</v>
+        <v>43.25752772378315</v>
       </c>
       <c r="B25" t="n">
-        <v>3.958814</v>
+        <v>3.965172276216852</v>
       </c>
       <c r="C25" t="n">
         <v>4.5</v>
       </c>
       <c r="D25" t="n">
-        <v>0.655</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.305</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>43.24088065438374</v>
+        <v>43.24948466145764</v>
       </c>
       <c r="B26" t="n">
-        <v>3.981819345616262</v>
+        <v>3.973215338542368</v>
       </c>
       <c r="C26" t="n">
         <v>4.5</v>
       </c>
       <c r="D26" t="n">
-        <v>0.655</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>0.305</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43.23055266666667</v>
+        <v>43.24144159913212</v>
       </c>
       <c r="B27" t="n">
-        <v>3.992147333333333</v>
+        <v>3.981258400867885</v>
       </c>
       <c r="C27" t="n">
         <v>4.5</v>
       </c>
       <c r="D27" t="n">
-        <v>0.655</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>0.305</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43.22192906232552</v>
+        <v>43.23281799479097</v>
       </c>
       <c r="B28" t="n">
-        <v>4.000770937674483</v>
+        <v>3.989882005209035</v>
       </c>
       <c r="C28" t="n">
         <v>4.5</v>
       </c>
       <c r="D28" t="n">
-        <v>0.655</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>0.305</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43.213886</v>
+        <v>43.22249000707389</v>
       </c>
       <c r="B29" t="n">
-        <v>4.008814</v>
+        <v>4.000209992926107</v>
       </c>
       <c r="C29" t="n">
         <v>4.5</v>
       </c>
       <c r="D29" t="n">
-        <v>0.655</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>0.305</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43.20584293767449</v>
+        <v>43</v>
       </c>
       <c r="B30" t="n">
-        <v>4.016857062325517</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C30" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.655</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>0.305</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43.19721933333334</v>
+        <v>43.24536823642799</v>
       </c>
       <c r="B31" t="n">
-        <v>4.025480666666667</v>
+        <v>3.97733176357202</v>
       </c>
       <c r="C31" t="n">
         <v>4.5</v>
       </c>
       <c r="D31" t="n">
-        <v>0.655</v>
+        <v>0.62</v>
       </c>
       <c r="E31" t="n">
-        <v>0.305</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43.18689134561627</v>
+        <v>43.23504024871091</v>
       </c>
       <c r="B32" t="n">
-        <v>4.035808654383739</v>
+        <v>3.987659751289092</v>
       </c>
       <c r="C32" t="n">
         <v>4.5</v>
       </c>
       <c r="D32" t="n">
-        <v>0.655</v>
+        <v>0.62</v>
       </c>
       <c r="E32" t="n">
-        <v>0.305</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>43.138886</v>
+        <v>43.22641664436976</v>
       </c>
       <c r="B33" t="n">
-        <v>4.083814</v>
+        <v>3.996283355630242</v>
       </c>
       <c r="C33" t="n">
         <v>4.5</v>
       </c>
       <c r="D33" t="n">
-        <v>0.655</v>
+        <v>0.62</v>
       </c>
       <c r="E33" t="n">
-        <v>0.305</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
+        <v>43.21837358204424</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4.004326417955759</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>43.21033051971872</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4.012369480281276</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>43.20170691537758</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4.020993084622425</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>43.19137892766051</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4.031321072339497</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>43.24536823642799</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3.97733176357202</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>43.23504024871091</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3.987659751289092</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>43.22641664436976</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3.996283355630242</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>43.21837358204424</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4.004326417955759</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>43.21033051971872</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4.012369480281276</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>43.20170691537758</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4.020993084622425</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43.19137892766051</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4.031321072339497</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43.24536823642799</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3.97733176357202</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>43.23504024871091</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3.987659751289092</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>43.22641664436976</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3.996283355630242</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>43.21837358204424</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4.004326417955759</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>43.21033051971872</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4.012369480281276</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>43.20170691537758</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4.020993084622425</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>43.19137892766051</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4.031321072339497</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>43.24536823642799</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3.97733176357202</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>43.23504024871091</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3.987659751289092</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>43.22641664436976</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3.996283355630242</v>
+      </c>
+      <c r="C54" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>43.21837358204424</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4.004326417955759</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>43.21033051971872</v>
+      </c>
+      <c r="B56" t="n">
+        <v>4.012369480281276</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>43.20170691537758</v>
+      </c>
+      <c r="B57" t="n">
+        <v>4.020993084622425</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>43.19137892766051</v>
+      </c>
+      <c r="B58" t="n">
+        <v>4.031321072339497</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
         <v>43</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B59" t="n">
         <v>4.222700000000003</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C59" t="n">
         <v>0</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.655</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.305</v>
+      <c r="D59" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>43.25915316698153</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3.963546833018469</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>43.24882517926446</v>
+      </c>
+      <c r="B61" t="n">
+        <v>3.973874820735541</v>
+      </c>
+      <c r="C61" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>43.24020157492331</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3.982498425076691</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>43.2321585125978</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3.990541487402207</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>43.22411545027228</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3.998584549727724</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>43.21549184593113</v>
+      </c>
+      <c r="B65" t="n">
+        <v>4.007208154068874</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>43.20516385821406</v>
+      </c>
+      <c r="B66" t="n">
+        <v>4.017536141785945</v>
+      </c>
+      <c r="C66" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>43.25915316698153</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3.963546833018469</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>43.24882517926446</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3.973874820735541</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>43.24020157492331</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3.982498425076691</v>
+      </c>
+      <c r="C69" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>43.2321585125978</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3.990541487402207</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>43.22411545027228</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3.998584549727724</v>
+      </c>
+      <c r="C71" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>43.21549184593113</v>
+      </c>
+      <c r="B72" t="n">
+        <v>4.007208154068874</v>
+      </c>
+      <c r="C72" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>43.20516385821406</v>
+      </c>
+      <c r="B73" t="n">
+        <v>4.017536141785945</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>43.25915316698153</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3.963546833018469</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>43.24882517926446</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3.973874820735541</v>
+      </c>
+      <c r="C75" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>43.24020157492331</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3.982498425076691</v>
+      </c>
+      <c r="C76" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>43.2321585125978</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3.990541487402207</v>
+      </c>
+      <c r="C77" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>43.22411545027228</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3.998584549727724</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>43.21549184593113</v>
+      </c>
+      <c r="B79" t="n">
+        <v>4.007208154068874</v>
+      </c>
+      <c r="C79" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>43.20516385821406</v>
+      </c>
+      <c r="B80" t="n">
+        <v>4.017536141785945</v>
+      </c>
+      <c r="C80" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>43.25915316698153</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3.963546833018469</v>
+      </c>
+      <c r="C81" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>43.24882517926446</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3.973874820735541</v>
+      </c>
+      <c r="C82" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>43.24020157492331</v>
+      </c>
+      <c r="B83" t="n">
+        <v>3.982498425076691</v>
+      </c>
+      <c r="C83" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>43.2321585125978</v>
+      </c>
+      <c r="B84" t="n">
+        <v>3.990541487402207</v>
+      </c>
+      <c r="C84" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>43.22411545027228</v>
+      </c>
+      <c r="B85" t="n">
+        <v>3.998584549727724</v>
+      </c>
+      <c r="C85" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>43.21549184593113</v>
+      </c>
+      <c r="B86" t="n">
+        <v>4.007208154068874</v>
+      </c>
+      <c r="C86" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>43.20516385821406</v>
+      </c>
+      <c r="B87" t="n">
+        <v>4.017536141785945</v>
+      </c>
+      <c r="C87" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>43</v>
+      </c>
+      <c r="B88" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>43.27655634615588</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3.946143653844127</v>
+      </c>
+      <c r="C89" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>43.2662283584388</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3.956471641561198</v>
+      </c>
+      <c r="C90" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>43.25760475409766</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3.965095245902349</v>
+      </c>
+      <c r="C91" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>43.24956169177214</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3.973138308227865</v>
+      </c>
+      <c r="C92" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>43.24151862944662</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3.981181370553382</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>43.23289502510547</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3.989804974894532</v>
+      </c>
+      <c r="C94" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>43.2225670373884</v>
+      </c>
+      <c r="B95" t="n">
+        <v>4.000132962611604</v>
+      </c>
+      <c r="C95" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>43.27655634615588</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3.946143653844127</v>
+      </c>
+      <c r="C96" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>43.2662283584388</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3.956471641561198</v>
+      </c>
+      <c r="C97" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>43.25760475409766</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3.965095245902349</v>
+      </c>
+      <c r="C98" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>43.24956169177214</v>
+      </c>
+      <c r="B99" t="n">
+        <v>3.973138308227865</v>
+      </c>
+      <c r="C99" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>43.24151862944662</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3.981181370553382</v>
+      </c>
+      <c r="C100" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>43.23289502510547</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3.989804974894532</v>
+      </c>
+      <c r="C101" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>43.2225670373884</v>
+      </c>
+      <c r="B102" t="n">
+        <v>4.000132962611604</v>
+      </c>
+      <c r="C102" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>43.27655634615588</v>
+      </c>
+      <c r="B103" t="n">
+        <v>3.946143653844127</v>
+      </c>
+      <c r="C103" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>43.2662283584388</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3.956471641561198</v>
+      </c>
+      <c r="C104" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>43.25760475409766</v>
+      </c>
+      <c r="B105" t="n">
+        <v>3.965095245902349</v>
+      </c>
+      <c r="C105" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>43.24956169177214</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3.973138308227865</v>
+      </c>
+      <c r="C106" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>43.24151862944662</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3.981181370553382</v>
+      </c>
+      <c r="C107" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>43.23289502510547</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3.989804974894532</v>
+      </c>
+      <c r="C108" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>43.2225670373884</v>
+      </c>
+      <c r="B109" t="n">
+        <v>4.000132962611604</v>
+      </c>
+      <c r="C109" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>43.27655634615588</v>
+      </c>
+      <c r="B110" t="n">
+        <v>3.946143653844127</v>
+      </c>
+      <c r="C110" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>43.2662283584388</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3.956471641561198</v>
+      </c>
+      <c r="C111" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>43.25760475409766</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3.965095245902349</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>43.24956169177214</v>
+      </c>
+      <c r="B113" t="n">
+        <v>3.973138308227865</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>43.24151862944662</v>
+      </c>
+      <c r="B114" t="n">
+        <v>3.981181370553382</v>
+      </c>
+      <c r="C114" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>43.23289502510547</v>
+      </c>
+      <c r="B115" t="n">
+        <v>3.989804974894532</v>
+      </c>
+      <c r="C115" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>43.2225670373884</v>
+      </c>
+      <c r="B116" t="n">
+        <v>4.000132962611604</v>
+      </c>
+      <c r="C116" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>43</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>43.27646356699382</v>
+      </c>
+      <c r="B118" t="n">
+        <v>3.946236433006185</v>
+      </c>
+      <c r="C118" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>43.26613557927675</v>
+      </c>
+      <c r="B119" t="n">
+        <v>3.956564420723257</v>
+      </c>
+      <c r="C119" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>43.2575119749356</v>
+      </c>
+      <c r="B120" t="n">
+        <v>3.965188025064407</v>
+      </c>
+      <c r="C120" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>43.24946891261008</v>
+      </c>
+      <c r="B121" t="n">
+        <v>3.973231087389924</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>43.24142585028456</v>
+      </c>
+      <c r="B122" t="n">
+        <v>3.98127414971544</v>
+      </c>
+      <c r="C122" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>43.23280224594341</v>
+      </c>
+      <c r="B123" t="n">
+        <v>3.989897754056591</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>43.22247425822634</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4.000225741773662</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>43.27646356699382</v>
+      </c>
+      <c r="B125" t="n">
+        <v>3.946236433006185</v>
+      </c>
+      <c r="C125" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>43.26613557927675</v>
+      </c>
+      <c r="B126" t="n">
+        <v>3.956564420723257</v>
+      </c>
+      <c r="C126" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>43.2575119749356</v>
+      </c>
+      <c r="B127" t="n">
+        <v>3.965188025064407</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>43.24946891261008</v>
+      </c>
+      <c r="B128" t="n">
+        <v>3.973231087389924</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>43.24142585028456</v>
+      </c>
+      <c r="B129" t="n">
+        <v>3.98127414971544</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>43.23280224594341</v>
+      </c>
+      <c r="B130" t="n">
+        <v>3.989897754056591</v>
+      </c>
+      <c r="C130" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>43.22247425822634</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4.000225741773662</v>
+      </c>
+      <c r="C131" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>43.27646356699382</v>
+      </c>
+      <c r="B132" t="n">
+        <v>3.946236433006185</v>
+      </c>
+      <c r="C132" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>43.26613557927675</v>
+      </c>
+      <c r="B133" t="n">
+        <v>3.956564420723257</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>43.2575119749356</v>
+      </c>
+      <c r="B134" t="n">
+        <v>3.965188025064407</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>43.24946891261008</v>
+      </c>
+      <c r="B135" t="n">
+        <v>3.973231087389924</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>43.24142585028456</v>
+      </c>
+      <c r="B136" t="n">
+        <v>3.98127414971544</v>
+      </c>
+      <c r="C136" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>43.23280224594341</v>
+      </c>
+      <c r="B137" t="n">
+        <v>3.989897754056591</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>43.22247425822634</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4.000225741773662</v>
+      </c>
+      <c r="C138" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>43.27646356699382</v>
+      </c>
+      <c r="B139" t="n">
+        <v>3.946236433006185</v>
+      </c>
+      <c r="C139" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>43.26613557927675</v>
+      </c>
+      <c r="B140" t="n">
+        <v>3.956564420723257</v>
+      </c>
+      <c r="C140" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>43.2575119749356</v>
+      </c>
+      <c r="B141" t="n">
+        <v>3.965188025064407</v>
+      </c>
+      <c r="C141" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>43.24946891261008</v>
+      </c>
+      <c r="B142" t="n">
+        <v>3.973231087389924</v>
+      </c>
+      <c r="C142" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>43.24142585028456</v>
+      </c>
+      <c r="B143" t="n">
+        <v>3.98127414971544</v>
+      </c>
+      <c r="C143" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>43.23280224594341</v>
+      </c>
+      <c r="B144" t="n">
+        <v>3.989897754056591</v>
+      </c>
+      <c r="C144" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>43.22247425822634</v>
+      </c>
+      <c r="B145" t="n">
+        <v>4.000225741773662</v>
+      </c>
+      <c r="C145" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>43</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>43.24601317621266</v>
+      </c>
+      <c r="B147" t="n">
+        <v>3.976686823787341</v>
+      </c>
+      <c r="C147" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>43.23568518849559</v>
+      </c>
+      <c r="B148" t="n">
+        <v>3.987014811504412</v>
+      </c>
+      <c r="C148" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>43.22706158415444</v>
+      </c>
+      <c r="B149" t="n">
+        <v>3.995638415845562</v>
+      </c>
+      <c r="C149" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>43.21901852182892</v>
+      </c>
+      <c r="B150" t="n">
+        <v>4.003681478171079</v>
+      </c>
+      <c r="C150" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>43.21097545950341</v>
+      </c>
+      <c r="B151" t="n">
+        <v>4.011724540496596</v>
+      </c>
+      <c r="C151" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>43.20235185516226</v>
+      </c>
+      <c r="B152" t="n">
+        <v>4.020348144837746</v>
+      </c>
+      <c r="C152" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>43.19202386744519</v>
+      </c>
+      <c r="B153" t="n">
+        <v>4.030676132554817</v>
+      </c>
+      <c r="C153" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>43.24601317621266</v>
+      </c>
+      <c r="B154" t="n">
+        <v>3.976686823787341</v>
+      </c>
+      <c r="C154" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>43.23568518849559</v>
+      </c>
+      <c r="B155" t="n">
+        <v>3.987014811504412</v>
+      </c>
+      <c r="C155" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>43.22706158415444</v>
+      </c>
+      <c r="B156" t="n">
+        <v>3.995638415845562</v>
+      </c>
+      <c r="C156" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>43.21901852182892</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4.003681478171079</v>
+      </c>
+      <c r="C157" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>43.21097545950341</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4.011724540496596</v>
+      </c>
+      <c r="C158" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>43.20235185516226</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4.020348144837746</v>
+      </c>
+      <c r="C159" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>43.19202386744519</v>
+      </c>
+      <c r="B160" t="n">
+        <v>4.030676132554817</v>
+      </c>
+      <c r="C160" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>43.24601317621266</v>
+      </c>
+      <c r="B161" t="n">
+        <v>3.976686823787341</v>
+      </c>
+      <c r="C161" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>43.23568518849559</v>
+      </c>
+      <c r="B162" t="n">
+        <v>3.987014811504412</v>
+      </c>
+      <c r="C162" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>43.22706158415444</v>
+      </c>
+      <c r="B163" t="n">
+        <v>3.995638415845562</v>
+      </c>
+      <c r="C163" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>43.21901852182892</v>
+      </c>
+      <c r="B164" t="n">
+        <v>4.003681478171079</v>
+      </c>
+      <c r="C164" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>43.21097545950341</v>
+      </c>
+      <c r="B165" t="n">
+        <v>4.011724540496596</v>
+      </c>
+      <c r="C165" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>43.20235185516226</v>
+      </c>
+      <c r="B166" t="n">
+        <v>4.020348144837746</v>
+      </c>
+      <c r="C166" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>43.19202386744519</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4.030676132554817</v>
+      </c>
+      <c r="C167" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>43.24601317621266</v>
+      </c>
+      <c r="B168" t="n">
+        <v>3.976686823787341</v>
+      </c>
+      <c r="C168" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>43.23568518849559</v>
+      </c>
+      <c r="B169" t="n">
+        <v>3.987014811504412</v>
+      </c>
+      <c r="C169" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>43.22706158415444</v>
+      </c>
+      <c r="B170" t="n">
+        <v>3.995638415845562</v>
+      </c>
+      <c r="C170" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>43.21901852182892</v>
+      </c>
+      <c r="B171" t="n">
+        <v>4.003681478171079</v>
+      </c>
+      <c r="C171" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>43.21097545950341</v>
+      </c>
+      <c r="B172" t="n">
+        <v>4.011724540496596</v>
+      </c>
+      <c r="C172" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>43.20235185516226</v>
+      </c>
+      <c r="B173" t="n">
+        <v>4.020348144837746</v>
+      </c>
+      <c r="C173" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>43.19202386744519</v>
+      </c>
+      <c r="B174" t="n">
+        <v>4.030676132554817</v>
+      </c>
+      <c r="C174" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>43</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>43.25909925394862</v>
+      </c>
+      <c r="B176" t="n">
+        <v>3.963600746051386</v>
+      </c>
+      <c r="C176" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>43.24877126623154</v>
+      </c>
+      <c r="B177" t="n">
+        <v>3.973928733768457</v>
+      </c>
+      <c r="C177" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>43.2401476618904</v>
+      </c>
+      <c r="B178" t="n">
+        <v>3.982552338109608</v>
+      </c>
+      <c r="C178" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>43.23210459956488</v>
+      </c>
+      <c r="B179" t="n">
+        <v>3.990595400435124</v>
+      </c>
+      <c r="C179" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>43.22406153723936</v>
+      </c>
+      <c r="B180" t="n">
+        <v>3.998638462760641</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>43.21543793289821</v>
+      </c>
+      <c r="B181" t="n">
+        <v>4.007262067101791</v>
+      </c>
+      <c r="C181" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>43.20510994518114</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4.017590054818863</v>
+      </c>
+      <c r="C182" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>43.25909925394862</v>
+      </c>
+      <c r="B183" t="n">
+        <v>3.963600746051386</v>
+      </c>
+      <c r="C183" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>43.24877126623154</v>
+      </c>
+      <c r="B184" t="n">
+        <v>3.973928733768457</v>
+      </c>
+      <c r="C184" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>43.2401476618904</v>
+      </c>
+      <c r="B185" t="n">
+        <v>3.982552338109608</v>
+      </c>
+      <c r="C185" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>43.23210459956488</v>
+      </c>
+      <c r="B186" t="n">
+        <v>3.990595400435124</v>
+      </c>
+      <c r="C186" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>43.22406153723936</v>
+      </c>
+      <c r="B187" t="n">
+        <v>3.998638462760641</v>
+      </c>
+      <c r="C187" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>43.21543793289821</v>
+      </c>
+      <c r="B188" t="n">
+        <v>4.007262067101791</v>
+      </c>
+      <c r="C188" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>43.20510994518114</v>
+      </c>
+      <c r="B189" t="n">
+        <v>4.017590054818863</v>
+      </c>
+      <c r="C189" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>43.25909925394862</v>
+      </c>
+      <c r="B190" t="n">
+        <v>3.963600746051386</v>
+      </c>
+      <c r="C190" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>43.24877126623154</v>
+      </c>
+      <c r="B191" t="n">
+        <v>3.973928733768457</v>
+      </c>
+      <c r="C191" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>43.2401476618904</v>
+      </c>
+      <c r="B192" t="n">
+        <v>3.982552338109608</v>
+      </c>
+      <c r="C192" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>43.23210459956488</v>
+      </c>
+      <c r="B193" t="n">
+        <v>3.990595400435124</v>
+      </c>
+      <c r="C193" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>43.22406153723936</v>
+      </c>
+      <c r="B194" t="n">
+        <v>3.998638462760641</v>
+      </c>
+      <c r="C194" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>43.21543793289821</v>
+      </c>
+      <c r="B195" t="n">
+        <v>4.007262067101791</v>
+      </c>
+      <c r="C195" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>43.20510994518114</v>
+      </c>
+      <c r="B196" t="n">
+        <v>4.017590054818863</v>
+      </c>
+      <c r="C196" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>43.25909925394862</v>
+      </c>
+      <c r="B197" t="n">
+        <v>3.963600746051386</v>
+      </c>
+      <c r="C197" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>43.24877126623154</v>
+      </c>
+      <c r="B198" t="n">
+        <v>3.973928733768457</v>
+      </c>
+      <c r="C198" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>43.2401476618904</v>
+      </c>
+      <c r="B199" t="n">
+        <v>3.982552338109608</v>
+      </c>
+      <c r="C199" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>43.23210459956488</v>
+      </c>
+      <c r="B200" t="n">
+        <v>3.990595400435124</v>
+      </c>
+      <c r="C200" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>43.22406153723936</v>
+      </c>
+      <c r="B201" t="n">
+        <v>3.998638462760641</v>
+      </c>
+      <c r="C201" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>43.21543793289821</v>
+      </c>
+      <c r="B202" t="n">
+        <v>4.007262067101791</v>
+      </c>
+      <c r="C202" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>43.20510994518114</v>
+      </c>
+      <c r="B203" t="n">
+        <v>4.017590054818863</v>
+      </c>
+      <c r="C203" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>43</v>
+      </c>
+      <c r="B204" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>43.27654499636097</v>
+      </c>
+      <c r="B205" t="n">
+        <v>3.946155003639033</v>
+      </c>
+      <c r="C205" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>43.2662170086439</v>
+      </c>
+      <c r="B206" t="n">
+        <v>3.956482991356105</v>
+      </c>
+      <c r="C206" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>43.25759340430275</v>
+      </c>
+      <c r="B207" t="n">
+        <v>3.965106595697255</v>
+      </c>
+      <c r="C207" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>43.24955034197723</v>
+      </c>
+      <c r="B208" t="n">
+        <v>3.973149658022772</v>
+      </c>
+      <c r="C208" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>43.24150727965171</v>
+      </c>
+      <c r="B209" t="n">
+        <v>3.981192720348288</v>
+      </c>
+      <c r="C209" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>43.23288367531057</v>
+      </c>
+      <c r="B210" t="n">
+        <v>3.989816324689438</v>
+      </c>
+      <c r="C210" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>43.22255568759349</v>
+      </c>
+      <c r="B211" t="n">
+        <v>4.00014431240651</v>
+      </c>
+      <c r="C211" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>43.27654499636097</v>
+      </c>
+      <c r="B212" t="n">
+        <v>3.946155003639033</v>
+      </c>
+      <c r="C212" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>43.2662170086439</v>
+      </c>
+      <c r="B213" t="n">
+        <v>3.956482991356105</v>
+      </c>
+      <c r="C213" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>43.25759340430275</v>
+      </c>
+      <c r="B214" t="n">
+        <v>3.965106595697255</v>
+      </c>
+      <c r="C214" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>43.24955034197723</v>
+      </c>
+      <c r="B215" t="n">
+        <v>3.973149658022772</v>
+      </c>
+      <c r="C215" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>43.24150727965171</v>
+      </c>
+      <c r="B216" t="n">
+        <v>3.981192720348288</v>
+      </c>
+      <c r="C216" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>43.23288367531057</v>
+      </c>
+      <c r="B217" t="n">
+        <v>3.989816324689438</v>
+      </c>
+      <c r="C217" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>43.22255568759349</v>
+      </c>
+      <c r="B218" t="n">
+        <v>4.00014431240651</v>
+      </c>
+      <c r="C218" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>43.27654499636097</v>
+      </c>
+      <c r="B219" t="n">
+        <v>3.946155003639033</v>
+      </c>
+      <c r="C219" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>43.2662170086439</v>
+      </c>
+      <c r="B220" t="n">
+        <v>3.956482991356105</v>
+      </c>
+      <c r="C220" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>43.25759340430275</v>
+      </c>
+      <c r="B221" t="n">
+        <v>3.965106595697255</v>
+      </c>
+      <c r="C221" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>43.24955034197723</v>
+      </c>
+      <c r="B222" t="n">
+        <v>3.973149658022772</v>
+      </c>
+      <c r="C222" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>43.24150727965171</v>
+      </c>
+      <c r="B223" t="n">
+        <v>3.981192720348288</v>
+      </c>
+      <c r="C223" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>43.23288367531057</v>
+      </c>
+      <c r="B224" t="n">
+        <v>3.989816324689438</v>
+      </c>
+      <c r="C224" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>43.22255568759349</v>
+      </c>
+      <c r="B225" t="n">
+        <v>4.00014431240651</v>
+      </c>
+      <c r="C225" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>43.27654499636097</v>
+      </c>
+      <c r="B226" t="n">
+        <v>3.946155003639033</v>
+      </c>
+      <c r="C226" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>43.2662170086439</v>
+      </c>
+      <c r="B227" t="n">
+        <v>3.956482991356105</v>
+      </c>
+      <c r="C227" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>43.25759340430275</v>
+      </c>
+      <c r="B228" t="n">
+        <v>3.965106595697255</v>
+      </c>
+      <c r="C228" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>43.24955034197723</v>
+      </c>
+      <c r="B229" t="n">
+        <v>3.973149658022772</v>
+      </c>
+      <c r="C229" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>43.24150727965171</v>
+      </c>
+      <c r="B230" t="n">
+        <v>3.981192720348288</v>
+      </c>
+      <c r="C230" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>43.23288367531057</v>
+      </c>
+      <c r="B231" t="n">
+        <v>3.989816324689438</v>
+      </c>
+      <c r="C231" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>43.22255568759349</v>
+      </c>
+      <c r="B232" t="n">
+        <v>4.00014431240651</v>
+      </c>
+      <c r="C232" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>43</v>
+      </c>
+      <c r="B233" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>43.27649422784504</v>
+      </c>
+      <c r="B234" t="n">
+        <v>3.946205772154959</v>
+      </c>
+      <c r="C234" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>43.26616624012797</v>
+      </c>
+      <c r="B235" t="n">
+        <v>3.956533759872031</v>
+      </c>
+      <c r="C235" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>43.25754263578682</v>
+      </c>
+      <c r="B236" t="n">
+        <v>3.965157364213181</v>
+      </c>
+      <c r="C236" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>43.24949957346131</v>
+      </c>
+      <c r="B237" t="n">
+        <v>3.973200426538698</v>
+      </c>
+      <c r="C237" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>43.24145651113579</v>
+      </c>
+      <c r="B238" t="n">
+        <v>3.981243488864215</v>
+      </c>
+      <c r="C238" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>43.23283290679464</v>
+      </c>
+      <c r="B239" t="n">
+        <v>3.989867093205365</v>
+      </c>
+      <c r="C239" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>43.22250491907756</v>
+      </c>
+      <c r="B240" t="n">
+        <v>4.000195080922436</v>
+      </c>
+      <c r="C240" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>43.27649422784504</v>
+      </c>
+      <c r="B241" t="n">
+        <v>3.946205772154959</v>
+      </c>
+      <c r="C241" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>43.26616624012797</v>
+      </c>
+      <c r="B242" t="n">
+        <v>3.956533759872031</v>
+      </c>
+      <c r="C242" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>43.25754263578682</v>
+      </c>
+      <c r="B243" t="n">
+        <v>3.965157364213181</v>
+      </c>
+      <c r="C243" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>43.24949957346131</v>
+      </c>
+      <c r="B244" t="n">
+        <v>3.973200426538698</v>
+      </c>
+      <c r="C244" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>43.24145651113579</v>
+      </c>
+      <c r="B245" t="n">
+        <v>3.981243488864215</v>
+      </c>
+      <c r="C245" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>43.23283290679464</v>
+      </c>
+      <c r="B246" t="n">
+        <v>3.989867093205365</v>
+      </c>
+      <c r="C246" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>43.22250491907756</v>
+      </c>
+      <c r="B247" t="n">
+        <v>4.000195080922436</v>
+      </c>
+      <c r="C247" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>43.27649422784504</v>
+      </c>
+      <c r="B248" t="n">
+        <v>3.946205772154959</v>
+      </c>
+      <c r="C248" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>43.26616624012797</v>
+      </c>
+      <c r="B249" t="n">
+        <v>3.956533759872031</v>
+      </c>
+      <c r="C249" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>43.25754263578682</v>
+      </c>
+      <c r="B250" t="n">
+        <v>3.965157364213181</v>
+      </c>
+      <c r="C250" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>43.24949957346131</v>
+      </c>
+      <c r="B251" t="n">
+        <v>3.973200426538698</v>
+      </c>
+      <c r="C251" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>43.24145651113579</v>
+      </c>
+      <c r="B252" t="n">
+        <v>3.981243488864215</v>
+      </c>
+      <c r="C252" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>43.23283290679464</v>
+      </c>
+      <c r="B253" t="n">
+        <v>3.989867093205365</v>
+      </c>
+      <c r="C253" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>43.22250491907756</v>
+      </c>
+      <c r="B254" t="n">
+        <v>4.000195080922436</v>
+      </c>
+      <c r="C254" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>43.27649422784504</v>
+      </c>
+      <c r="B255" t="n">
+        <v>3.946205772154959</v>
+      </c>
+      <c r="C255" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>43.26616624012797</v>
+      </c>
+      <c r="B256" t="n">
+        <v>3.956533759872031</v>
+      </c>
+      <c r="C256" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>43.25754263578682</v>
+      </c>
+      <c r="B257" t="n">
+        <v>3.965157364213181</v>
+      </c>
+      <c r="C257" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>43.24949957346131</v>
+      </c>
+      <c r="B258" t="n">
+        <v>3.973200426538698</v>
+      </c>
+      <c r="C258" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>43.24145651113579</v>
+      </c>
+      <c r="B259" t="n">
+        <v>3.981243488864215</v>
+      </c>
+      <c r="C259" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>43.23283290679464</v>
+      </c>
+      <c r="B260" t="n">
+        <v>3.989867093205365</v>
+      </c>
+      <c r="C260" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>43.22250491907756</v>
+      </c>
+      <c r="B261" t="n">
+        <v>4.000195080922436</v>
+      </c>
+      <c r="C261" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>43</v>
+      </c>
+      <c r="B262" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>43.24735234493383</v>
+      </c>
+      <c r="B263" t="n">
+        <v>3.975347655066174</v>
+      </c>
+      <c r="C263" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>43.23702435721675</v>
+      </c>
+      <c r="B264" t="n">
+        <v>3.985675642783246</v>
+      </c>
+      <c r="C264" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>43.22840075287561</v>
+      </c>
+      <c r="B265" t="n">
+        <v>3.994299247124396</v>
+      </c>
+      <c r="C265" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>43.22035769055009</v>
+      </c>
+      <c r="B266" t="n">
+        <v>4.002342309449912</v>
+      </c>
+      <c r="C266" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>43.21231462822458</v>
+      </c>
+      <c r="B267" t="n">
+        <v>4.010385371775429</v>
+      </c>
+      <c r="C267" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>43.20369102388342</v>
+      </c>
+      <c r="B268" t="n">
+        <v>4.019008976116579</v>
+      </c>
+      <c r="C268" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>43.19336303616635</v>
+      </c>
+      <c r="B269" t="n">
+        <v>4.029336963833651</v>
+      </c>
+      <c r="C269" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>43.24735234493383</v>
+      </c>
+      <c r="B270" t="n">
+        <v>3.975347655066174</v>
+      </c>
+      <c r="C270" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>43.23702435721675</v>
+      </c>
+      <c r="B271" t="n">
+        <v>3.985675642783246</v>
+      </c>
+      <c r="C271" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>43.22840075287561</v>
+      </c>
+      <c r="B272" t="n">
+        <v>3.994299247124396</v>
+      </c>
+      <c r="C272" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>43.22035769055009</v>
+      </c>
+      <c r="B273" t="n">
+        <v>4.002342309449912</v>
+      </c>
+      <c r="C273" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>43.21231462822458</v>
+      </c>
+      <c r="B274" t="n">
+        <v>4.010385371775429</v>
+      </c>
+      <c r="C274" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>43.20369102388342</v>
+      </c>
+      <c r="B275" t="n">
+        <v>4.019008976116579</v>
+      </c>
+      <c r="C275" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>43.19336303616635</v>
+      </c>
+      <c r="B276" t="n">
+        <v>4.029336963833651</v>
+      </c>
+      <c r="C276" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>43.24735234493383</v>
+      </c>
+      <c r="B277" t="n">
+        <v>3.975347655066174</v>
+      </c>
+      <c r="C277" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>43.23702435721675</v>
+      </c>
+      <c r="B278" t="n">
+        <v>3.985675642783246</v>
+      </c>
+      <c r="C278" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>43.22840075287561</v>
+      </c>
+      <c r="B279" t="n">
+        <v>3.994299247124396</v>
+      </c>
+      <c r="C279" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>43.22035769055009</v>
+      </c>
+      <c r="B280" t="n">
+        <v>4.002342309449912</v>
+      </c>
+      <c r="C280" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>43.21231462822458</v>
+      </c>
+      <c r="B281" t="n">
+        <v>4.010385371775429</v>
+      </c>
+      <c r="C281" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>43.20369102388342</v>
+      </c>
+      <c r="B282" t="n">
+        <v>4.019008976116579</v>
+      </c>
+      <c r="C282" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>43.19336303616635</v>
+      </c>
+      <c r="B283" t="n">
+        <v>4.029336963833651</v>
+      </c>
+      <c r="C283" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>43.24735234493383</v>
+      </c>
+      <c r="B284" t="n">
+        <v>3.975347655066174</v>
+      </c>
+      <c r="C284" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>43.23702435721675</v>
+      </c>
+      <c r="B285" t="n">
+        <v>3.985675642783246</v>
+      </c>
+      <c r="C285" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>43.22840075287561</v>
+      </c>
+      <c r="B286" t="n">
+        <v>3.994299247124396</v>
+      </c>
+      <c r="C286" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>43.22035769055009</v>
+      </c>
+      <c r="B287" t="n">
+        <v>4.002342309449912</v>
+      </c>
+      <c r="C287" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>43.21231462822458</v>
+      </c>
+      <c r="B288" t="n">
+        <v>4.010385371775429</v>
+      </c>
+      <c r="C288" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>43.20369102388342</v>
+      </c>
+      <c r="B289" t="n">
+        <v>4.019008976116579</v>
+      </c>
+      <c r="C289" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>43.19336303616635</v>
+      </c>
+      <c r="B290" t="n">
+        <v>4.029336963833651</v>
+      </c>
+      <c r="C290" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>43</v>
+      </c>
+      <c r="B291" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>43.25905094319381</v>
+      </c>
+      <c r="B292" t="n">
+        <v>3.963649056806199</v>
+      </c>
+      <c r="C292" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>43.24872295547673</v>
+      </c>
+      <c r="B293" t="n">
+        <v>3.973977044523271</v>
+      </c>
+      <c r="C293" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>43.24009935113558</v>
+      </c>
+      <c r="B294" t="n">
+        <v>3.982600648864421</v>
+      </c>
+      <c r="C294" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>43.23205628881006</v>
+      </c>
+      <c r="B295" t="n">
+        <v>3.990643711189938</v>
+      </c>
+      <c r="C295" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>43.22401322648455</v>
+      </c>
+      <c r="B296" t="n">
+        <v>3.998686773515455</v>
+      </c>
+      <c r="C296" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>43.2153896221434</v>
+      </c>
+      <c r="B297" t="n">
+        <v>4.007310377856605</v>
+      </c>
+      <c r="C297" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>43.20506163442633</v>
+      </c>
+      <c r="B298" t="n">
+        <v>4.017638365573676</v>
+      </c>
+      <c r="C298" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>43.25905094319381</v>
+      </c>
+      <c r="B299" t="n">
+        <v>3.963649056806199</v>
+      </c>
+      <c r="C299" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>43.24872295547673</v>
+      </c>
+      <c r="B300" t="n">
+        <v>3.973977044523271</v>
+      </c>
+      <c r="C300" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>43.24009935113558</v>
+      </c>
+      <c r="B301" t="n">
+        <v>3.982600648864421</v>
+      </c>
+      <c r="C301" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>43.23205628881006</v>
+      </c>
+      <c r="B302" t="n">
+        <v>3.990643711189938</v>
+      </c>
+      <c r="C302" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>43.22401322648455</v>
+      </c>
+      <c r="B303" t="n">
+        <v>3.998686773515455</v>
+      </c>
+      <c r="C303" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>43.2153896221434</v>
+      </c>
+      <c r="B304" t="n">
+        <v>4.007310377856605</v>
+      </c>
+      <c r="C304" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>43.20506163442633</v>
+      </c>
+      <c r="B305" t="n">
+        <v>4.017638365573676</v>
+      </c>
+      <c r="C305" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>43.25905094319381</v>
+      </c>
+      <c r="B306" t="n">
+        <v>3.963649056806199</v>
+      </c>
+      <c r="C306" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>43.24872295547673</v>
+      </c>
+      <c r="B307" t="n">
+        <v>3.973977044523271</v>
+      </c>
+      <c r="C307" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>43.24009935113558</v>
+      </c>
+      <c r="B308" t="n">
+        <v>3.982600648864421</v>
+      </c>
+      <c r="C308" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>43.23205628881006</v>
+      </c>
+      <c r="B309" t="n">
+        <v>3.990643711189938</v>
+      </c>
+      <c r="C309" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>43.22401322648455</v>
+      </c>
+      <c r="B310" t="n">
+        <v>3.998686773515455</v>
+      </c>
+      <c r="C310" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>43.2153896221434</v>
+      </c>
+      <c r="B311" t="n">
+        <v>4.007310377856605</v>
+      </c>
+      <c r="C311" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>43.20506163442633</v>
+      </c>
+      <c r="B312" t="n">
+        <v>4.017638365573676</v>
+      </c>
+      <c r="C312" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>43.25905094319381</v>
+      </c>
+      <c r="B313" t="n">
+        <v>3.963649056806199</v>
+      </c>
+      <c r="C313" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>43.24872295547673</v>
+      </c>
+      <c r="B314" t="n">
+        <v>3.973977044523271</v>
+      </c>
+      <c r="C314" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E314" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>43.24009935113558</v>
+      </c>
+      <c r="B315" t="n">
+        <v>3.982600648864421</v>
+      </c>
+      <c r="C315" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E315" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>43.23205628881006</v>
+      </c>
+      <c r="B316" t="n">
+        <v>3.990643711189938</v>
+      </c>
+      <c r="C316" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E316" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>43.22401322648455</v>
+      </c>
+      <c r="B317" t="n">
+        <v>3.998686773515455</v>
+      </c>
+      <c r="C317" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>43.2153896221434</v>
+      </c>
+      <c r="B318" t="n">
+        <v>4.007310377856605</v>
+      </c>
+      <c r="C318" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>43.20506163442633</v>
+      </c>
+      <c r="B319" t="n">
+        <v>4.017638365573676</v>
+      </c>
+      <c r="C319" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>43</v>
+      </c>
+      <c r="B320" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>

--- a/phase_shift_scanlist.xlsx
+++ b/phase_shift_scanlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E320"/>
+  <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,2478 +434,2468 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>freq</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>det</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>vva</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>chargetime</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>43.27647931584137</v>
+        <v>43</v>
       </c>
       <c r="B2" t="n">
-        <v>3.94622068415863</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C2" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E2" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>43.2661513281243</v>
+        <v>43.21102123</v>
       </c>
       <c r="B3" t="n">
-        <v>3.956548671875701</v>
+        <v>4.01167877</v>
       </c>
       <c r="C3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E3" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>43.25752772378315</v>
+        <v>43.21102123</v>
       </c>
       <c r="B4" t="n">
-        <v>3.965172276216852</v>
+        <v>4.01167877</v>
       </c>
       <c r="C4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>43.24948466145764</v>
+        <v>43</v>
       </c>
       <c r="B5" t="n">
-        <v>3.973215338542368</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C5" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E5" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>43.24144159913212</v>
+        <v>43.21102123</v>
       </c>
       <c r="B6" t="n">
-        <v>3.981258400867885</v>
+        <v>4.01167877</v>
       </c>
       <c r="C6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>43.23281799479097</v>
+        <v>43</v>
       </c>
       <c r="B7" t="n">
-        <v>3.989882005209035</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C7" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E7" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>43.22249000707389</v>
+        <v>43.21102123</v>
       </c>
       <c r="B8" t="n">
-        <v>4.000209992926107</v>
+        <v>4.01167877</v>
       </c>
       <c r="C8" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E8" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>43.27647931584137</v>
+        <v>43.21102123</v>
       </c>
       <c r="B9" t="n">
-        <v>3.94622068415863</v>
+        <v>4.01167877</v>
       </c>
       <c r="C9" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E9" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>43.2661513281243</v>
+        <v>43</v>
       </c>
       <c r="B10" t="n">
-        <v>3.956548671875701</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C10" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E10" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43.25752772378315</v>
+        <v>43.21102123</v>
       </c>
       <c r="B11" t="n">
-        <v>3.965172276216852</v>
+        <v>4.01167877</v>
       </c>
       <c r="C11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E11" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43.24948466145764</v>
+        <v>43.21102123</v>
       </c>
       <c r="B12" t="n">
-        <v>3.973215338542368</v>
+        <v>4.01167877</v>
       </c>
       <c r="C12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E12" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43.24144159913212</v>
+        <v>43.21102123</v>
       </c>
       <c r="B13" t="n">
-        <v>3.981258400867885</v>
+        <v>4.01167877</v>
       </c>
       <c r="C13" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E13" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43.23281799479097</v>
+        <v>43.21102123</v>
       </c>
       <c r="B14" t="n">
-        <v>3.989882005209035</v>
+        <v>4.01167877</v>
       </c>
       <c r="C14" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E14" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43.22249000707389</v>
+        <v>43.21102123</v>
       </c>
       <c r="B15" t="n">
-        <v>4.000209992926107</v>
+        <v>4.01167877</v>
       </c>
       <c r="C15" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E15" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43.27647931584137</v>
+        <v>43.21102123</v>
       </c>
       <c r="B16" t="n">
-        <v>3.94622068415863</v>
+        <v>4.01167877</v>
       </c>
       <c r="C16" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E16" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43.2661513281243</v>
+        <v>43.21102123</v>
       </c>
       <c r="B17" t="n">
-        <v>3.956548671875701</v>
+        <v>4.01167877</v>
       </c>
       <c r="C17" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E17" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43.25752772378315</v>
+        <v>43</v>
       </c>
       <c r="B18" t="n">
-        <v>3.965172276216852</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C18" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E18" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43.24948466145764</v>
+        <v>43.21102123</v>
       </c>
       <c r="B19" t="n">
-        <v>3.973215338542368</v>
+        <v>4.01167877</v>
       </c>
       <c r="C19" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E19" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43.24144159913212</v>
+        <v>43.21102123</v>
       </c>
       <c r="B20" t="n">
-        <v>3.981258400867885</v>
+        <v>4.01167877</v>
       </c>
       <c r="C20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E20" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43.23281799479097</v>
+        <v>43.21102123</v>
       </c>
       <c r="B21" t="n">
-        <v>3.989882005209035</v>
+        <v>4.01167877</v>
       </c>
       <c r="C21" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E21" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43.22249000707389</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B22" t="n">
-        <v>4.000209992926107</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C22" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E22" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43.27647931584137</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B23" t="n">
-        <v>3.94622068415863</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C23" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E23" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43.2661513281243</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B24" t="n">
-        <v>3.956548671875701</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C24" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E24" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43.25752772378315</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B25" t="n">
-        <v>3.965172276216852</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C25" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E25" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>43.24948466145764</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B26" t="n">
-        <v>3.973215338542368</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C26" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E26" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43.24144159913212</v>
+        <v>43</v>
       </c>
       <c r="B27" t="n">
-        <v>3.981258400867885</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C27" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E27" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43.23281799479097</v>
+        <v>43</v>
       </c>
       <c r="B28" t="n">
-        <v>3.989882005209035</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C28" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E28" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43.22249000707389</v>
+        <v>43</v>
       </c>
       <c r="B29" t="n">
-        <v>4.000209992926107</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C29" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E29" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B30" t="n">
-        <v>4.222700000000003</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E30" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43.24536823642799</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B31" t="n">
-        <v>3.97733176357202</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C31" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="E31" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43.23504024871091</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B32" t="n">
-        <v>3.987659751289092</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C32" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="E32" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>43.22641664436976</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B33" t="n">
-        <v>3.996283355630242</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C33" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="E33" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43.21837358204424</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B34" t="n">
-        <v>4.004326417955759</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C34" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="E34" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43.21033051971872</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B35" t="n">
-        <v>4.012369480281276</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C35" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="E35" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43.20170691537758</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B36" t="n">
-        <v>4.020993084622425</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C36" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="E36" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>43.19137892766051</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B37" t="n">
-        <v>4.031321072339497</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C37" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="E37" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43.24536823642799</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B38" t="n">
-        <v>3.97733176357202</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C38" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="E38" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43.23504024871091</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B39" t="n">
-        <v>3.987659751289092</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C39" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="E39" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>43.22641664436976</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n">
-        <v>3.996283355630242</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C40" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="E40" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43.21837358204424</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n">
-        <v>4.004326417955759</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C41" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="E41" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43.21033051971872</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B42" t="n">
-        <v>4.012369480281276</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C42" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43.20170691537758</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B43" t="n">
-        <v>4.020993084622425</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C43" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43.19137892766051</v>
+        <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>4.031321072339497</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C44" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43.24536823642799</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B45" t="n">
-        <v>3.97733176357202</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C45" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43.23504024871091</v>
+        <v>43</v>
       </c>
       <c r="B46" t="n">
-        <v>3.987659751289092</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C46" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43.22641664436976</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B47" t="n">
-        <v>3.996283355630242</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C47" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43.21837358204424</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B48" t="n">
-        <v>4.004326417955759</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C48" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43.21033051971872</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B49" t="n">
-        <v>4.012369480281276</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C49" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43.20170691537758</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B50" t="n">
-        <v>4.020993084622425</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C50" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43.19137892766051</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B51" t="n">
-        <v>4.031321072339497</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C51" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43.24536823642799</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B52" t="n">
-        <v>3.97733176357202</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C52" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43.23504024871091</v>
+        <v>43</v>
       </c>
       <c r="B53" t="n">
-        <v>3.987659751289092</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C53" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43.22641664436976</v>
+        <v>43</v>
       </c>
       <c r="B54" t="n">
-        <v>3.996283355630242</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C54" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>43.21837358204424</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B55" t="n">
-        <v>4.004326417955759</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C55" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43.21033051971872</v>
+        <v>43</v>
       </c>
       <c r="B56" t="n">
-        <v>4.012369480281276</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C56" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43.20170691537758</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B57" t="n">
-        <v>4.020993084622425</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C57" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>43.19137892766051</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B58" t="n">
-        <v>4.031321072339497</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C58" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>43</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B59" t="n">
-        <v>4.222700000000003</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43.25915316698153</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B60" t="n">
-        <v>3.963546833018469</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C60" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>0.58</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>0.38</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>43.24882517926446</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B61" t="n">
-        <v>3.973874820735541</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C61" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>0.58</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>0.38</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>43.24020157492331</v>
+        <v>43.21116376755042</v>
       </c>
       <c r="B62" t="n">
-        <v>3.982498425076691</v>
+        <v>4.011536232449584</v>
       </c>
       <c r="C62" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>0.58</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43.2321585125978</v>
+        <v>43</v>
       </c>
       <c r="B63" t="n">
-        <v>3.990541487402207</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C63" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.58</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43.22411545027228</v>
+        <v>43.21116376755042</v>
       </c>
       <c r="B64" t="n">
-        <v>3.998584549727724</v>
+        <v>4.011536232449584</v>
       </c>
       <c r="C64" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>0.58</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>43.21549184593113</v>
+        <v>43.21116376755042</v>
       </c>
       <c r="B65" t="n">
-        <v>4.007208154068874</v>
+        <v>4.011536232449584</v>
       </c>
       <c r="C65" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>0.58</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>43.20516385821406</v>
+        <v>43.21116376755042</v>
       </c>
       <c r="B66" t="n">
-        <v>4.017536141785945</v>
+        <v>4.011536232449584</v>
       </c>
       <c r="C66" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>0.58</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>43.25915316698153</v>
+        <v>43.21116376755042</v>
       </c>
       <c r="B67" t="n">
-        <v>3.963546833018469</v>
+        <v>4.011536232449584</v>
       </c>
       <c r="C67" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>0.58</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>43.24882517926446</v>
+        <v>43.21116376755042</v>
       </c>
       <c r="B68" t="n">
-        <v>3.973874820735541</v>
+        <v>4.011536232449584</v>
       </c>
       <c r="C68" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>0.58</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>43.24020157492331</v>
+        <v>43.21116376755042</v>
       </c>
       <c r="B69" t="n">
-        <v>3.982498425076691</v>
+        <v>4.011536232449584</v>
       </c>
       <c r="C69" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>0.58</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>43.2321585125978</v>
+        <v>43</v>
       </c>
       <c r="B70" t="n">
-        <v>3.990541487402207</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C70" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.58</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>43.22411545027228</v>
+        <v>43</v>
       </c>
       <c r="B71" t="n">
-        <v>3.998584549727724</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C71" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0.58</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>43.21549184593113</v>
+        <v>43.21116376755042</v>
       </c>
       <c r="B72" t="n">
-        <v>4.007208154068874</v>
+        <v>4.011536232449584</v>
       </c>
       <c r="C72" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>0.58</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>43.20516385821406</v>
+        <v>43</v>
       </c>
       <c r="B73" t="n">
-        <v>4.017536141785945</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C73" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0.58</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>43.25915316698153</v>
+        <v>43.21116376755042</v>
       </c>
       <c r="B74" t="n">
-        <v>3.963546833018469</v>
+        <v>4.011536232449584</v>
       </c>
       <c r="C74" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>0.58</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>43.24882517926446</v>
+        <v>43.21116376755042</v>
       </c>
       <c r="B75" t="n">
-        <v>3.973874820735541</v>
+        <v>4.011536232449584</v>
       </c>
       <c r="C75" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>0.58</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>43.24020157492331</v>
+        <v>43.21116376755042</v>
       </c>
       <c r="B76" t="n">
-        <v>3.982498425076691</v>
+        <v>4.011536232449584</v>
       </c>
       <c r="C76" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>0.58</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>43.2321585125978</v>
+        <v>43</v>
       </c>
       <c r="B77" t="n">
-        <v>3.990541487402207</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C77" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0.58</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43.22411545027228</v>
+        <v>43.21116376755042</v>
       </c>
       <c r="B78" t="n">
-        <v>3.998584549727724</v>
+        <v>4.011536232449584</v>
       </c>
       <c r="C78" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>0.58</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>43.21549184593113</v>
+        <v>43.21116376755042</v>
       </c>
       <c r="B79" t="n">
-        <v>4.007208154068874</v>
+        <v>4.011536232449584</v>
       </c>
       <c r="C79" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>0.58</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>43.20516385821406</v>
+        <v>43.21116376755042</v>
       </c>
       <c r="B80" t="n">
-        <v>4.017536141785945</v>
+        <v>4.011536232449584</v>
       </c>
       <c r="C80" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>0.58</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43.25915316698153</v>
+        <v>43.21116376755042</v>
       </c>
       <c r="B81" t="n">
-        <v>3.963546833018469</v>
+        <v>4.011536232449584</v>
       </c>
       <c r="C81" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>0.58</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>43.24882517926446</v>
+        <v>43</v>
       </c>
       <c r="B82" t="n">
-        <v>3.973874820735541</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C82" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0.58</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>43.24020157492331</v>
+        <v>43</v>
       </c>
       <c r="B83" t="n">
-        <v>3.982498425076691</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C83" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0.58</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E83" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>43.2321585125978</v>
+        <v>43.23548160939877</v>
       </c>
       <c r="B84" t="n">
-        <v>3.990541487402207</v>
+        <v>3.987218390601238</v>
       </c>
       <c r="C84" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>0.58</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>43.22411545027228</v>
+        <v>43.23548160939877</v>
       </c>
       <c r="B85" t="n">
-        <v>3.998584549727724</v>
+        <v>3.987218390601238</v>
       </c>
       <c r="C85" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>0.58</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>43.21549184593113</v>
+        <v>43</v>
       </c>
       <c r="B86" t="n">
-        <v>4.007208154068874</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C86" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0.58</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>43.20516385821406</v>
+        <v>43.23548160939877</v>
       </c>
       <c r="B87" t="n">
-        <v>4.017536141785945</v>
+        <v>3.987218390601238</v>
       </c>
       <c r="C87" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>0.58</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>43</v>
+        <v>43.23548160939877</v>
       </c>
       <c r="B88" t="n">
-        <v>4.222700000000003</v>
+        <v>3.987218390601238</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>0.58</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>43.27655634615588</v>
+        <v>43.23548160939877</v>
       </c>
       <c r="B89" t="n">
-        <v>3.946143653844127</v>
+        <v>3.987218390601238</v>
       </c>
       <c r="C89" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>0.54</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>43.2662283584388</v>
+        <v>43.23548160939877</v>
       </c>
       <c r="B90" t="n">
-        <v>3.956471641561198</v>
+        <v>3.987218390601238</v>
       </c>
       <c r="C90" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>0.54</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E90" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>43.25760475409766</v>
+        <v>43.23548160939877</v>
       </c>
       <c r="B91" t="n">
-        <v>3.965095245902349</v>
+        <v>3.987218390601238</v>
       </c>
       <c r="C91" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>0.54</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>43.24956169177214</v>
+        <v>43.23548160939877</v>
       </c>
       <c r="B92" t="n">
-        <v>3.973138308227865</v>
+        <v>3.987218390601238</v>
       </c>
       <c r="C92" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>0.54</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>43.24151862944662</v>
+        <v>43</v>
       </c>
       <c r="B93" t="n">
-        <v>3.981181370553382</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C93" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.54</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E93" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>43.23289502510547</v>
+        <v>43</v>
       </c>
       <c r="B94" t="n">
-        <v>3.989804974894532</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C94" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0.54</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>43.2225670373884</v>
+        <v>43.23548160939877</v>
       </c>
       <c r="B95" t="n">
-        <v>4.000132962611604</v>
+        <v>3.987218390601238</v>
       </c>
       <c r="C95" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>0.54</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>43.27655634615588</v>
+        <v>43.23548160939877</v>
       </c>
       <c r="B96" t="n">
-        <v>3.946143653844127</v>
+        <v>3.987218390601238</v>
       </c>
       <c r="C96" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>0.54</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>43.2662283584388</v>
+        <v>43.23548160939877</v>
       </c>
       <c r="B97" t="n">
-        <v>3.956471641561198</v>
+        <v>3.987218390601238</v>
       </c>
       <c r="C97" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>0.54</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>43.25760475409766</v>
+        <v>43.23548160939877</v>
       </c>
       <c r="B98" t="n">
-        <v>3.965095245902349</v>
+        <v>3.987218390601238</v>
       </c>
       <c r="C98" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>0.54</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>43.24956169177214</v>
+        <v>43.23548160939877</v>
       </c>
       <c r="B99" t="n">
-        <v>3.973138308227865</v>
+        <v>3.987218390601238</v>
       </c>
       <c r="C99" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>0.54</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E99" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>43.24151862944662</v>
+        <v>43.23548160939877</v>
       </c>
       <c r="B100" t="n">
-        <v>3.981181370553382</v>
+        <v>3.987218390601238</v>
       </c>
       <c r="C100" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>0.54</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>43.23289502510547</v>
+        <v>43.23548160939877</v>
       </c>
       <c r="B101" t="n">
-        <v>3.989804974894532</v>
+        <v>3.987218390601238</v>
       </c>
       <c r="C101" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>0.54</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>43.2225670373884</v>
+        <v>43.26040325</v>
       </c>
       <c r="B102" t="n">
-        <v>4.000132962611604</v>
+        <v>3.96229675</v>
       </c>
       <c r="C102" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D102" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E102" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>43.27655634615588</v>
+        <v>43.26040325</v>
       </c>
       <c r="B103" t="n">
-        <v>3.946143653844127</v>
+        <v>3.96229675</v>
       </c>
       <c r="C103" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D103" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E103" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>43.2662283584388</v>
+        <v>43.26040325</v>
       </c>
       <c r="B104" t="n">
-        <v>3.956471641561198</v>
+        <v>3.96229675</v>
       </c>
       <c r="C104" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D104" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E104" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>43.25760475409766</v>
+        <v>43</v>
       </c>
       <c r="B105" t="n">
-        <v>3.965095245902349</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C105" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E105" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>43.24956169177214</v>
+        <v>43</v>
       </c>
       <c r="B106" t="n">
-        <v>3.973138308227865</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C106" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E106" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>43.24151862944662</v>
+        <v>43.26040325</v>
       </c>
       <c r="B107" t="n">
-        <v>3.981181370553382</v>
+        <v>3.96229675</v>
       </c>
       <c r="C107" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D107" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E107" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>43.23289502510547</v>
+        <v>43.26040325</v>
       </c>
       <c r="B108" t="n">
-        <v>3.989804974894532</v>
+        <v>3.96229675</v>
       </c>
       <c r="C108" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D108" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E108" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>43.2225670373884</v>
+        <v>43</v>
       </c>
       <c r="B109" t="n">
-        <v>4.000132962611604</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C109" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E109" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>43.27655634615588</v>
+        <v>43.26040325</v>
       </c>
       <c r="B110" t="n">
-        <v>3.946143653844127</v>
+        <v>3.96229675</v>
       </c>
       <c r="C110" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D110" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E110" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>43.2662283584388</v>
+        <v>43.26040325</v>
       </c>
       <c r="B111" t="n">
-        <v>3.956471641561198</v>
+        <v>3.96229675</v>
       </c>
       <c r="C111" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D111" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E111" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>43.25760475409766</v>
+        <v>43</v>
       </c>
       <c r="B112" t="n">
-        <v>3.965095245902349</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C112" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E112" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>43.24956169177214</v>
+        <v>43.26040325</v>
       </c>
       <c r="B113" t="n">
-        <v>3.973138308227865</v>
+        <v>3.96229675</v>
       </c>
       <c r="C113" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D113" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E113" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>43.24151862944662</v>
+        <v>43.26040325</v>
       </c>
       <c r="B114" t="n">
-        <v>3.981181370553382</v>
+        <v>3.96229675</v>
       </c>
       <c r="C114" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D114" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E114" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>43.23289502510547</v>
+        <v>43.26040325</v>
       </c>
       <c r="B115" t="n">
-        <v>3.989804974894532</v>
+        <v>3.96229675</v>
       </c>
       <c r="C115" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D115" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E115" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>43.2225670373884</v>
+        <v>43</v>
       </c>
       <c r="B116" t="n">
-        <v>4.000132962611604</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C116" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E116" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>43</v>
+        <v>43.26040325</v>
       </c>
       <c r="B117" t="n">
-        <v>4.222700000000003</v>
+        <v>3.96229675</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D117" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E117" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>43.27646356699382</v>
+        <v>43.26040325</v>
       </c>
       <c r="B118" t="n">
-        <v>3.946236433006185</v>
+        <v>3.96229675</v>
       </c>
       <c r="C118" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E118" t="n">
-        <v>0.46</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>43.26613557927675</v>
+        <v>43.26040325</v>
       </c>
       <c r="B119" t="n">
-        <v>3.956564420723257</v>
+        <v>3.96229675</v>
       </c>
       <c r="C119" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E119" t="n">
-        <v>0.46</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>43.2575119749356</v>
+        <v>43.26040325</v>
       </c>
       <c r="B120" t="n">
-        <v>3.965188025064407</v>
+        <v>3.96229675</v>
       </c>
       <c r="C120" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E120" t="n">
-        <v>0.46</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>43.24946891261008</v>
+        <v>43.26040325</v>
       </c>
       <c r="B121" t="n">
-        <v>3.973231087389924</v>
+        <v>3.96229675</v>
       </c>
       <c r="C121" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E121" t="n">
-        <v>0.46</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>43.24142585028456</v>
+        <v>43.22068298720468</v>
       </c>
       <c r="B122" t="n">
-        <v>3.98127414971544</v>
+        <v>4.002017012795326</v>
       </c>
       <c r="C122" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="E122" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>43.23280224594341</v>
+        <v>43</v>
       </c>
       <c r="B123" t="n">
-        <v>3.989897754056591</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C123" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="E123" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>43.22247425822634</v>
+        <v>43.22068298720468</v>
       </c>
       <c r="B124" t="n">
-        <v>4.000225741773662</v>
+        <v>4.002017012795326</v>
       </c>
       <c r="C124" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D124" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="E124" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>43.27646356699382</v>
+        <v>43.22068298720468</v>
       </c>
       <c r="B125" t="n">
-        <v>3.946236433006185</v>
+        <v>4.002017012795326</v>
       </c>
       <c r="C125" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="E125" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>43.26613557927675</v>
+        <v>43</v>
       </c>
       <c r="B126" t="n">
-        <v>3.956564420723257</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C126" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="E126" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>43.2575119749356</v>
+        <v>43</v>
       </c>
       <c r="B127" t="n">
-        <v>3.965188025064407</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C127" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="E127" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>43.24946891261008</v>
+        <v>43</v>
       </c>
       <c r="B128" t="n">
-        <v>3.973231087389924</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C128" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="E128" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>43.24142585028456</v>
+        <v>43.22068298720468</v>
       </c>
       <c r="B129" t="n">
-        <v>3.98127414971544</v>
+        <v>4.002017012795326</v>
       </c>
       <c r="C129" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="E129" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>43.23280224594341</v>
+        <v>43.22068298720468</v>
       </c>
       <c r="B130" t="n">
-        <v>3.989897754056591</v>
+        <v>4.002017012795326</v>
       </c>
       <c r="C130" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="E130" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>43.22247425822634</v>
+        <v>43.22068298720468</v>
       </c>
       <c r="B131" t="n">
-        <v>4.000225741773662</v>
+        <v>4.002017012795326</v>
       </c>
       <c r="C131" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="E131" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>43.27646356699382</v>
+        <v>43.22068298720468</v>
       </c>
       <c r="B132" t="n">
-        <v>3.946236433006185</v>
+        <v>4.002017012795326</v>
       </c>
       <c r="C132" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="E132" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>43.26613557927675</v>
+        <v>43.22068298720468</v>
       </c>
       <c r="B133" t="n">
-        <v>3.956564420723257</v>
+        <v>4.002017012795326</v>
       </c>
       <c r="C133" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="E133" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>43.2575119749356</v>
+        <v>43.22068298720468</v>
       </c>
       <c r="B134" t="n">
-        <v>3.965188025064407</v>
+        <v>4.002017012795326</v>
       </c>
       <c r="C134" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="E134" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>43.24946891261008</v>
+        <v>43.22068298720468</v>
       </c>
       <c r="B135" t="n">
-        <v>3.973231087389924</v>
+        <v>4.002017012795326</v>
       </c>
       <c r="C135" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D135" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="E135" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>43.24142585028456</v>
+        <v>43.22068298720468</v>
       </c>
       <c r="B136" t="n">
-        <v>3.98127414971544</v>
+        <v>4.002017012795326</v>
       </c>
       <c r="C136" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="E136" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>43.23280224594341</v>
+        <v>43.22068298720468</v>
       </c>
       <c r="B137" t="n">
-        <v>3.989897754056591</v>
+        <v>4.002017012795326</v>
       </c>
       <c r="C137" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D137" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="E137" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>43.22247425822634</v>
+        <v>43</v>
       </c>
       <c r="B138" t="n">
-        <v>4.000225741773662</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C138" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="E138" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>43.27646356699382</v>
+        <v>43.22068298720468</v>
       </c>
       <c r="B139" t="n">
-        <v>3.946236433006185</v>
+        <v>4.002017012795326</v>
       </c>
       <c r="C139" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D139" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="E139" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>43.26613557927675</v>
+        <v>43.22068298720468</v>
       </c>
       <c r="B140" t="n">
-        <v>3.956564420723257</v>
+        <v>4.002017012795326</v>
       </c>
       <c r="C140" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="E140" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>43.2575119749356</v>
+        <v>43.22068298720468</v>
       </c>
       <c r="B141" t="n">
-        <v>3.965188025064407</v>
+        <v>4.002017012795326</v>
       </c>
       <c r="C141" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="E141" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>43.24946891261008</v>
+        <v>43.22030981905303</v>
       </c>
       <c r="B142" t="n">
-        <v>3.973231087389924</v>
+        <v>4.002390180946971</v>
       </c>
       <c r="C142" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D142" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="E142" t="n">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>43.24142585028456</v>
+        <v>43</v>
       </c>
       <c r="B143" t="n">
-        <v>3.98127414971544</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C143" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="E143" t="n">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>43.23280224594341</v>
+        <v>43.22030981905303</v>
       </c>
       <c r="B144" t="n">
-        <v>3.989897754056591</v>
+        <v>4.002390180946971</v>
       </c>
       <c r="C144" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D144" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="E144" t="n">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>43.22247425822634</v>
+        <v>43.22030981905303</v>
       </c>
       <c r="B145" t="n">
-        <v>4.000225741773662</v>
+        <v>4.002390180946971</v>
       </c>
       <c r="C145" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D145" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="E145" t="n">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="146">
@@ -2919,2968 +2909,1965 @@
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="E146" t="n">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>43.24601317621266</v>
+        <v>43.22030981905303</v>
       </c>
       <c r="B147" t="n">
-        <v>3.976686823787341</v>
+        <v>4.002390180946971</v>
       </c>
       <c r="C147" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D147" t="n">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="E147" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>43.23568518849559</v>
+        <v>43.22030981905303</v>
       </c>
       <c r="B148" t="n">
-        <v>3.987014811504412</v>
+        <v>4.002390180946971</v>
       </c>
       <c r="C148" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D148" t="n">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="E148" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>43.22706158415444</v>
+        <v>43</v>
       </c>
       <c r="B149" t="n">
-        <v>3.995638415845562</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C149" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="E149" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>43.21901852182892</v>
+        <v>43.22030981905303</v>
       </c>
       <c r="B150" t="n">
-        <v>4.003681478171079</v>
+        <v>4.002390180946971</v>
       </c>
       <c r="C150" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D150" t="n">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="E150" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>43.21097545950341</v>
+        <v>43.22030981905303</v>
       </c>
       <c r="B151" t="n">
-        <v>4.011724540496596</v>
+        <v>4.002390180946971</v>
       </c>
       <c r="C151" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D151" t="n">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="E151" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>43.20235185516226</v>
+        <v>43</v>
       </c>
       <c r="B152" t="n">
-        <v>4.020348144837746</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C152" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="E152" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>43.19202386744519</v>
+        <v>43.22030981905303</v>
       </c>
       <c r="B153" t="n">
-        <v>4.030676132554817</v>
+        <v>4.002390180946971</v>
       </c>
       <c r="C153" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D153" t="n">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="E153" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>43.24601317621266</v>
+        <v>43.22030981905303</v>
       </c>
       <c r="B154" t="n">
-        <v>3.976686823787341</v>
+        <v>4.002390180946971</v>
       </c>
       <c r="C154" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D154" t="n">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="E154" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>43.23568518849559</v>
+        <v>43</v>
       </c>
       <c r="B155" t="n">
-        <v>3.987014811504412</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C155" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="E155" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>43.22706158415444</v>
+        <v>43.22030981905303</v>
       </c>
       <c r="B156" t="n">
-        <v>3.995638415845562</v>
+        <v>4.002390180946971</v>
       </c>
       <c r="C156" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D156" t="n">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="E156" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>43.21901852182892</v>
+        <v>43.22030981905303</v>
       </c>
       <c r="B157" t="n">
-        <v>4.003681478171079</v>
+        <v>4.002390180946971</v>
       </c>
       <c r="C157" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D157" t="n">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="E157" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>43.21097545950341</v>
+        <v>43.22030981905303</v>
       </c>
       <c r="B158" t="n">
-        <v>4.011724540496596</v>
+        <v>4.002390180946971</v>
       </c>
       <c r="C158" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D158" t="n">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="E158" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>43.20235185516226</v>
+        <v>43.22030981905303</v>
       </c>
       <c r="B159" t="n">
-        <v>4.020348144837746</v>
+        <v>4.002390180946971</v>
       </c>
       <c r="C159" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D159" t="n">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="E159" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>43.19202386744519</v>
+        <v>43.22030981905303</v>
       </c>
       <c r="B160" t="n">
-        <v>4.030676132554817</v>
+        <v>4.002390180946971</v>
       </c>
       <c r="C160" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D160" t="n">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="E160" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>43.24601317621266</v>
+        <v>43.22030981905303</v>
       </c>
       <c r="B161" t="n">
-        <v>3.976686823787341</v>
+        <v>4.002390180946971</v>
       </c>
       <c r="C161" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D161" t="n">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="E161" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>43.23568518849559</v>
+        <v>43.26026071244959</v>
       </c>
       <c r="B162" t="n">
-        <v>3.987014811504412</v>
+        <v>3.962439287550415</v>
       </c>
       <c r="C162" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D162" t="n">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="E162" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>43.22706158415444</v>
+        <v>43.26026071244959</v>
       </c>
       <c r="B163" t="n">
-        <v>3.995638415845562</v>
+        <v>3.962439287550415</v>
       </c>
       <c r="C163" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D163" t="n">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="E163" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>43.21901852182892</v>
+        <v>43.26026071244959</v>
       </c>
       <c r="B164" t="n">
-        <v>4.003681478171079</v>
+        <v>3.962439287550415</v>
       </c>
       <c r="C164" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D164" t="n">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="E164" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>43.21097545950341</v>
+        <v>43</v>
       </c>
       <c r="B165" t="n">
-        <v>4.011724540496596</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C165" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D165" t="n">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="E165" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>43.20235185516226</v>
+        <v>43</v>
       </c>
       <c r="B166" t="n">
-        <v>4.020348144837746</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C166" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="E166" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>43.19202386744519</v>
+        <v>43</v>
       </c>
       <c r="B167" t="n">
-        <v>4.030676132554817</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C167" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="E167" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>43.24601317621266</v>
+        <v>43</v>
       </c>
       <c r="B168" t="n">
-        <v>3.976686823787341</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C168" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="E168" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>43.23568518849559</v>
+        <v>43.26026071244959</v>
       </c>
       <c r="B169" t="n">
-        <v>3.987014811504412</v>
+        <v>3.962439287550415</v>
       </c>
       <c r="C169" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D169" t="n">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="E169" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>43.22706158415444</v>
+        <v>43.26026071244959</v>
       </c>
       <c r="B170" t="n">
-        <v>3.995638415845562</v>
+        <v>3.962439287550415</v>
       </c>
       <c r="C170" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D170" t="n">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="E170" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>43.21901852182892</v>
+        <v>43.26026071244959</v>
       </c>
       <c r="B171" t="n">
-        <v>4.003681478171079</v>
+        <v>3.962439287550415</v>
       </c>
       <c r="C171" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D171" t="n">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="E171" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>43.21097545950341</v>
+        <v>43.26026071244959</v>
       </c>
       <c r="B172" t="n">
-        <v>4.011724540496596</v>
+        <v>3.962439287550415</v>
       </c>
       <c r="C172" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D172" t="n">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="E172" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>43.20235185516226</v>
+        <v>43.26026071244959</v>
       </c>
       <c r="B173" t="n">
-        <v>4.020348144837746</v>
+        <v>3.962439287550415</v>
       </c>
       <c r="C173" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D173" t="n">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="E173" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>43.19202386744519</v>
+        <v>43.26026071244959</v>
       </c>
       <c r="B174" t="n">
-        <v>4.030676132554817</v>
+        <v>3.962439287550415</v>
       </c>
       <c r="C174" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D174" t="n">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="E174" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>43</v>
+        <v>43.26026071244959</v>
       </c>
       <c r="B175" t="n">
-        <v>4.222700000000003</v>
+        <v>3.962439287550415</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D175" t="n">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="E175" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>43.25909925394862</v>
+        <v>43</v>
       </c>
       <c r="B176" t="n">
-        <v>3.963600746051386</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C176" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E176" t="n">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>43.24877126623154</v>
+        <v>43.26026071244959</v>
       </c>
       <c r="B177" t="n">
-        <v>3.973928733768457</v>
+        <v>3.962439287550415</v>
       </c>
       <c r="C177" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D177" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E177" t="n">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>43.2401476618904</v>
+        <v>43.26026071244959</v>
       </c>
       <c r="B178" t="n">
-        <v>3.982552338109608</v>
+        <v>3.962439287550415</v>
       </c>
       <c r="C178" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D178" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E178" t="n">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>43.23210459956488</v>
+        <v>43.26026071244959</v>
       </c>
       <c r="B179" t="n">
-        <v>3.990595400435124</v>
+        <v>3.962439287550415</v>
       </c>
       <c r="C179" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E179" t="n">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>43.22406153723936</v>
+        <v>43.26026071244959</v>
       </c>
       <c r="B180" t="n">
-        <v>3.998638462760641</v>
+        <v>3.962439287550415</v>
       </c>
       <c r="C180" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D180" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E180" t="n">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>43.21543793289821</v>
+        <v>43.26026071244959</v>
       </c>
       <c r="B181" t="n">
-        <v>4.007262067101791</v>
+        <v>3.962439287550415</v>
       </c>
       <c r="C181" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D181" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E181" t="n">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>43.20510994518114</v>
+        <v>43.23594287060124</v>
       </c>
       <c r="B182" t="n">
-        <v>4.017590054818863</v>
+        <v>3.986757129398762</v>
       </c>
       <c r="C182" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D182" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="E182" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>43.25909925394862</v>
+        <v>43.23594287060124</v>
       </c>
       <c r="B183" t="n">
-        <v>3.963600746051386</v>
+        <v>3.986757129398762</v>
       </c>
       <c r="C183" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D183" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="E183" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>43.24877126623154</v>
+        <v>43.23594287060124</v>
       </c>
       <c r="B184" t="n">
-        <v>3.973928733768457</v>
+        <v>3.986757129398762</v>
       </c>
       <c r="C184" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D184" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="E184" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>43.2401476618904</v>
+        <v>43</v>
       </c>
       <c r="B185" t="n">
-        <v>3.982552338109608</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C185" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="E185" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>43.23210459956488</v>
+        <v>43.23594287060124</v>
       </c>
       <c r="B186" t="n">
-        <v>3.990595400435124</v>
+        <v>3.986757129398762</v>
       </c>
       <c r="C186" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D186" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="E186" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>43.22406153723936</v>
+        <v>43</v>
       </c>
       <c r="B187" t="n">
-        <v>3.998638462760641</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C187" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="E187" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>43.21543793289821</v>
+        <v>43.23594287060124</v>
       </c>
       <c r="B188" t="n">
-        <v>4.007262067101791</v>
+        <v>3.986757129398762</v>
       </c>
       <c r="C188" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D188" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="E188" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>43.20510994518114</v>
+        <v>43.23594287060124</v>
       </c>
       <c r="B189" t="n">
-        <v>4.017590054818863</v>
+        <v>3.986757129398762</v>
       </c>
       <c r="C189" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D189" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="E189" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>43.25909925394862</v>
+        <v>43.23594287060124</v>
       </c>
       <c r="B190" t="n">
-        <v>3.963600746051386</v>
+        <v>3.986757129398762</v>
       </c>
       <c r="C190" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D190" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="E190" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>43.24877126623154</v>
+        <v>43.23594287060124</v>
       </c>
       <c r="B191" t="n">
-        <v>3.973928733768457</v>
+        <v>3.986757129398762</v>
       </c>
       <c r="C191" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D191" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="E191" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>43.2401476618904</v>
+        <v>43</v>
       </c>
       <c r="B192" t="n">
-        <v>3.982552338109608</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C192" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="E192" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>43.23210459956488</v>
+        <v>43.23594287060124</v>
       </c>
       <c r="B193" t="n">
-        <v>3.990595400435124</v>
+        <v>3.986757129398762</v>
       </c>
       <c r="C193" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D193" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="E193" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>43.22406153723936</v>
+        <v>43</v>
       </c>
       <c r="B194" t="n">
-        <v>3.998638462760641</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C194" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="E194" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>43.21543793289821</v>
+        <v>43.23594287060124</v>
       </c>
       <c r="B195" t="n">
-        <v>4.007262067101791</v>
+        <v>3.986757129398762</v>
       </c>
       <c r="C195" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D195" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="E195" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>43.20510994518114</v>
+        <v>43</v>
       </c>
       <c r="B196" t="n">
-        <v>4.017590054818863</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C196" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="E196" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>43.25909925394862</v>
+        <v>43.23594287060124</v>
       </c>
       <c r="B197" t="n">
-        <v>3.963600746051386</v>
+        <v>3.986757129398762</v>
       </c>
       <c r="C197" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D197" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="E197" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>43.24877126623154</v>
+        <v>43.23594287060124</v>
       </c>
       <c r="B198" t="n">
-        <v>3.973928733768457</v>
+        <v>3.986757129398762</v>
       </c>
       <c r="C198" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D198" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="E198" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>43.2401476618904</v>
+        <v>43.23594287060124</v>
       </c>
       <c r="B199" t="n">
-        <v>3.982552338109608</v>
+        <v>3.986757129398762</v>
       </c>
       <c r="C199" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D199" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="E199" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>43.23210459956488</v>
+        <v>43.23594287060124</v>
       </c>
       <c r="B200" t="n">
-        <v>3.990595400435124</v>
+        <v>3.986757129398762</v>
       </c>
       <c r="C200" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D200" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="E200" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>43.22406153723936</v>
+        <v>43.23594287060124</v>
       </c>
       <c r="B201" t="n">
-        <v>3.998638462760641</v>
+        <v>3.986757129398762</v>
       </c>
       <c r="C201" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D201" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="E201" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>43.21543793289821</v>
+        <v>43.21102123</v>
       </c>
       <c r="B202" t="n">
-        <v>4.007262067101791</v>
+        <v>4.01167877</v>
       </c>
       <c r="C202" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D202" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="E202" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>43.20510994518114</v>
+        <v>43</v>
       </c>
       <c r="B203" t="n">
-        <v>4.017590054818863</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C203" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D203" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="E203" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>43</v>
+        <v>43.21102123</v>
       </c>
       <c r="B204" t="n">
-        <v>4.222700000000003</v>
+        <v>4.01167877</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D204" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="E204" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>43.27654499636097</v>
+        <v>43.21102123</v>
       </c>
       <c r="B205" t="n">
-        <v>3.946155003639033</v>
+        <v>4.01167877</v>
       </c>
       <c r="C205" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D205" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="E205" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>43.2662170086439</v>
+        <v>43.21102123</v>
       </c>
       <c r="B206" t="n">
-        <v>3.956482991356105</v>
+        <v>4.01167877</v>
       </c>
       <c r="C206" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D206" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="E206" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>43.25759340430275</v>
+        <v>43.21102123</v>
       </c>
       <c r="B207" t="n">
-        <v>3.965106595697255</v>
+        <v>4.01167877</v>
       </c>
       <c r="C207" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D207" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="E207" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>43.24955034197723</v>
+        <v>43.21102123</v>
       </c>
       <c r="B208" t="n">
-        <v>3.973149658022772</v>
+        <v>4.01167877</v>
       </c>
       <c r="C208" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D208" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="E208" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>43.24150727965171</v>
+        <v>43</v>
       </c>
       <c r="B209" t="n">
-        <v>3.981192720348288</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C209" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D209" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="E209" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>43.23288367531057</v>
+        <v>43</v>
       </c>
       <c r="B210" t="n">
-        <v>3.989816324689438</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C210" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D210" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="E210" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>43.22255568759349</v>
+        <v>43.21102123</v>
       </c>
       <c r="B211" t="n">
-        <v>4.00014431240651</v>
+        <v>4.01167877</v>
       </c>
       <c r="C211" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D211" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="E211" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>43.27654499636097</v>
+        <v>43.21102123</v>
       </c>
       <c r="B212" t="n">
-        <v>3.946155003639033</v>
+        <v>4.01167877</v>
       </c>
       <c r="C212" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D212" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="E212" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>43.2662170086439</v>
+        <v>43.21102123</v>
       </c>
       <c r="B213" t="n">
-        <v>3.956482991356105</v>
+        <v>4.01167877</v>
       </c>
       <c r="C213" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D213" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="E213" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>43.25759340430275</v>
+        <v>43</v>
       </c>
       <c r="B214" t="n">
-        <v>3.965106595697255</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C214" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="E214" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>43.24955034197723</v>
+        <v>43.21102123</v>
       </c>
       <c r="B215" t="n">
-        <v>3.973149658022772</v>
+        <v>4.01167877</v>
       </c>
       <c r="C215" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D215" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="E215" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>43.24150727965171</v>
+        <v>43</v>
       </c>
       <c r="B216" t="n">
-        <v>3.981192720348288</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C216" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="E216" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>43.23288367531057</v>
+        <v>43.21102123</v>
       </c>
       <c r="B217" t="n">
-        <v>3.989816324689438</v>
+        <v>4.01167877</v>
       </c>
       <c r="C217" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D217" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="E217" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>43.22255568759349</v>
+        <v>43.21102123</v>
       </c>
       <c r="B218" t="n">
-        <v>4.00014431240651</v>
+        <v>4.01167877</v>
       </c>
       <c r="C218" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D218" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="E218" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>43.27654499636097</v>
+        <v>43.21102123</v>
       </c>
       <c r="B219" t="n">
-        <v>3.946155003639033</v>
+        <v>4.01167877</v>
       </c>
       <c r="C219" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D219" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="E219" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>43.2662170086439</v>
+        <v>43.21102123</v>
       </c>
       <c r="B220" t="n">
-        <v>3.956482991356105</v>
+        <v>4.01167877</v>
       </c>
       <c r="C220" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D220" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="E220" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>43.25759340430275</v>
+        <v>43.21102123</v>
       </c>
       <c r="B221" t="n">
-        <v>3.965106595697255</v>
+        <v>4.01167877</v>
       </c>
       <c r="C221" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D221" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="E221" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>43.24955034197723</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B222" t="n">
-        <v>3.973149658022772</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C222" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D222" t="n">
-        <v>0.38</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="E222" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>43.24150727965171</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B223" t="n">
-        <v>3.981192720348288</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C223" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D223" t="n">
-        <v>0.38</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="E223" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>43.23288367531057</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B224" t="n">
-        <v>3.989816324689438</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C224" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D224" t="n">
-        <v>0.38</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="E224" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>43.22255568759349</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B225" t="n">
-        <v>4.00014431240651</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C225" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D225" t="n">
-        <v>0.38</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="E225" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>43.27654499636097</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B226" t="n">
-        <v>3.946155003639033</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C226" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D226" t="n">
-        <v>0.38</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="E226" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>43.2662170086439</v>
+        <v>43</v>
       </c>
       <c r="B227" t="n">
-        <v>3.956482991356105</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C227" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D227" t="n">
-        <v>0.38</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="E227" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>43.25759340430275</v>
+        <v>43</v>
       </c>
       <c r="B228" t="n">
-        <v>3.965106595697255</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C228" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>0.38</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="E228" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>43.24955034197723</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B229" t="n">
-        <v>3.973149658022772</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C229" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D229" t="n">
-        <v>0.38</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="E229" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>43.24150727965171</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B230" t="n">
-        <v>3.981192720348288</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C230" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D230" t="n">
-        <v>0.38</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="E230" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>43.23288367531057</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B231" t="n">
-        <v>3.989816324689438</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C231" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D231" t="n">
-        <v>0.38</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="E231" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>43.22255568759349</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B232" t="n">
-        <v>4.00014431240651</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C232" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D232" t="n">
-        <v>0.38</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="E232" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>43</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B233" t="n">
-        <v>4.222700000000003</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D233" t="n">
-        <v>0.38</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="E233" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>43.27649422784504</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B234" t="n">
-        <v>3.946205772154959</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C234" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D234" t="n">
-        <v>0.34</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="E234" t="n">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>43.26616624012797</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B235" t="n">
-        <v>3.956533759872031</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C235" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D235" t="n">
-        <v>0.34</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="E235" t="n">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>43.25754263578682</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B236" t="n">
-        <v>3.965157364213181</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C236" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D236" t="n">
-        <v>0.34</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="E236" t="n">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>43.24949957346131</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B237" t="n">
-        <v>3.973200426538698</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C237" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D237" t="n">
-        <v>0.34</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="E237" t="n">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>43.24145651113579</v>
+        <v>43.25074149279533</v>
       </c>
       <c r="B238" t="n">
-        <v>3.981243488864215</v>
+        <v>3.971958507204674</v>
       </c>
       <c r="C238" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D238" t="n">
-        <v>0.34</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="E238" t="n">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>43.23283290679464</v>
+        <v>43</v>
       </c>
       <c r="B239" t="n">
-        <v>3.989867093205365</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C239" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D239" t="n">
-        <v>0.34</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="E239" t="n">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>43.22250491907756</v>
+        <v>43</v>
       </c>
       <c r="B240" t="n">
-        <v>4.000195080922436</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C240" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D240" t="n">
-        <v>0.34</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="E240" t="n">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>43.27649422784504</v>
+        <v>43</v>
       </c>
       <c r="B241" t="n">
-        <v>3.946205772154959</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C241" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>0.34</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="E241" t="n">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>43.26616624012797</v>
+        <v>43</v>
       </c>
       <c r="B242" t="n">
-        <v>3.956533759872031</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C242" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D242" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="E242" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>43.25754263578682</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B243" t="n">
-        <v>3.965157364213181</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C243" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D243" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="E243" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>43.24949957346131</v>
+        <v>43</v>
       </c>
       <c r="B244" t="n">
-        <v>3.973200426538698</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C244" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D244" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="E244" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>43.24145651113579</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B245" t="n">
-        <v>3.981243488864215</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C245" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D245" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="E245" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>43.23283290679464</v>
+        <v>43</v>
       </c>
       <c r="B246" t="n">
-        <v>3.989867093205365</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C246" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D246" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="E246" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>43.22250491907756</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B247" t="n">
-        <v>4.000195080922436</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C247" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D247" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="E247" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>43.27649422784504</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B248" t="n">
-        <v>3.946205772154959</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C248" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D248" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="E248" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>43.26616624012797</v>
+        <v>43</v>
       </c>
       <c r="B249" t="n">
-        <v>3.956533759872031</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C249" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D249" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="E249" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>43.25754263578682</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B250" t="n">
-        <v>3.965157364213181</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C250" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D250" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="E250" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>43.24949957346131</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B251" t="n">
-        <v>3.973200426538698</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C251" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D251" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="E251" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>43.24145651113579</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B252" t="n">
-        <v>3.981243488864215</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C252" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D252" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="E252" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>43.23283290679464</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B253" t="n">
-        <v>3.989867093205365</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C253" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D253" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="E253" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>43.22250491907756</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B254" t="n">
-        <v>4.000195080922436</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C254" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D254" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="E254" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>43.27649422784504</v>
+        <v>43</v>
       </c>
       <c r="B255" t="n">
-        <v>3.946205772154959</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C255" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D255" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="E255" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>43.26616624012797</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B256" t="n">
-        <v>3.956533759872031</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C256" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D256" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="E256" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>43.25754263578682</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B257" t="n">
-        <v>3.965157364213181</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C257" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D257" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="E257" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>43.24949957346131</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B258" t="n">
-        <v>3.973200426538698</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C258" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D258" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="E258" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>43.24145651113579</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B259" t="n">
-        <v>3.981243488864215</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C259" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D259" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="E259" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>43.23283290679464</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B260" t="n">
-        <v>3.989867093205365</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C260" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D260" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="E260" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>43.22250491907756</v>
+        <v>43.25111466094697</v>
       </c>
       <c r="B261" t="n">
-        <v>4.000195080922436</v>
+        <v>3.971585339053028</v>
       </c>
       <c r="C261" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D261" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="E261" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n">
-        <v>43</v>
-      </c>
-      <c r="B262" t="n">
-        <v>4.222700000000003</v>
-      </c>
-      <c r="C262" t="n">
-        <v>0</v>
-      </c>
-      <c r="D262" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E262" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
-        <v>43.24735234493383</v>
-      </c>
-      <c r="B263" t="n">
-        <v>3.975347655066174</v>
-      </c>
-      <c r="C263" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D263" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E263" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
-        <v>43.23702435721675</v>
-      </c>
-      <c r="B264" t="n">
-        <v>3.985675642783246</v>
-      </c>
-      <c r="C264" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D264" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E264" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
-        <v>43.22840075287561</v>
-      </c>
-      <c r="B265" t="n">
-        <v>3.994299247124396</v>
-      </c>
-      <c r="C265" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D265" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E265" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
-        <v>43.22035769055009</v>
-      </c>
-      <c r="B266" t="n">
-        <v>4.002342309449912</v>
-      </c>
-      <c r="C266" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D266" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E266" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
-        <v>43.21231462822458</v>
-      </c>
-      <c r="B267" t="n">
-        <v>4.010385371775429</v>
-      </c>
-      <c r="C267" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D267" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E267" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
-        <v>43.20369102388342</v>
-      </c>
-      <c r="B268" t="n">
-        <v>4.019008976116579</v>
-      </c>
-      <c r="C268" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D268" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E268" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
-        <v>43.19336303616635</v>
-      </c>
-      <c r="B269" t="n">
-        <v>4.029336963833651</v>
-      </c>
-      <c r="C269" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D269" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E269" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
-        <v>43.24735234493383</v>
-      </c>
-      <c r="B270" t="n">
-        <v>3.975347655066174</v>
-      </c>
-      <c r="C270" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D270" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E270" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
-        <v>43.23702435721675</v>
-      </c>
-      <c r="B271" t="n">
-        <v>3.985675642783246</v>
-      </c>
-      <c r="C271" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D271" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E271" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
-        <v>43.22840075287561</v>
-      </c>
-      <c r="B272" t="n">
-        <v>3.994299247124396</v>
-      </c>
-      <c r="C272" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D272" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E272" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v>43.22035769055009</v>
-      </c>
-      <c r="B273" t="n">
-        <v>4.002342309449912</v>
-      </c>
-      <c r="C273" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D273" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E273" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="n">
-        <v>43.21231462822458</v>
-      </c>
-      <c r="B274" t="n">
-        <v>4.010385371775429</v>
-      </c>
-      <c r="C274" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D274" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E274" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="n">
-        <v>43.20369102388342</v>
-      </c>
-      <c r="B275" t="n">
-        <v>4.019008976116579</v>
-      </c>
-      <c r="C275" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D275" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E275" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="n">
-        <v>43.19336303616635</v>
-      </c>
-      <c r="B276" t="n">
-        <v>4.029336963833651</v>
-      </c>
-      <c r="C276" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D276" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E276" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="n">
-        <v>43.24735234493383</v>
-      </c>
-      <c r="B277" t="n">
-        <v>3.975347655066174</v>
-      </c>
-      <c r="C277" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D277" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E277" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="n">
-        <v>43.23702435721675</v>
-      </c>
-      <c r="B278" t="n">
-        <v>3.985675642783246</v>
-      </c>
-      <c r="C278" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D278" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E278" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="n">
-        <v>43.22840075287561</v>
-      </c>
-      <c r="B279" t="n">
-        <v>3.994299247124396</v>
-      </c>
-      <c r="C279" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D279" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E279" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="n">
-        <v>43.22035769055009</v>
-      </c>
-      <c r="B280" t="n">
-        <v>4.002342309449912</v>
-      </c>
-      <c r="C280" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D280" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E280" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="n">
-        <v>43.21231462822458</v>
-      </c>
-      <c r="B281" t="n">
-        <v>4.010385371775429</v>
-      </c>
-      <c r="C281" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D281" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E281" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="n">
-        <v>43.20369102388342</v>
-      </c>
-      <c r="B282" t="n">
-        <v>4.019008976116579</v>
-      </c>
-      <c r="C282" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D282" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E282" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="n">
-        <v>43.19336303616635</v>
-      </c>
-      <c r="B283" t="n">
-        <v>4.029336963833651</v>
-      </c>
-      <c r="C283" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D283" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E283" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="n">
-        <v>43.24735234493383</v>
-      </c>
-      <c r="B284" t="n">
-        <v>3.975347655066174</v>
-      </c>
-      <c r="C284" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D284" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E284" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="n">
-        <v>43.23702435721675</v>
-      </c>
-      <c r="B285" t="n">
-        <v>3.985675642783246</v>
-      </c>
-      <c r="C285" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D285" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E285" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="n">
-        <v>43.22840075287561</v>
-      </c>
-      <c r="B286" t="n">
-        <v>3.994299247124396</v>
-      </c>
-      <c r="C286" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D286" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E286" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
-        <v>43.22035769055009</v>
-      </c>
-      <c r="B287" t="n">
-        <v>4.002342309449912</v>
-      </c>
-      <c r="C287" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D287" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E287" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>43.21231462822458</v>
-      </c>
-      <c r="B288" t="n">
-        <v>4.010385371775429</v>
-      </c>
-      <c r="C288" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D288" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E288" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="n">
-        <v>43.20369102388342</v>
-      </c>
-      <c r="B289" t="n">
-        <v>4.019008976116579</v>
-      </c>
-      <c r="C289" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D289" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E289" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="n">
-        <v>43.19336303616635</v>
-      </c>
-      <c r="B290" t="n">
-        <v>4.029336963833651</v>
-      </c>
-      <c r="C290" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D290" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E290" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="n">
-        <v>43</v>
-      </c>
-      <c r="B291" t="n">
-        <v>4.222700000000003</v>
-      </c>
-      <c r="C291" t="n">
-        <v>0</v>
-      </c>
-      <c r="D291" t="n">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="E291" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="n">
-        <v>43.25905094319381</v>
-      </c>
-      <c r="B292" t="n">
-        <v>3.963649056806199</v>
-      </c>
-      <c r="C292" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D292" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E292" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="n">
-        <v>43.24872295547673</v>
-      </c>
-      <c r="B293" t="n">
-        <v>3.973977044523271</v>
-      </c>
-      <c r="C293" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D293" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E293" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="n">
-        <v>43.24009935113558</v>
-      </c>
-      <c r="B294" t="n">
-        <v>3.982600648864421</v>
-      </c>
-      <c r="C294" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D294" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E294" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="n">
-        <v>43.23205628881006</v>
-      </c>
-      <c r="B295" t="n">
-        <v>3.990643711189938</v>
-      </c>
-      <c r="C295" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D295" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E295" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
-        <v>43.22401322648455</v>
-      </c>
-      <c r="B296" t="n">
-        <v>3.998686773515455</v>
-      </c>
-      <c r="C296" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D296" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E296" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v>43.2153896221434</v>
-      </c>
-      <c r="B297" t="n">
-        <v>4.007310377856605</v>
-      </c>
-      <c r="C297" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D297" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E297" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="n">
-        <v>43.20506163442633</v>
-      </c>
-      <c r="B298" t="n">
-        <v>4.017638365573676</v>
-      </c>
-      <c r="C298" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D298" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E298" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="n">
-        <v>43.25905094319381</v>
-      </c>
-      <c r="B299" t="n">
-        <v>3.963649056806199</v>
-      </c>
-      <c r="C299" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D299" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E299" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="n">
-        <v>43.24872295547673</v>
-      </c>
-      <c r="B300" t="n">
-        <v>3.973977044523271</v>
-      </c>
-      <c r="C300" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D300" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E300" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="n">
-        <v>43.24009935113558</v>
-      </c>
-      <c r="B301" t="n">
-        <v>3.982600648864421</v>
-      </c>
-      <c r="C301" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D301" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E301" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="n">
-        <v>43.23205628881006</v>
-      </c>
-      <c r="B302" t="n">
-        <v>3.990643711189938</v>
-      </c>
-      <c r="C302" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D302" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E302" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="n">
-        <v>43.22401322648455</v>
-      </c>
-      <c r="B303" t="n">
-        <v>3.998686773515455</v>
-      </c>
-      <c r="C303" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D303" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E303" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="n">
-        <v>43.2153896221434</v>
-      </c>
-      <c r="B304" t="n">
-        <v>4.007310377856605</v>
-      </c>
-      <c r="C304" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D304" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E304" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="n">
-        <v>43.20506163442633</v>
-      </c>
-      <c r="B305" t="n">
-        <v>4.017638365573676</v>
-      </c>
-      <c r="C305" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D305" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E305" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="n">
-        <v>43.25905094319381</v>
-      </c>
-      <c r="B306" t="n">
-        <v>3.963649056806199</v>
-      </c>
-      <c r="C306" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D306" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E306" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="n">
-        <v>43.24872295547673</v>
-      </c>
-      <c r="B307" t="n">
-        <v>3.973977044523271</v>
-      </c>
-      <c r="C307" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D307" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E307" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="n">
-        <v>43.24009935113558</v>
-      </c>
-      <c r="B308" t="n">
-        <v>3.982600648864421</v>
-      </c>
-      <c r="C308" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D308" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E308" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="n">
-        <v>43.23205628881006</v>
-      </c>
-      <c r="B309" t="n">
-        <v>3.990643711189938</v>
-      </c>
-      <c r="C309" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D309" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E309" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="n">
-        <v>43.22401322648455</v>
-      </c>
-      <c r="B310" t="n">
-        <v>3.998686773515455</v>
-      </c>
-      <c r="C310" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D310" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E310" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="n">
-        <v>43.2153896221434</v>
-      </c>
-      <c r="B311" t="n">
-        <v>4.007310377856605</v>
-      </c>
-      <c r="C311" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D311" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E311" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="n">
-        <v>43.20506163442633</v>
-      </c>
-      <c r="B312" t="n">
-        <v>4.017638365573676</v>
-      </c>
-      <c r="C312" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D312" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E312" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="n">
-        <v>43.25905094319381</v>
-      </c>
-      <c r="B313" t="n">
-        <v>3.963649056806199</v>
-      </c>
-      <c r="C313" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D313" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E313" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="n">
-        <v>43.24872295547673</v>
-      </c>
-      <c r="B314" t="n">
-        <v>3.973977044523271</v>
-      </c>
-      <c r="C314" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D314" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E314" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="n">
-        <v>43.24009935113558</v>
-      </c>
-      <c r="B315" t="n">
-        <v>3.982600648864421</v>
-      </c>
-      <c r="C315" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D315" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E315" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="n">
-        <v>43.23205628881006</v>
-      </c>
-      <c r="B316" t="n">
-        <v>3.990643711189938</v>
-      </c>
-      <c r="C316" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D316" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E316" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="n">
-        <v>43.22401322648455</v>
-      </c>
-      <c r="B317" t="n">
-        <v>3.998686773515455</v>
-      </c>
-      <c r="C317" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D317" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E317" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="n">
-        <v>43.2153896221434</v>
-      </c>
-      <c r="B318" t="n">
-        <v>4.007310377856605</v>
-      </c>
-      <c r="C318" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D318" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E318" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="n">
-        <v>43.20506163442633</v>
-      </c>
-      <c r="B319" t="n">
-        <v>4.017638365573676</v>
-      </c>
-      <c r="C319" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D319" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E319" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="n">
-        <v>43</v>
-      </c>
-      <c r="B320" t="n">
-        <v>4.222700000000003</v>
-      </c>
-      <c r="C320" t="n">
-        <v>0</v>
-      </c>
-      <c r="D320" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="E320" t="n">
-        <v>0.7</v>
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>

--- a/phase_shift_scanlist.xlsx
+++ b/phase_shift_scanlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E261"/>
+  <dimension ref="A1:E352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,87 +452,87 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>43</v>
+        <v>43.19952136901133</v>
       </c>
       <c r="B2" t="n">
-        <v>4.222700000000003</v>
+        <v>4.023178630988675</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
         <v>0.75</v>
       </c>
       <c r="E2" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>43.21102123</v>
+        <v>43.24894082699569</v>
       </c>
       <c r="B3" t="n">
-        <v>4.01167877</v>
+        <v>3.973759173004309</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
         <v>0.75</v>
       </c>
       <c r="E3" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>43.21102123</v>
+        <v>43.18227416032903</v>
       </c>
       <c r="B4" t="n">
-        <v>4.01167877</v>
+        <v>4.040425839670975</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
         <v>0.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>43</v>
+        <v>43.23169361831339</v>
       </c>
       <c r="B5" t="n">
-        <v>4.222700000000003</v>
+        <v>3.991006381686609</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
         <v>0.75</v>
       </c>
       <c r="E5" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>43.21102123</v>
+        <v>43</v>
       </c>
       <c r="B6" t="n">
-        <v>4.01167877</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="7">
@@ -549,653 +549,653 @@
         <v>0.75</v>
       </c>
       <c r="E7" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>43.21102123</v>
+        <v>43.21560749366236</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01167877</v>
+        <v>4.007092506337642</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
         <v>0.75</v>
       </c>
       <c r="E8" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>43.21102123</v>
+        <v>43.16161818489488</v>
       </c>
       <c r="B9" t="n">
-        <v>4.01167877</v>
+        <v>4.061081815105119</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
         <v>0.75</v>
       </c>
       <c r="E9" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>43</v>
+        <v>43.26959680242984</v>
       </c>
       <c r="B10" t="n">
-        <v>4.222700000000003</v>
+        <v>3.953103197570165</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
         <v>0.75</v>
       </c>
       <c r="E10" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43.21102123</v>
+        <v>43.19952136901133</v>
       </c>
       <c r="B11" t="n">
-        <v>4.01167877</v>
+        <v>4.023178630988675</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
         <v>0.75</v>
       </c>
       <c r="E11" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43.21102123</v>
+        <v>43.24894082699569</v>
       </c>
       <c r="B12" t="n">
-        <v>4.01167877</v>
+        <v>3.973759173004309</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
         <v>0.75</v>
       </c>
       <c r="E12" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43.21102123</v>
+        <v>43.18227416032903</v>
       </c>
       <c r="B13" t="n">
-        <v>4.01167877</v>
+        <v>4.040425839670975</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
         <v>0.75</v>
       </c>
       <c r="E13" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43.21102123</v>
+        <v>43.23169361831339</v>
       </c>
       <c r="B14" t="n">
-        <v>4.01167877</v>
+        <v>3.991006381686609</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
         <v>0.75</v>
       </c>
       <c r="E14" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43.21102123</v>
+        <v>43</v>
       </c>
       <c r="B15" t="n">
-        <v>4.01167877</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0.75</v>
       </c>
       <c r="E15" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43.21102123</v>
+        <v>43</v>
       </c>
       <c r="B16" t="n">
-        <v>4.01167877</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0.75</v>
       </c>
       <c r="E16" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43.21102123</v>
+        <v>43.21560749366236</v>
       </c>
       <c r="B17" t="n">
-        <v>4.01167877</v>
+        <v>4.007092506337642</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
         <v>0.75</v>
       </c>
       <c r="E17" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43</v>
+        <v>43.16161818489488</v>
       </c>
       <c r="B18" t="n">
-        <v>4.222700000000003</v>
+        <v>4.061081815105119</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D18" t="n">
         <v>0.75</v>
       </c>
       <c r="E18" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43.21102123</v>
+        <v>43.26959680242984</v>
       </c>
       <c r="B19" t="n">
-        <v>4.01167877</v>
+        <v>3.953103197570165</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
         <v>0.75</v>
       </c>
       <c r="E19" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43.21102123</v>
+        <v>43.19952136901133</v>
       </c>
       <c r="B20" t="n">
-        <v>4.01167877</v>
+        <v>4.023178630988675</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
         <v>0.75</v>
       </c>
       <c r="E20" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43.21102123</v>
+        <v>43.24894082699569</v>
       </c>
       <c r="B21" t="n">
-        <v>4.01167877</v>
+        <v>3.973759173004309</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D21" t="n">
         <v>0.75</v>
       </c>
       <c r="E21" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43.25074149279533</v>
+        <v>43.18227416032903</v>
       </c>
       <c r="B22" t="n">
-        <v>3.971958507204674</v>
+        <v>4.040425839670975</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="E22" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43.25074149279533</v>
+        <v>43.23169361831339</v>
       </c>
       <c r="B23" t="n">
-        <v>3.971958507204674</v>
+        <v>3.991006381686609</v>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D23" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="E23" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43.25074149279533</v>
+        <v>43</v>
       </c>
       <c r="B24" t="n">
-        <v>3.971958507204674</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="E24" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43.25074149279533</v>
+        <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>3.971958507204674</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="E25" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>43.25074149279533</v>
+        <v>43.21560749366236</v>
       </c>
       <c r="B26" t="n">
-        <v>3.971958507204674</v>
+        <v>4.007092506337642</v>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D26" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="E26" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43</v>
+        <v>43.16161818489488</v>
       </c>
       <c r="B27" t="n">
-        <v>4.222700000000003</v>
+        <v>4.061081815105119</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="E27" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43</v>
+        <v>43.26959680242984</v>
       </c>
       <c r="B28" t="n">
-        <v>4.222700000000003</v>
+        <v>3.953103197570165</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D28" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="E28" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43</v>
+        <v>43.20156907829144</v>
       </c>
       <c r="B29" t="n">
-        <v>4.222700000000003</v>
+        <v>4.021130921708563</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D29" t="n">
         <v>0.72</v>
       </c>
       <c r="E29" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43.25074149279533</v>
+        <v>43</v>
       </c>
       <c r="B30" t="n">
-        <v>3.971958507204674</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0.72</v>
       </c>
       <c r="E30" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43.25074149279533</v>
+        <v>43.3095476958264</v>
       </c>
       <c r="B31" t="n">
-        <v>3.971958507204674</v>
+        <v>3.913152304173609</v>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D31" t="n">
         <v>0.72</v>
       </c>
       <c r="E31" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43.25074149279533</v>
+        <v>43.25555838705892</v>
       </c>
       <c r="B32" t="n">
-        <v>3.971958507204674</v>
+        <v>3.967141612941086</v>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D32" t="n">
         <v>0.72</v>
       </c>
       <c r="E32" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>43.25074149279533</v>
+        <v>43.27164451170995</v>
       </c>
       <c r="B33" t="n">
-        <v>3.971958507204674</v>
+        <v>3.951055488290053</v>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D33" t="n">
         <v>0.72</v>
       </c>
       <c r="E33" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43.25074149279533</v>
+        <v>43.23947226240789</v>
       </c>
       <c r="B34" t="n">
-        <v>3.971958507204674</v>
+        <v>3.983227737592119</v>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D34" t="n">
         <v>0.72</v>
       </c>
       <c r="E34" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43.25074149279533</v>
+        <v>43.22222505372558</v>
       </c>
       <c r="B35" t="n">
-        <v>3.971958507204674</v>
+        <v>4.000474946274419</v>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D35" t="n">
         <v>0.72</v>
       </c>
       <c r="E35" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43.25074149279533</v>
+        <v>43.28889172039225</v>
       </c>
       <c r="B36" t="n">
-        <v>3.971958507204674</v>
+        <v>3.933808279607753</v>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D36" t="n">
         <v>0.72</v>
       </c>
       <c r="E36" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>43.25074149279533</v>
+        <v>43</v>
       </c>
       <c r="B37" t="n">
-        <v>3.971958507204674</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0.72</v>
       </c>
       <c r="E37" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43.25074149279533</v>
+        <v>43.20156907829144</v>
       </c>
       <c r="B38" t="n">
-        <v>3.971958507204674</v>
+        <v>4.021130921708563</v>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D38" t="n">
         <v>0.72</v>
       </c>
       <c r="E38" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43.25074149279533</v>
+        <v>43</v>
       </c>
       <c r="B39" t="n">
-        <v>3.971958507204674</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0.72</v>
       </c>
       <c r="E39" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>43</v>
+        <v>43.3095476958264</v>
       </c>
       <c r="B40" t="n">
-        <v>4.222700000000003</v>
+        <v>3.913152304173609</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D40" t="n">
         <v>0.72</v>
       </c>
       <c r="E40" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43</v>
+        <v>43.25555838705892</v>
       </c>
       <c r="B41" t="n">
-        <v>4.222700000000003</v>
+        <v>3.967141612941086</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D41" t="n">
         <v>0.72</v>
       </c>
       <c r="E41" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43.25111466094697</v>
+        <v>43.27164451170995</v>
       </c>
       <c r="B42" t="n">
-        <v>3.971585339053028</v>
+        <v>3.951055488290053</v>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E42" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43.25111466094697</v>
+        <v>43.23947226240789</v>
       </c>
       <c r="B43" t="n">
-        <v>3.971585339053028</v>
+        <v>3.983227737592119</v>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E43" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43</v>
+        <v>43.22222505372558</v>
       </c>
       <c r="B44" t="n">
-        <v>4.222700000000003</v>
+        <v>4.000474946274419</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E44" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43.25111466094697</v>
+        <v>43.28889172039225</v>
       </c>
       <c r="B45" t="n">
-        <v>3.971585339053028</v>
+        <v>3.933808279607753</v>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E45" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="46">
@@ -1209,452 +1209,452 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E46" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43.25111466094697</v>
+        <v>43.20156907829144</v>
       </c>
       <c r="B47" t="n">
-        <v>3.971585339053028</v>
+        <v>4.021130921708563</v>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E47" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43.25111466094697</v>
+        <v>43</v>
       </c>
       <c r="B48" t="n">
-        <v>3.971585339053028</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E48" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43.25111466094697</v>
+        <v>43.3095476958264</v>
       </c>
       <c r="B49" t="n">
-        <v>3.971585339053028</v>
+        <v>3.913152304173609</v>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E49" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43.25111466094697</v>
+        <v>43.25555838705892</v>
       </c>
       <c r="B50" t="n">
-        <v>3.971585339053028</v>
+        <v>3.967141612941086</v>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E50" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43.25111466094697</v>
+        <v>43.27164451170995</v>
       </c>
       <c r="B51" t="n">
-        <v>3.971585339053028</v>
+        <v>3.951055488290053</v>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E51" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43.25111466094697</v>
+        <v>43.23947226240789</v>
       </c>
       <c r="B52" t="n">
-        <v>3.971585339053028</v>
+        <v>3.983227737592119</v>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E52" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43</v>
+        <v>43.22222505372558</v>
       </c>
       <c r="B53" t="n">
-        <v>4.222700000000003</v>
+        <v>4.000474946274419</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E53" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43</v>
+        <v>43.28889172039225</v>
       </c>
       <c r="B54" t="n">
-        <v>4.222700000000003</v>
+        <v>3.933808279607753</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E54" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>43.25111466094697</v>
+        <v>43</v>
       </c>
       <c r="B55" t="n">
-        <v>3.971585339053028</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E55" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43</v>
+        <v>43.29754070167699</v>
       </c>
       <c r="B56" t="n">
-        <v>4.222700000000003</v>
+        <v>3.925159298323019</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D56" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43.25111466094697</v>
+        <v>43.25963751756054</v>
       </c>
       <c r="B57" t="n">
-        <v>3.971585339053028</v>
+        <v>3.963062482439463</v>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D57" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>43.25111466094697</v>
+        <v>43.21021805957617</v>
       </c>
       <c r="B58" t="n">
-        <v>3.971585339053028</v>
+        <v>4.01248194042383</v>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D58" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>43.25111466094697</v>
+        <v>43.22746526825847</v>
       </c>
       <c r="B59" t="n">
-        <v>3.971585339053028</v>
+        <v>3.99523473174153</v>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D59" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43.25111466094697</v>
+        <v>43</v>
       </c>
       <c r="B60" t="n">
-        <v>3.971585339053028</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>43.25111466094697</v>
+        <v>43.18956208414203</v>
       </c>
       <c r="B61" t="n">
-        <v>3.971585339053028</v>
+        <v>4.033137915857973</v>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D61" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>43.21116376755042</v>
+        <v>43.27688472624284</v>
       </c>
       <c r="B62" t="n">
-        <v>4.011536232449584</v>
+        <v>3.945815273757163</v>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43</v>
+        <v>43.24355139290951</v>
       </c>
       <c r="B63" t="n">
-        <v>4.222700000000003</v>
+        <v>3.979148607090496</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43.21116376755042</v>
+        <v>43</v>
       </c>
       <c r="B64" t="n">
-        <v>4.011536232449584</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>43.21116376755042</v>
+        <v>43.29754070167699</v>
       </c>
       <c r="B65" t="n">
-        <v>4.011536232449584</v>
+        <v>3.925159298323019</v>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>43.21116376755042</v>
+        <v>43.25963751756054</v>
       </c>
       <c r="B66" t="n">
-        <v>4.011536232449584</v>
+        <v>3.963062482439463</v>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>43.21116376755042</v>
+        <v>43.21021805957617</v>
       </c>
       <c r="B67" t="n">
-        <v>4.011536232449584</v>
+        <v>4.01248194042383</v>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>43.21116376755042</v>
+        <v>43.22746526825847</v>
       </c>
       <c r="B68" t="n">
-        <v>4.011536232449584</v>
+        <v>3.99523473174153</v>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>43.21116376755042</v>
+        <v>43</v>
       </c>
       <c r="B69" t="n">
-        <v>4.011536232449584</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>43</v>
+        <v>43.18956208414203</v>
       </c>
       <c r="B70" t="n">
-        <v>4.222700000000003</v>
+        <v>4.033137915857973</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>43</v>
+        <v>43.27688472624284</v>
       </c>
       <c r="B71" t="n">
-        <v>4.222700000000003</v>
+        <v>3.945815273757163</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>43.21116376755042</v>
+        <v>43.24355139290951</v>
       </c>
       <c r="B72" t="n">
-        <v>4.011536232449584</v>
+        <v>3.979148607090496</v>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="73">
@@ -1668,146 +1668,146 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>43.21116376755042</v>
+        <v>43.29754070167699</v>
       </c>
       <c r="B74" t="n">
-        <v>4.011536232449584</v>
+        <v>3.925159298323019</v>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>43.21116376755042</v>
+        <v>43.25963751756054</v>
       </c>
       <c r="B75" t="n">
-        <v>4.011536232449584</v>
+        <v>3.963062482439463</v>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>43.21116376755042</v>
+        <v>43.21021805957617</v>
       </c>
       <c r="B76" t="n">
-        <v>4.011536232449584</v>
+        <v>4.01248194042383</v>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>43</v>
+        <v>43.22746526825847</v>
       </c>
       <c r="B77" t="n">
-        <v>4.222700000000003</v>
+        <v>3.99523473174153</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43.21116376755042</v>
+        <v>43</v>
       </c>
       <c r="B78" t="n">
-        <v>4.011536232449584</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>43.21116376755042</v>
+        <v>43.18956208414203</v>
       </c>
       <c r="B79" t="n">
-        <v>4.011536232449584</v>
+        <v>4.033137915857973</v>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>43.21116376755042</v>
+        <v>43.27688472624284</v>
       </c>
       <c r="B80" t="n">
-        <v>4.011536232449584</v>
+        <v>3.945815273757163</v>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43.21116376755042</v>
+        <v>43.24355139290951</v>
       </c>
       <c r="B81" t="n">
-        <v>4.011536232449584</v>
+        <v>3.979148607090496</v>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="82">
@@ -1821,180 +1821,180 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>43</v>
+        <v>43.15703192123253</v>
       </c>
       <c r="B83" t="n">
-        <v>4.222700000000003</v>
+        <v>4.065668078767477</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E83" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>43.23548160939877</v>
+        <v>43</v>
       </c>
       <c r="B84" t="n">
-        <v>3.987218390601238</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>43.23548160939877</v>
+        <v>43.17768789666667</v>
       </c>
       <c r="B85" t="n">
-        <v>3.987218390601238</v>
+        <v>4.045012103333333</v>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D85" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>43</v>
+        <v>43.24435456333334</v>
       </c>
       <c r="B86" t="n">
-        <v>4.222700000000003</v>
+        <v>3.978345436666666</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>43.23548160939877</v>
+        <v>43.26501053876748</v>
       </c>
       <c r="B87" t="n">
-        <v>3.987218390601238</v>
+        <v>3.957689461232523</v>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>43.23548160939877</v>
+        <v>43.21102123</v>
       </c>
       <c r="B88" t="n">
-        <v>3.987218390601238</v>
+        <v>4.01167877</v>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>43.23548160939877</v>
+        <v>43.22710735465104</v>
       </c>
       <c r="B89" t="n">
-        <v>3.987218390601238</v>
+        <v>3.995592645348967</v>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>43.23548160939877</v>
+        <v>43</v>
       </c>
       <c r="B90" t="n">
-        <v>3.987218390601238</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E90" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>43.23548160939877</v>
+        <v>43.19493510534897</v>
       </c>
       <c r="B91" t="n">
-        <v>3.987218390601238</v>
+        <v>4.027764894651033</v>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>43.23548160939877</v>
+        <v>43.15703192123253</v>
       </c>
       <c r="B92" t="n">
-        <v>3.987218390601238</v>
+        <v>4.065668078767477</v>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="93">
@@ -2008,554 +2008,554 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E93" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>43</v>
+        <v>43.17768789666667</v>
       </c>
       <c r="B94" t="n">
-        <v>4.222700000000003</v>
+        <v>4.045012103333333</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>43.23548160939877</v>
+        <v>43.24435456333334</v>
       </c>
       <c r="B95" t="n">
-        <v>3.987218390601238</v>
+        <v>3.978345436666666</v>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>43.23548160939877</v>
+        <v>43.26501053876748</v>
       </c>
       <c r="B96" t="n">
-        <v>3.987218390601238</v>
+        <v>3.957689461232523</v>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>43.23548160939877</v>
+        <v>43.21102123</v>
       </c>
       <c r="B97" t="n">
-        <v>3.987218390601238</v>
+        <v>4.01167877</v>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>43.23548160939877</v>
+        <v>43.22710735465104</v>
       </c>
       <c r="B98" t="n">
-        <v>3.987218390601238</v>
+        <v>3.995592645348967</v>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>43.23548160939877</v>
+        <v>43</v>
       </c>
       <c r="B99" t="n">
-        <v>3.987218390601238</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E99" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>43.23548160939877</v>
+        <v>43.19493510534897</v>
       </c>
       <c r="B100" t="n">
-        <v>3.987218390601238</v>
+        <v>4.027764894651033</v>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>43.23548160939877</v>
+        <v>43.15703192123253</v>
       </c>
       <c r="B101" t="n">
-        <v>3.987218390601238</v>
+        <v>4.065668078767477</v>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>43.26040325</v>
+        <v>43</v>
       </c>
       <c r="B102" t="n">
-        <v>3.96229675</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C102" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>43.26040325</v>
+        <v>43.17768789666667</v>
       </c>
       <c r="B103" t="n">
-        <v>3.96229675</v>
+        <v>4.045012103333333</v>
       </c>
       <c r="C103" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>43.26040325</v>
+        <v>43.24435456333334</v>
       </c>
       <c r="B104" t="n">
-        <v>3.96229675</v>
+        <v>3.978345436666666</v>
       </c>
       <c r="C104" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>43</v>
+        <v>43.26501053876748</v>
       </c>
       <c r="B105" t="n">
-        <v>4.222700000000003</v>
+        <v>3.957689461232523</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E105" t="n">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>43</v>
+        <v>43.21102123</v>
       </c>
       <c r="B106" t="n">
-        <v>4.222700000000003</v>
+        <v>4.01167877</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D106" t="n">
-        <v>0.6</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>43.26040325</v>
+        <v>43.22710735465104</v>
       </c>
       <c r="B107" t="n">
-        <v>3.96229675</v>
+        <v>3.995592645348967</v>
       </c>
       <c r="C107" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>43.26040325</v>
+        <v>43</v>
       </c>
       <c r="B108" t="n">
-        <v>3.96229675</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C108" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>43</v>
+        <v>43.19493510534897</v>
       </c>
       <c r="B109" t="n">
-        <v>4.222700000000003</v>
+        <v>4.027764894651033</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>43.26040325</v>
+        <v>43</v>
       </c>
       <c r="B110" t="n">
-        <v>3.96229675</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C110" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>43.26040325</v>
+        <v>43.20979963715372</v>
       </c>
       <c r="B111" t="n">
-        <v>3.96229675</v>
+        <v>4.01290036284628</v>
       </c>
       <c r="C111" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>43</v>
+        <v>43.24313297048705</v>
       </c>
       <c r="B112" t="n">
-        <v>4.222700000000003</v>
+        <v>3.979567029512947</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E112" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>43.26040325</v>
+        <v>43.25921909513809</v>
       </c>
       <c r="B113" t="n">
-        <v>3.96229675</v>
+        <v>3.963480904861914</v>
       </c>
       <c r="C113" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E113" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>43.26040325</v>
+        <v>43.27646630382039</v>
       </c>
       <c r="B114" t="n">
-        <v>3.96229675</v>
+        <v>3.946233696179614</v>
       </c>
       <c r="C114" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>43.26040325</v>
+        <v>43.29712227925453</v>
       </c>
       <c r="B115" t="n">
-        <v>3.96229675</v>
+        <v>3.92557772074547</v>
       </c>
       <c r="C115" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>43</v>
+        <v>43.22704684583602</v>
       </c>
       <c r="B116" t="n">
-        <v>4.222700000000003</v>
+        <v>3.99565315416398</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>43.26040325</v>
+        <v>43</v>
       </c>
       <c r="B117" t="n">
-        <v>3.96229675</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C117" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>0.6</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>43.26040325</v>
+        <v>43.18914366171958</v>
       </c>
       <c r="B118" t="n">
-        <v>3.96229675</v>
+        <v>4.033556338280424</v>
       </c>
       <c r="C118" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>43.26040325</v>
+        <v>43</v>
       </c>
       <c r="B119" t="n">
-        <v>3.96229675</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C119" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>43.26040325</v>
+        <v>43.20979963715372</v>
       </c>
       <c r="B120" t="n">
-        <v>3.96229675</v>
+        <v>4.01290036284628</v>
       </c>
       <c r="C120" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D120" t="n">
-        <v>0.6</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E120" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>43.26040325</v>
+        <v>43.24313297048705</v>
       </c>
       <c r="B121" t="n">
-        <v>3.96229675</v>
+        <v>3.979567029512947</v>
       </c>
       <c r="C121" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E121" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>43.22068298720468</v>
+        <v>43.25921909513809</v>
       </c>
       <c r="B122" t="n">
-        <v>4.002017012795326</v>
+        <v>3.963480904861914</v>
       </c>
       <c r="C122" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D122" t="n">
-        <v>0.57</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>43</v>
+        <v>43.27646630382039</v>
       </c>
       <c r="B123" t="n">
-        <v>4.222700000000003</v>
+        <v>3.946233696179614</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D123" t="n">
-        <v>0.57</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>43.22068298720468</v>
+        <v>43.29712227925453</v>
       </c>
       <c r="B124" t="n">
-        <v>4.002017012795326</v>
+        <v>3.92557772074547</v>
       </c>
       <c r="C124" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D124" t="n">
-        <v>0.57</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>43.22068298720468</v>
+        <v>43.22704684583602</v>
       </c>
       <c r="B125" t="n">
-        <v>4.002017012795326</v>
+        <v>3.99565315416398</v>
       </c>
       <c r="C125" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D125" t="n">
-        <v>0.57</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="126">
@@ -2569,27 +2569,27 @@
         <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>0.57</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>43</v>
+        <v>43.18914366171958</v>
       </c>
       <c r="B127" t="n">
-        <v>4.222700000000003</v>
+        <v>4.033556338280424</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D127" t="n">
-        <v>0.57</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="128">
@@ -2603,656 +2603,656 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0.57</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>43.22068298720468</v>
+        <v>43.20979963715372</v>
       </c>
       <c r="B129" t="n">
-        <v>4.002017012795326</v>
+        <v>4.01290036284628</v>
       </c>
       <c r="C129" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D129" t="n">
-        <v>0.57</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>43.22068298720468</v>
+        <v>43.24313297048705</v>
       </c>
       <c r="B130" t="n">
-        <v>4.002017012795326</v>
+        <v>3.979567029512947</v>
       </c>
       <c r="C130" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D130" t="n">
-        <v>0.57</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>43.22068298720468</v>
+        <v>43.25921909513809</v>
       </c>
       <c r="B131" t="n">
-        <v>4.002017012795326</v>
+        <v>3.963480904861914</v>
       </c>
       <c r="C131" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D131" t="n">
-        <v>0.57</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>43.22068298720468</v>
+        <v>43.27646630382039</v>
       </c>
       <c r="B132" t="n">
-        <v>4.002017012795326</v>
+        <v>3.946233696179614</v>
       </c>
       <c r="C132" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D132" t="n">
-        <v>0.57</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>43.22068298720468</v>
+        <v>43.29712227925453</v>
       </c>
       <c r="B133" t="n">
-        <v>4.002017012795326</v>
+        <v>3.92557772074547</v>
       </c>
       <c r="C133" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D133" t="n">
-        <v>0.57</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>43.22068298720468</v>
+        <v>43.22704684583602</v>
       </c>
       <c r="B134" t="n">
-        <v>4.002017012795326</v>
+        <v>3.99565315416398</v>
       </c>
       <c r="C134" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D134" t="n">
-        <v>0.57</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E134" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>43.22068298720468</v>
+        <v>43</v>
       </c>
       <c r="B135" t="n">
-        <v>4.002017012795326</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C135" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>0.57</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E135" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>43.22068298720468</v>
+        <v>43.18914366171958</v>
       </c>
       <c r="B136" t="n">
-        <v>4.002017012795326</v>
+        <v>4.033556338280424</v>
       </c>
       <c r="C136" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D136" t="n">
-        <v>0.57</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E136" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>43.22068298720468</v>
+        <v>43.27190311098868</v>
       </c>
       <c r="B137" t="n">
-        <v>4.002017012795326</v>
+        <v>3.950796889011324</v>
       </c>
       <c r="C137" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D137" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="E137" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>43</v>
+        <v>43.20182767757017</v>
       </c>
       <c r="B138" t="n">
-        <v>4.222700000000003</v>
+        <v>4.020872322429834</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D138" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="E138" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>43.22068298720468</v>
+        <v>43</v>
       </c>
       <c r="B139" t="n">
-        <v>4.002017012795326</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C139" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="E139" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>43.22068298720468</v>
+        <v>43.22248365300431</v>
       </c>
       <c r="B140" t="n">
-        <v>4.002017012795326</v>
+        <v>4.000216346995691</v>
       </c>
       <c r="C140" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D140" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="E140" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>43.22068298720468</v>
+        <v>43</v>
       </c>
       <c r="B141" t="n">
-        <v>4.002017012795326</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C141" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="E141" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>43.22030981905303</v>
+        <v>43.25581698633765</v>
       </c>
       <c r="B142" t="n">
-        <v>4.002390180946971</v>
+        <v>3.966883013662357</v>
       </c>
       <c r="C142" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D142" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E142" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>43</v>
+        <v>43.23973086168661</v>
       </c>
       <c r="B143" t="n">
-        <v>4.222700000000003</v>
+        <v>3.98296913831339</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D143" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E143" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>43.22030981905303</v>
+        <v>43.30980629510513</v>
       </c>
       <c r="B144" t="n">
-        <v>4.002390180946971</v>
+        <v>3.91289370489488</v>
       </c>
       <c r="C144" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D144" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E144" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>43.22030981905303</v>
+        <v>43.28915031967098</v>
       </c>
       <c r="B145" t="n">
-        <v>4.002390180946971</v>
+        <v>3.933549680329024</v>
       </c>
       <c r="C145" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D145" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E145" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>43</v>
+        <v>43.27190311098868</v>
       </c>
       <c r="B146" t="n">
-        <v>4.222700000000003</v>
+        <v>3.950796889011324</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D146" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E146" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>43.22030981905303</v>
+        <v>43.20182767757017</v>
       </c>
       <c r="B147" t="n">
-        <v>4.002390180946971</v>
+        <v>4.020872322429834</v>
       </c>
       <c r="C147" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D147" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E147" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>43.22030981905303</v>
+        <v>43</v>
       </c>
       <c r="B148" t="n">
-        <v>4.002390180946971</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C148" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E148" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>43</v>
+        <v>43.22248365300431</v>
       </c>
       <c r="B149" t="n">
-        <v>4.222700000000003</v>
+        <v>4.000216346995691</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D149" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E149" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>43.22030981905303</v>
+        <v>43</v>
       </c>
       <c r="B150" t="n">
-        <v>4.002390180946971</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C150" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E150" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>43.22030981905303</v>
+        <v>43.25581698633765</v>
       </c>
       <c r="B151" t="n">
-        <v>4.002390180946971</v>
+        <v>3.966883013662357</v>
       </c>
       <c r="C151" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D151" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E151" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>43</v>
+        <v>43.23973086168661</v>
       </c>
       <c r="B152" t="n">
-        <v>4.222700000000003</v>
+        <v>3.98296913831339</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D152" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E152" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>43.22030981905303</v>
+        <v>43.30980629510513</v>
       </c>
       <c r="B153" t="n">
-        <v>4.002390180946971</v>
+        <v>3.91289370489488</v>
       </c>
       <c r="C153" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D153" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E153" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>43.22030981905303</v>
+        <v>43.28915031967098</v>
       </c>
       <c r="B154" t="n">
-        <v>4.002390180946971</v>
+        <v>3.933549680329024</v>
       </c>
       <c r="C154" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D154" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E154" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>43</v>
+        <v>43.27190311098868</v>
       </c>
       <c r="B155" t="n">
-        <v>4.222700000000003</v>
+        <v>3.950796889011324</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D155" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E155" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>43.22030981905303</v>
+        <v>43.20182767757017</v>
       </c>
       <c r="B156" t="n">
-        <v>4.002390180946971</v>
+        <v>4.020872322429834</v>
       </c>
       <c r="C156" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D156" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E156" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>43.22030981905303</v>
+        <v>43</v>
       </c>
       <c r="B157" t="n">
-        <v>4.002390180946971</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C157" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E157" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>43.22030981905303</v>
+        <v>43.22248365300431</v>
       </c>
       <c r="B158" t="n">
-        <v>4.002390180946971</v>
+        <v>4.000216346995691</v>
       </c>
       <c r="C158" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D158" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E158" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>43.22030981905303</v>
+        <v>43</v>
       </c>
       <c r="B159" t="n">
-        <v>4.002390180946971</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C159" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E159" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>43.22030981905303</v>
+        <v>43.25581698633765</v>
       </c>
       <c r="B160" t="n">
-        <v>4.002390180946971</v>
+        <v>3.966883013662357</v>
       </c>
       <c r="C160" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D160" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E160" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>43.22030981905303</v>
+        <v>43.23973086168661</v>
       </c>
       <c r="B161" t="n">
-        <v>4.002390180946971</v>
+        <v>3.98296913831339</v>
       </c>
       <c r="C161" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D161" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E161" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>43.26026071244959</v>
+        <v>43.30980629510513</v>
       </c>
       <c r="B162" t="n">
-        <v>3.962439287550415</v>
+        <v>3.91289370489488</v>
       </c>
       <c r="C162" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D162" t="n">
-        <v>0.51</v>
+        <v>0.6</v>
       </c>
       <c r="E162" t="n">
-        <v>0.45</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>43.26026071244959</v>
+        <v>43.28915031967098</v>
       </c>
       <c r="B163" t="n">
-        <v>3.962439287550415</v>
+        <v>3.933549680329024</v>
       </c>
       <c r="C163" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D163" t="n">
-        <v>0.51</v>
+        <v>0.6</v>
       </c>
       <c r="E163" t="n">
-        <v>0.45</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>43.26026071244959</v>
+        <v>43</v>
       </c>
       <c r="B164" t="n">
-        <v>3.962439287550415</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C164" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="E164" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>43</v>
+        <v>43.23195221759212</v>
       </c>
       <c r="B165" t="n">
-        <v>4.222700000000003</v>
+        <v>3.990747782407881</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D165" t="n">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="E165" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>43</v>
+        <v>43.18253275960775</v>
       </c>
       <c r="B166" t="n">
-        <v>4.222700000000003</v>
+        <v>4.040167240392247</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D166" t="n">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="E166" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="167">
@@ -3266,146 +3266,146 @@
         <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="E167" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>43</v>
+        <v>43.21586609294109</v>
       </c>
       <c r="B168" t="n">
-        <v>4.222700000000003</v>
+        <v>4.006833907058914</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D168" t="n">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="E168" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>43.26026071244959</v>
+        <v>43.16187678417361</v>
       </c>
       <c r="B169" t="n">
-        <v>3.962439287550415</v>
+        <v>4.060823215826391</v>
       </c>
       <c r="C169" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D169" t="n">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="E169" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>43.26026071244959</v>
+        <v>43.19977996829006</v>
       </c>
       <c r="B170" t="n">
-        <v>3.962439287550415</v>
+        <v>4.022920031709947</v>
       </c>
       <c r="C170" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D170" t="n">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="E170" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>43.26026071244959</v>
+        <v>43.24919942627442</v>
       </c>
       <c r="B171" t="n">
-        <v>3.962439287550415</v>
+        <v>3.97350057372558</v>
       </c>
       <c r="C171" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D171" t="n">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="E171" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>43.26026071244959</v>
+        <v>43.26985540170857</v>
       </c>
       <c r="B172" t="n">
-        <v>3.962439287550415</v>
+        <v>3.952844598291437</v>
       </c>
       <c r="C172" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D172" t="n">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="E172" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>43.26026071244959</v>
+        <v>43</v>
       </c>
       <c r="B173" t="n">
-        <v>3.962439287550415</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C173" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="E173" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>43.26026071244959</v>
+        <v>43.23195221759212</v>
       </c>
       <c r="B174" t="n">
-        <v>3.962439287550415</v>
+        <v>3.990747782407881</v>
       </c>
       <c r="C174" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D174" t="n">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="E174" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>43.26026071244959</v>
+        <v>43.18253275960775</v>
       </c>
       <c r="B175" t="n">
-        <v>3.962439287550415</v>
+        <v>4.040167240392247</v>
       </c>
       <c r="C175" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D175" t="n">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="E175" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="176">
@@ -3419,146 +3419,146 @@
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="E176" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>43.26026071244959</v>
+        <v>43.21586609294109</v>
       </c>
       <c r="B177" t="n">
-        <v>3.962439287550415</v>
+        <v>4.006833907058914</v>
       </c>
       <c r="C177" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D177" t="n">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="E177" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>43.26026071244959</v>
+        <v>43.16187678417361</v>
       </c>
       <c r="B178" t="n">
-        <v>3.962439287550415</v>
+        <v>4.060823215826391</v>
       </c>
       <c r="C178" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D178" t="n">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="E178" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>43.26026071244959</v>
+        <v>43.19977996829006</v>
       </c>
       <c r="B179" t="n">
-        <v>3.962439287550415</v>
+        <v>4.022920031709947</v>
       </c>
       <c r="C179" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D179" t="n">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="E179" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>43.26026071244959</v>
+        <v>43.24919942627442</v>
       </c>
       <c r="B180" t="n">
-        <v>3.962439287550415</v>
+        <v>3.97350057372558</v>
       </c>
       <c r="C180" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D180" t="n">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="E180" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>43.26026071244959</v>
+        <v>43.26985540170857</v>
       </c>
       <c r="B181" t="n">
-        <v>3.962439287550415</v>
+        <v>3.952844598291437</v>
       </c>
       <c r="C181" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D181" t="n">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="E181" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>43.23594287060124</v>
+        <v>43</v>
       </c>
       <c r="B182" t="n">
-        <v>3.986757129398762</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C182" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>0.48</v>
+        <v>0.57</v>
       </c>
       <c r="E182" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>43.23594287060124</v>
+        <v>43.23195221759212</v>
       </c>
       <c r="B183" t="n">
-        <v>3.986757129398762</v>
+        <v>3.990747782407881</v>
       </c>
       <c r="C183" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D183" t="n">
-        <v>0.48</v>
+        <v>0.57</v>
       </c>
       <c r="E183" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>43.23594287060124</v>
+        <v>43.18253275960775</v>
       </c>
       <c r="B184" t="n">
-        <v>3.986757129398762</v>
+        <v>4.040167240392247</v>
       </c>
       <c r="C184" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D184" t="n">
-        <v>0.48</v>
+        <v>0.57</v>
       </c>
       <c r="E184" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="185">
@@ -3572,180 +3572,180 @@
         <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>0.48</v>
+        <v>0.57</v>
       </c>
       <c r="E185" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>43.23594287060124</v>
+        <v>43.21586609294109</v>
       </c>
       <c r="B186" t="n">
-        <v>3.986757129398762</v>
+        <v>4.006833907058914</v>
       </c>
       <c r="C186" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D186" t="n">
-        <v>0.48</v>
+        <v>0.57</v>
       </c>
       <c r="E186" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>43</v>
+        <v>43.16187678417361</v>
       </c>
       <c r="B187" t="n">
-        <v>4.222700000000003</v>
+        <v>4.060823215826391</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D187" t="n">
-        <v>0.48</v>
+        <v>0.57</v>
       </c>
       <c r="E187" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>43.23594287060124</v>
+        <v>43.19977996829006</v>
       </c>
       <c r="B188" t="n">
-        <v>3.986757129398762</v>
+        <v>4.022920031709947</v>
       </c>
       <c r="C188" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D188" t="n">
-        <v>0.48</v>
+        <v>0.57</v>
       </c>
       <c r="E188" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>43.23594287060124</v>
+        <v>43.24919942627442</v>
       </c>
       <c r="B189" t="n">
-        <v>3.986757129398762</v>
+        <v>3.97350057372558</v>
       </c>
       <c r="C189" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D189" t="n">
-        <v>0.48</v>
+        <v>0.57</v>
       </c>
       <c r="E189" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>43.23594287060124</v>
+        <v>43.26985540170857</v>
       </c>
       <c r="B190" t="n">
-        <v>3.986757129398762</v>
+        <v>3.952844598291437</v>
       </c>
       <c r="C190" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D190" t="n">
-        <v>0.48</v>
+        <v>0.57</v>
       </c>
       <c r="E190" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>43.23594287060124</v>
+        <v>43.21178696243947</v>
       </c>
       <c r="B191" t="n">
-        <v>3.986757129398762</v>
+        <v>4.010913037560536</v>
       </c>
       <c r="C191" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D191" t="n">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="E191" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>43</v>
+        <v>43.17388377832302</v>
       </c>
       <c r="B192" t="n">
-        <v>4.222700000000003</v>
+        <v>4.048816221676979</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D192" t="n">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="E192" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>43.23594287060124</v>
+        <v>43.19453975375717</v>
       </c>
       <c r="B193" t="n">
-        <v>3.986757129398762</v>
+        <v>4.028160246242837</v>
       </c>
       <c r="C193" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D193" t="n">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="E193" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>43</v>
+        <v>43.28186239585798</v>
       </c>
       <c r="B194" t="n">
-        <v>4.222700000000003</v>
+        <v>3.940837604142026</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D194" t="n">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="E194" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>43.23594287060124</v>
+        <v>43.2278730870905</v>
       </c>
       <c r="B195" t="n">
-        <v>3.986757129398762</v>
+        <v>3.994826912909503</v>
       </c>
       <c r="C195" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D195" t="n">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="E195" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="196">
@@ -3759,299 +3759,299 @@
         <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="E196" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>43.23594287060124</v>
+        <v>43.24395921174153</v>
       </c>
       <c r="B197" t="n">
-        <v>3.986757129398762</v>
+        <v>3.97874078825847</v>
       </c>
       <c r="C197" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D197" t="n">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="E197" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>43.23594287060124</v>
+        <v>43.26120642042383</v>
       </c>
       <c r="B198" t="n">
-        <v>3.986757129398762</v>
+        <v>3.96149357957617</v>
       </c>
       <c r="C198" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D198" t="n">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="E198" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>43.23594287060124</v>
+        <v>43</v>
       </c>
       <c r="B199" t="n">
-        <v>3.986757129398762</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C199" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D199" t="n">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="E199" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>43.23594287060124</v>
+        <v>43.21178696243947</v>
       </c>
       <c r="B200" t="n">
-        <v>3.986757129398762</v>
+        <v>4.010913037560536</v>
       </c>
       <c r="C200" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D200" t="n">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="E200" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>43.23594287060124</v>
+        <v>43.17388377832302</v>
       </c>
       <c r="B201" t="n">
-        <v>3.986757129398762</v>
+        <v>4.048816221676979</v>
       </c>
       <c r="C201" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D201" t="n">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="E201" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>43.21102123</v>
+        <v>43.19453975375717</v>
       </c>
       <c r="B202" t="n">
-        <v>4.01167877</v>
+        <v>4.028160246242837</v>
       </c>
       <c r="C202" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D202" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="E202" t="n">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>43</v>
+        <v>43.28186239585798</v>
       </c>
       <c r="B203" t="n">
-        <v>4.222700000000003</v>
+        <v>3.940837604142026</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D203" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="E203" t="n">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>43.21102123</v>
+        <v>43.2278730870905</v>
       </c>
       <c r="B204" t="n">
-        <v>4.01167877</v>
+        <v>3.994826912909503</v>
       </c>
       <c r="C204" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D204" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="E204" t="n">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>43.21102123</v>
+        <v>43</v>
       </c>
       <c r="B205" t="n">
-        <v>4.01167877</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C205" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D205" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="E205" t="n">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>43.21102123</v>
+        <v>43.24395921174153</v>
       </c>
       <c r="B206" t="n">
-        <v>4.01167877</v>
+        <v>3.97874078825847</v>
       </c>
       <c r="C206" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D206" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="E206" t="n">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>43.21102123</v>
+        <v>43.26120642042383</v>
       </c>
       <c r="B207" t="n">
-        <v>4.01167877</v>
+        <v>3.96149357957617</v>
       </c>
       <c r="C207" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D207" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="E207" t="n">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>43.21102123</v>
+        <v>43</v>
       </c>
       <c r="B208" t="n">
-        <v>4.01167877</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C208" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D208" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="E208" t="n">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>43</v>
+        <v>43.21178696243947</v>
       </c>
       <c r="B209" t="n">
-        <v>4.222700000000003</v>
+        <v>4.010913037560536</v>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D209" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="E209" t="n">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>43</v>
+        <v>43.17388377832302</v>
       </c>
       <c r="B210" t="n">
-        <v>4.222700000000003</v>
+        <v>4.048816221676979</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D210" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="E210" t="n">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>43.21102123</v>
+        <v>43.19453975375717</v>
       </c>
       <c r="B211" t="n">
-        <v>4.01167877</v>
+        <v>4.028160246242837</v>
       </c>
       <c r="C211" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D211" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="E211" t="n">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>43.21102123</v>
+        <v>43.28186239585798</v>
       </c>
       <c r="B212" t="n">
-        <v>4.01167877</v>
+        <v>3.940837604142026</v>
       </c>
       <c r="C212" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D212" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="E212" t="n">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>43.21102123</v>
+        <v>43.2278730870905</v>
       </c>
       <c r="B213" t="n">
-        <v>4.01167877</v>
+        <v>3.994826912909503</v>
       </c>
       <c r="C213" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D213" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="E213" t="n">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="214">
@@ -4065,452 +4065,452 @@
         <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="E214" t="n">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>43.21102123</v>
+        <v>43.24395921174153</v>
       </c>
       <c r="B215" t="n">
-        <v>4.01167877</v>
+        <v>3.97874078825847</v>
       </c>
       <c r="C215" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D215" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="E215" t="n">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>43</v>
+        <v>43.26120642042383</v>
       </c>
       <c r="B216" t="n">
-        <v>4.222700000000003</v>
+        <v>3.96149357957617</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D216" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="E216" t="n">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>43.21102123</v>
+        <v>43</v>
       </c>
       <c r="B217" t="n">
-        <v>4.01167877</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C217" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D217" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="E217" t="n">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>43.21102123</v>
+        <v>43.24431712534897</v>
       </c>
       <c r="B218" t="n">
-        <v>4.01167877</v>
+        <v>3.978382874651033</v>
       </c>
       <c r="C218" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D218" t="n">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
       <c r="E218" t="n">
-        <v>0.51</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>43.21102123</v>
+        <v>43.29373658333333</v>
       </c>
       <c r="B219" t="n">
-        <v>4.01167877</v>
+        <v>3.928963416666666</v>
       </c>
       <c r="C219" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D219" t="n">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
       <c r="E219" t="n">
-        <v>0.51</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>43.21102123</v>
+        <v>43.20641394123253</v>
       </c>
       <c r="B220" t="n">
-        <v>4.01167877</v>
+        <v>4.016286058767476</v>
       </c>
       <c r="C220" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D220" t="n">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
       <c r="E220" t="n">
-        <v>0.51</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>43.21102123</v>
+        <v>43.22706991666667</v>
       </c>
       <c r="B221" t="n">
-        <v>4.01167877</v>
+        <v>3.995630083333333</v>
       </c>
       <c r="C221" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D221" t="n">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
       <c r="E221" t="n">
-        <v>0.51</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>43.25074149279533</v>
+        <v>43.31439255876748</v>
       </c>
       <c r="B222" t="n">
-        <v>3.971958507204674</v>
+        <v>3.908307441232523</v>
       </c>
       <c r="C222" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D222" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E222" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>43.25074149279533</v>
+        <v>43</v>
       </c>
       <c r="B223" t="n">
-        <v>3.971958507204674</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C223" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D223" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E223" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>43.25074149279533</v>
+        <v>43.27648937465104</v>
       </c>
       <c r="B224" t="n">
-        <v>3.971958507204674</v>
+        <v>3.946210625348967</v>
       </c>
       <c r="C224" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D224" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E224" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>43.25074149279533</v>
+        <v>43.26040325</v>
       </c>
       <c r="B225" t="n">
-        <v>3.971958507204674</v>
+        <v>3.96229675</v>
       </c>
       <c r="C225" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D225" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E225" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>43.25074149279533</v>
+        <v>43</v>
       </c>
       <c r="B226" t="n">
-        <v>3.971958507204674</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C226" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E226" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>43</v>
+        <v>43.24431712534897</v>
       </c>
       <c r="B227" t="n">
-        <v>4.222700000000003</v>
+        <v>3.978382874651033</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D227" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E227" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>43</v>
+        <v>43.29373658333333</v>
       </c>
       <c r="B228" t="n">
-        <v>4.222700000000003</v>
+        <v>3.928963416666666</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D228" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E228" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>43.25074149279533</v>
+        <v>43.20641394123253</v>
       </c>
       <c r="B229" t="n">
-        <v>3.971958507204674</v>
+        <v>4.016286058767476</v>
       </c>
       <c r="C229" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D229" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E229" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>43.25074149279533</v>
+        <v>43.22706991666667</v>
       </c>
       <c r="B230" t="n">
-        <v>3.971958507204674</v>
+        <v>3.995630083333333</v>
       </c>
       <c r="C230" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D230" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E230" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>43.25074149279533</v>
+        <v>43.31439255876748</v>
       </c>
       <c r="B231" t="n">
-        <v>3.971958507204674</v>
+        <v>3.908307441232523</v>
       </c>
       <c r="C231" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D231" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E231" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>43.25074149279533</v>
+        <v>43</v>
       </c>
       <c r="B232" t="n">
-        <v>3.971958507204674</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C232" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D232" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E232" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>43.25074149279533</v>
+        <v>43.27648937465104</v>
       </c>
       <c r="B233" t="n">
-        <v>3.971958507204674</v>
+        <v>3.946210625348967</v>
       </c>
       <c r="C233" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D233" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E233" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>43.25074149279533</v>
+        <v>43.26040325</v>
       </c>
       <c r="B234" t="n">
-        <v>3.971958507204674</v>
+        <v>3.96229675</v>
       </c>
       <c r="C234" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D234" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E234" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>43.25074149279533</v>
+        <v>43</v>
       </c>
       <c r="B235" t="n">
-        <v>3.971958507204674</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C235" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E235" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>43.25074149279533</v>
+        <v>43.24431712534897</v>
       </c>
       <c r="B236" t="n">
-        <v>3.971958507204674</v>
+        <v>3.978382874651033</v>
       </c>
       <c r="C236" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D236" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E236" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>43.25074149279533</v>
+        <v>43.29373658333333</v>
       </c>
       <c r="B237" t="n">
-        <v>3.971958507204674</v>
+        <v>3.928963416666666</v>
       </c>
       <c r="C237" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D237" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E237" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>43.25074149279533</v>
+        <v>43.20641394123253</v>
       </c>
       <c r="B238" t="n">
-        <v>3.971958507204674</v>
+        <v>4.016286058767476</v>
       </c>
       <c r="C238" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D238" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E238" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>43</v>
+        <v>43.22706991666667</v>
       </c>
       <c r="B239" t="n">
-        <v>4.222700000000003</v>
+        <v>3.995630083333333</v>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D239" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E239" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>43</v>
+        <v>43.31439255876748</v>
       </c>
       <c r="B240" t="n">
-        <v>4.222700000000003</v>
+        <v>3.908307441232523</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D240" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E240" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="241">
@@ -4524,44 +4524,44 @@
         <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E241" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>43</v>
+        <v>43.27648937465104</v>
       </c>
       <c r="B242" t="n">
-        <v>4.222700000000003</v>
+        <v>3.946210625348967</v>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D242" t="n">
-        <v>0.39</v>
+        <v>0.51</v>
       </c>
       <c r="E242" t="n">
-        <v>0.57</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>43.25111466094697</v>
+        <v>43.26040325</v>
       </c>
       <c r="B243" t="n">
-        <v>3.971585339053028</v>
+        <v>3.96229675</v>
       </c>
       <c r="C243" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D243" t="n">
-        <v>0.39</v>
+        <v>0.51</v>
       </c>
       <c r="E243" t="n">
-        <v>0.57</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="244">
@@ -4575,78 +4575,78 @@
         <v>0</v>
       </c>
       <c r="D244" t="n">
-        <v>0.39</v>
+        <v>0.51</v>
       </c>
       <c r="E244" t="n">
-        <v>0.57</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>43.25111466094697</v>
+        <v>43.21220538486192</v>
       </c>
       <c r="B245" t="n">
-        <v>3.971585339053028</v>
+        <v>4.010494615138086</v>
       </c>
       <c r="C245" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D245" t="n">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="E245" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>43</v>
+        <v>43.26162484284628</v>
       </c>
       <c r="B246" t="n">
-        <v>4.222700000000003</v>
+        <v>3.961075157153719</v>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D246" t="n">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="E246" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>43.25111466094697</v>
+        <v>43.24437763416398</v>
       </c>
       <c r="B247" t="n">
-        <v>3.971585339053028</v>
+        <v>3.978322365836019</v>
       </c>
       <c r="C247" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D247" t="n">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="E247" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>43.25111466094697</v>
+        <v>43.28228081828043</v>
       </c>
       <c r="B248" t="n">
-        <v>3.971585339053028</v>
+        <v>3.940419181719575</v>
       </c>
       <c r="C248" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D248" t="n">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="E248" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="249">
@@ -4660,214 +4660,1761 @@
         <v>0</v>
       </c>
       <c r="D249" t="n">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="E249" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>43.25111466094697</v>
+        <v>43</v>
       </c>
       <c r="B250" t="n">
-        <v>3.971585339053028</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C250" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D250" t="n">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="E250" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>43.25111466094697</v>
+        <v>43.17430220074547</v>
       </c>
       <c r="B251" t="n">
-        <v>3.971585339053028</v>
+        <v>4.048397799254529</v>
       </c>
       <c r="C251" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D251" t="n">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="E251" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>43.25111466094697</v>
+        <v>43.19495817617962</v>
       </c>
       <c r="B252" t="n">
-        <v>3.971585339053028</v>
+        <v>4.027741823820386</v>
       </c>
       <c r="C252" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D252" t="n">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="E252" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>43.25111466094697</v>
+        <v>43.22829150951295</v>
       </c>
       <c r="B253" t="n">
-        <v>3.971585339053028</v>
+        <v>3.994408490487052</v>
       </c>
       <c r="C253" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D253" t="n">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="E253" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>43.25111466094697</v>
+        <v>43.21220538486192</v>
       </c>
       <c r="B254" t="n">
-        <v>3.971585339053028</v>
+        <v>4.010494615138086</v>
       </c>
       <c r="C254" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D254" t="n">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="E254" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>43</v>
+        <v>43.26162484284628</v>
       </c>
       <c r="B255" t="n">
-        <v>4.222700000000003</v>
+        <v>3.961075157153719</v>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D255" t="n">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="E255" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>43.25111466094697</v>
+        <v>43.24437763416398</v>
       </c>
       <c r="B256" t="n">
-        <v>3.971585339053028</v>
+        <v>3.978322365836019</v>
       </c>
       <c r="C256" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D256" t="n">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="E256" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>43.25111466094697</v>
+        <v>43.28228081828043</v>
       </c>
       <c r="B257" t="n">
-        <v>3.971585339053028</v>
+        <v>3.940419181719575</v>
       </c>
       <c r="C257" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D257" t="n">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="E257" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>43.25111466094697</v>
+        <v>43</v>
       </c>
       <c r="B258" t="n">
-        <v>3.971585339053028</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C258" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D258" t="n">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="E258" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>43.25111466094697</v>
+        <v>43</v>
       </c>
       <c r="B259" t="n">
-        <v>3.971585339053028</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C259" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D259" t="n">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="E259" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>43.25111466094697</v>
+        <v>43.17430220074547</v>
       </c>
       <c r="B260" t="n">
-        <v>3.971585339053028</v>
+        <v>4.048397799254529</v>
       </c>
       <c r="C260" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D260" t="n">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="E260" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>43.25111466094697</v>
+        <v>43.19495817617962</v>
       </c>
       <c r="B261" t="n">
-        <v>3.971585339053028</v>
+        <v>4.027741823820386</v>
       </c>
       <c r="C261" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D261" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>43.22829150951295</v>
+      </c>
+      <c r="B262" t="n">
+        <v>3.994408490487052</v>
+      </c>
+      <c r="C262" t="n">
+        <v>9</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>43.21220538486192</v>
+      </c>
+      <c r="B263" t="n">
+        <v>4.010494615138086</v>
+      </c>
+      <c r="C263" t="n">
+        <v>9</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>43.26162484284628</v>
+      </c>
+      <c r="B264" t="n">
+        <v>3.961075157153719</v>
+      </c>
+      <c r="C264" t="n">
+        <v>9</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>43.24437763416398</v>
+      </c>
+      <c r="B265" t="n">
+        <v>3.978322365836019</v>
+      </c>
+      <c r="C265" t="n">
+        <v>9</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>43.28228081828043</v>
+      </c>
+      <c r="B266" t="n">
+        <v>3.940419181719575</v>
+      </c>
+      <c r="C266" t="n">
+        <v>9</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>43</v>
+      </c>
+      <c r="B267" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>43</v>
+      </c>
+      <c r="B268" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>43.17430220074547</v>
+      </c>
+      <c r="B269" t="n">
+        <v>4.048397799254529</v>
+      </c>
+      <c r="C269" t="n">
+        <v>9</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>43.19495817617962</v>
+      </c>
+      <c r="B270" t="n">
+        <v>4.027741823820386</v>
+      </c>
+      <c r="C270" t="n">
+        <v>9</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>43.22829150951295</v>
+      </c>
+      <c r="B271" t="n">
+        <v>3.994408490487052</v>
+      </c>
+      <c r="C271" t="n">
+        <v>9</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>43.16161818489488</v>
+      </c>
+      <c r="B272" t="n">
+        <v>4.061081815105119</v>
+      </c>
+      <c r="C272" t="n">
+        <v>9</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>43.21560749366236</v>
+      </c>
+      <c r="B273" t="n">
+        <v>4.007092506337642</v>
+      </c>
+      <c r="C273" t="n">
+        <v>9</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>43.19952136901133</v>
+      </c>
+      <c r="B274" t="n">
+        <v>4.023178630988675</v>
+      </c>
+      <c r="C274" t="n">
+        <v>9</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>43.24894082699569</v>
+      </c>
+      <c r="B275" t="n">
+        <v>3.973759173004309</v>
+      </c>
+      <c r="C275" t="n">
+        <v>9</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>43</v>
+      </c>
+      <c r="B276" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>43.26959680242984</v>
+      </c>
+      <c r="B277" t="n">
+        <v>3.953103197570165</v>
+      </c>
+      <c r="C277" t="n">
+        <v>9</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>43</v>
+      </c>
+      <c r="B278" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>43.23169361831339</v>
+      </c>
+      <c r="B279" t="n">
+        <v>3.991006381686609</v>
+      </c>
+      <c r="C279" t="n">
+        <v>9</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>43.18227416032903</v>
+      </c>
+      <c r="B280" t="n">
+        <v>4.040425839670975</v>
+      </c>
+      <c r="C280" t="n">
+        <v>9</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>43.16161818489488</v>
+      </c>
+      <c r="B281" t="n">
+        <v>4.061081815105119</v>
+      </c>
+      <c r="C281" t="n">
+        <v>9</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>43.21560749366236</v>
+      </c>
+      <c r="B282" t="n">
+        <v>4.007092506337642</v>
+      </c>
+      <c r="C282" t="n">
+        <v>9</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>43.19952136901133</v>
+      </c>
+      <c r="B283" t="n">
+        <v>4.023178630988675</v>
+      </c>
+      <c r="C283" t="n">
+        <v>9</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>43.24894082699569</v>
+      </c>
+      <c r="B284" t="n">
+        <v>3.973759173004309</v>
+      </c>
+      <c r="C284" t="n">
+        <v>9</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>43</v>
+      </c>
+      <c r="B285" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>43.26959680242984</v>
+      </c>
+      <c r="B286" t="n">
+        <v>3.953103197570165</v>
+      </c>
+      <c r="C286" t="n">
+        <v>9</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>43</v>
+      </c>
+      <c r="B287" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>43.23169361831339</v>
+      </c>
+      <c r="B288" t="n">
+        <v>3.991006381686609</v>
+      </c>
+      <c r="C288" t="n">
+        <v>9</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>43.18227416032903</v>
+      </c>
+      <c r="B289" t="n">
+        <v>4.040425839670975</v>
+      </c>
+      <c r="C289" t="n">
+        <v>9</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>43.16161818489488</v>
+      </c>
+      <c r="B290" t="n">
+        <v>4.061081815105119</v>
+      </c>
+      <c r="C290" t="n">
+        <v>9</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>43.21560749366236</v>
+      </c>
+      <c r="B291" t="n">
+        <v>4.007092506337642</v>
+      </c>
+      <c r="C291" t="n">
+        <v>9</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>43.19952136901133</v>
+      </c>
+      <c r="B292" t="n">
+        <v>4.023178630988675</v>
+      </c>
+      <c r="C292" t="n">
+        <v>9</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>43.24894082699569</v>
+      </c>
+      <c r="B293" t="n">
+        <v>3.973759173004309</v>
+      </c>
+      <c r="C293" t="n">
+        <v>9</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>43</v>
+      </c>
+      <c r="B294" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>43.26959680242984</v>
+      </c>
+      <c r="B295" t="n">
+        <v>3.953103197570165</v>
+      </c>
+      <c r="C295" t="n">
+        <v>9</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>43</v>
+      </c>
+      <c r="B296" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>43.23169361831339</v>
+      </c>
+      <c r="B297" t="n">
+        <v>3.991006381686609</v>
+      </c>
+      <c r="C297" t="n">
+        <v>9</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>43.18227416032903</v>
+      </c>
+      <c r="B298" t="n">
+        <v>4.040425839670975</v>
+      </c>
+      <c r="C298" t="n">
+        <v>9</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>43.22222505372558</v>
+      </c>
+      <c r="B299" t="n">
+        <v>4.000474946274419</v>
+      </c>
+      <c r="C299" t="n">
+        <v>9</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>43.27164451170995</v>
+      </c>
+      <c r="B300" t="n">
+        <v>3.951055488290053</v>
+      </c>
+      <c r="C300" t="n">
+        <v>9</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>43</v>
+      </c>
+      <c r="B301" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>43.20156907829144</v>
+      </c>
+      <c r="B302" t="n">
+        <v>4.021130921708563</v>
+      </c>
+      <c r="C302" t="n">
+        <v>9</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>43</v>
+      </c>
+      <c r="B303" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>43.25555838705892</v>
+      </c>
+      <c r="B304" t="n">
+        <v>3.967141612941086</v>
+      </c>
+      <c r="C304" t="n">
+        <v>9</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>43.3095476958264</v>
+      </c>
+      <c r="B305" t="n">
+        <v>3.913152304173609</v>
+      </c>
+      <c r="C305" t="n">
+        <v>9</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>43.28889172039225</v>
+      </c>
+      <c r="B306" t="n">
+        <v>3.933808279607753</v>
+      </c>
+      <c r="C306" t="n">
+        <v>9</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>43.23947226240789</v>
+      </c>
+      <c r="B307" t="n">
+        <v>3.983227737592119</v>
+      </c>
+      <c r="C307" t="n">
+        <v>9</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>43.22222505372558</v>
+      </c>
+      <c r="B308" t="n">
+        <v>4.000474946274419</v>
+      </c>
+      <c r="C308" t="n">
+        <v>9</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>43.27164451170995</v>
+      </c>
+      <c r="B309" t="n">
+        <v>3.951055488290053</v>
+      </c>
+      <c r="C309" t="n">
+        <v>9</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>43</v>
+      </c>
+      <c r="B310" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>43.20156907829144</v>
+      </c>
+      <c r="B311" t="n">
+        <v>4.021130921708563</v>
+      </c>
+      <c r="C311" t="n">
+        <v>9</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>43</v>
+      </c>
+      <c r="B312" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>43.25555838705892</v>
+      </c>
+      <c r="B313" t="n">
+        <v>3.967141612941086</v>
+      </c>
+      <c r="C313" t="n">
+        <v>9</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>43.3095476958264</v>
+      </c>
+      <c r="B314" t="n">
+        <v>3.913152304173609</v>
+      </c>
+      <c r="C314" t="n">
+        <v>9</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E314" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>43.28889172039225</v>
+      </c>
+      <c r="B315" t="n">
+        <v>3.933808279607753</v>
+      </c>
+      <c r="C315" t="n">
+        <v>9</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E315" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>43.23947226240789</v>
+      </c>
+      <c r="B316" t="n">
+        <v>3.983227737592119</v>
+      </c>
+      <c r="C316" t="n">
+        <v>9</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E316" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>43.22222505372558</v>
+      </c>
+      <c r="B317" t="n">
+        <v>4.000474946274419</v>
+      </c>
+      <c r="C317" t="n">
+        <v>9</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>43.27164451170995</v>
+      </c>
+      <c r="B318" t="n">
+        <v>3.951055488290053</v>
+      </c>
+      <c r="C318" t="n">
+        <v>9</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>43</v>
+      </c>
+      <c r="B319" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>43.20156907829144</v>
+      </c>
+      <c r="B320" t="n">
+        <v>4.021130921708563</v>
+      </c>
+      <c r="C320" t="n">
+        <v>9</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>43</v>
+      </c>
+      <c r="B321" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>43.25555838705892</v>
+      </c>
+      <c r="B322" t="n">
+        <v>3.967141612941086</v>
+      </c>
+      <c r="C322" t="n">
+        <v>9</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>43.3095476958264</v>
+      </c>
+      <c r="B323" t="n">
+        <v>3.913152304173609</v>
+      </c>
+      <c r="C323" t="n">
+        <v>9</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E323" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>43.28889172039225</v>
+      </c>
+      <c r="B324" t="n">
+        <v>3.933808279607753</v>
+      </c>
+      <c r="C324" t="n">
+        <v>9</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E324" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>43.23947226240789</v>
+      </c>
+      <c r="B325" t="n">
+        <v>3.983227737592119</v>
+      </c>
+      <c r="C325" t="n">
+        <v>9</v>
+      </c>
+      <c r="D325" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="E325" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>43.27688472624284</v>
+      </c>
+      <c r="B326" t="n">
+        <v>3.945815273757163</v>
+      </c>
+      <c r="C326" t="n">
+        <v>9</v>
+      </c>
+      <c r="D326" t="n">
         <v>0.39</v>
       </c>
-      <c r="E261" t="n">
-        <v>0.57</v>
+      <c r="E326" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>43</v>
+      </c>
+      <c r="B327" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>43.25963751756054</v>
+      </c>
+      <c r="B328" t="n">
+        <v>3.963062482439463</v>
+      </c>
+      <c r="C328" t="n">
+        <v>9</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>43.24355139290951</v>
+      </c>
+      <c r="B329" t="n">
+        <v>3.979148607090496</v>
+      </c>
+      <c r="C329" t="n">
+        <v>9</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E329" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>43.21021805957617</v>
+      </c>
+      <c r="B330" t="n">
+        <v>4.01248194042383</v>
+      </c>
+      <c r="C330" t="n">
+        <v>9</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E330" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>43.29754070167699</v>
+      </c>
+      <c r="B331" t="n">
+        <v>3.925159298323019</v>
+      </c>
+      <c r="C331" t="n">
+        <v>9</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>43.18956208414203</v>
+      </c>
+      <c r="B332" t="n">
+        <v>4.033137915857973</v>
+      </c>
+      <c r="C332" t="n">
+        <v>9</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E332" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>43</v>
+      </c>
+      <c r="B333" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0</v>
+      </c>
+      <c r="D333" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E333" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>43.22746526825847</v>
+      </c>
+      <c r="B334" t="n">
+        <v>3.99523473174153</v>
+      </c>
+      <c r="C334" t="n">
+        <v>9</v>
+      </c>
+      <c r="D334" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E334" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>43.27688472624284</v>
+      </c>
+      <c r="B335" t="n">
+        <v>3.945815273757163</v>
+      </c>
+      <c r="C335" t="n">
+        <v>9</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E335" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>43</v>
+      </c>
+      <c r="B336" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0</v>
+      </c>
+      <c r="D336" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E336" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>43.25963751756054</v>
+      </c>
+      <c r="B337" t="n">
+        <v>3.963062482439463</v>
+      </c>
+      <c r="C337" t="n">
+        <v>9</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E337" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>43.24355139290951</v>
+      </c>
+      <c r="B338" t="n">
+        <v>3.979148607090496</v>
+      </c>
+      <c r="C338" t="n">
+        <v>9</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E338" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>43.21021805957617</v>
+      </c>
+      <c r="B339" t="n">
+        <v>4.01248194042383</v>
+      </c>
+      <c r="C339" t="n">
+        <v>9</v>
+      </c>
+      <c r="D339" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E339" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>43.29754070167699</v>
+      </c>
+      <c r="B340" t="n">
+        <v>3.925159298323019</v>
+      </c>
+      <c r="C340" t="n">
+        <v>9</v>
+      </c>
+      <c r="D340" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E340" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>43.18956208414203</v>
+      </c>
+      <c r="B341" t="n">
+        <v>4.033137915857973</v>
+      </c>
+      <c r="C341" t="n">
+        <v>9</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E341" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>43</v>
+      </c>
+      <c r="B342" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0</v>
+      </c>
+      <c r="D342" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E342" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>43.22746526825847</v>
+      </c>
+      <c r="B343" t="n">
+        <v>3.99523473174153</v>
+      </c>
+      <c r="C343" t="n">
+        <v>9</v>
+      </c>
+      <c r="D343" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E343" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>43.27688472624284</v>
+      </c>
+      <c r="B344" t="n">
+        <v>3.945815273757163</v>
+      </c>
+      <c r="C344" t="n">
+        <v>9</v>
+      </c>
+      <c r="D344" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E344" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>43</v>
+      </c>
+      <c r="B345" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C345" t="n">
+        <v>0</v>
+      </c>
+      <c r="D345" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E345" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>43.25963751756054</v>
+      </c>
+      <c r="B346" t="n">
+        <v>3.963062482439463</v>
+      </c>
+      <c r="C346" t="n">
+        <v>9</v>
+      </c>
+      <c r="D346" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E346" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>43.24355139290951</v>
+      </c>
+      <c r="B347" t="n">
+        <v>3.979148607090496</v>
+      </c>
+      <c r="C347" t="n">
+        <v>9</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E347" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>43.21021805957617</v>
+      </c>
+      <c r="B348" t="n">
+        <v>4.01248194042383</v>
+      </c>
+      <c r="C348" t="n">
+        <v>9</v>
+      </c>
+      <c r="D348" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E348" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>43.29754070167699</v>
+      </c>
+      <c r="B349" t="n">
+        <v>3.925159298323019</v>
+      </c>
+      <c r="C349" t="n">
+        <v>9</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E349" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>43.18956208414203</v>
+      </c>
+      <c r="B350" t="n">
+        <v>4.033137915857973</v>
+      </c>
+      <c r="C350" t="n">
+        <v>9</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E350" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>43</v>
+      </c>
+      <c r="B351" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E351" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>43.22746526825847</v>
+      </c>
+      <c r="B352" t="n">
+        <v>3.99523473174153</v>
+      </c>
+      <c r="C352" t="n">
+        <v>9</v>
+      </c>
+      <c r="D352" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E352" t="n">
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>

--- a/phase_shift_scanlist.xlsx
+++ b/phase_shift_scanlist.xlsx
@@ -452,13 +452,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>43.19493510534897</v>
+        <v>43.25546567444445</v>
       </c>
       <c r="B2" t="n">
-        <v>4.027764894651033</v>
+        <v>3.967234325555555</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>0.76</v>
@@ -469,13 +469,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>43</v>
+        <v>43.21102123</v>
       </c>
       <c r="B3" t="n">
-        <v>4.222700000000003</v>
+        <v>4.01167877</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
         <v>0.76</v>
@@ -486,13 +486,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>43.26501053876748</v>
+        <v>43</v>
       </c>
       <c r="B4" t="n">
-        <v>3.957689461232523</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0.76</v>
@@ -503,13 +503,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>43.24435456333334</v>
+        <v>43.28300697502331</v>
       </c>
       <c r="B5" t="n">
-        <v>3.978345436666666</v>
+        <v>3.939693024976697</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
         <v>0.76</v>
@@ -520,13 +520,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>43.21102123</v>
+        <v>43.23246939620138</v>
       </c>
       <c r="B6" t="n">
-        <v>4.01167877</v>
+        <v>3.990230603798622</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
         <v>0.76</v>
@@ -537,13 +537,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>43.22710735465104</v>
+        <v>43</v>
       </c>
       <c r="B7" t="n">
-        <v>3.995592645348967</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0.76</v>
@@ -554,13 +554,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>43</v>
+        <v>43.1390354849767</v>
       </c>
       <c r="B8" t="n">
-        <v>4.222700000000003</v>
+        <v>4.083664515023302</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
         <v>0.76</v>
@@ -571,13 +571,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>43.17768789666667</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n">
-        <v>4.045012103333333</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0.76</v>
@@ -588,13 +588,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>43</v>
+        <v>43.16657678555556</v>
       </c>
       <c r="B10" t="n">
-        <v>4.222700000000003</v>
+        <v>4.056123214444444</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
         <v>0.76</v>
@@ -605,13 +605,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43.15703192123253</v>
+        <v>43.18957306379863</v>
       </c>
       <c r="B11" t="n">
-        <v>4.065668078767477</v>
+        <v>4.033126936201377</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
         <v>0.76</v>
@@ -622,13 +622,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43.19493510534897</v>
+        <v>43.25546567444445</v>
       </c>
       <c r="B12" t="n">
-        <v>4.027764894651033</v>
+        <v>3.967234325555555</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
         <v>0.76</v>
@@ -639,13 +639,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43</v>
+        <v>43.21102123</v>
       </c>
       <c r="B13" t="n">
-        <v>4.222700000000003</v>
+        <v>4.01167877</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
         <v>0.76</v>
@@ -656,13 +656,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43.26501053876748</v>
+        <v>43</v>
       </c>
       <c r="B14" t="n">
-        <v>3.957689461232523</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0.76</v>
@@ -673,13 +673,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43.24435456333334</v>
+        <v>43.28300697502331</v>
       </c>
       <c r="B15" t="n">
-        <v>3.978345436666666</v>
+        <v>3.939693024976697</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
         <v>0.76</v>
@@ -690,13 +690,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43.21102123</v>
+        <v>43.23246939620138</v>
       </c>
       <c r="B16" t="n">
-        <v>4.01167877</v>
+        <v>3.990230603798622</v>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
         <v>0.76</v>
@@ -707,13 +707,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43.22710735465104</v>
+        <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>3.995592645348967</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0.76</v>
@@ -724,13 +724,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43</v>
+        <v>43.1390354849767</v>
       </c>
       <c r="B18" t="n">
-        <v>4.222700000000003</v>
+        <v>4.083664515023302</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
         <v>0.76</v>
@@ -741,13 +741,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43.17768789666667</v>
+        <v>43</v>
       </c>
       <c r="B19" t="n">
-        <v>4.045012103333333</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0.76</v>
@@ -758,13 +758,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43</v>
+        <v>43.16657678555556</v>
       </c>
       <c r="B20" t="n">
-        <v>4.222700000000003</v>
+        <v>4.056123214444444</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
         <v>0.76</v>
@@ -775,13 +775,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43.15703192123253</v>
+        <v>43.18957306379863</v>
       </c>
       <c r="B21" t="n">
-        <v>4.065668078767477</v>
+        <v>4.033126936201377</v>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D21" t="n">
         <v>0.76</v>
@@ -792,13 +792,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43.16161818489488</v>
+        <v>43.21560749366236</v>
       </c>
       <c r="B22" t="n">
-        <v>4.061081815105119</v>
+        <v>4.007092506337642</v>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D22" t="n">
         <v>0.75</v>
@@ -809,13 +809,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43.23169361831339</v>
+        <v>43.26005193810681</v>
       </c>
       <c r="B23" t="n">
-        <v>3.991006381686609</v>
+        <v>3.962648061893198</v>
       </c>
       <c r="C23" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D23" t="n">
         <v>0.75</v>
@@ -826,13 +826,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43</v>
+        <v>43.19415932746098</v>
       </c>
       <c r="B24" t="n">
-        <v>4.222700000000003</v>
+        <v>4.02854067253902</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D24" t="n">
         <v>0.75</v>
@@ -843,13 +843,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43</v>
+        <v>43.17116304921792</v>
       </c>
       <c r="B25" t="n">
-        <v>4.222700000000003</v>
+        <v>4.051536950782086</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D25" t="n">
         <v>0.75</v>
@@ -860,13 +860,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>43.21560749366236</v>
+        <v>43.14362174863906</v>
       </c>
       <c r="B26" t="n">
-        <v>4.007092506337642</v>
+        <v>4.079078251360944</v>
       </c>
       <c r="C26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D26" t="n">
         <v>0.75</v>
@@ -877,13 +877,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43.19952136901133</v>
+        <v>43</v>
       </c>
       <c r="B27" t="n">
-        <v>4.023178630988675</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C27" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0.75</v>
@@ -894,13 +894,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43.26959680242984</v>
+        <v>43</v>
       </c>
       <c r="B28" t="n">
-        <v>3.953103197570165</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C28" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0.75</v>
@@ -911,13 +911,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43.24894082699569</v>
+        <v>43.28759323868567</v>
       </c>
       <c r="B29" t="n">
-        <v>3.973759173004309</v>
+        <v>3.93510676131434</v>
       </c>
       <c r="C29" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D29" t="n">
         <v>0.75</v>
@@ -945,13 +945,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43.18227416032903</v>
+        <v>43.23705565986374</v>
       </c>
       <c r="B31" t="n">
-        <v>4.040425839670975</v>
+        <v>3.985644340136265</v>
       </c>
       <c r="C31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D31" t="n">
         <v>0.75</v>
@@ -962,13 +962,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43.16161818489488</v>
+        <v>43.21560749366236</v>
       </c>
       <c r="B32" t="n">
-        <v>4.061081815105119</v>
+        <v>4.007092506337642</v>
       </c>
       <c r="C32" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D32" t="n">
         <v>0.75</v>
@@ -979,13 +979,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>43.23169361831339</v>
+        <v>43.26005193810681</v>
       </c>
       <c r="B33" t="n">
-        <v>3.991006381686609</v>
+        <v>3.962648061893198</v>
       </c>
       <c r="C33" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D33" t="n">
         <v>0.75</v>
@@ -996,13 +996,13 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43</v>
+        <v>43.19415932746098</v>
       </c>
       <c r="B34" t="n">
-        <v>4.222700000000003</v>
+        <v>4.02854067253902</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D34" t="n">
         <v>0.75</v>
@@ -1013,13 +1013,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43</v>
+        <v>43.17116304921792</v>
       </c>
       <c r="B35" t="n">
-        <v>4.222700000000003</v>
+        <v>4.051536950782086</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D35" t="n">
         <v>0.75</v>
@@ -1030,13 +1030,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43.21560749366236</v>
+        <v>43.14362174863906</v>
       </c>
       <c r="B36" t="n">
-        <v>4.007092506337642</v>
+        <v>4.079078251360944</v>
       </c>
       <c r="C36" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D36" t="n">
         <v>0.75</v>
@@ -1047,13 +1047,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>43.19952136901133</v>
+        <v>43</v>
       </c>
       <c r="B37" t="n">
-        <v>4.023178630988675</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0.75</v>
@@ -1064,13 +1064,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43.26959680242984</v>
+        <v>43</v>
       </c>
       <c r="B38" t="n">
-        <v>3.953103197570165</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C38" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0.75</v>
@@ -1081,13 +1081,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43.24894082699569</v>
+        <v>43.28759323868567</v>
       </c>
       <c r="B39" t="n">
-        <v>3.973759173004309</v>
+        <v>3.93510676131434</v>
       </c>
       <c r="C39" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D39" t="n">
         <v>0.75</v>
@@ -1115,13 +1115,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43.18227416032903</v>
+        <v>43.23705565986374</v>
       </c>
       <c r="B41" t="n">
-        <v>4.040425839670975</v>
+        <v>3.985644340136265</v>
       </c>
       <c r="C41" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D41" t="n">
         <v>0.75</v>
@@ -1132,13 +1132,13 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43.17388377832302</v>
+        <v>43.29985883211381</v>
       </c>
       <c r="B42" t="n">
-        <v>4.048816221676979</v>
+        <v>3.922841167886201</v>
       </c>
       <c r="C42" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D42" t="n">
         <v>0.74</v>
@@ -1149,13 +1149,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43.21178696243947</v>
+        <v>43.27231753153495</v>
       </c>
       <c r="B43" t="n">
-        <v>4.010913037560536</v>
+        <v>3.950382468465059</v>
       </c>
       <c r="C43" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D43" t="n">
         <v>0.74</v>
@@ -1166,13 +1166,13 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43.19453975375717</v>
+        <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>4.028160246242837</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C44" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0.74</v>
@@ -1183,13 +1183,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43</v>
+        <v>43.20642492088912</v>
       </c>
       <c r="B45" t="n">
-        <v>4.222700000000003</v>
+        <v>4.016275079110881</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D45" t="n">
         <v>0.74</v>
@@ -1200,13 +1200,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43.24395921174153</v>
+        <v>43</v>
       </c>
       <c r="B46" t="n">
-        <v>3.97874078825847</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C46" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0.74</v>
@@ -1217,13 +1217,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43.28186239585798</v>
+        <v>43</v>
       </c>
       <c r="B47" t="n">
-        <v>3.940837604142026</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C47" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
         <v>0.74</v>
@@ -1234,13 +1234,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43.2278730870905</v>
+        <v>43.18342864264606</v>
       </c>
       <c r="B48" t="n">
-        <v>3.994826912909503</v>
+        <v>4.039271357353948</v>
       </c>
       <c r="C48" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D48" t="n">
         <v>0.74</v>
@@ -1251,13 +1251,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43</v>
+        <v>43.24932125329187</v>
       </c>
       <c r="B49" t="n">
-        <v>4.222700000000003</v>
+        <v>3.973378746708125</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D49" t="n">
         <v>0.74</v>
@@ -1268,13 +1268,13 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43.26120642042383</v>
+        <v>43.1558873420672</v>
       </c>
       <c r="B50" t="n">
-        <v>3.96149357957617</v>
+        <v>4.066812657932806</v>
       </c>
       <c r="C50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D50" t="n">
         <v>0.74</v>
@@ -1285,13 +1285,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43</v>
+        <v>43.2278730870905</v>
       </c>
       <c r="B51" t="n">
-        <v>4.222700000000003</v>
+        <v>3.994826912909503</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D51" t="n">
         <v>0.74</v>
@@ -1302,13 +1302,13 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43.17388377832302</v>
+        <v>43.29985883211381</v>
       </c>
       <c r="B52" t="n">
-        <v>4.048816221676979</v>
+        <v>3.922841167886201</v>
       </c>
       <c r="C52" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D52" t="n">
         <v>0.74</v>
@@ -1319,13 +1319,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43.21178696243947</v>
+        <v>43.27231753153495</v>
       </c>
       <c r="B53" t="n">
-        <v>4.010913037560536</v>
+        <v>3.950382468465059</v>
       </c>
       <c r="C53" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D53" t="n">
         <v>0.74</v>
@@ -1336,13 +1336,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43.19453975375717</v>
+        <v>43</v>
       </c>
       <c r="B54" t="n">
-        <v>4.028160246242837</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C54" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
         <v>0.74</v>
@@ -1353,13 +1353,13 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>43</v>
+        <v>43.20642492088912</v>
       </c>
       <c r="B55" t="n">
-        <v>4.222700000000003</v>
+        <v>4.016275079110881</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D55" t="n">
         <v>0.74</v>
@@ -1370,13 +1370,13 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43.24395921174153</v>
+        <v>43</v>
       </c>
       <c r="B56" t="n">
-        <v>3.97874078825847</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C56" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
         <v>0.74</v>
@@ -1387,13 +1387,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43.28186239585798</v>
+        <v>43</v>
       </c>
       <c r="B57" t="n">
-        <v>3.940837604142026</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C57" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
         <v>0.74</v>
@@ -1404,13 +1404,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>43.2278730870905</v>
+        <v>43.18342864264606</v>
       </c>
       <c r="B58" t="n">
-        <v>3.994826912909503</v>
+        <v>4.039271357353948</v>
       </c>
       <c r="C58" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D58" t="n">
         <v>0.74</v>
@@ -1421,13 +1421,13 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>43</v>
+        <v>43.24932125329187</v>
       </c>
       <c r="B59" t="n">
-        <v>4.222700000000003</v>
+        <v>3.973378746708125</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D59" t="n">
         <v>0.74</v>
@@ -1438,13 +1438,13 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43.26120642042383</v>
+        <v>43.1558873420672</v>
       </c>
       <c r="B60" t="n">
-        <v>3.96149357957617</v>
+        <v>4.066812657932806</v>
       </c>
       <c r="C60" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D60" t="n">
         <v>0.74</v>
@@ -1455,13 +1455,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>43</v>
+        <v>43.2278730870905</v>
       </c>
       <c r="B61" t="n">
-        <v>4.222700000000003</v>
+        <v>3.994826912909503</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D61" t="n">
         <v>0.74</v>
@@ -1472,13 +1472,13 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>43</v>
+        <v>43.22168480428568</v>
       </c>
       <c r="B62" t="n">
-        <v>4.222700000000003</v>
+        <v>4.001015195714325</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D62" t="n">
         <v>0.73</v>
@@ -1489,13 +1489,13 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43</v>
+        <v>43.24313297048705</v>
       </c>
       <c r="B63" t="n">
-        <v>4.222700000000003</v>
+        <v>3.979567029512947</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D63" t="n">
         <v>0.73</v>
@@ -1506,13 +1506,13 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43.25921909513809</v>
+        <v>43</v>
       </c>
       <c r="B64" t="n">
-        <v>3.963480904861914</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C64" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
         <v>0.73</v>
@@ -1523,13 +1523,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>43.22704684583602</v>
+        <v>43.31511871551036</v>
       </c>
       <c r="B65" t="n">
-        <v>3.99565315416398</v>
+        <v>3.907581284489645</v>
       </c>
       <c r="C65" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D65" t="n">
         <v>0.73</v>
@@ -1540,13 +1540,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>43.24313297048705</v>
+        <v>43.17114722546376</v>
       </c>
       <c r="B66" t="n">
-        <v>3.979567029512947</v>
+        <v>4.051552774536249</v>
       </c>
       <c r="C66" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D66" t="n">
         <v>0.73</v>
@@ -1557,13 +1557,13 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>43.18914366171958</v>
+        <v>43.26458113668843</v>
       </c>
       <c r="B67" t="n">
-        <v>4.033556338280424</v>
+        <v>3.95811886331157</v>
       </c>
       <c r="C67" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D67" t="n">
         <v>0.73</v>
@@ -1574,13 +1574,13 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>43.27646630382039</v>
+        <v>43.2875774149315</v>
       </c>
       <c r="B68" t="n">
-        <v>3.946233696179614</v>
+        <v>3.935122585068503</v>
       </c>
       <c r="C68" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D68" t="n">
         <v>0.73</v>
@@ -1591,13 +1591,13 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>43.29712227925453</v>
+        <v>43</v>
       </c>
       <c r="B69" t="n">
-        <v>3.92557772074547</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C69" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
         <v>0.73</v>
@@ -1608,13 +1608,13 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>43</v>
+        <v>43.19868852604261</v>
       </c>
       <c r="B70" t="n">
-        <v>4.222700000000003</v>
+        <v>4.024011473957391</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D70" t="n">
         <v>0.73</v>
@@ -1625,13 +1625,13 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>43.20979963715372</v>
+        <v>43</v>
       </c>
       <c r="B71" t="n">
-        <v>4.01290036284628</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C71" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
         <v>0.73</v>
@@ -1642,13 +1642,13 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>43</v>
+        <v>43.22168480428568</v>
       </c>
       <c r="B72" t="n">
-        <v>4.222700000000003</v>
+        <v>4.001015195714325</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D72" t="n">
         <v>0.73</v>
@@ -1659,13 +1659,13 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>43</v>
+        <v>43.24313297048705</v>
       </c>
       <c r="B73" t="n">
-        <v>4.222700000000003</v>
+        <v>3.979567029512947</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D73" t="n">
         <v>0.73</v>
@@ -1676,13 +1676,13 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>43.25921909513809</v>
+        <v>43</v>
       </c>
       <c r="B74" t="n">
-        <v>3.963480904861914</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C74" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
         <v>0.73</v>
@@ -1693,13 +1693,13 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>43.22704684583602</v>
+        <v>43.31511871551036</v>
       </c>
       <c r="B75" t="n">
-        <v>3.99565315416398</v>
+        <v>3.907581284489645</v>
       </c>
       <c r="C75" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D75" t="n">
         <v>0.73</v>
@@ -1710,13 +1710,13 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>43.24313297048705</v>
+        <v>43.17114722546376</v>
       </c>
       <c r="B76" t="n">
-        <v>3.979567029512947</v>
+        <v>4.051552774536249</v>
       </c>
       <c r="C76" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D76" t="n">
         <v>0.73</v>
@@ -1727,13 +1727,13 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>43.18914366171958</v>
+        <v>43.26458113668843</v>
       </c>
       <c r="B77" t="n">
-        <v>4.033556338280424</v>
+        <v>3.95811886331157</v>
       </c>
       <c r="C77" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D77" t="n">
         <v>0.73</v>
@@ -1744,13 +1744,13 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43.27646630382039</v>
+        <v>43.2875774149315</v>
       </c>
       <c r="B78" t="n">
-        <v>3.946233696179614</v>
+        <v>3.935122585068503</v>
       </c>
       <c r="C78" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D78" t="n">
         <v>0.73</v>
@@ -1761,13 +1761,13 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>43.29712227925453</v>
+        <v>43</v>
       </c>
       <c r="B79" t="n">
-        <v>3.92557772074547</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C79" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
         <v>0.73</v>
@@ -1778,13 +1778,13 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>43</v>
+        <v>43.19868852604261</v>
       </c>
       <c r="B80" t="n">
-        <v>4.222700000000003</v>
+        <v>4.024011473957391</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D80" t="n">
         <v>0.73</v>
@@ -1795,13 +1795,13 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43.20979963715372</v>
+        <v>43</v>
       </c>
       <c r="B81" t="n">
-        <v>4.01290036284628</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C81" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
         <v>0.73</v>
@@ -1812,13 +1812,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>43.22222505372558</v>
+        <v>43.30000283150336</v>
       </c>
       <c r="B82" t="n">
-        <v>4.000474946274419</v>
+        <v>3.922697168496642</v>
       </c>
       <c r="C82" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D82" t="n">
         <v>0.72</v>
@@ -1829,13 +1829,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>43</v>
+        <v>43.25555838705892</v>
       </c>
       <c r="B83" t="n">
-        <v>4.222700000000003</v>
+        <v>3.967141612941086</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D83" t="n">
         <v>0.72</v>
@@ -1846,13 +1846,13 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>43.20156907829144</v>
+        <v>43.23411022085754</v>
       </c>
       <c r="B84" t="n">
-        <v>4.021130921708563</v>
+        <v>3.988589779142464</v>
       </c>
       <c r="C84" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D84" t="n">
         <v>0.72</v>
@@ -1863,13 +1863,13 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>43</v>
+        <v>43.21111394261447</v>
       </c>
       <c r="B85" t="n">
-        <v>4.222700000000003</v>
+        <v>4.01158605738553</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D85" t="n">
         <v>0.72</v>
@@ -1880,13 +1880,13 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>43.27164451170995</v>
+        <v>43.32754413208222</v>
       </c>
       <c r="B86" t="n">
-        <v>3.951055488290053</v>
+        <v>3.895155867917784</v>
       </c>
       <c r="C86" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D86" t="n">
         <v>0.72</v>
@@ -1897,13 +1897,13 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>43.3095476958264</v>
+        <v>43</v>
       </c>
       <c r="B87" t="n">
-        <v>3.913152304173609</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C87" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
         <v>0.72</v>
@@ -1914,13 +1914,13 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>43.28889172039225</v>
+        <v>43.18357264203561</v>
       </c>
       <c r="B88" t="n">
-        <v>3.933808279607753</v>
+        <v>4.039127357964388</v>
       </c>
       <c r="C88" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D88" t="n">
         <v>0.72</v>
@@ -1931,13 +1931,13 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>43.23947226240789</v>
+        <v>43.27700655326029</v>
       </c>
       <c r="B89" t="n">
-        <v>3.983227737592119</v>
+        <v>3.945693446739709</v>
       </c>
       <c r="C89" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D89" t="n">
         <v>0.72</v>
@@ -1965,13 +1965,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>43.25555838705892</v>
+        <v>43</v>
       </c>
       <c r="B91" t="n">
-        <v>3.967141612941086</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C91" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
         <v>0.72</v>
@@ -1982,13 +1982,13 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>43.22222505372558</v>
+        <v>43.30000283150336</v>
       </c>
       <c r="B92" t="n">
-        <v>4.000474946274419</v>
+        <v>3.922697168496642</v>
       </c>
       <c r="C92" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D92" t="n">
         <v>0.72</v>
@@ -1999,13 +1999,13 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>43</v>
+        <v>43.25555838705892</v>
       </c>
       <c r="B93" t="n">
-        <v>4.222700000000003</v>
+        <v>3.967141612941086</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D93" t="n">
         <v>0.72</v>
@@ -2016,13 +2016,13 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>43.20156907829144</v>
+        <v>43.23411022085754</v>
       </c>
       <c r="B94" t="n">
-        <v>4.021130921708563</v>
+        <v>3.988589779142464</v>
       </c>
       <c r="C94" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D94" t="n">
         <v>0.72</v>
@@ -2033,13 +2033,13 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>43</v>
+        <v>43.21111394261447</v>
       </c>
       <c r="B95" t="n">
-        <v>4.222700000000003</v>
+        <v>4.01158605738553</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D95" t="n">
         <v>0.72</v>
@@ -2050,13 +2050,13 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>43.27164451170995</v>
+        <v>43.32754413208222</v>
       </c>
       <c r="B96" t="n">
-        <v>3.951055488290053</v>
+        <v>3.895155867917784</v>
       </c>
       <c r="C96" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D96" t="n">
         <v>0.72</v>
@@ -2067,13 +2067,13 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>43.3095476958264</v>
+        <v>43</v>
       </c>
       <c r="B97" t="n">
-        <v>3.913152304173609</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C97" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
         <v>0.72</v>
@@ -2084,13 +2084,13 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>43.28889172039225</v>
+        <v>43.18357264203561</v>
       </c>
       <c r="B98" t="n">
-        <v>3.933808279607753</v>
+        <v>4.039127357964388</v>
       </c>
       <c r="C98" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D98" t="n">
         <v>0.72</v>
@@ -2101,13 +2101,13 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>43.23947226240789</v>
+        <v>43.27700655326029</v>
       </c>
       <c r="B99" t="n">
-        <v>3.983227737592119</v>
+        <v>3.945693446739709</v>
       </c>
       <c r="C99" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D99" t="n">
         <v>0.72</v>
@@ -2135,13 +2135,13 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>43.25555838705892</v>
+        <v>43</v>
       </c>
       <c r="B101" t="n">
-        <v>3.967141612941086</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C101" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
         <v>0.72</v>
@@ -2152,13 +2152,13 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>43.26040325</v>
+        <v>43</v>
       </c>
       <c r="B102" t="n">
-        <v>3.96229675</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C102" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
         <v>0.71</v>
@@ -2169,13 +2169,13 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>43.31439255876748</v>
+        <v>43</v>
       </c>
       <c r="B103" t="n">
-        <v>3.908307441232523</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C103" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
         <v>0.71</v>
@@ -2186,13 +2186,13 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>43</v>
+        <v>43.21595880555556</v>
       </c>
       <c r="B104" t="n">
-        <v>4.222700000000003</v>
+        <v>4.006741194444444</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D104" t="n">
         <v>0.71</v>
@@ -2203,13 +2203,13 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>43</v>
+        <v>43.23895508379863</v>
       </c>
       <c r="B105" t="n">
-        <v>4.222700000000003</v>
+        <v>3.983744916201377</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D105" t="n">
         <v>0.71</v>
@@ -2220,13 +2220,13 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>43.22706991666667</v>
+        <v>43.33238899502331</v>
       </c>
       <c r="B106" t="n">
-        <v>3.995630083333333</v>
+        <v>3.890311004976697</v>
       </c>
       <c r="C106" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D106" t="n">
         <v>0.71</v>
@@ -2237,13 +2237,13 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>43.24431712534897</v>
+        <v>43.30484769444445</v>
       </c>
       <c r="B107" t="n">
-        <v>3.978382874651033</v>
+        <v>3.917852305555555</v>
       </c>
       <c r="C107" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D107" t="n">
         <v>0.71</v>
@@ -2254,13 +2254,13 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>43.27648937465104</v>
+        <v>43.1884175049767</v>
       </c>
       <c r="B108" t="n">
-        <v>3.946210625348967</v>
+        <v>4.034282495023302</v>
       </c>
       <c r="C108" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D108" t="n">
         <v>0.71</v>
@@ -2271,13 +2271,13 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>43.29373658333333</v>
+        <v>43</v>
       </c>
       <c r="B109" t="n">
-        <v>3.928963416666666</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C109" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
         <v>0.71</v>
@@ -2288,13 +2288,13 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>43</v>
+        <v>43.28185141620138</v>
       </c>
       <c r="B110" t="n">
-        <v>4.222700000000003</v>
+        <v>3.940848583798622</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D110" t="n">
         <v>0.71</v>
@@ -2305,13 +2305,13 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>43.20641394123253</v>
+        <v>43.26040325</v>
       </c>
       <c r="B111" t="n">
-        <v>4.016286058767476</v>
+        <v>3.96229675</v>
       </c>
       <c r="C111" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D111" t="n">
         <v>0.71</v>
@@ -2322,13 +2322,13 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>43.26040325</v>
+        <v>43</v>
       </c>
       <c r="B112" t="n">
-        <v>3.96229675</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C112" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
         <v>0.71</v>
@@ -2339,13 +2339,13 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>43.31439255876748</v>
+        <v>43</v>
       </c>
       <c r="B113" t="n">
-        <v>3.908307441232523</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C113" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
         <v>0.71</v>
@@ -2356,13 +2356,13 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>43</v>
+        <v>43.21595880555556</v>
       </c>
       <c r="B114" t="n">
-        <v>4.222700000000003</v>
+        <v>4.006741194444444</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D114" t="n">
         <v>0.71</v>
@@ -2373,13 +2373,13 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>43</v>
+        <v>43.23895508379863</v>
       </c>
       <c r="B115" t="n">
-        <v>4.222700000000003</v>
+        <v>3.983744916201377</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D115" t="n">
         <v>0.71</v>
@@ -2390,13 +2390,13 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>43.22706991666667</v>
+        <v>43.33238899502331</v>
       </c>
       <c r="B116" t="n">
-        <v>3.995630083333333</v>
+        <v>3.890311004976697</v>
       </c>
       <c r="C116" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D116" t="n">
         <v>0.71</v>
@@ -2407,13 +2407,13 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>43.24431712534897</v>
+        <v>43.30484769444445</v>
       </c>
       <c r="B117" t="n">
-        <v>3.978382874651033</v>
+        <v>3.917852305555555</v>
       </c>
       <c r="C117" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D117" t="n">
         <v>0.71</v>
@@ -2424,13 +2424,13 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>43.27648937465104</v>
+        <v>43.1884175049767</v>
       </c>
       <c r="B118" t="n">
-        <v>3.946210625348967</v>
+        <v>4.034282495023302</v>
       </c>
       <c r="C118" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D118" t="n">
         <v>0.71</v>
@@ -2441,13 +2441,13 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>43.29373658333333</v>
+        <v>43</v>
       </c>
       <c r="B119" t="n">
-        <v>3.928963416666666</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C119" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
         <v>0.71</v>
@@ -2458,13 +2458,13 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>43</v>
+        <v>43.28185141620138</v>
       </c>
       <c r="B120" t="n">
-        <v>4.222700000000003</v>
+        <v>3.940848583798622</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D120" t="n">
         <v>0.71</v>
@@ -2475,13 +2475,13 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>43.20641394123253</v>
+        <v>43.26040325</v>
       </c>
       <c r="B121" t="n">
-        <v>4.016286058767476</v>
+        <v>3.96229675</v>
       </c>
       <c r="C121" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D121" t="n">
         <v>0.71</v>
@@ -2509,13 +2509,13 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>43.27190311098868</v>
+        <v>43</v>
       </c>
       <c r="B123" t="n">
-        <v>3.950796889011324</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C123" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
         <v>0.7</v>
@@ -2526,13 +2526,13 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>43.20182767757017</v>
+        <v>43.23436882013627</v>
       </c>
       <c r="B124" t="n">
-        <v>4.020872322429834</v>
+        <v>3.988331179863735</v>
       </c>
       <c r="C124" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D124" t="n">
         <v>0.7</v>
@@ -2543,13 +2543,13 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>43</v>
+        <v>43.18383124131434</v>
       </c>
       <c r="B125" t="n">
-        <v>4.222700000000003</v>
+        <v>4.03886875868566</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D125" t="n">
         <v>0.7</v>
@@ -2560,13 +2560,13 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>43.22248365300431</v>
+        <v>43</v>
       </c>
       <c r="B126" t="n">
-        <v>4.000216346995691</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C126" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
         <v>0.7</v>
@@ -2577,13 +2577,13 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>43.28915031967098</v>
+        <v>43.25581698633765</v>
       </c>
       <c r="B127" t="n">
-        <v>3.933549680329024</v>
+        <v>3.966883013662357</v>
       </c>
       <c r="C127" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D127" t="n">
         <v>0.7</v>
@@ -2594,13 +2594,13 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>43.30980629510513</v>
+        <v>43.2113725418932</v>
       </c>
       <c r="B128" t="n">
-        <v>3.91289370489488</v>
+        <v>4.011327458106802</v>
       </c>
       <c r="C128" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D128" t="n">
         <v>0.7</v>
@@ -2611,13 +2611,13 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>43.23973086168661</v>
+        <v>43.27726515253902</v>
       </c>
       <c r="B129" t="n">
-        <v>3.98296913831339</v>
+        <v>3.94543484746098</v>
       </c>
       <c r="C129" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D129" t="n">
         <v>0.7</v>
@@ -2628,13 +2628,13 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>43</v>
+        <v>43.30026143078209</v>
       </c>
       <c r="B130" t="n">
-        <v>4.222700000000003</v>
+        <v>3.922438569217913</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D130" t="n">
         <v>0.7</v>
@@ -2645,13 +2645,13 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>43.25581698633765</v>
+        <v>43.32780273136095</v>
       </c>
       <c r="B131" t="n">
-        <v>3.966883013662357</v>
+        <v>3.894897268639055</v>
       </c>
       <c r="C131" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D131" t="n">
         <v>0.7</v>
@@ -2679,13 +2679,13 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>43.27190311098868</v>
+        <v>43</v>
       </c>
       <c r="B133" t="n">
-        <v>3.950796889011324</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C133" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
         <v>0.7</v>
@@ -2696,13 +2696,13 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>43.20182767757017</v>
+        <v>43.23436882013627</v>
       </c>
       <c r="B134" t="n">
-        <v>4.020872322429834</v>
+        <v>3.988331179863735</v>
       </c>
       <c r="C134" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D134" t="n">
         <v>0.7</v>
@@ -2713,13 +2713,13 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>43</v>
+        <v>43.18383124131434</v>
       </c>
       <c r="B135" t="n">
-        <v>4.222700000000003</v>
+        <v>4.03886875868566</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D135" t="n">
         <v>0.7</v>
@@ -2730,13 +2730,13 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>43.22248365300431</v>
+        <v>43</v>
       </c>
       <c r="B136" t="n">
-        <v>4.000216346995691</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C136" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
         <v>0.7</v>
@@ -2747,13 +2747,13 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>43.28915031967098</v>
+        <v>43.25581698633765</v>
       </c>
       <c r="B137" t="n">
-        <v>3.933549680329024</v>
+        <v>3.966883013662357</v>
       </c>
       <c r="C137" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D137" t="n">
         <v>0.7</v>
@@ -2764,13 +2764,13 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>43.30980629510513</v>
+        <v>43.2113725418932</v>
       </c>
       <c r="B138" t="n">
-        <v>3.91289370489488</v>
+        <v>4.011327458106802</v>
       </c>
       <c r="C138" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D138" t="n">
         <v>0.7</v>
@@ -2781,13 +2781,13 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>43.23973086168661</v>
+        <v>43.27726515253902</v>
       </c>
       <c r="B139" t="n">
-        <v>3.98296913831339</v>
+        <v>3.94543484746098</v>
       </c>
       <c r="C139" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D139" t="n">
         <v>0.7</v>
@@ -2798,13 +2798,13 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>43</v>
+        <v>43.30026143078209</v>
       </c>
       <c r="B140" t="n">
-        <v>4.222700000000003</v>
+        <v>3.922438569217913</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D140" t="n">
         <v>0.7</v>
@@ -2815,13 +2815,13 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>43.25581698633765</v>
+        <v>43.32780273136095</v>
       </c>
       <c r="B141" t="n">
-        <v>3.966883013662357</v>
+        <v>3.894897268639055</v>
       </c>
       <c r="C141" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D141" t="n">
         <v>0.7</v>
@@ -2832,13 +2832,13 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>43.27688472624284</v>
+        <v>43.31553713793281</v>
       </c>
       <c r="B142" t="n">
-        <v>3.945815273757163</v>
+        <v>3.907162862067194</v>
       </c>
       <c r="C142" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D142" t="n">
         <v>0.6899999999999999</v>
@@ -2849,13 +2849,13 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>43</v>
+        <v>43.1715656478862</v>
       </c>
       <c r="B143" t="n">
-        <v>4.222700000000003</v>
+        <v>4.051134352113799</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D143" t="n">
         <v>0.6899999999999999</v>
@@ -2883,13 +2883,13 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>43.21021805957617</v>
+        <v>43.24355139290951</v>
       </c>
       <c r="B145" t="n">
-        <v>4.01248194042383</v>
+        <v>3.979148607090496</v>
       </c>
       <c r="C145" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D145" t="n">
         <v>0.6899999999999999</v>
@@ -2900,13 +2900,13 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>43.25963751756054</v>
+        <v>43.22210322670813</v>
       </c>
       <c r="B146" t="n">
-        <v>3.963062482439463</v>
+        <v>4.000596773291874</v>
       </c>
       <c r="C146" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D146" t="n">
         <v>0.6899999999999999</v>
@@ -2934,13 +2934,13 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>43.29754070167699</v>
+        <v>43.26499955911088</v>
       </c>
       <c r="B148" t="n">
-        <v>3.925159298323019</v>
+        <v>3.957700440889119</v>
       </c>
       <c r="C148" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D148" t="n">
         <v>0.6899999999999999</v>
@@ -2951,13 +2951,13 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>43.18956208414203</v>
+        <v>43.19910694846507</v>
       </c>
       <c r="B149" t="n">
-        <v>4.033137915857973</v>
+        <v>4.023593051534941</v>
       </c>
       <c r="C149" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D149" t="n">
         <v>0.6899999999999999</v>
@@ -2968,13 +2968,13 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>43.22746526825847</v>
+        <v>43</v>
       </c>
       <c r="B150" t="n">
-        <v>3.99523473174153</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C150" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
         <v>0.6899999999999999</v>
@@ -2985,13 +2985,13 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>43.24355139290951</v>
+        <v>43.28799583735395</v>
       </c>
       <c r="B151" t="n">
-        <v>3.979148607090496</v>
+        <v>3.934704162646052</v>
       </c>
       <c r="C151" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D151" t="n">
         <v>0.6899999999999999</v>
@@ -3002,13 +3002,13 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>43.27688472624284</v>
+        <v>43.31553713793281</v>
       </c>
       <c r="B152" t="n">
-        <v>3.945815273757163</v>
+        <v>3.907162862067194</v>
       </c>
       <c r="C152" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D152" t="n">
         <v>0.6899999999999999</v>
@@ -3019,13 +3019,13 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>43</v>
+        <v>43.1715656478862</v>
       </c>
       <c r="B153" t="n">
-        <v>4.222700000000003</v>
+        <v>4.051134352113799</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D153" t="n">
         <v>0.6899999999999999</v>
@@ -3053,13 +3053,13 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>43.21021805957617</v>
+        <v>43.24355139290951</v>
       </c>
       <c r="B155" t="n">
-        <v>4.01248194042383</v>
+        <v>3.979148607090496</v>
       </c>
       <c r="C155" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D155" t="n">
         <v>0.6899999999999999</v>
@@ -3070,13 +3070,13 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>43.25963751756054</v>
+        <v>43.22210322670813</v>
       </c>
       <c r="B156" t="n">
-        <v>3.963062482439463</v>
+        <v>4.000596773291874</v>
       </c>
       <c r="C156" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D156" t="n">
         <v>0.6899999999999999</v>
@@ -3104,13 +3104,13 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>43.29754070167699</v>
+        <v>43.26499955911088</v>
       </c>
       <c r="B158" t="n">
-        <v>3.925159298323019</v>
+        <v>3.957700440889119</v>
       </c>
       <c r="C158" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D158" t="n">
         <v>0.6899999999999999</v>
@@ -3121,13 +3121,13 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>43.18956208414203</v>
+        <v>43.19910694846507</v>
       </c>
       <c r="B159" t="n">
-        <v>4.033137915857973</v>
+        <v>4.023593051534941</v>
       </c>
       <c r="C159" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D159" t="n">
         <v>0.6899999999999999</v>
@@ -3138,13 +3138,13 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>43.22746526825847</v>
+        <v>43</v>
       </c>
       <c r="B160" t="n">
-        <v>3.99523473174153</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C160" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D160" t="n">
         <v>0.6899999999999999</v>
@@ -3155,13 +3155,13 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>43.24355139290951</v>
+        <v>43.28799583735395</v>
       </c>
       <c r="B161" t="n">
-        <v>3.979148607090496</v>
+        <v>3.934704162646052</v>
       </c>
       <c r="C161" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D161" t="n">
         <v>0.6899999999999999</v>
@@ -3172,13 +3172,13 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>43.26162484284628</v>
+        <v>43</v>
       </c>
       <c r="B162" t="n">
-        <v>3.961075157153719</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C162" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D162" t="n">
         <v>0.6799999999999999</v>
@@ -3189,13 +3189,13 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>43.28228081828043</v>
+        <v>43.24973967571433</v>
       </c>
       <c r="B163" t="n">
-        <v>3.940419181719575</v>
+        <v>3.972960324285675</v>
       </c>
       <c r="C163" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D163" t="n">
         <v>0.6799999999999999</v>
@@ -3206,13 +3206,13 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>43.24437763416398</v>
+        <v>43.30027725453625</v>
       </c>
       <c r="B164" t="n">
-        <v>3.978322365836019</v>
+        <v>3.92242274546375</v>
       </c>
       <c r="C164" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D164" t="n">
         <v>0.6799999999999999</v>
@@ -3223,13 +3223,13 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>43.19495817617962</v>
+        <v>43</v>
       </c>
       <c r="B165" t="n">
-        <v>4.027741823820386</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C165" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D165" t="n">
         <v>0.6799999999999999</v>
@@ -3240,13 +3240,13 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>43</v>
+        <v>43.27273595395739</v>
       </c>
       <c r="B166" t="n">
-        <v>4.222700000000003</v>
+        <v>3.949964046042608</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D166" t="n">
         <v>0.6799999999999999</v>
@@ -3257,13 +3257,13 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>43.22829150951295</v>
+        <v>43</v>
       </c>
       <c r="B167" t="n">
-        <v>3.994408490487052</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C167" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D167" t="n">
         <v>0.6799999999999999</v>
@@ -3274,13 +3274,13 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>43.17430220074547</v>
+        <v>43.18384706506851</v>
       </c>
       <c r="B168" t="n">
-        <v>4.048397799254529</v>
+        <v>4.038852934931497</v>
       </c>
       <c r="C168" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D168" t="n">
         <v>0.6799999999999999</v>
@@ -3291,13 +3291,13 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>43</v>
+        <v>43.15630576448964</v>
       </c>
       <c r="B169" t="n">
-        <v>4.222700000000003</v>
+        <v>4.066394235510355</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D169" t="n">
         <v>0.6799999999999999</v>
@@ -3308,13 +3308,13 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>43.21220538486192</v>
+        <v>43.22829150951295</v>
       </c>
       <c r="B170" t="n">
-        <v>4.010494615138086</v>
+        <v>3.994408490487052</v>
       </c>
       <c r="C170" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D170" t="n">
         <v>0.6799999999999999</v>
@@ -3325,13 +3325,13 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>43</v>
+        <v>43.20684334331158</v>
       </c>
       <c r="B171" t="n">
-        <v>4.222700000000003</v>
+        <v>4.01585665668843</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D171" t="n">
         <v>0.6799999999999999</v>
@@ -3342,13 +3342,13 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>43.26162484284628</v>
+        <v>43</v>
       </c>
       <c r="B172" t="n">
-        <v>3.961075157153719</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C172" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D172" t="n">
         <v>0.6799999999999999</v>
@@ -3359,13 +3359,13 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>43.28228081828043</v>
+        <v>43.24973967571433</v>
       </c>
       <c r="B173" t="n">
-        <v>3.940419181719575</v>
+        <v>3.972960324285675</v>
       </c>
       <c r="C173" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D173" t="n">
         <v>0.6799999999999999</v>
@@ -3376,13 +3376,13 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>43.24437763416398</v>
+        <v>43.30027725453625</v>
       </c>
       <c r="B174" t="n">
-        <v>3.978322365836019</v>
+        <v>3.92242274546375</v>
       </c>
       <c r="C174" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D174" t="n">
         <v>0.6799999999999999</v>
@@ -3393,13 +3393,13 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>43.19495817617962</v>
+        <v>43</v>
       </c>
       <c r="B175" t="n">
-        <v>4.027741823820386</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C175" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D175" t="n">
         <v>0.6799999999999999</v>
@@ -3410,13 +3410,13 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>43</v>
+        <v>43.27273595395739</v>
       </c>
       <c r="B176" t="n">
-        <v>4.222700000000003</v>
+        <v>3.949964046042608</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D176" t="n">
         <v>0.6799999999999999</v>
@@ -3427,13 +3427,13 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>43.22829150951295</v>
+        <v>43</v>
       </c>
       <c r="B177" t="n">
-        <v>3.994408490487052</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C177" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D177" t="n">
         <v>0.6799999999999999</v>
@@ -3444,13 +3444,13 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>43.17430220074547</v>
+        <v>43.18384706506851</v>
       </c>
       <c r="B178" t="n">
-        <v>4.048397799254529</v>
+        <v>4.038852934931497</v>
       </c>
       <c r="C178" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D178" t="n">
         <v>0.6799999999999999</v>
@@ -3461,13 +3461,13 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>43</v>
+        <v>43.15630576448964</v>
       </c>
       <c r="B179" t="n">
-        <v>4.222700000000003</v>
+        <v>4.066394235510355</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D179" t="n">
         <v>0.6799999999999999</v>
@@ -3478,13 +3478,13 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>43.21220538486192</v>
+        <v>43.22829150951295</v>
       </c>
       <c r="B180" t="n">
-        <v>4.010494615138086</v>
+        <v>3.994408490487052</v>
       </c>
       <c r="C180" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D180" t="n">
         <v>0.6799999999999999</v>
@@ -3495,13 +3495,13 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>43</v>
+        <v>43.20684334331158</v>
       </c>
       <c r="B181" t="n">
-        <v>4.222700000000003</v>
+        <v>4.01585665668843</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D181" t="n">
         <v>0.6799999999999999</v>
@@ -3512,13 +3512,13 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>43.23195221759212</v>
+        <v>43.19441792673971</v>
       </c>
       <c r="B182" t="n">
-        <v>3.990747782407881</v>
+        <v>4.028282073260291</v>
       </c>
       <c r="C182" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D182" t="n">
         <v>0.6699999999999999</v>
@@ -3529,13 +3529,13 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>43.16187678417361</v>
+        <v>43.28785183796439</v>
       </c>
       <c r="B183" t="n">
-        <v>4.060823215826391</v>
+        <v>3.934848162035611</v>
       </c>
       <c r="C183" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D183" t="n">
         <v>0.6699999999999999</v>
@@ -3546,13 +3546,13 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>43.24919942627442</v>
+        <v>43.17142164849665</v>
       </c>
       <c r="B184" t="n">
-        <v>3.97350057372558</v>
+        <v>4.051278351503358</v>
       </c>
       <c r="C184" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D184" t="n">
         <v>0.6699999999999999</v>
@@ -3563,13 +3563,13 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>43</v>
+        <v>43.23731425914247</v>
       </c>
       <c r="B185" t="n">
-        <v>4.222700000000003</v>
+        <v>3.985385740857536</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D185" t="n">
         <v>0.6699999999999999</v>
@@ -3580,13 +3580,13 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>43</v>
+        <v>43.21586609294109</v>
       </c>
       <c r="B186" t="n">
-        <v>4.222700000000003</v>
+        <v>4.006833907058914</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D186" t="n">
         <v>0.6699999999999999</v>
@@ -3597,13 +3597,13 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>43</v>
+        <v>43.26031053738554</v>
       </c>
       <c r="B187" t="n">
-        <v>4.222700000000003</v>
+        <v>3.962389462614469</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D187" t="n">
         <v>0.6699999999999999</v>
@@ -3614,13 +3614,13 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>43.18253275960775</v>
+        <v>43</v>
       </c>
       <c r="B188" t="n">
-        <v>4.040167240392247</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C188" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D188" t="n">
         <v>0.6699999999999999</v>
@@ -3631,13 +3631,13 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>43.19977996829006</v>
+        <v>43</v>
       </c>
       <c r="B189" t="n">
-        <v>4.022920031709947</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C189" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D189" t="n">
         <v>0.6699999999999999</v>
@@ -3648,13 +3648,13 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>43.26985540170857</v>
+        <v>43.14388034791779</v>
       </c>
       <c r="B190" t="n">
-        <v>3.952844598291437</v>
+        <v>4.078819652082216</v>
       </c>
       <c r="C190" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D190" t="n">
         <v>0.6699999999999999</v>
@@ -3665,13 +3665,13 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>43.21586609294109</v>
+        <v>43</v>
       </c>
       <c r="B191" t="n">
-        <v>4.006833907058914</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C191" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D191" t="n">
         <v>0.6699999999999999</v>
@@ -3682,13 +3682,13 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>43.23195221759212</v>
+        <v>43.19441792673971</v>
       </c>
       <c r="B192" t="n">
-        <v>3.990747782407881</v>
+        <v>4.028282073260291</v>
       </c>
       <c r="C192" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D192" t="n">
         <v>0.6699999999999999</v>
@@ -3699,13 +3699,13 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>43.16187678417361</v>
+        <v>43.28785183796439</v>
       </c>
       <c r="B193" t="n">
-        <v>4.060823215826391</v>
+        <v>3.934848162035611</v>
       </c>
       <c r="C193" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D193" t="n">
         <v>0.6699999999999999</v>
@@ -3716,13 +3716,13 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>43.24919942627442</v>
+        <v>43.17142164849665</v>
       </c>
       <c r="B194" t="n">
-        <v>3.97350057372558</v>
+        <v>4.051278351503358</v>
       </c>
       <c r="C194" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D194" t="n">
         <v>0.6699999999999999</v>
@@ -3733,13 +3733,13 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>43</v>
+        <v>43.23731425914247</v>
       </c>
       <c r="B195" t="n">
-        <v>4.222700000000003</v>
+        <v>3.985385740857536</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D195" t="n">
         <v>0.6699999999999999</v>
@@ -3750,13 +3750,13 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>43</v>
+        <v>43.21586609294109</v>
       </c>
       <c r="B196" t="n">
-        <v>4.222700000000003</v>
+        <v>4.006833907058914</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D196" t="n">
         <v>0.6699999999999999</v>
@@ -3767,13 +3767,13 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>43</v>
+        <v>43.26031053738554</v>
       </c>
       <c r="B197" t="n">
-        <v>4.222700000000003</v>
+        <v>3.962389462614469</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D197" t="n">
         <v>0.6699999999999999</v>
@@ -3784,13 +3784,13 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>43.18253275960775</v>
+        <v>43</v>
       </c>
       <c r="B198" t="n">
-        <v>4.040167240392247</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C198" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D198" t="n">
         <v>0.6699999999999999</v>
@@ -3801,13 +3801,13 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>43.19977996829006</v>
+        <v>43</v>
       </c>
       <c r="B199" t="n">
-        <v>4.022920031709947</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C199" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D199" t="n">
         <v>0.6699999999999999</v>
@@ -3818,13 +3818,13 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>43.26985540170857</v>
+        <v>43.14388034791779</v>
       </c>
       <c r="B200" t="n">
-        <v>3.952844598291437</v>
+        <v>4.078819652082216</v>
       </c>
       <c r="C200" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D200" t="n">
         <v>0.6699999999999999</v>
@@ -3835,13 +3835,13 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>43.21586609294109</v>
+        <v>43</v>
       </c>
       <c r="B201" t="n">
-        <v>4.006833907058914</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C201" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D201" t="n">
         <v>0.6699999999999999</v>
@@ -3852,13 +3852,13 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>43.17768789666667</v>
+        <v>43.16657678555556</v>
       </c>
       <c r="B202" t="n">
-        <v>4.045012103333333</v>
+        <v>4.056123214444444</v>
       </c>
       <c r="C202" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D202" t="n">
         <v>0.6599999999999999</v>
@@ -3869,13 +3869,13 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>43</v>
+        <v>43.1390354849767</v>
       </c>
       <c r="B203" t="n">
-        <v>4.222700000000003</v>
+        <v>4.083664515023302</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D203" t="n">
         <v>0.6599999999999999</v>
@@ -3886,13 +3886,13 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>43.24435456333334</v>
+        <v>43</v>
       </c>
       <c r="B204" t="n">
-        <v>3.978345436666666</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C204" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D204" t="n">
         <v>0.6599999999999999</v>
@@ -3903,13 +3903,13 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>43.26501053876748</v>
+        <v>43</v>
       </c>
       <c r="B205" t="n">
-        <v>3.957689461232523</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C205" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D205" t="n">
         <v>0.6599999999999999</v>
@@ -3920,13 +3920,13 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>43</v>
+        <v>43.23246939620138</v>
       </c>
       <c r="B206" t="n">
-        <v>4.222700000000003</v>
+        <v>3.990230603798622</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D206" t="n">
         <v>0.6599999999999999</v>
@@ -3937,13 +3937,13 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>43.15703192123253</v>
+        <v>43.25546567444445</v>
       </c>
       <c r="B207" t="n">
-        <v>4.065668078767477</v>
+        <v>3.967234325555555</v>
       </c>
       <c r="C207" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D207" t="n">
         <v>0.6599999999999999</v>
@@ -3971,13 +3971,13 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>43.19493510534897</v>
+        <v>43.21102123</v>
       </c>
       <c r="B209" t="n">
-        <v>4.027764894651033</v>
+        <v>4.01167877</v>
       </c>
       <c r="C209" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D209" t="n">
         <v>0.6599999999999999</v>
@@ -3988,13 +3988,13 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>43.22710735465104</v>
+        <v>43.18957306379863</v>
       </c>
       <c r="B210" t="n">
-        <v>3.995592645348967</v>
+        <v>4.033126936201377</v>
       </c>
       <c r="C210" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D210" t="n">
         <v>0.6599999999999999</v>
@@ -4005,13 +4005,13 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>43.21102123</v>
+        <v>43.28300697502331</v>
       </c>
       <c r="B211" t="n">
-        <v>4.01167877</v>
+        <v>3.939693024976697</v>
       </c>
       <c r="C211" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D211" t="n">
         <v>0.6599999999999999</v>
@@ -4022,13 +4022,13 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>43.17768789666667</v>
+        <v>43.16657678555556</v>
       </c>
       <c r="B212" t="n">
-        <v>4.045012103333333</v>
+        <v>4.056123214444444</v>
       </c>
       <c r="C212" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D212" t="n">
         <v>0.6599999999999999</v>
@@ -4039,13 +4039,13 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>43</v>
+        <v>43.1390354849767</v>
       </c>
       <c r="B213" t="n">
-        <v>4.222700000000003</v>
+        <v>4.083664515023302</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D213" t="n">
         <v>0.6599999999999999</v>
@@ -4056,13 +4056,13 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>43.24435456333334</v>
+        <v>43</v>
       </c>
       <c r="B214" t="n">
-        <v>3.978345436666666</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C214" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D214" t="n">
         <v>0.6599999999999999</v>
@@ -4073,13 +4073,13 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>43.26501053876748</v>
+        <v>43</v>
       </c>
       <c r="B215" t="n">
-        <v>3.957689461232523</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C215" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D215" t="n">
         <v>0.6599999999999999</v>
@@ -4090,13 +4090,13 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>43</v>
+        <v>43.23246939620138</v>
       </c>
       <c r="B216" t="n">
-        <v>4.222700000000003</v>
+        <v>3.990230603798622</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D216" t="n">
         <v>0.6599999999999999</v>
@@ -4107,13 +4107,13 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>43.15703192123253</v>
+        <v>43.25546567444445</v>
       </c>
       <c r="B217" t="n">
-        <v>4.065668078767477</v>
+        <v>3.967234325555555</v>
       </c>
       <c r="C217" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D217" t="n">
         <v>0.6599999999999999</v>
@@ -4141,13 +4141,13 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>43.19493510534897</v>
+        <v>43.21102123</v>
       </c>
       <c r="B219" t="n">
-        <v>4.027764894651033</v>
+        <v>4.01167877</v>
       </c>
       <c r="C219" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D219" t="n">
         <v>0.6599999999999999</v>
@@ -4158,13 +4158,13 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>43.22710735465104</v>
+        <v>43.18957306379863</v>
       </c>
       <c r="B220" t="n">
-        <v>3.995592645348967</v>
+        <v>4.033126936201377</v>
       </c>
       <c r="C220" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D220" t="n">
         <v>0.6599999999999999</v>
@@ -4175,13 +4175,13 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>43.21102123</v>
+        <v>43.28300697502331</v>
       </c>
       <c r="B221" t="n">
-        <v>4.01167877</v>
+        <v>3.939693024976697</v>
       </c>
       <c r="C221" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D221" t="n">
         <v>0.6599999999999999</v>

--- a/phase_shift_scanlist.xlsx
+++ b/phase_shift_scanlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E221"/>
+  <dimension ref="A1:E232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,36 +452,36 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>43.25546567444445</v>
+        <v>43.15392488568808</v>
       </c>
       <c r="B2" t="n">
-        <v>3.967234325555555</v>
+        <v>4.068775114311919</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.76</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>43.21102123</v>
+        <v>43.2778073001941</v>
       </c>
       <c r="B3" t="n">
-        <v>4.01167877</v>
+        <v>3.944892699805908</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.76</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
@@ -495,248 +495,248 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.76</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>43.28300697502331</v>
+        <v>43</v>
       </c>
       <c r="B5" t="n">
-        <v>3.939693024976697</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.76</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>43.23246939620138</v>
+        <v>43.24471234573293</v>
       </c>
       <c r="B6" t="n">
-        <v>3.990230603798622</v>
+        <v>3.977987654267075</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>0.76</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>43</v>
+        <v>43.21586609294109</v>
       </c>
       <c r="B7" t="n">
-        <v>4.222700000000003</v>
+        <v>4.006833907058914</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>0.76</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>43.1390354849767</v>
+        <v>43.18701984014925</v>
       </c>
       <c r="B8" t="n">
-        <v>4.083664515023302</v>
+        <v>4.035680159850751</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>0.76</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>43</v>
+        <v>43.15392488568808</v>
       </c>
       <c r="B9" t="n">
-        <v>4.222700000000003</v>
+        <v>4.068775114311919</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>0.76</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>43.16657678555556</v>
+        <v>43.2778073001941</v>
       </c>
       <c r="B10" t="n">
-        <v>4.056123214444444</v>
+        <v>3.944892699805908</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0.76</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43.18957306379863</v>
+        <v>43</v>
       </c>
       <c r="B11" t="n">
-        <v>4.033126936201377</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.76</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43.25546567444445</v>
+        <v>43</v>
       </c>
       <c r="B12" t="n">
-        <v>3.967234325555555</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.76</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>43.21102123</v>
+        <v>43.24471234573293</v>
       </c>
       <c r="B13" t="n">
-        <v>4.01167877</v>
+        <v>3.977987654267075</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>0.76</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43</v>
+        <v>43.21586609294109</v>
       </c>
       <c r="B14" t="n">
-        <v>4.222700000000003</v>
+        <v>4.006833907058914</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>0.76</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>43.28300697502331</v>
+        <v>43.18701984014925</v>
       </c>
       <c r="B15" t="n">
-        <v>3.939693024976697</v>
+        <v>4.035680159850751</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>0.76</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43.23246939620138</v>
+        <v>43.15392488568808</v>
       </c>
       <c r="B16" t="n">
-        <v>3.990230603798622</v>
+        <v>4.068775114311919</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>0.76</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43</v>
+        <v>43.2778073001941</v>
       </c>
       <c r="B17" t="n">
-        <v>4.222700000000003</v>
+        <v>3.944892699805908</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>0.76</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43.1390354849767</v>
+        <v>43</v>
       </c>
       <c r="B18" t="n">
-        <v>4.083664515023302</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.76</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19">
@@ -750,129 +750,129 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.76</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43.16657678555556</v>
+        <v>43.24471234573293</v>
       </c>
       <c r="B20" t="n">
-        <v>4.056123214444444</v>
+        <v>3.977987654267075</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
-        <v>0.76</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>43.18957306379863</v>
+        <v>43.21586609294109</v>
       </c>
       <c r="B21" t="n">
-        <v>4.033126936201377</v>
+        <v>4.006833907058914</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>0.76</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43.21560749366236</v>
+        <v>43.18701984014925</v>
       </c>
       <c r="B22" t="n">
-        <v>4.007092506337642</v>
+        <v>4.035680159850751</v>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>0.75</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43.26005193810681</v>
+        <v>43.28466323912949</v>
       </c>
       <c r="B23" t="n">
-        <v>3.962648061893198</v>
+        <v>3.938036760870519</v>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D23" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E23" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>43.19415932746098</v>
+        <v>43</v>
       </c>
       <c r="B24" t="n">
-        <v>4.02854067253902</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E24" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43.17116304921792</v>
+        <v>43.22697073354581</v>
       </c>
       <c r="B25" t="n">
-        <v>4.051536950782086</v>
+        <v>3.995729266454195</v>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D25" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E25" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>43.14362174863906</v>
+        <v>43.25581698633765</v>
       </c>
       <c r="B26" t="n">
-        <v>4.079078251360944</v>
+        <v>3.966883013662357</v>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D26" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E26" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="27">
@@ -886,180 +886,180 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E27" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43</v>
+        <v>43.19387577908464</v>
       </c>
       <c r="B28" t="n">
-        <v>4.222700000000003</v>
+        <v>4.028824220915363</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D28" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E28" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>43.28759323868567</v>
+        <v>43.31775819359065</v>
       </c>
       <c r="B29" t="n">
-        <v>3.93510676131434</v>
+        <v>3.904941806409352</v>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D29" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E29" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>43</v>
+        <v>43.28466323912949</v>
       </c>
       <c r="B30" t="n">
-        <v>4.222700000000003</v>
+        <v>3.938036760870519</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D30" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E30" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43.23705565986374</v>
+        <v>43</v>
       </c>
       <c r="B31" t="n">
-        <v>3.985644340136265</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E31" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43.21560749366236</v>
+        <v>43.22697073354581</v>
       </c>
       <c r="B32" t="n">
-        <v>4.007092506337642</v>
+        <v>3.995729266454195</v>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D32" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E32" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>43.26005193810681</v>
+        <v>43.25581698633765</v>
       </c>
       <c r="B33" t="n">
-        <v>3.962648061893198</v>
+        <v>3.966883013662357</v>
       </c>
       <c r="C33" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D33" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E33" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43.19415932746098</v>
+        <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>4.02854067253902</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C34" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E34" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43.17116304921792</v>
+        <v>43.19387577908464</v>
       </c>
       <c r="B35" t="n">
-        <v>4.051536950782086</v>
+        <v>4.028824220915363</v>
       </c>
       <c r="C35" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E35" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43.14362174863906</v>
+        <v>43.31775819359065</v>
       </c>
       <c r="B36" t="n">
-        <v>4.079078251360944</v>
+        <v>3.904941806409352</v>
       </c>
       <c r="C36" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D36" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E36" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>43</v>
+        <v>43.28466323912949</v>
       </c>
       <c r="B37" t="n">
-        <v>4.222700000000003</v>
+        <v>3.938036760870519</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D37" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E37" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="38">
@@ -1073,95 +1073,95 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E38" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43.28759323868567</v>
+        <v>43.22697073354581</v>
       </c>
       <c r="B39" t="n">
-        <v>3.93510676131434</v>
+        <v>3.995729266454195</v>
       </c>
       <c r="C39" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D39" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E39" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>43</v>
+        <v>43.25581698633765</v>
       </c>
       <c r="B40" t="n">
-        <v>4.222700000000003</v>
+        <v>3.966883013662357</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D40" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E40" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43.23705565986374</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n">
-        <v>3.985644340136265</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C41" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E41" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43.29985883211381</v>
+        <v>43.19387577908464</v>
       </c>
       <c r="B42" t="n">
-        <v>3.922841167886201</v>
+        <v>4.028824220915363</v>
       </c>
       <c r="C42" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D42" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="E42" t="n">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43.27231753153495</v>
+        <v>43.31775819359065</v>
       </c>
       <c r="B43" t="n">
-        <v>3.950382468465059</v>
+        <v>3.904941806409352</v>
       </c>
       <c r="C43" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D43" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="E43" t="n">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="44">
@@ -1175,27 +1175,27 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.74</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43.20642492088912</v>
+        <v>43.27296243725301</v>
       </c>
       <c r="B45" t="n">
-        <v>4.016275079110881</v>
+        <v>3.949737562746994</v>
       </c>
       <c r="C45" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D45" t="n">
-        <v>0.74</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="46">
@@ -1209,469 +1209,469 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.74</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43</v>
+        <v>43.149080022747</v>
       </c>
       <c r="B47" t="n">
-        <v>4.222700000000003</v>
+        <v>4.073619977253005</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D47" t="n">
-        <v>0.74</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43.18342864264606</v>
+        <v>43.23986748279184</v>
       </c>
       <c r="B48" t="n">
-        <v>4.039271357353948</v>
+        <v>3.982832517208161</v>
       </c>
       <c r="C48" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D48" t="n">
-        <v>0.74</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43.24932125329187</v>
+        <v>43.18217497720816</v>
       </c>
       <c r="B49" t="n">
-        <v>3.973378746708125</v>
+        <v>4.040525022791837</v>
       </c>
       <c r="C49" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D49" t="n">
-        <v>0.74</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>43.1558873420672</v>
+        <v>43.21102123</v>
       </c>
       <c r="B50" t="n">
-        <v>4.066812657932806</v>
+        <v>4.01167877</v>
       </c>
       <c r="C50" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D50" t="n">
-        <v>0.74</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43.2278730870905</v>
+        <v>43</v>
       </c>
       <c r="B51" t="n">
-        <v>3.994826912909503</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C51" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.74</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43.29985883211381</v>
+        <v>43.27296243725301</v>
       </c>
       <c r="B52" t="n">
-        <v>3.922841167886201</v>
+        <v>3.949737562746994</v>
       </c>
       <c r="C52" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D52" t="n">
-        <v>0.74</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43.27231753153495</v>
+        <v>43</v>
       </c>
       <c r="B53" t="n">
-        <v>3.950382468465059</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C53" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.74</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>43</v>
+        <v>43.149080022747</v>
       </c>
       <c r="B54" t="n">
-        <v>4.222700000000003</v>
+        <v>4.073619977253005</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D54" t="n">
-        <v>0.74</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>43.20642492088912</v>
+        <v>43.23986748279184</v>
       </c>
       <c r="B55" t="n">
-        <v>4.016275079110881</v>
+        <v>3.982832517208161</v>
       </c>
       <c r="C55" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D55" t="n">
-        <v>0.74</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43</v>
+        <v>43.18217497720816</v>
       </c>
       <c r="B56" t="n">
-        <v>4.222700000000003</v>
+        <v>4.040525022791837</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D56" t="n">
-        <v>0.74</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>43</v>
+        <v>43.21102123</v>
       </c>
       <c r="B57" t="n">
-        <v>4.222700000000003</v>
+        <v>4.01167877</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D57" t="n">
-        <v>0.74</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>43.18342864264606</v>
+        <v>43</v>
       </c>
       <c r="B58" t="n">
-        <v>4.039271357353948</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C58" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.74</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>43.24932125329187</v>
+        <v>43.27296243725301</v>
       </c>
       <c r="B59" t="n">
-        <v>3.973378746708125</v>
+        <v>3.949737562746994</v>
       </c>
       <c r="C59" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D59" t="n">
-        <v>0.74</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>43.1558873420672</v>
+        <v>43</v>
       </c>
       <c r="B60" t="n">
-        <v>4.066812657932806</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C60" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.74</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>43.2278730870905</v>
+        <v>43.149080022747</v>
       </c>
       <c r="B61" t="n">
-        <v>3.994826912909503</v>
+        <v>4.073619977253005</v>
       </c>
       <c r="C61" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D61" t="n">
-        <v>0.74</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>43.22168480428568</v>
+        <v>43.23986748279184</v>
       </c>
       <c r="B62" t="n">
-        <v>4.001015195714325</v>
+        <v>3.982832517208161</v>
       </c>
       <c r="C62" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D62" t="n">
-        <v>0.73</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>43.24313297048705</v>
+        <v>43.18217497720816</v>
       </c>
       <c r="B63" t="n">
-        <v>3.979567029512947</v>
+        <v>4.040525022791837</v>
       </c>
       <c r="C63" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D63" t="n">
-        <v>0.73</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43</v>
+        <v>43.21102123</v>
       </c>
       <c r="B64" t="n">
-        <v>4.222700000000003</v>
+        <v>4.01167877</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D64" t="n">
-        <v>0.73</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>43.31511871551036</v>
+        <v>43.28981429434351</v>
       </c>
       <c r="B65" t="n">
-        <v>3.907581284489645</v>
+        <v>3.932885705656497</v>
       </c>
       <c r="C65" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D65" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="E65" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>43.17114722546376</v>
+        <v>43.2278730870905</v>
       </c>
       <c r="B66" t="n">
-        <v>4.051552774536249</v>
+        <v>3.994826912909503</v>
       </c>
       <c r="C66" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D66" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="E66" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>43.26458113668843</v>
+        <v>43</v>
       </c>
       <c r="B67" t="n">
-        <v>3.95811886331157</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C67" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="E67" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>43.2875774149315</v>
+        <v>43.25671933988234</v>
       </c>
       <c r="B68" t="n">
-        <v>3.935122585068503</v>
+        <v>3.965980660117665</v>
       </c>
       <c r="C68" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D68" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="E68" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>43</v>
+        <v>43.19902683429866</v>
       </c>
       <c r="B69" t="n">
-        <v>4.222700000000003</v>
+        <v>4.023673165701341</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D69" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="E69" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>43.19868852604261</v>
+        <v>43</v>
       </c>
       <c r="B70" t="n">
-        <v>4.024011473957391</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C70" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="E70" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>43</v>
+        <v>43.16593187983749</v>
       </c>
       <c r="B71" t="n">
-        <v>4.222700000000003</v>
+        <v>4.056768120162508</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D71" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="E71" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>43.22168480428568</v>
+        <v>43.28981429434351</v>
       </c>
       <c r="B72" t="n">
-        <v>4.001015195714325</v>
+        <v>3.932885705656497</v>
       </c>
       <c r="C72" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D72" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="E72" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>43.24313297048705</v>
+        <v>43.2278730870905</v>
       </c>
       <c r="B73" t="n">
-        <v>3.979567029512947</v>
+        <v>3.994826912909503</v>
       </c>
       <c r="C73" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D73" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="E73" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="74">
@@ -1685,112 +1685,112 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="E74" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>43.31511871551036</v>
+        <v>43.25671933988234</v>
       </c>
       <c r="B75" t="n">
-        <v>3.907581284489645</v>
+        <v>3.965980660117665</v>
       </c>
       <c r="C75" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D75" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="E75" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>43.17114722546376</v>
+        <v>43.19902683429866</v>
       </c>
       <c r="B76" t="n">
-        <v>4.051552774536249</v>
+        <v>4.023673165701341</v>
       </c>
       <c r="C76" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D76" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="E76" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>43.26458113668843</v>
+        <v>43</v>
       </c>
       <c r="B77" t="n">
-        <v>3.95811886331157</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C77" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="E77" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43.2875774149315</v>
+        <v>43.16593187983749</v>
       </c>
       <c r="B78" t="n">
-        <v>3.935122585068503</v>
+        <v>4.056768120162508</v>
       </c>
       <c r="C78" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D78" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="E78" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>43</v>
+        <v>43.28981429434351</v>
       </c>
       <c r="B79" t="n">
-        <v>4.222700000000003</v>
+        <v>3.932885705656497</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D79" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="E79" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>43.19868852604261</v>
+        <v>43.2278730870905</v>
       </c>
       <c r="B80" t="n">
-        <v>4.024011473957391</v>
+        <v>3.994826912909503</v>
       </c>
       <c r="C80" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D80" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="E80" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="81">
@@ -1804,146 +1804,146 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="E81" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>43.30000283150336</v>
+        <v>43.25671933988234</v>
       </c>
       <c r="B82" t="n">
-        <v>3.922697168496642</v>
+        <v>3.965980660117665</v>
       </c>
       <c r="C82" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D82" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="E82" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>43.25555838705892</v>
+        <v>43.19902683429866</v>
       </c>
       <c r="B83" t="n">
-        <v>3.967141612941086</v>
+        <v>4.023673165701341</v>
       </c>
       <c r="C83" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D83" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="E83" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>43.23411022085754</v>
+        <v>43</v>
       </c>
       <c r="B84" t="n">
-        <v>3.988589779142464</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C84" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="E84" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>43.21111394261447</v>
+        <v>43.16593187983749</v>
       </c>
       <c r="B85" t="n">
-        <v>4.01158605738553</v>
+        <v>4.056768120162508</v>
       </c>
       <c r="C85" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D85" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="E85" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>43.32754413208222</v>
+        <v>43</v>
       </c>
       <c r="B86" t="n">
-        <v>3.895155867917784</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C86" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="E86" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>43</v>
+        <v>43.149080022747</v>
       </c>
       <c r="B87" t="n">
-        <v>4.222700000000003</v>
+        <v>4.073619977253005</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D87" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="E87" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>43.18357264203561</v>
+        <v>43.27296243725301</v>
       </c>
       <c r="B88" t="n">
-        <v>4.039127357964388</v>
+        <v>3.949737562746994</v>
       </c>
       <c r="C88" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D88" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="E88" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>43.27700655326029</v>
+        <v>43.18217497720816</v>
       </c>
       <c r="B89" t="n">
-        <v>3.945693446739709</v>
+        <v>4.040525022791837</v>
       </c>
       <c r="C89" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D89" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="E89" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="90">
@@ -1957,112 +1957,112 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="E90" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>43</v>
+        <v>43.23986748279184</v>
       </c>
       <c r="B91" t="n">
-        <v>4.222700000000003</v>
+        <v>3.982832517208161</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D91" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="E91" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>43.30000283150336</v>
+        <v>43.21102123</v>
       </c>
       <c r="B92" t="n">
-        <v>3.922697168496642</v>
+        <v>4.01167877</v>
       </c>
       <c r="C92" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D92" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="E92" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>43.25555838705892</v>
+        <v>43</v>
       </c>
       <c r="B93" t="n">
-        <v>3.967141612941086</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C93" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="E93" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>43.23411022085754</v>
+        <v>43.149080022747</v>
       </c>
       <c r="B94" t="n">
-        <v>3.988589779142464</v>
+        <v>4.073619977253005</v>
       </c>
       <c r="C94" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D94" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="E94" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>43.21111394261447</v>
+        <v>43.27296243725301</v>
       </c>
       <c r="B95" t="n">
-        <v>4.01158605738553</v>
+        <v>3.949737562746994</v>
       </c>
       <c r="C95" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D95" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="E95" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>43.32754413208222</v>
+        <v>43.18217497720816</v>
       </c>
       <c r="B96" t="n">
-        <v>3.895155867917784</v>
+        <v>4.040525022791837</v>
       </c>
       <c r="C96" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D96" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="E96" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="97">
@@ -2076,44 +2076,44 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="E97" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>43.18357264203561</v>
+        <v>43.23986748279184</v>
       </c>
       <c r="B98" t="n">
-        <v>4.039127357964388</v>
+        <v>3.982832517208161</v>
       </c>
       <c r="C98" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D98" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="E98" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>43.27700655326029</v>
+        <v>43.21102123</v>
       </c>
       <c r="B99" t="n">
-        <v>3.945693446739709</v>
+        <v>4.01167877</v>
       </c>
       <c r="C99" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D99" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="E99" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="100">
@@ -2127,214 +2127,214 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="E100" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>43</v>
+        <v>43.149080022747</v>
       </c>
       <c r="B101" t="n">
-        <v>4.222700000000003</v>
+        <v>4.073619977253005</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D101" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="E101" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>43</v>
+        <v>43.27296243725301</v>
       </c>
       <c r="B102" t="n">
-        <v>4.222700000000003</v>
+        <v>3.949737562746994</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D102" t="n">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="E102" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>43</v>
+        <v>43.18217497720816</v>
       </c>
       <c r="B103" t="n">
-        <v>4.222700000000003</v>
+        <v>4.040525022791837</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D103" t="n">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="E103" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>43.21595880555556</v>
+        <v>43</v>
       </c>
       <c r="B104" t="n">
-        <v>4.006741194444444</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C104" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="E104" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>43.23895508379863</v>
+        <v>43.23986748279184</v>
       </c>
       <c r="B105" t="n">
-        <v>3.983744916201377</v>
+        <v>3.982832517208161</v>
       </c>
       <c r="C105" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D105" t="n">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="E105" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>43.33238899502331</v>
+        <v>43.21102123</v>
       </c>
       <c r="B106" t="n">
-        <v>3.890311004976697</v>
+        <v>4.01167877</v>
       </c>
       <c r="C106" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D106" t="n">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="E106" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>43.30484769444445</v>
+        <v>43</v>
       </c>
       <c r="B107" t="n">
-        <v>3.917852305555555</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C107" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>0.71</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>43.1884175049767</v>
+        <v>43.25713776230479</v>
       </c>
       <c r="B108" t="n">
-        <v>4.034282495023302</v>
+        <v>3.965562237695214</v>
       </c>
       <c r="C108" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D108" t="n">
-        <v>0.71</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>43</v>
+        <v>43.22829150951295</v>
       </c>
       <c r="B109" t="n">
-        <v>4.222700000000003</v>
+        <v>3.994408490487052</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D109" t="n">
-        <v>0.71</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>43.28185141620138</v>
+        <v>43.16635030225994</v>
       </c>
       <c r="B110" t="n">
-        <v>3.940848583798622</v>
+        <v>4.056349697740058</v>
       </c>
       <c r="C110" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D110" t="n">
-        <v>0.71</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>43.26040325</v>
+        <v>43.29023271676596</v>
       </c>
       <c r="B111" t="n">
-        <v>3.96229675</v>
+        <v>3.932467283234047</v>
       </c>
       <c r="C111" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D111" t="n">
-        <v>0.71</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>43</v>
+        <v>43.19944525672111</v>
       </c>
       <c r="B112" t="n">
-        <v>4.222700000000003</v>
+        <v>4.023254743278891</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D112" t="n">
-        <v>0.71</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="E112" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="113">
@@ -2348,497 +2348,497 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>0.71</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="E113" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>43.21595880555556</v>
+        <v>43</v>
       </c>
       <c r="B114" t="n">
-        <v>4.006741194444444</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C114" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0.71</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>43.23895508379863</v>
+        <v>43.25713776230479</v>
       </c>
       <c r="B115" t="n">
-        <v>3.983744916201377</v>
+        <v>3.965562237695214</v>
       </c>
       <c r="C115" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D115" t="n">
-        <v>0.71</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>43.33238899502331</v>
+        <v>43.22829150951295</v>
       </c>
       <c r="B116" t="n">
-        <v>3.890311004976697</v>
+        <v>3.994408490487052</v>
       </c>
       <c r="C116" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D116" t="n">
-        <v>0.71</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>43.30484769444445</v>
+        <v>43.16635030225994</v>
       </c>
       <c r="B117" t="n">
-        <v>3.917852305555555</v>
+        <v>4.056349697740058</v>
       </c>
       <c r="C117" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D117" t="n">
-        <v>0.71</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>43.1884175049767</v>
+        <v>43.29023271676596</v>
       </c>
       <c r="B118" t="n">
-        <v>4.034282495023302</v>
+        <v>3.932467283234047</v>
       </c>
       <c r="C118" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D118" t="n">
-        <v>0.71</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>43</v>
+        <v>43.19944525672111</v>
       </c>
       <c r="B119" t="n">
-        <v>4.222700000000003</v>
+        <v>4.023254743278891</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D119" t="n">
-        <v>0.71</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>43.28185141620138</v>
+        <v>43</v>
       </c>
       <c r="B120" t="n">
-        <v>3.940848583798622</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C120" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>0.71</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="E120" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>43.26040325</v>
+        <v>43</v>
       </c>
       <c r="B121" t="n">
-        <v>3.96229675</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C121" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0.71</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="E121" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>43</v>
+        <v>43.25713776230479</v>
       </c>
       <c r="B122" t="n">
-        <v>4.222700000000003</v>
+        <v>3.965562237695214</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>43</v>
+        <v>43.22829150951295</v>
       </c>
       <c r="B123" t="n">
-        <v>4.222700000000003</v>
+        <v>3.994408490487052</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>43.23436882013627</v>
+        <v>43.16635030225994</v>
       </c>
       <c r="B124" t="n">
-        <v>3.988331179863735</v>
+        <v>4.056349697740058</v>
       </c>
       <c r="C124" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>43.18383124131434</v>
+        <v>43.29023271676596</v>
       </c>
       <c r="B125" t="n">
-        <v>4.03886875868566</v>
+        <v>3.932467283234047</v>
       </c>
       <c r="C125" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>43</v>
+        <v>43.19944525672111</v>
       </c>
       <c r="B126" t="n">
-        <v>4.222700000000003</v>
+        <v>4.023254743278891</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D126" t="n">
-        <v>0.7</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>43.25581698633765</v>
+        <v>43</v>
       </c>
       <c r="B127" t="n">
-        <v>3.966883013662357</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C127" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>0.7</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>43.2113725418932</v>
+        <v>43</v>
       </c>
       <c r="B128" t="n">
-        <v>4.011327458106802</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C128" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>43.27726515253902</v>
+        <v>43.21470514011767</v>
       </c>
       <c r="B129" t="n">
-        <v>3.94543484746098</v>
+        <v>4.007994859882334</v>
       </c>
       <c r="C129" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D129" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>43.30026143078209</v>
+        <v>43.24355139290951</v>
       </c>
       <c r="B130" t="n">
-        <v>3.922438569217913</v>
+        <v>3.979148607090496</v>
       </c>
       <c r="C130" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>43.32780273136095</v>
+        <v>43</v>
       </c>
       <c r="B131" t="n">
-        <v>3.894897268639055</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C131" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>43</v>
+        <v>43.27239764570135</v>
       </c>
       <c r="B132" t="n">
-        <v>4.222700000000003</v>
+        <v>3.950302354298658</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D132" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>43</v>
+        <v>43.1816101856565</v>
       </c>
       <c r="B133" t="n">
-        <v>4.222700000000003</v>
+        <v>4.041089814343501</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D133" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>43.23436882013627</v>
+        <v>43.30549260016251</v>
       </c>
       <c r="B134" t="n">
-        <v>3.988331179863735</v>
+        <v>3.917207399837491</v>
       </c>
       <c r="C134" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D134" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E134" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>43.18383124131434</v>
+        <v>43</v>
       </c>
       <c r="B135" t="n">
-        <v>4.03886875868566</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C135" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E135" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>43</v>
+        <v>43.21470514011767</v>
       </c>
       <c r="B136" t="n">
-        <v>4.222700000000003</v>
+        <v>4.007994859882334</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D136" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E136" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>43.25581698633765</v>
+        <v>43.24355139290951</v>
       </c>
       <c r="B137" t="n">
-        <v>3.966883013662357</v>
+        <v>3.979148607090496</v>
       </c>
       <c r="C137" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D137" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E137" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>43.2113725418932</v>
+        <v>43</v>
       </c>
       <c r="B138" t="n">
-        <v>4.011327458106802</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C138" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>43.27726515253902</v>
+        <v>43.27239764570135</v>
       </c>
       <c r="B139" t="n">
-        <v>3.94543484746098</v>
+        <v>3.950302354298658</v>
       </c>
       <c r="C139" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D139" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E139" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>43.30026143078209</v>
+        <v>43.1816101856565</v>
       </c>
       <c r="B140" t="n">
-        <v>3.922438569217913</v>
+        <v>4.041089814343501</v>
       </c>
       <c r="C140" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D140" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E140" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>43.32780273136095</v>
+        <v>43.30549260016251</v>
       </c>
       <c r="B141" t="n">
-        <v>3.894897268639055</v>
+        <v>3.917207399837491</v>
       </c>
       <c r="C141" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D141" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E141" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>43.31553713793281</v>
+        <v>43</v>
       </c>
       <c r="B142" t="n">
-        <v>3.907162862067194</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C142" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D142" t="n">
         <v>0.6899999999999999</v>
@@ -2849,13 +2849,13 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>43.1715656478862</v>
+        <v>43.21470514011767</v>
       </c>
       <c r="B143" t="n">
-        <v>4.051134352113799</v>
+        <v>4.007994859882334</v>
       </c>
       <c r="C143" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D143" t="n">
         <v>0.6899999999999999</v>
@@ -2866,13 +2866,13 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>43</v>
+        <v>43.24355139290951</v>
       </c>
       <c r="B144" t="n">
-        <v>4.222700000000003</v>
+        <v>3.979148607090496</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D144" t="n">
         <v>0.6899999999999999</v>
@@ -2883,13 +2883,13 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>43.24355139290951</v>
+        <v>43</v>
       </c>
       <c r="B145" t="n">
-        <v>3.979148607090496</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C145" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D145" t="n">
         <v>0.6899999999999999</v>
@@ -2900,13 +2900,13 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>43.22210322670813</v>
+        <v>43.27239764570135</v>
       </c>
       <c r="B146" t="n">
-        <v>4.000596773291874</v>
+        <v>3.950302354298658</v>
       </c>
       <c r="C146" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D146" t="n">
         <v>0.6899999999999999</v>
@@ -2917,13 +2917,13 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>43</v>
+        <v>43.1816101856565</v>
       </c>
       <c r="B147" t="n">
-        <v>4.222700000000003</v>
+        <v>4.041089814343501</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D147" t="n">
         <v>0.6899999999999999</v>
@@ -2934,13 +2934,13 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>43.26499955911088</v>
+        <v>43.30549260016251</v>
       </c>
       <c r="B148" t="n">
-        <v>3.957700440889119</v>
+        <v>3.917207399837491</v>
       </c>
       <c r="C148" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D148" t="n">
         <v>0.6899999999999999</v>
@@ -2951,19 +2951,19 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>43.19910694846507</v>
+        <v>43.18119176323405</v>
       </c>
       <c r="B149" t="n">
-        <v>4.023593051534941</v>
+        <v>4.041508236765952</v>
       </c>
       <c r="C149" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D149" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="E149" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="150">
@@ -2977,112 +2977,112 @@
         <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="E150" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>43.28799583735395</v>
+        <v>43.30507417774006</v>
       </c>
       <c r="B151" t="n">
-        <v>3.934704162646052</v>
+        <v>3.917625822259942</v>
       </c>
       <c r="C151" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D151" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="E151" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>43.31553713793281</v>
+        <v>43</v>
       </c>
       <c r="B152" t="n">
-        <v>3.907162862067194</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C152" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="E152" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>43.1715656478862</v>
+        <v>43.24313297048705</v>
       </c>
       <c r="B153" t="n">
-        <v>4.051134352113799</v>
+        <v>3.979567029512947</v>
       </c>
       <c r="C153" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D153" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="E153" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>43</v>
+        <v>43.2719792232789</v>
       </c>
       <c r="B154" t="n">
-        <v>4.222700000000003</v>
+        <v>3.950720776721109</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D154" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="E154" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>43.24355139290951</v>
+        <v>43.21428671769522</v>
       </c>
       <c r="B155" t="n">
-        <v>3.979148607090496</v>
+        <v>4.008413282304785</v>
       </c>
       <c r="C155" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D155" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="E155" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>43.22210322670813</v>
+        <v>43.18119176323405</v>
       </c>
       <c r="B156" t="n">
-        <v>4.000596773291874</v>
+        <v>4.041508236765952</v>
       </c>
       <c r="C156" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D156" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="E156" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="157">
@@ -3096,520 +3096,520 @@
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="E157" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>43.26499955911088</v>
+        <v>43.30507417774006</v>
       </c>
       <c r="B158" t="n">
-        <v>3.957700440889119</v>
+        <v>3.917625822259942</v>
       </c>
       <c r="C158" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D158" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="E158" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>43.19910694846507</v>
+        <v>43</v>
       </c>
       <c r="B159" t="n">
-        <v>4.023593051534941</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C159" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="E159" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>43</v>
+        <v>43.24313297048705</v>
       </c>
       <c r="B160" t="n">
-        <v>4.222700000000003</v>
+        <v>3.979567029512947</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D160" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="E160" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>43.28799583735395</v>
+        <v>43.2719792232789</v>
       </c>
       <c r="B161" t="n">
-        <v>3.934704162646052</v>
+        <v>3.950720776721109</v>
       </c>
       <c r="C161" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D161" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="E161" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>43</v>
+        <v>43.21428671769522</v>
       </c>
       <c r="B162" t="n">
-        <v>4.222700000000003</v>
+        <v>4.008413282304785</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D162" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="E162" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>43.24973967571433</v>
+        <v>43.18119176323405</v>
       </c>
       <c r="B163" t="n">
-        <v>3.972960324285675</v>
+        <v>4.041508236765952</v>
       </c>
       <c r="C163" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D163" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="E163" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>43.30027725453625</v>
+        <v>43</v>
       </c>
       <c r="B164" t="n">
-        <v>3.92242274546375</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C164" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="E164" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>43</v>
+        <v>43.30507417774006</v>
       </c>
       <c r="B165" t="n">
-        <v>4.222700000000003</v>
+        <v>3.917625822259942</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D165" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="E165" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>43.27273595395739</v>
+        <v>43</v>
       </c>
       <c r="B166" t="n">
-        <v>3.949964046042608</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C166" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="E166" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>43</v>
+        <v>43.24313297048705</v>
       </c>
       <c r="B167" t="n">
-        <v>4.222700000000003</v>
+        <v>3.979567029512947</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D167" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="E167" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>43.18384706506851</v>
+        <v>43.2719792232789</v>
       </c>
       <c r="B168" t="n">
-        <v>4.038852934931497</v>
+        <v>3.950720776721109</v>
       </c>
       <c r="C168" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D168" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="E168" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>43.15630576448964</v>
+        <v>43.21428671769522</v>
       </c>
       <c r="B169" t="n">
-        <v>4.066394235510355</v>
+        <v>4.008413282304785</v>
       </c>
       <c r="C169" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D169" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="E169" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>43.22829150951295</v>
+        <v>43.23155699720817</v>
       </c>
       <c r="B170" t="n">
-        <v>3.994408490487052</v>
+        <v>3.991143002791838</v>
       </c>
       <c r="C170" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D170" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="E170" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>43.20684334331158</v>
+        <v>43</v>
       </c>
       <c r="B171" t="n">
-        <v>4.01585665668843</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C171" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="E171" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>43</v>
+        <v>43.26040325</v>
       </c>
       <c r="B172" t="n">
-        <v>4.222700000000003</v>
+        <v>3.96229675</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D172" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="E172" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>43.24973967571433</v>
+        <v>43.32234445725301</v>
       </c>
       <c r="B173" t="n">
-        <v>3.972960324285675</v>
+        <v>3.900355542746994</v>
       </c>
       <c r="C173" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D173" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="E173" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>43.30027725453625</v>
+        <v>43</v>
       </c>
       <c r="B174" t="n">
-        <v>3.92242274546375</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C174" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="E174" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>43</v>
+        <v>43.198462042747</v>
       </c>
       <c r="B175" t="n">
-        <v>4.222700000000003</v>
+        <v>4.024237957253005</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D175" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="E175" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>43.27273595395739</v>
+        <v>43.28924950279184</v>
       </c>
       <c r="B176" t="n">
-        <v>3.949964046042608</v>
+        <v>3.933450497208161</v>
       </c>
       <c r="C176" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D176" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="E176" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>43</v>
+        <v>43.23155699720817</v>
       </c>
       <c r="B177" t="n">
-        <v>4.222700000000003</v>
+        <v>3.991143002791838</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D177" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="E177" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>43.18384706506851</v>
+        <v>43</v>
       </c>
       <c r="B178" t="n">
-        <v>4.038852934931497</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C178" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="E178" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>43.15630576448964</v>
+        <v>43.26040325</v>
       </c>
       <c r="B179" t="n">
-        <v>4.066394235510355</v>
+        <v>3.96229675</v>
       </c>
       <c r="C179" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D179" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="E179" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>43.22829150951295</v>
+        <v>43.32234445725301</v>
       </c>
       <c r="B180" t="n">
-        <v>3.994408490487052</v>
+        <v>3.900355542746994</v>
       </c>
       <c r="C180" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D180" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="E180" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>43.20684334331158</v>
+        <v>43</v>
       </c>
       <c r="B181" t="n">
-        <v>4.01585665668843</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C181" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="E181" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>43.19441792673971</v>
+        <v>43.198462042747</v>
       </c>
       <c r="B182" t="n">
-        <v>4.028282073260291</v>
+        <v>4.024237957253005</v>
       </c>
       <c r="C182" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D182" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="E182" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>43.28785183796439</v>
+        <v>43.28924950279184</v>
       </c>
       <c r="B183" t="n">
-        <v>3.934848162035611</v>
+        <v>3.933450497208161</v>
       </c>
       <c r="C183" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D183" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="E183" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>43.17142164849665</v>
+        <v>43.23155699720817</v>
       </c>
       <c r="B184" t="n">
-        <v>4.051278351503358</v>
+        <v>3.991143002791838</v>
       </c>
       <c r="C184" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D184" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="E184" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>43.23731425914247</v>
+        <v>43</v>
       </c>
       <c r="B185" t="n">
-        <v>3.985385740857536</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C185" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="E185" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>43.21586609294109</v>
+        <v>43.26040325</v>
       </c>
       <c r="B186" t="n">
-        <v>4.006833907058914</v>
+        <v>3.96229675</v>
       </c>
       <c r="C186" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D186" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="E186" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>43.26031053738554</v>
+        <v>43.32234445725301</v>
       </c>
       <c r="B187" t="n">
-        <v>3.962389462614469</v>
+        <v>3.900355542746994</v>
       </c>
       <c r="C187" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D187" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="E187" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="188">
@@ -3623,44 +3623,44 @@
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="E188" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>43</v>
+        <v>43.198462042747</v>
       </c>
       <c r="B189" t="n">
-        <v>4.222700000000003</v>
+        <v>4.024237957253005</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D189" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="E189" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>43.14388034791779</v>
+        <v>43.28924950279184</v>
       </c>
       <c r="B190" t="n">
-        <v>4.078819652082216</v>
+        <v>3.933450497208161</v>
       </c>
       <c r="C190" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D190" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="E190" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="191">
@@ -3674,112 +3674,112 @@
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E191" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>43.19441792673971</v>
+        <v>43.15366628640935</v>
       </c>
       <c r="B192" t="n">
-        <v>4.028282073260291</v>
+        <v>4.069033713590647</v>
       </c>
       <c r="C192" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D192" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E192" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>43.28785183796439</v>
+        <v>43.18676124087052</v>
       </c>
       <c r="B193" t="n">
-        <v>3.934848162035611</v>
+        <v>4.03593875912948</v>
       </c>
       <c r="C193" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D193" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E193" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>43.17142164849665</v>
+        <v>43</v>
       </c>
       <c r="B194" t="n">
-        <v>4.051278351503358</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C194" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E194" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>43.23731425914247</v>
+        <v>43.21560749366236</v>
       </c>
       <c r="B195" t="n">
-        <v>3.985385740857536</v>
+        <v>4.007092506337642</v>
       </c>
       <c r="C195" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D195" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E195" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>43.21586609294109</v>
+        <v>43.2444537464542</v>
       </c>
       <c r="B196" t="n">
-        <v>4.006833907058914</v>
+        <v>3.978246253545804</v>
       </c>
       <c r="C196" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D196" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E196" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>43.26031053738554</v>
+        <v>43.27754870091537</v>
       </c>
       <c r="B197" t="n">
-        <v>3.962389462614469</v>
+        <v>3.945151299084637</v>
       </c>
       <c r="C197" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D197" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E197" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="198">
@@ -3793,44 +3793,44 @@
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E198" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>43</v>
+        <v>43.15366628640935</v>
       </c>
       <c r="B199" t="n">
-        <v>4.222700000000003</v>
+        <v>4.069033713590647</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D199" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E199" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>43.14388034791779</v>
+        <v>43.18676124087052</v>
       </c>
       <c r="B200" t="n">
-        <v>4.078819652082216</v>
+        <v>4.03593875912948</v>
       </c>
       <c r="C200" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D200" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E200" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="201">
@@ -3844,61 +3844,61 @@
         <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E201" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>43.16657678555556</v>
+        <v>43.21560749366236</v>
       </c>
       <c r="B202" t="n">
-        <v>4.056123214444444</v>
+        <v>4.007092506337642</v>
       </c>
       <c r="C202" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D202" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E202" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>43.1390354849767</v>
+        <v>43.2444537464542</v>
       </c>
       <c r="B203" t="n">
-        <v>4.083664515023302</v>
+        <v>3.978246253545804</v>
       </c>
       <c r="C203" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D203" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E203" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>43</v>
+        <v>43.27754870091537</v>
       </c>
       <c r="B204" t="n">
-        <v>4.222700000000003</v>
+        <v>3.945151299084637</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D204" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E204" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="205">
@@ -3912,44 +3912,44 @@
         <v>0</v>
       </c>
       <c r="D205" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E205" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>43.23246939620138</v>
+        <v>43.15366628640935</v>
       </c>
       <c r="B206" t="n">
-        <v>3.990230603798622</v>
+        <v>4.069033713590647</v>
       </c>
       <c r="C206" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D206" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E206" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>43.25546567444445</v>
+        <v>43.18676124087052</v>
       </c>
       <c r="B207" t="n">
-        <v>3.967234325555555</v>
+        <v>4.03593875912948</v>
       </c>
       <c r="C207" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D207" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E207" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="208">
@@ -3963,112 +3963,112 @@
         <v>0</v>
       </c>
       <c r="D208" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E208" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>43.21102123</v>
+        <v>43.21560749366236</v>
       </c>
       <c r="B209" t="n">
-        <v>4.01167877</v>
+        <v>4.007092506337642</v>
       </c>
       <c r="C209" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D209" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E209" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>43.18957306379863</v>
+        <v>43.2444537464542</v>
       </c>
       <c r="B210" t="n">
-        <v>4.033126936201377</v>
+        <v>3.978246253545804</v>
       </c>
       <c r="C210" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D210" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E210" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>43.28300697502331</v>
+        <v>43.27754870091537</v>
       </c>
       <c r="B211" t="n">
-        <v>3.939693024976697</v>
+        <v>3.945151299084637</v>
       </c>
       <c r="C211" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D211" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E211" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>43.16657678555556</v>
+        <v>43.28440463985076</v>
       </c>
       <c r="B212" t="n">
-        <v>4.056123214444444</v>
+        <v>3.938295360149248</v>
       </c>
       <c r="C212" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D212" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E212" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>43.1390354849767</v>
+        <v>43.31749959431193</v>
       </c>
       <c r="B213" t="n">
-        <v>4.083664515023302</v>
+        <v>3.905200405688081</v>
       </c>
       <c r="C213" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D213" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E213" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>43</v>
+        <v>43.19361717980591</v>
       </c>
       <c r="B214" t="n">
-        <v>4.222700000000003</v>
+        <v>4.029082820194091</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D214" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E214" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="215">
@@ -4082,112 +4082,299 @@
         <v>0</v>
       </c>
       <c r="D215" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E215" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>43.23246939620138</v>
+        <v>43</v>
       </c>
       <c r="B216" t="n">
-        <v>3.990230603798622</v>
+        <v>4.222700000000003</v>
       </c>
       <c r="C216" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E216" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>43.25546567444445</v>
+        <v>43.25555838705892</v>
       </c>
       <c r="B217" t="n">
-        <v>3.967234325555555</v>
+        <v>3.967141612941086</v>
       </c>
       <c r="C217" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D217" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E217" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>43</v>
+        <v>43.22671213426708</v>
       </c>
       <c r="B218" t="n">
-        <v>4.222700000000003</v>
+        <v>3.995987865732924</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D218" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E218" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>43.21102123</v>
+        <v>43.28440463985076</v>
       </c>
       <c r="B219" t="n">
-        <v>4.01167877</v>
+        <v>3.938295360149248</v>
       </c>
       <c r="C219" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D219" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E219" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>43.18957306379863</v>
+        <v>43.31749959431193</v>
       </c>
       <c r="B220" t="n">
-        <v>4.033126936201377</v>
+        <v>3.905200405688081</v>
       </c>
       <c r="C220" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D220" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E220" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>43.28300697502331</v>
+        <v>43.19361717980591</v>
       </c>
       <c r="B221" t="n">
-        <v>3.939693024976697</v>
+        <v>4.029082820194091</v>
       </c>
       <c r="C221" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D221" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E221" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>43</v>
+      </c>
+      <c r="B222" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>43</v>
+      </c>
+      <c r="B223" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>43.25555838705892</v>
+      </c>
+      <c r="B224" t="n">
+        <v>3.967141612941086</v>
+      </c>
+      <c r="C224" t="n">
+        <v>9</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>43.22671213426708</v>
+      </c>
+      <c r="B225" t="n">
+        <v>3.995987865732924</v>
+      </c>
+      <c r="C225" t="n">
+        <v>9</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>43.28440463985076</v>
+      </c>
+      <c r="B226" t="n">
+        <v>3.938295360149248</v>
+      </c>
+      <c r="C226" t="n">
+        <v>9</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>43.31749959431193</v>
+      </c>
+      <c r="B227" t="n">
+        <v>3.905200405688081</v>
+      </c>
+      <c r="C227" t="n">
+        <v>9</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>43.19361717980591</v>
+      </c>
+      <c r="B228" t="n">
+        <v>4.029082820194091</v>
+      </c>
+      <c r="C228" t="n">
+        <v>9</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>43</v>
+      </c>
+      <c r="B229" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>43</v>
+      </c>
+      <c r="B230" t="n">
+        <v>4.222700000000003</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>43.25555838705892</v>
+      </c>
+      <c r="B231" t="n">
+        <v>3.967141612941086</v>
+      </c>
+      <c r="C231" t="n">
+        <v>9</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>43.22671213426708</v>
+      </c>
+      <c r="B232" t="n">
+        <v>3.995987865732924</v>
+      </c>
+      <c r="C232" t="n">
+        <v>9</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/phase_shift_scanlist.xlsx
+++ b/phase_shift_scanlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,1906 +462,2144 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>202.1443548738203</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B2" t="n">
-        <v>47.37340719586602</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="E2" t="n">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>202.1443548738203</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B3" t="n">
-        <v>47.37340719586602</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="E3" t="n">
-        <v>0.28</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>202.0816090522714</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B4" t="n">
-        <v>47.36275231806718</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C4" t="n">
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.74</v>
+        <v>0.61</v>
       </c>
       <c r="E4" t="n">
-        <v>0.22</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>202.2419585285108</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B5" t="n">
-        <v>47.3899773894429</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C5" t="n">
         <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.71</v>
+        <v>0.49</v>
       </c>
       <c r="E5" t="n">
-        <v>0.25</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>202.2052493477286</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B6" t="n">
-        <v>47.38374582059588</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E6" t="n">
-        <v>0.27</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>202.2052493477286</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B7" t="n">
-        <v>47.38374582059588</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="E7" t="n">
-        <v>0.27</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B8" t="n">
-        <v>47.36275231806718</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.74</v>
+        <v>0.59</v>
       </c>
       <c r="E8" t="n">
-        <v>0.22</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>202.1443548738203</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B9" t="n">
-        <v>47.37340719586602</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>202.0443277736058</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B10" t="n">
-        <v>47.35642064920658</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.75</v>
+        <v>0.53</v>
       </c>
       <c r="E10" t="n">
-        <v>0.21</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>202.2052493477286</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B11" t="n">
-        <v>47.38374582059588</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="E11" t="n">
-        <v>0.27</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>202.2419585285108</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B12" t="n">
-        <v>47.3899773894429</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.71</v>
+        <v>0.55</v>
       </c>
       <c r="E12" t="n">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B13" t="n">
-        <v>47.35642064920658</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.75</v>
+        <v>0.49</v>
       </c>
       <c r="E13" t="n">
-        <v>0.21</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>202.203751576025</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B14" t="n">
-        <v>47.38349155203341</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>0.72</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>202.1443548738203</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B15" t="n">
-        <v>47.37340719586602</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="E15" t="n">
-        <v>0.28</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>202.1443548738203</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B16" t="n">
-        <v>47.37340719586602</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="E16" t="n">
-        <v>0.28</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>202.0816090522714</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B17" t="n">
-        <v>47.36275231806718</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.74</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.22</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>202.2419585285108</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B18" t="n">
-        <v>47.3899773894429</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.71</v>
+        <v>0.51</v>
       </c>
       <c r="E18" t="n">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>202.0443277736058</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B19" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>0.75</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.21</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>202.0443277736058</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B20" t="n">
-        <v>47.35642064920658</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="E20" t="n">
-        <v>0.21</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>202.2419585285108</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B21" t="n">
-        <v>47.3899773894429</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.71</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>202.2052493477286</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B22" t="n">
-        <v>47.38374582059588</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E22" t="n">
-        <v>0.27</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>202.2425306263942</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B23" t="n">
-        <v>47.39007450063703</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7</v>
+        <v>0.49</v>
       </c>
       <c r="E23" t="n">
-        <v>0.26</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>202.0816090522714</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B24" t="n">
-        <v>47.36275231806718</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.74</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.22</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>202.2419585285108</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B25" t="n">
-        <v>47.3899773894429</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.71</v>
+        <v>0.53</v>
       </c>
       <c r="E25" t="n">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>202.203751576025</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B26" t="n">
-        <v>47.38349155203341</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D26" t="n">
-        <v>0.72</v>
+        <v>0.61</v>
       </c>
       <c r="E26" t="n">
-        <v>0.24</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>202.2419585285108</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B27" t="n">
-        <v>47.3899773894429</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.71</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B28" t="n">
-        <v>47.3730928463169</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D28" t="n">
-        <v>0.73</v>
+        <v>0.51</v>
       </c>
       <c r="E28" t="n">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B29" t="n">
-        <v>47.35642064920658</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D29" t="n">
-        <v>0.75</v>
+        <v>0.57</v>
       </c>
       <c r="E29" t="n">
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B30" t="n">
-        <v>47.3730928463169</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D30" t="n">
-        <v>0.73</v>
+        <v>0.49</v>
       </c>
       <c r="E30" t="n">
-        <v>0.23</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>202.0443277736058</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B31" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.75</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>0.21</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>202.2425306263942</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B32" t="n">
-        <v>47.39007450063703</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C32" t="n">
         <v>10</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7</v>
+        <v>0.57</v>
       </c>
       <c r="E32" t="n">
-        <v>0.26</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>202.2052493477286</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B33" t="n">
-        <v>47.38374582059588</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="E33" t="n">
-        <v>0.27</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>202.203751576025</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B34" t="n">
-        <v>47.38349155203341</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D34" t="n">
-        <v>0.72</v>
+        <v>0.61</v>
       </c>
       <c r="E34" t="n">
-        <v>0.24</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>202.0816090522714</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B35" t="n">
-        <v>47.36275231806718</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.74</v>
+        <v>0.55</v>
       </c>
       <c r="E35" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>202.203751576025</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B36" t="n">
-        <v>47.38349155203341</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C36" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.72</v>
+        <v>0.57</v>
       </c>
       <c r="E36" t="n">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>202.1443548738203</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B37" t="n">
-        <v>47.37340719586602</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C37" t="n">
         <v>10</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E37" t="n">
-        <v>0.28</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>202.2419585285108</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B38" t="n">
-        <v>47.3899773894429</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C38" t="n">
         <v>10</v>
       </c>
       <c r="D38" t="n">
-        <v>0.71</v>
+        <v>0.53</v>
       </c>
       <c r="E38" t="n">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B39" t="n">
-        <v>47.3730928463169</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C39" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.73</v>
+        <v>0.59</v>
       </c>
       <c r="E39" t="n">
-        <v>0.23</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>202.2052493477286</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B40" t="n">
-        <v>47.38374582059588</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="E40" t="n">
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>202.2425306263942</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B41" t="n">
-        <v>47.39007450063703</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7</v>
+        <v>0.53</v>
       </c>
       <c r="E41" t="n">
-        <v>0.26</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>202.2425306263942</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B42" t="n">
-        <v>47.39007450063703</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C42" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7</v>
+        <v>0.51</v>
       </c>
       <c r="E42" t="n">
-        <v>0.26</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>202.1443548738203</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B43" t="n">
-        <v>47.37340719586602</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C43" t="n">
         <v>10</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E43" t="n">
-        <v>0.28</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>202.2052493477286</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B44" t="n">
-        <v>47.38374582059588</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="E44" t="n">
-        <v>0.27</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>202.1443548738203</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B45" t="n">
-        <v>47.37340719586602</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C45" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>202.1443548738203</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B46" t="n">
-        <v>47.37340719586602</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E46" t="n">
-        <v>0.28</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B47" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C47" t="n">
         <v>10</v>
       </c>
       <c r="D47" t="n">
-        <v>0.75</v>
+        <v>0.59</v>
       </c>
       <c r="E47" t="n">
-        <v>0.21</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>202.2425306263942</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B48" t="n">
-        <v>47.39007450063703</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="E48" t="n">
-        <v>0.26</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B49" t="n">
-        <v>47.36275231806718</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D49" t="n">
-        <v>0.74</v>
+        <v>0.49</v>
       </c>
       <c r="E49" t="n">
-        <v>0.22</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>202.203751576025</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B50" t="n">
-        <v>47.38349155203341</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C50" t="n">
         <v>10</v>
       </c>
       <c r="D50" t="n">
-        <v>0.72</v>
+        <v>0.53</v>
       </c>
       <c r="E50" t="n">
-        <v>0.24</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>202.203751576025</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B51" t="n">
-        <v>47.38349155203341</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C51" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.72</v>
+        <v>0.57</v>
       </c>
       <c r="E51" t="n">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>202.2425306263942</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B52" t="n">
-        <v>47.39007450063703</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C52" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="E52" t="n">
-        <v>0.26</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>202.1425035261798</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B53" t="n">
-        <v>47.3730928463169</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C53" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.73</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>202.0816090522714</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B54" t="n">
-        <v>47.36275231806718</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.74</v>
+        <v>0.53</v>
       </c>
       <c r="E54" t="n">
-        <v>0.22</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>202.203751576025</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B55" t="n">
-        <v>47.38349155203341</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.72</v>
+        <v>0.61</v>
       </c>
       <c r="E55" t="n">
-        <v>0.24</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>202.0443277736058</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B56" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.75</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>0.21</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>202.2419585285108</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B57" t="n">
-        <v>47.3899773894429</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.71</v>
+        <v>0.61</v>
       </c>
       <c r="E57" t="n">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>202.1425035261798</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B58" t="n">
-        <v>47.3730928463169</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C58" t="n">
         <v>10</v>
       </c>
       <c r="D58" t="n">
-        <v>0.73</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>202.2419585285108</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B59" t="n">
-        <v>47.3899773894429</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.71</v>
+        <v>0.59</v>
       </c>
       <c r="E59" t="n">
-        <v>0.25</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B60" t="n">
-        <v>47.3730928463169</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C60" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.73</v>
+        <v>0.57</v>
       </c>
       <c r="E60" t="n">
-        <v>0.23</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>202.203751576025</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B61" t="n">
-        <v>47.38349155203341</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0.72</v>
+        <v>0.53</v>
       </c>
       <c r="E61" t="n">
-        <v>0.24</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>202.1443548738203</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B62" t="n">
-        <v>47.37340719586602</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="E62" t="n">
-        <v>0.28</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>202.203751576025</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B63" t="n">
-        <v>47.38349155203341</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C63" t="n">
         <v>10</v>
       </c>
       <c r="D63" t="n">
-        <v>0.72</v>
+        <v>0.55</v>
       </c>
       <c r="E63" t="n">
-        <v>0.24</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>202.2419585285108</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B64" t="n">
-        <v>47.3899773894429</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C64" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.71</v>
+        <v>0.53</v>
       </c>
       <c r="E64" t="n">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>202.2052493477286</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B65" t="n">
-        <v>47.38374582059588</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="E65" t="n">
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>202.1425035261798</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B66" t="n">
-        <v>47.3730928463169</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C66" t="n">
         <v>10</v>
       </c>
       <c r="D66" t="n">
-        <v>0.73</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>202.2052493477286</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B67" t="n">
-        <v>47.38374582059588</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="E67" t="n">
-        <v>0.27</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>202.1443548738203</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B68" t="n">
-        <v>47.37340719586602</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C68" t="n">
         <v>10</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E68" t="n">
-        <v>0.28</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>202.203751576025</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B69" t="n">
-        <v>47.38349155203341</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C69" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0.72</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>202.2052493477286</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B70" t="n">
-        <v>47.38374582059588</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C70" t="n">
         <v>10</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="E70" t="n">
-        <v>0.27</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>202.2419585285108</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B71" t="n">
-        <v>47.3899773894429</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0.71</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>202.2425306263942</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B72" t="n">
-        <v>47.39007450063703</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C72" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="E72" t="n">
-        <v>0.26</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B73" t="n">
-        <v>47.35642064920658</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0.75</v>
+        <v>0.49</v>
       </c>
       <c r="E73" t="n">
-        <v>0.21</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>202.2425306263942</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B74" t="n">
-        <v>47.39007450063703</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C74" t="n">
         <v>10</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="E74" t="n">
-        <v>0.26</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>202.2419585285108</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B75" t="n">
-        <v>47.3899773894429</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C75" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.71</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>202.0443277736058</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B76" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D76" t="n">
-        <v>0.75</v>
+        <v>0.61</v>
       </c>
       <c r="E76" t="n">
-        <v>0.21</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>202.2425306263942</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B77" t="n">
-        <v>47.39007450063703</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C77" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7</v>
+        <v>0.49</v>
       </c>
       <c r="E77" t="n">
-        <v>0.26</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>202.2052493477286</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B78" t="n">
-        <v>47.38374582059588</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="E78" t="n">
-        <v>0.27</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>202.0816090522714</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B79" t="n">
-        <v>47.36275231806718</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C79" t="n">
         <v>10</v>
       </c>
       <c r="D79" t="n">
-        <v>0.74</v>
+        <v>0.53</v>
       </c>
       <c r="E79" t="n">
-        <v>0.22</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>202.2419585285108</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B80" t="n">
-        <v>47.3899773894429</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C80" t="n">
         <v>10</v>
       </c>
       <c r="D80" t="n">
-        <v>0.71</v>
+        <v>0.51</v>
       </c>
       <c r="E80" t="n">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>202.1443548738203</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B81" t="n">
-        <v>47.37340719586602</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>202.2425306263942</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B82" t="n">
-        <v>47.39007450063703</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0.7</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>202.1443548738203</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B83" t="n">
-        <v>47.37340719586602</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E83" t="n">
-        <v>0.28</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>202.2052493477286</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B84" t="n">
-        <v>47.38374582059588</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C84" t="n">
         <v>10</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="E84" t="n">
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>202.0443277736058</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B85" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C85" t="n">
         <v>10</v>
       </c>
       <c r="D85" t="n">
-        <v>0.75</v>
+        <v>0.61</v>
       </c>
       <c r="E85" t="n">
-        <v>0.21</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>202.2052493477286</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B86" t="n">
-        <v>47.38374582059588</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C86" t="n">
         <v>10</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>202.2425306263942</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B87" t="n">
-        <v>47.39007450063703</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C87" t="n">
         <v>10</v>
       </c>
       <c r="D87" t="n">
-        <v>0.7</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B88" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C88" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>0.75</v>
+        <v>0.59</v>
       </c>
       <c r="E88" t="n">
-        <v>0.21</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>202.1425035261798</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B89" t="n">
-        <v>47.3730928463169</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0.73</v>
+        <v>0.61</v>
       </c>
       <c r="E89" t="n">
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B90" t="n">
-        <v>47.36275231806718</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C90" t="n">
         <v>10</v>
       </c>
       <c r="D90" t="n">
-        <v>0.74</v>
+        <v>0.59</v>
       </c>
       <c r="E90" t="n">
-        <v>0.22</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>202.0443277736058</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B91" t="n">
-        <v>47.35642064920658</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C91" t="n">
         <v>10</v>
       </c>
       <c r="D91" t="n">
-        <v>0.75</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>202.1443548738203</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B92" t="n">
-        <v>47.37340719586602</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C92" t="n">
         <v>10</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="E92" t="n">
-        <v>0.28</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>202.203751576025</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B93" t="n">
-        <v>47.38349155203341</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D93" t="n">
-        <v>0.72</v>
+        <v>0.57</v>
       </c>
       <c r="E93" t="n">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>202.2419585285108</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B94" t="n">
-        <v>47.3899773894429</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D94" t="n">
-        <v>0.71</v>
+        <v>0.57</v>
       </c>
       <c r="E94" t="n">
-        <v>0.25</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>202.1425035261798</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B95" t="n">
-        <v>47.3730928463169</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C95" t="n">
         <v>10</v>
       </c>
       <c r="D95" t="n">
-        <v>0.73</v>
+        <v>0.53</v>
       </c>
       <c r="E95" t="n">
-        <v>0.23</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>202.1425035261798</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B96" t="n">
-        <v>47.3730928463169</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0.73</v>
+        <v>0.61</v>
       </c>
       <c r="E96" t="n">
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>202.0816090522714</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B97" t="n">
-        <v>47.36275231806718</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D97" t="n">
-        <v>0.74</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>202.1425035261798</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B98" t="n">
-        <v>47.3730928463169</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D98" t="n">
-        <v>0.73</v>
+        <v>0.55</v>
       </c>
       <c r="E98" t="n">
-        <v>0.23</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>202.203751576025</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B99" t="n">
-        <v>47.38349155203341</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C99" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0.72</v>
+        <v>0.51</v>
       </c>
       <c r="E99" t="n">
-        <v>0.24</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>202.0816090522714</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B100" t="n">
-        <v>47.36275231806718</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C100" t="n">
         <v>10</v>
       </c>
       <c r="D100" t="n">
-        <v>0.74</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>202.2425306263942</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B101" t="n">
-        <v>47.39007450063703</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0.7</v>
+        <v>0.51</v>
       </c>
       <c r="E101" t="n">
-        <v>0.26</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>202.0816090522714</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B102" t="n">
-        <v>47.36275231806718</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D102" t="n">
-        <v>0.74</v>
+        <v>0.53</v>
       </c>
       <c r="E102" t="n">
-        <v>0.22</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B103" t="n">
-        <v>47.3730928463169</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D103" t="n">
-        <v>0.73</v>
+        <v>0.51</v>
       </c>
       <c r="E103" t="n">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>202.2425306263942</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B104" t="n">
-        <v>47.39007450063703</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D104" t="n">
-        <v>0.7</v>
+        <v>0.51</v>
       </c>
       <c r="E104" t="n">
-        <v>0.26</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B105" t="n">
-        <v>47.3730928463169</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D105" t="n">
-        <v>0.73</v>
+        <v>0.59</v>
       </c>
       <c r="E105" t="n">
-        <v>0.23</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>202.0816090522714</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B106" t="n">
-        <v>47.36275231806718</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C106" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>0.74</v>
+        <v>0.61</v>
       </c>
       <c r="E106" t="n">
-        <v>0.22</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>202.2425306263942</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B107" t="n">
-        <v>47.39007450063703</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D107" t="n">
-        <v>0.7</v>
+        <v>0.53</v>
       </c>
       <c r="E107" t="n">
-        <v>0.26</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>202.203751576025</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B108" t="n">
-        <v>47.38349155203341</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C108" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>0.72</v>
+        <v>0.55</v>
       </c>
       <c r="E108" t="n">
-        <v>0.24</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B109" t="n">
-        <v>47.3730928463169</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C109" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0.73</v>
+        <v>0.49</v>
       </c>
       <c r="E109" t="n">
-        <v>0.23</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>202.2052493477286</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B110" t="n">
-        <v>47.38374582059588</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>202.0816090522714</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B111" t="n">
-        <v>47.36275231806718</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D111" t="n">
-        <v>0.74</v>
+        <v>0.53</v>
       </c>
       <c r="E111" t="n">
-        <v>0.22</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B112" t="n">
-        <v>47.35642064920658</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C112" t="n">
         <v>10</v>
       </c>
       <c r="D112" t="n">
-        <v>0.75</v>
+        <v>0.49</v>
       </c>
       <c r="E112" t="n">
-        <v>0.21</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>202.203751576025</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B113" t="n">
-        <v>47.38349155203341</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D113" t="n">
-        <v>0.72</v>
+        <v>0.55</v>
       </c>
       <c r="E113" t="n">
-        <v>0.24</v>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>202.1916135448988</v>
+      </c>
+      <c r="B114" t="n">
+        <v>47.38143090323386</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>202.1174710690708</v>
+      </c>
+      <c r="B115" t="n">
+        <v>47.36884229294331</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>202.128818436632</v>
+      </c>
+      <c r="B116" t="n">
+        <v>47.37076913374894</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>202.128818436632</v>
+      </c>
+      <c r="B117" t="n">
+        <v>47.37076913374894</v>
+      </c>
+      <c r="C117" t="n">
+        <v>10</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>202.128818436632</v>
+      </c>
+      <c r="B118" t="n">
+        <v>47.37076913374894</v>
+      </c>
+      <c r="C118" t="n">
+        <v>10</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>202.2163093379161</v>
+      </c>
+      <c r="B119" t="n">
+        <v>47.3856233804354</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>202.1174710690708</v>
+      </c>
+      <c r="B120" t="n">
+        <v>47.36884229294331</v>
+      </c>
+      <c r="C120" t="n">
+        <v>10</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>202.1654549711855</v>
+      </c>
+      <c r="B121" t="n">
+        <v>47.37698976600116</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>202.1916135448988</v>
+      </c>
+      <c r="B122" t="n">
+        <v>47.38143090323386</v>
+      </c>
+      <c r="C122" t="n">
+        <v>10</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>202.1916135448988</v>
+      </c>
+      <c r="B123" t="n">
+        <v>47.38143090323386</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>202.1174710690708</v>
+      </c>
+      <c r="B124" t="n">
+        <v>47.36884229294331</v>
+      </c>
+      <c r="C124" t="n">
+        <v>10</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>202.1449661377905</v>
+      </c>
+      <c r="B125" t="n">
+        <v>47.37351098504899</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>202.128818436632</v>
+      </c>
+      <c r="B126" t="n">
+        <v>47.37076913374894</v>
+      </c>
+      <c r="C126" t="n">
+        <v>10</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>202.0877254268452</v>
+      </c>
+      <c r="B127" t="n">
+        <v>47.36379102688297</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>

--- a/phase_shift_scanlist.xlsx
+++ b/phase_shift_scanlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,146 +462,146 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>202.1654549711855</v>
+        <v>202.0816090522714</v>
       </c>
       <c r="B2" t="n">
-        <v>47.37698976600116</v>
+        <v>47.36275231806718</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="E2" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>202.1174710690708</v>
+        <v>202.1425035261798</v>
       </c>
       <c r="B3" t="n">
-        <v>47.36884229294331</v>
+        <v>47.3730928463169</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.59</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>202.0877254268452</v>
+        <v>202.0443277736058</v>
       </c>
       <c r="B4" t="n">
-        <v>47.36379102688297</v>
+        <v>47.35642064920658</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.61</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>202.1449661377905</v>
+        <v>202.0816090522714</v>
       </c>
       <c r="B5" t="n">
-        <v>47.37351098504899</v>
+        <v>47.36275231806718</v>
       </c>
       <c r="C5" t="n">
         <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="E5" t="n">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>202.1916135448988</v>
+        <v>202.2425306263942</v>
       </c>
       <c r="B6" t="n">
-        <v>47.38143090323386</v>
+        <v>47.39007450063703</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.51</v>
+        <v>0.6</v>
       </c>
       <c r="E6" t="n">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>202.1654549711855</v>
+        <v>202.2052493477286</v>
       </c>
       <c r="B7" t="n">
-        <v>47.37698976600116</v>
+        <v>47.38374582059588</v>
       </c>
       <c r="C7" t="n">
         <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="E7" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>202.1174710690708</v>
+        <v>202.0816090522714</v>
       </c>
       <c r="B8" t="n">
-        <v>47.36884229294331</v>
+        <v>47.36275231806718</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>0.59</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>202.09234204899</v>
+        <v>202.1443548738203</v>
       </c>
       <c r="B9" t="n">
-        <v>47.36457502899982</v>
+        <v>47.37340719586602</v>
       </c>
       <c r="C9" t="n">
         <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="E9" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>202.2163093379161</v>
+        <v>202.1425035261798</v>
       </c>
       <c r="B10" t="n">
-        <v>47.3856233804354</v>
+        <v>47.3730928463169</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -615,61 +615,61 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>202.1654549711855</v>
+        <v>202.1425035261798</v>
       </c>
       <c r="B11" t="n">
-        <v>47.37698976600116</v>
+        <v>47.3730928463169</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="E11" t="n">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>202.2056668474857</v>
+        <v>202.0831068239751</v>
       </c>
       <c r="B12" t="n">
-        <v>47.38381669706164</v>
+        <v>47.36300667776938</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="E12" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>202.1449661377905</v>
+        <v>202.0443277736058</v>
       </c>
       <c r="B13" t="n">
-        <v>47.37351098504899</v>
+        <v>47.35642064920658</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>0.49</v>
+        <v>0.55</v>
       </c>
       <c r="E13" t="n">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>202.09234204899</v>
+        <v>202.1425035261798</v>
       </c>
       <c r="B14" t="n">
-        <v>47.36457502899982</v>
+        <v>47.3730928463169</v>
       </c>
       <c r="C14" t="n">
         <v>10</v>
@@ -683,95 +683,95 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>202.2056668474857</v>
+        <v>202.2052493477286</v>
       </c>
       <c r="B15" t="n">
-        <v>47.38381669706164</v>
+        <v>47.38374582059588</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>0.55</v>
+        <v>0.59</v>
       </c>
       <c r="E15" t="n">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>202.2056668474857</v>
+        <v>202.2419585285108</v>
       </c>
       <c r="B16" t="n">
-        <v>47.38381669706164</v>
+        <v>47.3899773894429</v>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>0.55</v>
+        <v>0.61</v>
       </c>
       <c r="E16" t="n">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>202.128818436632</v>
+        <v>202.1425035261798</v>
       </c>
       <c r="B17" t="n">
-        <v>47.37076913374894</v>
+        <v>47.3730928463169</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>202.1916135448988</v>
+        <v>202.0816090522714</v>
       </c>
       <c r="B18" t="n">
-        <v>47.38143090323386</v>
+        <v>47.36275231806718</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>0.51</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>202.09234204899</v>
+        <v>202.0816090522714</v>
       </c>
       <c r="B19" t="n">
-        <v>47.36457502899982</v>
+        <v>47.36275231806718</v>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>202.2056668474857</v>
+        <v>202.0443277736058</v>
       </c>
       <c r="B20" t="n">
-        <v>47.38381669706164</v>
+        <v>47.35642064920658</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -785,676 +785,676 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>202.128818436632</v>
+        <v>202.0443277736058</v>
       </c>
       <c r="B21" t="n">
-        <v>47.37076913374894</v>
+        <v>47.35642064920658</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="E21" t="n">
-        <v>0.31</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>202.1916135448988</v>
+        <v>202.1425035261798</v>
       </c>
       <c r="B22" t="n">
-        <v>47.38143090323386</v>
+        <v>47.3730928463169</v>
       </c>
       <c r="C22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="E22" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>202.1449661377905</v>
+        <v>202.0831068239751</v>
       </c>
       <c r="B23" t="n">
-        <v>47.37351098504899</v>
+        <v>47.36300667776938</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.49</v>
+        <v>0.57</v>
       </c>
       <c r="E23" t="n">
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>202.128818436632</v>
+        <v>202.1443548738203</v>
       </c>
       <c r="B24" t="n">
-        <v>47.37076913374894</v>
+        <v>47.37340719586602</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="E24" t="n">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>202.2163093379161</v>
+        <v>202.2425306263942</v>
       </c>
       <c r="B25" t="n">
-        <v>47.3856233804354</v>
+        <v>47.39007450063703</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
       <c r="E25" t="n">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>202.0877254268452</v>
+        <v>202.0443277736058</v>
       </c>
       <c r="B26" t="n">
-        <v>47.36379102688297</v>
+        <v>47.35642064920658</v>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.61</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>202.09234204899</v>
+        <v>202.0816090522714</v>
       </c>
       <c r="B27" t="n">
-        <v>47.36457502899982</v>
+        <v>47.36275231806718</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>202.1916135448988</v>
+        <v>202.2052493477286</v>
       </c>
       <c r="B28" t="n">
-        <v>47.38143090323386</v>
+        <v>47.38374582059588</v>
       </c>
       <c r="C28" t="n">
         <v>10</v>
       </c>
       <c r="D28" t="n">
-        <v>0.51</v>
+        <v>0.59</v>
       </c>
       <c r="E28" t="n">
-        <v>0.45</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>202.1654549711855</v>
+        <v>202.0443277736058</v>
       </c>
       <c r="B29" t="n">
-        <v>47.37698976600116</v>
+        <v>47.35642064920658</v>
       </c>
       <c r="C29" t="n">
         <v>10</v>
       </c>
       <c r="D29" t="n">
-        <v>0.57</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>202.1449661377905</v>
+        <v>202.2425306263942</v>
       </c>
       <c r="B30" t="n">
-        <v>47.37351098504899</v>
+        <v>47.39007450063703</v>
       </c>
       <c r="C30" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.49</v>
+        <v>0.6</v>
       </c>
       <c r="E30" t="n">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>202.09234204899</v>
+        <v>202.0816090522714</v>
       </c>
       <c r="B31" t="n">
-        <v>47.36457502899982</v>
+        <v>47.36275231806718</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>202.1654549711855</v>
+        <v>202.1425035261798</v>
       </c>
       <c r="B32" t="n">
-        <v>47.37698976600116</v>
+        <v>47.3730928463169</v>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="E32" t="n">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>202.2056668474857</v>
+        <v>202.1425035261798</v>
       </c>
       <c r="B33" t="n">
-        <v>47.38381669706164</v>
+        <v>47.3730928463169</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D33" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="E33" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>202.0877254268452</v>
+        <v>202.0816090522714</v>
       </c>
       <c r="B34" t="n">
-        <v>47.36379102688297</v>
+        <v>47.36275231806718</v>
       </c>
       <c r="C34" t="n">
         <v>10</v>
       </c>
       <c r="D34" t="n">
-        <v>0.61</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>202.2056668474857</v>
+        <v>202.1443548738203</v>
       </c>
       <c r="B35" t="n">
-        <v>47.38381669706164</v>
+        <v>47.37340719586602</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="E35" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>202.1654549711855</v>
+        <v>202.1425035261798</v>
       </c>
       <c r="B36" t="n">
-        <v>47.37698976600116</v>
+        <v>47.3730928463169</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.57</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>202.1449661377905</v>
+        <v>202.1443548738203</v>
       </c>
       <c r="B37" t="n">
-        <v>47.37351098504899</v>
+        <v>47.37340719586602</v>
       </c>
       <c r="C37" t="n">
         <v>10</v>
       </c>
       <c r="D37" t="n">
-        <v>0.49</v>
+        <v>0.58</v>
       </c>
       <c r="E37" t="n">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>202.2163093379161</v>
+        <v>202.0816090522714</v>
       </c>
       <c r="B38" t="n">
-        <v>47.3856233804354</v>
+        <v>47.36275231806718</v>
       </c>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.53</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>202.1174710690708</v>
+        <v>202.0816090522714</v>
       </c>
       <c r="B39" t="n">
-        <v>47.36884229294331</v>
+        <v>47.36275231806718</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.59</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>202.0877254268452</v>
+        <v>202.0443277736058</v>
       </c>
       <c r="B40" t="n">
-        <v>47.36379102688297</v>
+        <v>47.35642064920658</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.61</v>
+        <v>0.55</v>
       </c>
       <c r="E40" t="n">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>202.2163093379161</v>
+        <v>202.2419585285108</v>
       </c>
       <c r="B41" t="n">
-        <v>47.3856233804354</v>
+        <v>47.3899773894429</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.53</v>
+        <v>0.61</v>
       </c>
       <c r="E41" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>202.1916135448988</v>
+        <v>202.0443277736058</v>
       </c>
       <c r="B42" t="n">
-        <v>47.38143090323386</v>
+        <v>47.35642064920658</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D42" t="n">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="E42" t="n">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>202.1449661377905</v>
+        <v>202.2419585285108</v>
       </c>
       <c r="B43" t="n">
-        <v>47.37351098504899</v>
+        <v>47.3899773894429</v>
       </c>
       <c r="C43" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.49</v>
+        <v>0.61</v>
       </c>
       <c r="E43" t="n">
-        <v>0.47</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>202.1654549711855</v>
+        <v>202.0443277736058</v>
       </c>
       <c r="B44" t="n">
-        <v>47.37698976600116</v>
+        <v>47.35642064920658</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D44" t="n">
-        <v>0.57</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>202.09234204899</v>
+        <v>202.0443277736058</v>
       </c>
       <c r="B45" t="n">
-        <v>47.36457502899982</v>
+        <v>47.35642064920658</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>202.1449661377905</v>
+        <v>202.1425035261798</v>
       </c>
       <c r="B46" t="n">
-        <v>47.37351098504899</v>
+        <v>47.3730928463169</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D46" t="n">
-        <v>0.49</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>0.47</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>202.1174710690708</v>
+        <v>202.0831068239751</v>
       </c>
       <c r="B47" t="n">
-        <v>47.36884229294331</v>
+        <v>47.36300667776938</v>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="E47" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>202.1174710690708</v>
+        <v>202.0816090522714</v>
       </c>
       <c r="B48" t="n">
-        <v>47.36884229294331</v>
+        <v>47.36275231806718</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.59</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>202.1449661377905</v>
+        <v>202.0443277736058</v>
       </c>
       <c r="B49" t="n">
-        <v>47.37351098504899</v>
+        <v>47.35642064920658</v>
       </c>
       <c r="C49" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.49</v>
+        <v>0.55</v>
       </c>
       <c r="E49" t="n">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>202.2163093379161</v>
+        <v>202.0443277736058</v>
       </c>
       <c r="B50" t="n">
-        <v>47.3856233804354</v>
+        <v>47.35642064920658</v>
       </c>
       <c r="C50" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="E50" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>202.1654549711855</v>
+        <v>202.0443277736058</v>
       </c>
       <c r="B51" t="n">
-        <v>47.37698976600116</v>
+        <v>47.35642064920658</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D51" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="E51" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>202.1174710690708</v>
+        <v>202.0443277736058</v>
       </c>
       <c r="B52" t="n">
-        <v>47.36884229294331</v>
+        <v>47.35642064920658</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.59</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>202.09234204899</v>
+        <v>202.1425035261798</v>
       </c>
       <c r="B53" t="n">
-        <v>47.36457502899982</v>
+        <v>47.3730928463169</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="E53" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>202.2163093379161</v>
+        <v>202.0443277736058</v>
       </c>
       <c r="B54" t="n">
-        <v>47.3856233804354</v>
+        <v>47.35642064920658</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D54" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="E54" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>202.0877254268452</v>
+        <v>202.0816090522714</v>
       </c>
       <c r="B55" t="n">
-        <v>47.36379102688297</v>
+        <v>47.36275231806718</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.61</v>
+        <v>0.54</v>
       </c>
       <c r="E55" t="n">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>202.09234204899</v>
+        <v>202.0816090522714</v>
       </c>
       <c r="B56" t="n">
-        <v>47.36457502899982</v>
+        <v>47.36275231806718</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="E56" t="n">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>202.0877254268452</v>
+        <v>202.0831068239751</v>
       </c>
       <c r="B57" t="n">
-        <v>47.36379102688297</v>
+        <v>47.36300667776938</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.61</v>
+        <v>0.57</v>
       </c>
       <c r="E57" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>202.128818436632</v>
+        <v>202.2419585285108</v>
       </c>
       <c r="B58" t="n">
-        <v>47.37076913374894</v>
+        <v>47.3899773894429</v>
       </c>
       <c r="C58" t="n">
         <v>10</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="E58" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>202.1174710690708</v>
+        <v>202.0816090522714</v>
       </c>
       <c r="B59" t="n">
-        <v>47.36884229294331</v>
+        <v>47.36275231806718</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.59</v>
+        <v>0.54</v>
       </c>
       <c r="E59" t="n">
-        <v>0.37</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>202.1654549711855</v>
+        <v>202.0831068239751</v>
       </c>
       <c r="B60" t="n">
-        <v>47.37698976600116</v>
+        <v>47.36300667776938</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D60" t="n">
         <v>0.57</v>
@@ -1465,370 +1465,370 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>202.2163093379161</v>
+        <v>202.2419585285108</v>
       </c>
       <c r="B61" t="n">
-        <v>47.3856233804354</v>
+        <v>47.3899773894429</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D61" t="n">
-        <v>0.53</v>
+        <v>0.61</v>
       </c>
       <c r="E61" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>202.0877254268452</v>
+        <v>202.1443548738203</v>
       </c>
       <c r="B62" t="n">
-        <v>47.36379102688297</v>
+        <v>47.37340719586602</v>
       </c>
       <c r="C62" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="E62" t="n">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>202.2056668474857</v>
+        <v>202.1425035261798</v>
       </c>
       <c r="B63" t="n">
-        <v>47.38381669706164</v>
+        <v>47.3730928463169</v>
       </c>
       <c r="C63" t="n">
         <v>10</v>
       </c>
       <c r="D63" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="E63" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>202.2163093379161</v>
+        <v>202.2052493477286</v>
       </c>
       <c r="B64" t="n">
-        <v>47.3856233804354</v>
+        <v>47.38374582059588</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D64" t="n">
-        <v>0.53</v>
+        <v>0.59</v>
       </c>
       <c r="E64" t="n">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>202.1174710690708</v>
+        <v>202.0816090522714</v>
       </c>
       <c r="B65" t="n">
-        <v>47.36884229294331</v>
+        <v>47.36275231806718</v>
       </c>
       <c r="C65" t="n">
         <v>10</v>
       </c>
       <c r="D65" t="n">
-        <v>0.59</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>202.128818436632</v>
+        <v>202.2419585285108</v>
       </c>
       <c r="B66" t="n">
-        <v>47.37076913374894</v>
+        <v>47.3899773894429</v>
       </c>
       <c r="C66" t="n">
         <v>10</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="E66" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>202.2056668474857</v>
+        <v>202.2052493477286</v>
       </c>
       <c r="B67" t="n">
-        <v>47.38381669706164</v>
+        <v>47.38374582059588</v>
       </c>
       <c r="C67" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.55</v>
+        <v>0.59</v>
       </c>
       <c r="E67" t="n">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>202.1916135448988</v>
+        <v>202.1425035261798</v>
       </c>
       <c r="B68" t="n">
-        <v>47.38143090323386</v>
+        <v>47.3730928463169</v>
       </c>
       <c r="C68" t="n">
         <v>10</v>
       </c>
       <c r="D68" t="n">
-        <v>0.51</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>202.09234204899</v>
+        <v>202.0831068239751</v>
       </c>
       <c r="B69" t="n">
-        <v>47.36457502899982</v>
+        <v>47.36300667776938</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="E69" t="n">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>202.1654549711855</v>
+        <v>202.0816090522714</v>
       </c>
       <c r="B70" t="n">
-        <v>47.37698976600116</v>
+        <v>47.36275231806718</v>
       </c>
       <c r="C70" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.57</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>202.09234204899</v>
+        <v>202.0443277736058</v>
       </c>
       <c r="B71" t="n">
-        <v>47.36457502899982</v>
+        <v>47.35642064920658</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="E71" t="n">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>202.2056668474857</v>
+        <v>202.1425035261798</v>
       </c>
       <c r="B72" t="n">
-        <v>47.38381669706164</v>
+        <v>47.3730928463169</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D72" t="n">
-        <v>0.55</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>202.1449661377905</v>
+        <v>202.2425306263942</v>
       </c>
       <c r="B73" t="n">
-        <v>47.37351098504899</v>
+        <v>47.39007450063703</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0.49</v>
+        <v>0.6</v>
       </c>
       <c r="E73" t="n">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>202.2056668474857</v>
+        <v>202.1443548738203</v>
       </c>
       <c r="B74" t="n">
-        <v>47.38381669706164</v>
+        <v>47.37340719586602</v>
       </c>
       <c r="C74" t="n">
         <v>10</v>
       </c>
       <c r="D74" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="E74" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>202.128818436632</v>
+        <v>202.1425035261798</v>
       </c>
       <c r="B75" t="n">
-        <v>47.37076913374894</v>
+        <v>47.3730928463169</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="E75" t="n">
-        <v>0.31</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>202.0877254268452</v>
+        <v>202.0443277736058</v>
       </c>
       <c r="B76" t="n">
-        <v>47.36379102688297</v>
+        <v>47.35642064920658</v>
       </c>
       <c r="C76" t="n">
         <v>10</v>
       </c>
       <c r="D76" t="n">
-        <v>0.61</v>
+        <v>0.55</v>
       </c>
       <c r="E76" t="n">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>202.1449661377905</v>
+        <v>202.1425035261798</v>
       </c>
       <c r="B77" t="n">
-        <v>47.37351098504899</v>
+        <v>47.3730928463169</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D77" t="n">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="E77" t="n">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>202.1654549711855</v>
+        <v>202.0816090522714</v>
       </c>
       <c r="B78" t="n">
-        <v>47.37698976600116</v>
+        <v>47.36275231806718</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0.57</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>202.2163093379161</v>
+        <v>202.0443277736058</v>
       </c>
       <c r="B79" t="n">
-        <v>47.3856233804354</v>
+        <v>47.35642064920658</v>
       </c>
       <c r="C79" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="E79" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>202.1916135448988</v>
+        <v>202.2425306263942</v>
       </c>
       <c r="B80" t="n">
-        <v>47.38143090323386</v>
+        <v>47.39007450063703</v>
       </c>
       <c r="C80" t="n">
         <v>10</v>
       </c>
       <c r="D80" t="n">
-        <v>0.51</v>
+        <v>0.6</v>
       </c>
       <c r="E80" t="n">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>202.128818436632</v>
+        <v>202.1425035261798</v>
       </c>
       <c r="B81" t="n">
-        <v>47.37076913374894</v>
+        <v>47.3730928463169</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="E81" t="n">
-        <v>0.31</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>202.128818436632</v>
+        <v>202.0443277736058</v>
       </c>
       <c r="B82" t="n">
-        <v>47.37076913374894</v>
+        <v>47.35642064920658</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D82" t="n">
         <v>0.6499999999999999</v>
@@ -1839,180 +1839,180 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>202.1449661377905</v>
+        <v>202.0816090522714</v>
       </c>
       <c r="B83" t="n">
-        <v>47.37351098504899</v>
+        <v>47.36275231806718</v>
       </c>
       <c r="C83" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="E83" t="n">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>202.0877254268452</v>
+        <v>202.2425306263942</v>
       </c>
       <c r="B84" t="n">
-        <v>47.36379102688297</v>
+        <v>47.39007450063703</v>
       </c>
       <c r="C84" t="n">
         <v>10</v>
       </c>
       <c r="D84" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="E84" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>202.0877254268452</v>
+        <v>202.1443548738203</v>
       </c>
       <c r="B85" t="n">
-        <v>47.36379102688297</v>
+        <v>47.37340719586602</v>
       </c>
       <c r="C85" t="n">
         <v>10</v>
       </c>
       <c r="D85" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="E85" t="n">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>202.09234204899</v>
+        <v>202.0443277736058</v>
       </c>
       <c r="B86" t="n">
-        <v>47.36457502899982</v>
+        <v>47.35642064920658</v>
       </c>
       <c r="C86" t="n">
         <v>10</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="E86" t="n">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>202.128818436632</v>
+        <v>202.0443277736058</v>
       </c>
       <c r="B87" t="n">
-        <v>47.37076913374894</v>
+        <v>47.35642064920658</v>
       </c>
       <c r="C87" t="n">
         <v>10</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="E87" t="n">
-        <v>0.31</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>202.1174710690708</v>
+        <v>202.2425306263942</v>
       </c>
       <c r="B88" t="n">
-        <v>47.36884229294331</v>
+        <v>47.39007450063703</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D88" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="E88" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>202.0877254268452</v>
+        <v>202.0816090522714</v>
       </c>
       <c r="B89" t="n">
-        <v>47.36379102688297</v>
+        <v>47.36275231806718</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D89" t="n">
-        <v>0.61</v>
+        <v>0.54</v>
       </c>
       <c r="E89" t="n">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>202.1174710690708</v>
+        <v>202.2425306263942</v>
       </c>
       <c r="B90" t="n">
-        <v>47.36884229294331</v>
+        <v>47.39007450063703</v>
       </c>
       <c r="C90" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="E90" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>202.128818436632</v>
+        <v>202.0816090522714</v>
       </c>
       <c r="B91" t="n">
-        <v>47.37076913374894</v>
+        <v>47.36275231806718</v>
       </c>
       <c r="C91" t="n">
         <v>10</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>202.2056668474857</v>
+        <v>202.0816090522714</v>
       </c>
       <c r="B92" t="n">
-        <v>47.38381669706164</v>
+        <v>47.36275231806718</v>
       </c>
       <c r="C92" t="n">
         <v>10</v>
       </c>
       <c r="D92" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="E92" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>202.1654549711855</v>
+        <v>202.0831068239751</v>
       </c>
       <c r="B93" t="n">
-        <v>47.37698976600116</v>
+        <v>47.36300667776938</v>
       </c>
       <c r="C93" t="n">
         <v>10</v>
@@ -2026,200 +2026,200 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>202.1654549711855</v>
+        <v>202.0816090522714</v>
       </c>
       <c r="B94" t="n">
-        <v>47.37698976600116</v>
+        <v>47.36275231806718</v>
       </c>
       <c r="C94" t="n">
         <v>10</v>
       </c>
       <c r="D94" t="n">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="E94" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>202.2163093379161</v>
+        <v>202.2052493477286</v>
       </c>
       <c r="B95" t="n">
-        <v>47.3856233804354</v>
+        <v>47.38374582059588</v>
       </c>
       <c r="C95" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0.53</v>
+        <v>0.59</v>
       </c>
       <c r="E95" t="n">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>202.0877254268452</v>
+        <v>202.2052493477286</v>
       </c>
       <c r="B96" t="n">
-        <v>47.36379102688297</v>
+        <v>47.38374582059588</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="E96" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>202.09234204899</v>
+        <v>202.0816090522714</v>
       </c>
       <c r="B97" t="n">
-        <v>47.36457502899982</v>
+        <v>47.36275231806718</v>
       </c>
       <c r="C97" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="E97" t="n">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>202.2056668474857</v>
+        <v>202.1425035261798</v>
       </c>
       <c r="B98" t="n">
-        <v>47.38381669706164</v>
+        <v>47.3730928463169</v>
       </c>
       <c r="C98" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0.55</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>202.1916135448988</v>
+        <v>202.0443277736058</v>
       </c>
       <c r="B99" t="n">
-        <v>47.38143090323386</v>
+        <v>47.35642064920658</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D99" t="n">
-        <v>0.51</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E99" t="n">
-        <v>0.45</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>202.09234204899</v>
+        <v>202.2419585285108</v>
       </c>
       <c r="B100" t="n">
-        <v>47.36457502899982</v>
+        <v>47.3899773894429</v>
       </c>
       <c r="C100" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="E100" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>202.1916135448988</v>
+        <v>202.0816090522714</v>
       </c>
       <c r="B101" t="n">
-        <v>47.38143090323386</v>
+        <v>47.36275231806718</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D101" t="n">
-        <v>0.51</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>202.2163093379161</v>
+        <v>202.1443548738203</v>
       </c>
       <c r="B102" t="n">
-        <v>47.3856233804354</v>
+        <v>47.37340719586602</v>
       </c>
       <c r="C102" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="E102" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>202.1916135448988</v>
+        <v>202.0443277736058</v>
       </c>
       <c r="B103" t="n">
-        <v>47.38143090323386</v>
+        <v>47.35642064920658</v>
       </c>
       <c r="C103" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.51</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>0.45</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>202.1916135448988</v>
+        <v>202.2419585285108</v>
       </c>
       <c r="B104" t="n">
-        <v>47.38143090323386</v>
+        <v>47.3899773894429</v>
       </c>
       <c r="C104" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>0.51</v>
+        <v>0.61</v>
       </c>
       <c r="E104" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>202.1174710690708</v>
+        <v>202.2052493477286</v>
       </c>
       <c r="B105" t="n">
-        <v>47.36884229294331</v>
+        <v>47.38374582059588</v>
       </c>
       <c r="C105" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
         <v>0.59</v>
@@ -2230,200 +2230,200 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>202.0877254268452</v>
+        <v>202.2425306263942</v>
       </c>
       <c r="B106" t="n">
-        <v>47.36379102688297</v>
+        <v>47.39007450063703</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="E106" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>202.2163093379161</v>
+        <v>202.0831068239751</v>
       </c>
       <c r="B107" t="n">
-        <v>47.3856233804354</v>
+        <v>47.36300667776938</v>
       </c>
       <c r="C107" t="n">
         <v>10</v>
       </c>
       <c r="D107" t="n">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
       <c r="E107" t="n">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>202.2056668474857</v>
+        <v>202.0816090522714</v>
       </c>
       <c r="B108" t="n">
-        <v>47.38381669706164</v>
+        <v>47.36275231806718</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D108" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="E108" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>202.1449661377905</v>
+        <v>202.0831068239751</v>
       </c>
       <c r="B109" t="n">
-        <v>47.37351098504899</v>
+        <v>47.36300667776938</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0.49</v>
+        <v>0.57</v>
       </c>
       <c r="E109" t="n">
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>202.09234204899</v>
+        <v>202.0443277736058</v>
       </c>
       <c r="B110" t="n">
-        <v>47.36457502899982</v>
+        <v>47.35642064920658</v>
       </c>
       <c r="C110" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>202.2163093379161</v>
+        <v>202.1443548738203</v>
       </c>
       <c r="B111" t="n">
-        <v>47.3856233804354</v>
+        <v>47.37340719586602</v>
       </c>
       <c r="C111" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="E111" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>202.1449661377905</v>
+        <v>202.1425035261798</v>
       </c>
       <c r="B112" t="n">
-        <v>47.37351098504899</v>
+        <v>47.3730928463169</v>
       </c>
       <c r="C112" t="n">
         <v>10</v>
       </c>
       <c r="D112" t="n">
-        <v>0.49</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E112" t="n">
-        <v>0.47</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>202.2056668474857</v>
+        <v>202.2052493477286</v>
       </c>
       <c r="B113" t="n">
-        <v>47.38381669706164</v>
+        <v>47.38374582059588</v>
       </c>
       <c r="C113" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>0.55</v>
+        <v>0.59</v>
       </c>
       <c r="E113" t="n">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>202.1916135448988</v>
+        <v>202.2419585285108</v>
       </c>
       <c r="B114" t="n">
-        <v>47.38143090323386</v>
+        <v>47.3899773894429</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0.51</v>
+        <v>0.61</v>
       </c>
       <c r="E114" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>202.1174710690708</v>
+        <v>202.0443277736058</v>
       </c>
       <c r="B115" t="n">
-        <v>47.36884229294331</v>
+        <v>47.35642064920658</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D115" t="n">
-        <v>0.59</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>202.128818436632</v>
+        <v>202.0816090522714</v>
       </c>
       <c r="B116" t="n">
-        <v>47.37076913374894</v>
+        <v>47.36275231806718</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>202.128818436632</v>
+        <v>202.0443277736058</v>
       </c>
       <c r="B117" t="n">
-        <v>47.37076913374894</v>
+        <v>47.35642064920658</v>
       </c>
       <c r="C117" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
         <v>0.6499999999999999</v>
@@ -2434,64 +2434,64 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>202.128818436632</v>
+        <v>202.0443277736058</v>
       </c>
       <c r="B118" t="n">
-        <v>47.37076913374894</v>
+        <v>47.35642064920658</v>
       </c>
       <c r="C118" t="n">
         <v>10</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="E118" t="n">
-        <v>0.31</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>202.2163093379161</v>
+        <v>202.2425306263942</v>
       </c>
       <c r="B119" t="n">
-        <v>47.3856233804354</v>
+        <v>47.39007450063703</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
       <c r="E119" t="n">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>202.1174710690708</v>
+        <v>202.2425306263942</v>
       </c>
       <c r="B120" t="n">
-        <v>47.36884229294331</v>
+        <v>47.39007450063703</v>
       </c>
       <c r="C120" t="n">
         <v>10</v>
       </c>
       <c r="D120" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="E120" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>202.1654549711855</v>
+        <v>202.0831068239751</v>
       </c>
       <c r="B121" t="n">
-        <v>47.37698976600116</v>
+        <v>47.36300667776938</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D121" t="n">
         <v>0.57</v>
@@ -2502,104 +2502,3572 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>202.1916135448988</v>
+        <v>202.1425035261798</v>
       </c>
       <c r="B122" t="n">
-        <v>47.38143090323386</v>
+        <v>47.3730928463169</v>
       </c>
       <c r="C122" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0.51</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>202.1916135448988</v>
+        <v>202.2419585285108</v>
       </c>
       <c r="B123" t="n">
-        <v>47.38143090323386</v>
+        <v>47.3899773894429</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D123" t="n">
-        <v>0.51</v>
+        <v>0.61</v>
       </c>
       <c r="E123" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>202.1174710690708</v>
+        <v>202.0443277736058</v>
       </c>
       <c r="B124" t="n">
-        <v>47.36884229294331</v>
+        <v>47.35642064920658</v>
       </c>
       <c r="C124" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>0.59</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>202.1449661377905</v>
+        <v>202.0831068239751</v>
       </c>
       <c r="B125" t="n">
-        <v>47.37351098504899</v>
+        <v>47.36300667776938</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0.49</v>
+        <v>0.57</v>
       </c>
       <c r="E125" t="n">
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>202.128818436632</v>
+        <v>202.1443548738203</v>
       </c>
       <c r="B126" t="n">
-        <v>47.37076913374894</v>
+        <v>47.37340719586602</v>
       </c>
       <c r="C126" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="E126" t="n">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>202.0877254268452</v>
+        <v>202.0816090522714</v>
       </c>
       <c r="B127" t="n">
-        <v>47.36379102688297</v>
+        <v>47.36275231806718</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D127" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>202.0831068239751</v>
+      </c>
+      <c r="B128" t="n">
+        <v>47.36300667776938</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B129" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B130" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>202.2425306263942</v>
+      </c>
+      <c r="B131" t="n">
+        <v>47.39007450063703</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>202.1443548738203</v>
+      </c>
+      <c r="B132" t="n">
+        <v>47.37340719586602</v>
+      </c>
+      <c r="C132" t="n">
+        <v>10</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B133" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C133" t="n">
+        <v>10</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B134" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B135" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C135" t="n">
+        <v>10</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>202.2419585285108</v>
+      </c>
+      <c r="B136" t="n">
+        <v>47.3899773894429</v>
+      </c>
+      <c r="C136" t="n">
+        <v>10</v>
+      </c>
+      <c r="D136" t="n">
         <v>0.61</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E136" t="n">
         <v>0.35</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B137" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C137" t="n">
+        <v>10</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>202.2425306263942</v>
+      </c>
+      <c r="B138" t="n">
+        <v>47.39007450063703</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>202.0831068239751</v>
+      </c>
+      <c r="B139" t="n">
+        <v>47.36300667776938</v>
+      </c>
+      <c r="C139" t="n">
+        <v>10</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B140" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C140" t="n">
+        <v>10</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>202.1443548738203</v>
+      </c>
+      <c r="B141" t="n">
+        <v>47.37340719586602</v>
+      </c>
+      <c r="C141" t="n">
+        <v>10</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>202.2425306263942</v>
+      </c>
+      <c r="B142" t="n">
+        <v>47.39007450063703</v>
+      </c>
+      <c r="C142" t="n">
+        <v>10</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>202.1443548738203</v>
+      </c>
+      <c r="B143" t="n">
+        <v>47.37340719586602</v>
+      </c>
+      <c r="C143" t="n">
+        <v>10</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B144" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>202.2052493477286</v>
+      </c>
+      <c r="B145" t="n">
+        <v>47.38374582059588</v>
+      </c>
+      <c r="C145" t="n">
+        <v>10</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B146" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C146" t="n">
+        <v>10</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>202.2425306263942</v>
+      </c>
+      <c r="B147" t="n">
+        <v>47.39007450063703</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B148" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B149" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C149" t="n">
+        <v>10</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B150" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C150" t="n">
+        <v>10</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>202.0831068239751</v>
+      </c>
+      <c r="B151" t="n">
+        <v>47.36300667776938</v>
+      </c>
+      <c r="C151" t="n">
+        <v>10</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>202.2419585285108</v>
+      </c>
+      <c r="B152" t="n">
+        <v>47.3899773894429</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>202.2052493477286</v>
+      </c>
+      <c r="B153" t="n">
+        <v>47.38374582059588</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B154" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>202.2425306263942</v>
+      </c>
+      <c r="B155" t="n">
+        <v>47.39007450063703</v>
+      </c>
+      <c r="C155" t="n">
+        <v>10</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B156" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>202.2052493477286</v>
+      </c>
+      <c r="B157" t="n">
+        <v>47.38374582059588</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B158" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>202.2425306263942</v>
+      </c>
+      <c r="B159" t="n">
+        <v>47.39007450063703</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B160" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C160" t="n">
+        <v>10</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B161" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C161" t="n">
+        <v>10</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>202.2419585285108</v>
+      </c>
+      <c r="B162" t="n">
+        <v>47.3899773894429</v>
+      </c>
+      <c r="C162" t="n">
+        <v>10</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>202.2425306263942</v>
+      </c>
+      <c r="B163" t="n">
+        <v>47.39007450063703</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>202.2052493477286</v>
+      </c>
+      <c r="B164" t="n">
+        <v>47.38374582059588</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B165" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C165" t="n">
+        <v>10</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B166" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C166" t="n">
+        <v>10</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>202.1443548738203</v>
+      </c>
+      <c r="B167" t="n">
+        <v>47.37340719586602</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B168" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B169" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C169" t="n">
+        <v>10</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>202.1443548738203</v>
+      </c>
+      <c r="B170" t="n">
+        <v>47.37340719586602</v>
+      </c>
+      <c r="C170" t="n">
+        <v>10</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>202.1443548738203</v>
+      </c>
+      <c r="B171" t="n">
+        <v>47.37340719586602</v>
+      </c>
+      <c r="C171" t="n">
+        <v>10</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>202.1443548738203</v>
+      </c>
+      <c r="B172" t="n">
+        <v>47.37340719586602</v>
+      </c>
+      <c r="C172" t="n">
+        <v>10</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>202.2052493477286</v>
+      </c>
+      <c r="B173" t="n">
+        <v>47.38374582059588</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>202.0831068239751</v>
+      </c>
+      <c r="B174" t="n">
+        <v>47.36300667776938</v>
+      </c>
+      <c r="C174" t="n">
+        <v>10</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B175" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C175" t="n">
+        <v>10</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B176" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C176" t="n">
+        <v>10</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B177" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B178" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C178" t="n">
+        <v>10</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B179" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C179" t="n">
+        <v>10</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>202.2052493477286</v>
+      </c>
+      <c r="B180" t="n">
+        <v>47.38374582059588</v>
+      </c>
+      <c r="C180" t="n">
+        <v>10</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>202.1443548738203</v>
+      </c>
+      <c r="B181" t="n">
+        <v>47.37340719586602</v>
+      </c>
+      <c r="C181" t="n">
+        <v>10</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>202.1443548738203</v>
+      </c>
+      <c r="B182" t="n">
+        <v>47.37340719586602</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B183" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B184" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C184" t="n">
+        <v>10</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B185" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B186" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>202.0831068239751</v>
+      </c>
+      <c r="B187" t="n">
+        <v>47.36300667776938</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>202.0831068239751</v>
+      </c>
+      <c r="B188" t="n">
+        <v>47.36300667776938</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B189" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>202.0831068239751</v>
+      </c>
+      <c r="B190" t="n">
+        <v>47.36300667776938</v>
+      </c>
+      <c r="C190" t="n">
+        <v>10</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B191" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C191" t="n">
+        <v>10</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B192" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C192" t="n">
+        <v>10</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B193" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>202.2419585285108</v>
+      </c>
+      <c r="B194" t="n">
+        <v>47.3899773894429</v>
+      </c>
+      <c r="C194" t="n">
+        <v>10</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B195" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C195" t="n">
+        <v>10</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>202.0831068239751</v>
+      </c>
+      <c r="B196" t="n">
+        <v>47.36300667776938</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>202.2419585285108</v>
+      </c>
+      <c r="B197" t="n">
+        <v>47.3899773894429</v>
+      </c>
+      <c r="C197" t="n">
+        <v>10</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B198" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>202.2419585285108</v>
+      </c>
+      <c r="B199" t="n">
+        <v>47.3899773894429</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B200" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>202.0831068239751</v>
+      </c>
+      <c r="B201" t="n">
+        <v>47.36300667776938</v>
+      </c>
+      <c r="C201" t="n">
+        <v>10</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>202.2052493477286</v>
+      </c>
+      <c r="B202" t="n">
+        <v>47.38374582059588</v>
+      </c>
+      <c r="C202" t="n">
+        <v>10</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>202.2425306263942</v>
+      </c>
+      <c r="B203" t="n">
+        <v>47.39007450063703</v>
+      </c>
+      <c r="C203" t="n">
+        <v>10</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>202.0831068239751</v>
+      </c>
+      <c r="B204" t="n">
+        <v>47.36300667776938</v>
+      </c>
+      <c r="C204" t="n">
+        <v>10</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>202.0831068239751</v>
+      </c>
+      <c r="B205" t="n">
+        <v>47.36300667776938</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B206" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C206" t="n">
+        <v>10</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>202.0831068239751</v>
+      </c>
+      <c r="B207" t="n">
+        <v>47.36300667776938</v>
+      </c>
+      <c r="C207" t="n">
+        <v>10</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>202.0831068239751</v>
+      </c>
+      <c r="B208" t="n">
+        <v>47.36300667776938</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B209" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>202.0831068239751</v>
+      </c>
+      <c r="B210" t="n">
+        <v>47.36300667776938</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B211" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B212" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B213" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C213" t="n">
+        <v>10</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B214" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B215" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B216" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>202.0831068239751</v>
+      </c>
+      <c r="B217" t="n">
+        <v>47.36300667776938</v>
+      </c>
+      <c r="C217" t="n">
+        <v>10</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>202.2052493477286</v>
+      </c>
+      <c r="B218" t="n">
+        <v>47.38374582059588</v>
+      </c>
+      <c r="C218" t="n">
+        <v>10</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>202.2052493477286</v>
+      </c>
+      <c r="B219" t="n">
+        <v>47.38374582059588</v>
+      </c>
+      <c r="C219" t="n">
+        <v>10</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>202.1443548738203</v>
+      </c>
+      <c r="B220" t="n">
+        <v>47.37340719586602</v>
+      </c>
+      <c r="C220" t="n">
+        <v>10</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>202.2425306263942</v>
+      </c>
+      <c r="B221" t="n">
+        <v>47.39007450063703</v>
+      </c>
+      <c r="C221" t="n">
+        <v>10</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>202.2419585285108</v>
+      </c>
+      <c r="B222" t="n">
+        <v>47.3899773894429</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B223" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>202.2419585285108</v>
+      </c>
+      <c r="B224" t="n">
+        <v>47.3899773894429</v>
+      </c>
+      <c r="C224" t="n">
+        <v>10</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B225" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C225" t="n">
+        <v>10</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B226" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C226" t="n">
+        <v>10</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B227" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>202.1443548738203</v>
+      </c>
+      <c r="B228" t="n">
+        <v>47.37340719586602</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>202.2052493477286</v>
+      </c>
+      <c r="B229" t="n">
+        <v>47.38374582059588</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B230" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C230" t="n">
+        <v>10</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B231" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B232" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B233" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>202.1443548738203</v>
+      </c>
+      <c r="B234" t="n">
+        <v>47.37340719586602</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>202.2419585285108</v>
+      </c>
+      <c r="B235" t="n">
+        <v>47.3899773894429</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B236" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C236" t="n">
+        <v>10</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>202.2425306263942</v>
+      </c>
+      <c r="B237" t="n">
+        <v>47.39007450063703</v>
+      </c>
+      <c r="C237" t="n">
+        <v>10</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B238" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C238" t="n">
+        <v>10</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>202.2052493477286</v>
+      </c>
+      <c r="B239" t="n">
+        <v>47.38374582059588</v>
+      </c>
+      <c r="C239" t="n">
+        <v>10</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B240" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B241" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C241" t="n">
+        <v>10</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B242" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>202.1443548738203</v>
+      </c>
+      <c r="B243" t="n">
+        <v>47.37340719586602</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>202.1443548738203</v>
+      </c>
+      <c r="B244" t="n">
+        <v>47.37340719586602</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B245" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C245" t="n">
+        <v>10</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>202.2419585285108</v>
+      </c>
+      <c r="B246" t="n">
+        <v>47.3899773894429</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B247" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B248" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C248" t="n">
+        <v>10</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B249" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C249" t="n">
+        <v>10</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B250" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B251" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B252" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>202.2419585285108</v>
+      </c>
+      <c r="B253" t="n">
+        <v>47.3899773894429</v>
+      </c>
+      <c r="C253" t="n">
+        <v>10</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>202.2052493477286</v>
+      </c>
+      <c r="B254" t="n">
+        <v>47.38374582059588</v>
+      </c>
+      <c r="C254" t="n">
+        <v>10</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B255" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C255" t="n">
+        <v>10</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>202.2425306263942</v>
+      </c>
+      <c r="B256" t="n">
+        <v>47.39007450063703</v>
+      </c>
+      <c r="C256" t="n">
+        <v>10</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B257" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C257" t="n">
+        <v>10</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>202.1443548738203</v>
+      </c>
+      <c r="B258" t="n">
+        <v>47.37340719586602</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B259" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>202.2419585285108</v>
+      </c>
+      <c r="B260" t="n">
+        <v>47.3899773894429</v>
+      </c>
+      <c r="C260" t="n">
+        <v>10</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B261" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C261" t="n">
+        <v>10</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>202.2052493477286</v>
+      </c>
+      <c r="B262" t="n">
+        <v>47.38374582059588</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>202.1443548738203</v>
+      </c>
+      <c r="B263" t="n">
+        <v>47.37340719586602</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>202.2419585285108</v>
+      </c>
+      <c r="B264" t="n">
+        <v>47.3899773894429</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B265" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C265" t="n">
+        <v>10</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B266" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>202.2419585285108</v>
+      </c>
+      <c r="B267" t="n">
+        <v>47.3899773894429</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B268" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C268" t="n">
+        <v>10</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B269" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C269" t="n">
+        <v>10</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>202.2425306263942</v>
+      </c>
+      <c r="B270" t="n">
+        <v>47.39007450063703</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B271" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C271" t="n">
+        <v>10</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B272" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B273" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B274" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C274" t="n">
+        <v>10</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>202.2052493477286</v>
+      </c>
+      <c r="B275" t="n">
+        <v>47.38374582059588</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>202.2419585285108</v>
+      </c>
+      <c r="B276" t="n">
+        <v>47.3899773894429</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B277" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B278" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>202.2052493477286</v>
+      </c>
+      <c r="B279" t="n">
+        <v>47.38374582059588</v>
+      </c>
+      <c r="C279" t="n">
+        <v>10</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>202.2425306263942</v>
+      </c>
+      <c r="B280" t="n">
+        <v>47.39007450063703</v>
+      </c>
+      <c r="C280" t="n">
+        <v>10</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>202.1443548738203</v>
+      </c>
+      <c r="B281" t="n">
+        <v>47.37340719586602</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>202.2425306263942</v>
+      </c>
+      <c r="B282" t="n">
+        <v>47.39007450063703</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>202.2425306263942</v>
+      </c>
+      <c r="B283" t="n">
+        <v>47.39007450063703</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B284" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>202.2419585285108</v>
+      </c>
+      <c r="B285" t="n">
+        <v>47.3899773894429</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B286" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C286" t="n">
+        <v>10</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B287" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>202.2419585285108</v>
+      </c>
+      <c r="B288" t="n">
+        <v>47.3899773894429</v>
+      </c>
+      <c r="C288" t="n">
+        <v>10</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B289" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C289" t="n">
+        <v>10</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B290" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B291" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C291" t="n">
+        <v>10</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>202.2052493477286</v>
+      </c>
+      <c r="B292" t="n">
+        <v>47.38374582059588</v>
+      </c>
+      <c r="C292" t="n">
+        <v>10</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B293" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B294" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B295" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B296" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>202.1443548738203</v>
+      </c>
+      <c r="B297" t="n">
+        <v>47.37340719586602</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>202.2425306263942</v>
+      </c>
+      <c r="B298" t="n">
+        <v>47.39007450063703</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>202.2425306263942</v>
+      </c>
+      <c r="B299" t="n">
+        <v>47.39007450063703</v>
+      </c>
+      <c r="C299" t="n">
+        <v>10</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>202.0831068239751</v>
+      </c>
+      <c r="B300" t="n">
+        <v>47.36300667776938</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B301" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C301" t="n">
+        <v>10</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>202.0831068239751</v>
+      </c>
+      <c r="B302" t="n">
+        <v>47.36300667776938</v>
+      </c>
+      <c r="C302" t="n">
+        <v>10</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>202.1443548738203</v>
+      </c>
+      <c r="B303" t="n">
+        <v>47.37340719586602</v>
+      </c>
+      <c r="C303" t="n">
+        <v>10</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>202.2419585285108</v>
+      </c>
+      <c r="B304" t="n">
+        <v>47.3899773894429</v>
+      </c>
+      <c r="C304" t="n">
+        <v>10</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B305" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C305" t="n">
+        <v>10</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B306" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C306" t="n">
+        <v>10</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B307" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C307" t="n">
+        <v>10</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B308" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C308" t="n">
+        <v>10</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>202.2052493477286</v>
+      </c>
+      <c r="B309" t="n">
+        <v>47.38374582059588</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>202.0831068239751</v>
+      </c>
+      <c r="B310" t="n">
+        <v>47.36300667776938</v>
+      </c>
+      <c r="C310" t="n">
+        <v>10</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>202.2425306263942</v>
+      </c>
+      <c r="B311" t="n">
+        <v>47.39007450063703</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>202.2052493477286</v>
+      </c>
+      <c r="B312" t="n">
+        <v>47.38374582059588</v>
+      </c>
+      <c r="C312" t="n">
+        <v>10</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B313" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>202.2052493477286</v>
+      </c>
+      <c r="B314" t="n">
+        <v>47.38374582059588</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E314" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>202.2052493477286</v>
+      </c>
+      <c r="B315" t="n">
+        <v>47.38374582059588</v>
+      </c>
+      <c r="C315" t="n">
+        <v>10</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E315" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>202.2052493477286</v>
+      </c>
+      <c r="B316" t="n">
+        <v>47.38374582059588</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E316" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>202.2425306263942</v>
+      </c>
+      <c r="B317" t="n">
+        <v>47.39007450063703</v>
+      </c>
+      <c r="C317" t="n">
+        <v>10</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>202.1443548738203</v>
+      </c>
+      <c r="B318" t="n">
+        <v>47.37340719586602</v>
+      </c>
+      <c r="C318" t="n">
+        <v>10</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>202.0443277736058</v>
+      </c>
+      <c r="B319" t="n">
+        <v>47.35642064920658</v>
+      </c>
+      <c r="C319" t="n">
+        <v>10</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B320" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B321" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C321" t="n">
+        <v>10</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B322" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C322" t="n">
+        <v>10</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B323" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C323" t="n">
+        <v>10</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="E323" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B324" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="E324" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B325" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0</v>
+      </c>
+      <c r="D325" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E325" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>202.2419585285108</v>
+      </c>
+      <c r="B326" t="n">
+        <v>47.3899773894429</v>
+      </c>
+      <c r="C326" t="n">
+        <v>10</v>
+      </c>
+      <c r="D326" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E326" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B327" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C327" t="n">
+        <v>10</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>202.1425035261798</v>
+      </c>
+      <c r="B328" t="n">
+        <v>47.3730928463169</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>202.0831068239751</v>
+      </c>
+      <c r="B329" t="n">
+        <v>47.36300667776938</v>
+      </c>
+      <c r="C329" t="n">
+        <v>10</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E329" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>202.2419585285108</v>
+      </c>
+      <c r="B330" t="n">
+        <v>47.3899773894429</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E330" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>202.0816090522714</v>
+      </c>
+      <c r="B331" t="n">
+        <v>47.36275231806718</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>

--- a/phase_shift_scanlist.xlsx
+++ b/phase_shift_scanlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E331"/>
+  <dimension ref="A1:E421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,13 +462,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>202.0816090522714</v>
+        <v>202.2155099875484</v>
       </c>
       <c r="B2" t="n">
-        <v>47.36275231806718</v>
+        <v>47.38548768361002</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
         <v>0.54</v>
@@ -479,336 +479,336 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>202.1425035261798</v>
+        <v>202.2155099875484</v>
       </c>
       <c r="B3" t="n">
-        <v>47.3730928463169</v>
+        <v>47.38548768361002</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="E3" t="n">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B4" t="n">
-        <v>47.35642064920658</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E4" t="n">
-        <v>0.31</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>202.0816090522714</v>
+        <v>202.0989337497235</v>
       </c>
       <c r="B5" t="n">
-        <v>47.36275231806718</v>
+        <v>47.36569442369761</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>202.2425306263942</v>
+        <v>202.1016529381428</v>
       </c>
       <c r="B6" t="n">
-        <v>47.39007450063703</v>
+        <v>47.3661561867</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6</v>
+        <v>0.47</v>
       </c>
       <c r="E6" t="n">
-        <v>0.36</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>202.2052493477286</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B7" t="n">
-        <v>47.38374582059588</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C7" t="n">
         <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="E7" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1407338734737</v>
       </c>
       <c r="B8" t="n">
-        <v>47.36275231806718</v>
+        <v>47.37279236656199</v>
       </c>
       <c r="C8" t="n">
         <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="E8" t="n">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>202.1443548738203</v>
+        <v>202.2155099875484</v>
       </c>
       <c r="B9" t="n">
-        <v>47.37340719586602</v>
+        <v>47.38548768361002</v>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="E9" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1016529381428</v>
       </c>
       <c r="B10" t="n">
-        <v>47.3730928463169</v>
+        <v>47.3661561867</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="E10" t="n">
-        <v>0.43</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1407338734737</v>
       </c>
       <c r="B11" t="n">
-        <v>47.3730928463169</v>
+        <v>47.37279236656199</v>
       </c>
       <c r="C11" t="n">
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="E11" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>202.0831068239751</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B12" t="n">
-        <v>47.36300667776938</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>0.57</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>202.0443277736058</v>
+        <v>202.2155099875484</v>
       </c>
       <c r="B13" t="n">
-        <v>47.35642064920658</v>
+        <v>47.38548768361002</v>
       </c>
       <c r="C13" t="n">
         <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="E13" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>202.1425035261798</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B14" t="n">
-        <v>47.3730928463169</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="E14" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>202.2052493477286</v>
+        <v>202.1075186031524</v>
       </c>
       <c r="B15" t="n">
-        <v>47.38374582059588</v>
+        <v>47.36715226073199</v>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>0.59</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>202.2419585285108</v>
+        <v>202.2155099875484</v>
       </c>
       <c r="B16" t="n">
-        <v>47.3899773894429</v>
+        <v>47.38548768361002</v>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.61</v>
+        <v>0.54</v>
       </c>
       <c r="E16" t="n">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>202.1425035261798</v>
+        <v>202.0989337497235</v>
       </c>
       <c r="B17" t="n">
-        <v>47.3730928463169</v>
+        <v>47.36569442369761</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="E17" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1016529381428</v>
       </c>
       <c r="B18" t="n">
-        <v>47.36275231806718</v>
+        <v>47.3661561867</v>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="E18" t="n">
-        <v>0.32</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>202.0816090522714</v>
+        <v>202.0989337497235</v>
       </c>
       <c r="B19" t="n">
-        <v>47.36275231806718</v>
+        <v>47.36569442369761</v>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="E19" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B20" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.55</v>
+        <v>0.59</v>
       </c>
       <c r="E20" t="n">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>202.0443277736058</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B21" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>0.55</v>
+        <v>0.61</v>
       </c>
       <c r="E21" t="n">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>202.1425035261798</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B22" t="n">
-        <v>47.3730928463169</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D22" t="n">
         <v>0.53</v>
@@ -819,214 +819,214 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>202.0831068239751</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B23" t="n">
-        <v>47.36300667776938</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="E23" t="n">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>202.1443548738203</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B24" t="n">
-        <v>47.37340719586602</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="E24" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>202.2425306263942</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B25" t="n">
-        <v>47.39007450063703</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="E25" t="n">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1075186031524</v>
       </c>
       <c r="B26" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36715226073199</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>202.0816090522714</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B27" t="n">
-        <v>47.36275231806718</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>202.2052493477286</v>
+        <v>202.1407338734737</v>
       </c>
       <c r="B28" t="n">
-        <v>47.38374582059588</v>
+        <v>47.37279236656199</v>
       </c>
       <c r="C28" t="n">
         <v>10</v>
       </c>
       <c r="D28" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="E28" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B29" t="n">
-        <v>47.35642064920658</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C29" t="n">
         <v>10</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="E29" t="n">
-        <v>0.31</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>202.2425306263942</v>
+        <v>202.1407338734737</v>
       </c>
       <c r="B30" t="n">
-        <v>47.39007450063703</v>
+        <v>47.37279236656199</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="E30" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>202.0816090522714</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B31" t="n">
-        <v>47.36275231806718</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="E31" t="n">
-        <v>0.32</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B32" t="n">
-        <v>47.3730928463169</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D32" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="E32" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1075186031524</v>
       </c>
       <c r="B33" t="n">
-        <v>47.3730928463169</v>
+        <v>47.36715226073199</v>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.53</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B34" t="n">
-        <v>47.36275231806718</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="E34" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>202.1443548738203</v>
+        <v>202.1407338734737</v>
       </c>
       <c r="B35" t="n">
-        <v>47.37340719586602</v>
+        <v>47.37279236656199</v>
       </c>
       <c r="C35" t="n">
         <v>10</v>
@@ -1040,554 +1040,554 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1407338734737</v>
       </c>
       <c r="B36" t="n">
-        <v>47.3730928463169</v>
+        <v>47.37279236656199</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="E36" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>202.1443548738203</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B37" t="n">
-        <v>47.37340719586602</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C37" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
       <c r="E37" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>202.0816090522714</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B38" t="n">
-        <v>47.36275231806718</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="E38" t="n">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>202.0816090522714</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B39" t="n">
-        <v>47.36275231806718</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B40" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.55</v>
+        <v>0.59</v>
       </c>
       <c r="E40" t="n">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>202.2419585285108</v>
+        <v>202.1016529381428</v>
       </c>
       <c r="B41" t="n">
-        <v>47.3899773894429</v>
+        <v>47.3661561867</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.61</v>
+        <v>0.47</v>
       </c>
       <c r="E41" t="n">
-        <v>0.35</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B42" t="n">
-        <v>47.35642064920658</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C42" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="E42" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>202.2419585285108</v>
+        <v>202.0989337497235</v>
       </c>
       <c r="B43" t="n">
-        <v>47.3899773894429</v>
+        <v>47.36569442369761</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="E43" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B44" t="n">
-        <v>47.35642064920658</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C44" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E44" t="n">
-        <v>0.31</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B45" t="n">
-        <v>47.35642064920658</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="E45" t="n">
-        <v>0.31</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>202.1425035261798</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B46" t="n">
-        <v>47.3730928463169</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="E46" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>202.0831068239751</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B47" t="n">
-        <v>47.36300667776938</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.57</v>
+        <v>0.51</v>
       </c>
       <c r="E47" t="n">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>202.0816090522714</v>
+        <v>202.2155099875484</v>
       </c>
       <c r="B48" t="n">
-        <v>47.36275231806718</v>
+        <v>47.38548768361002</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="E48" t="n">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>202.0443277736058</v>
+        <v>202.2155099875484</v>
       </c>
       <c r="B49" t="n">
-        <v>47.35642064920658</v>
+        <v>47.38548768361002</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="E49" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B50" t="n">
-        <v>47.35642064920658</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="E50" t="n">
-        <v>0.41</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>202.0443277736058</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B51" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C51" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.55</v>
+        <v>0.61</v>
       </c>
       <c r="E51" t="n">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1075186031524</v>
       </c>
       <c r="B52" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36715226073199</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>202.1425035261798</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B53" t="n">
-        <v>47.3730928463169</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C53" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="E53" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>202.0443277736058</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B54" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C54" t="n">
         <v>10</v>
       </c>
       <c r="D54" t="n">
-        <v>0.55</v>
+        <v>0.61</v>
       </c>
       <c r="E54" t="n">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B55" t="n">
-        <v>47.36275231806718</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D55" t="n">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="E55" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>202.0816090522714</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B56" t="n">
-        <v>47.36275231806718</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="E56" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>202.0831068239751</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B57" t="n">
-        <v>47.36300667776938</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.57</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>202.2419585285108</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B58" t="n">
-        <v>47.3899773894429</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C58" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.61</v>
+        <v>0.55</v>
       </c>
       <c r="E58" t="n">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1075186031524</v>
       </c>
       <c r="B59" t="n">
-        <v>47.36275231806718</v>
+        <v>47.36715226073199</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D59" t="n">
-        <v>0.54</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>202.0831068239751</v>
+        <v>202.0989337497235</v>
       </c>
       <c r="B60" t="n">
-        <v>47.36300667776938</v>
+        <v>47.36569442369761</v>
       </c>
       <c r="C60" t="n">
         <v>10</v>
       </c>
       <c r="D60" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="E60" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>202.2419585285108</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B61" t="n">
-        <v>47.3899773894429</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C61" t="n">
         <v>10</v>
       </c>
       <c r="D61" t="n">
-        <v>0.61</v>
+        <v>0.55</v>
       </c>
       <c r="E61" t="n">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>202.1443548738203</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B62" t="n">
-        <v>47.37340719586602</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D62" t="n">
-        <v>0.58</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>202.1425035261798</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B63" t="n">
-        <v>47.3730928463169</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C63" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.53</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>202.2052493477286</v>
+        <v>202.1016529381428</v>
       </c>
       <c r="B64" t="n">
-        <v>47.38374582059588</v>
+        <v>47.3661561867</v>
       </c>
       <c r="C64" t="n">
         <v>10</v>
       </c>
       <c r="D64" t="n">
-        <v>0.59</v>
+        <v>0.47</v>
       </c>
       <c r="E64" t="n">
-        <v>0.37</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>202.0816090522714</v>
+        <v>202.2155099875484</v>
       </c>
       <c r="B65" t="n">
-        <v>47.36275231806718</v>
+        <v>47.38548768361002</v>
       </c>
       <c r="C65" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="E65" t="n">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>202.2419585285108</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B66" t="n">
-        <v>47.3899773894429</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C66" t="n">
         <v>10</v>
       </c>
       <c r="D66" t="n">
-        <v>0.61</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>202.2052493477286</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B67" t="n">
-        <v>47.38374582059588</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D67" t="n">
-        <v>0.59</v>
+        <v>0.53</v>
       </c>
       <c r="E67" t="n">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>202.1425035261798</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B68" t="n">
-        <v>47.3730928463169</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C68" t="n">
         <v>10</v>
@@ -1601,64 +1601,64 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>202.0831068239751</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B69" t="n">
-        <v>47.36300667776938</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
       <c r="E69" t="n">
-        <v>0.39</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1407338734737</v>
       </c>
       <c r="B70" t="n">
-        <v>47.36275231806718</v>
+        <v>47.37279236656199</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="E70" t="n">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>202.0443277736058</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B71" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0.55</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>202.1425035261798</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B72" t="n">
-        <v>47.3730928463169</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C72" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
         <v>0.6299999999999999</v>
@@ -1669,299 +1669,299 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>202.2425306263942</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B73" t="n">
-        <v>47.39007450063703</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="E73" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>202.1443548738203</v>
+        <v>202.1016529381428</v>
       </c>
       <c r="B74" t="n">
-        <v>47.37340719586602</v>
+        <v>47.3661561867</v>
       </c>
       <c r="C74" t="n">
         <v>10</v>
       </c>
       <c r="D74" t="n">
-        <v>0.58</v>
+        <v>0.47</v>
       </c>
       <c r="E74" t="n">
-        <v>0.38</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>202.1425035261798</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B75" t="n">
-        <v>47.3730928463169</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.53</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>0.43</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B76" t="n">
-        <v>47.35642064920658</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C76" t="n">
         <v>10</v>
       </c>
       <c r="D76" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="E76" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1075186031524</v>
       </c>
       <c r="B77" t="n">
-        <v>47.3730928463169</v>
+        <v>47.36715226073199</v>
       </c>
       <c r="C77" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0.53</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>202.0816090522714</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B78" t="n">
-        <v>47.36275231806718</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>202.0443277736058</v>
+        <v>202.2155099875484</v>
       </c>
       <c r="B79" t="n">
-        <v>47.35642064920658</v>
+        <v>47.38548768361002</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="E79" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>202.2425306263942</v>
+        <v>202.1407338734737</v>
       </c>
       <c r="B80" t="n">
-        <v>47.39007450063703</v>
+        <v>47.37279236656199</v>
       </c>
       <c r="C80" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="E80" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1016529381428</v>
       </c>
       <c r="B81" t="n">
-        <v>47.3730928463169</v>
+        <v>47.3661561867</v>
       </c>
       <c r="C81" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="E81" t="n">
-        <v>0.43</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1016529381428</v>
       </c>
       <c r="B82" t="n">
-        <v>47.35642064920658</v>
+        <v>47.3661561867</v>
       </c>
       <c r="C82" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="E82" t="n">
-        <v>0.31</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>202.0816090522714</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B83" t="n">
-        <v>47.36275231806718</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D83" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="E83" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>202.2425306263942</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B84" t="n">
-        <v>47.39007450063703</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C84" t="n">
         <v>10</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>202.1443548738203</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B85" t="n">
-        <v>47.37340719586602</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C85" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0.58</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B86" t="n">
-        <v>47.35642064920658</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C86" t="n">
         <v>10</v>
       </c>
       <c r="D86" t="n">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
       <c r="E86" t="n">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B87" t="n">
-        <v>47.35642064920658</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C87" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="E87" t="n">
-        <v>0.41</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>202.2425306263942</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B88" t="n">
-        <v>47.39007450063703</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C88" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>202.0816090522714</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B89" t="n">
-        <v>47.36275231806718</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C89" t="n">
         <v>10</v>
       </c>
       <c r="D89" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="E89" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>202.2425306263942</v>
+        <v>202.0989337497235</v>
       </c>
       <c r="B90" t="n">
-        <v>47.39007450063703</v>
+        <v>47.36569442369761</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -1975,523 +1975,523 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1016529381428</v>
       </c>
       <c r="B91" t="n">
-        <v>47.36275231806718</v>
+        <v>47.3661561867</v>
       </c>
       <c r="C91" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="E91" t="n">
-        <v>0.32</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>202.0816090522714</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B92" t="n">
-        <v>47.36275231806718</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C92" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0.54</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>202.0831068239751</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B93" t="n">
-        <v>47.36300667776938</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C93" t="n">
         <v>10</v>
       </c>
       <c r="D93" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="E93" t="n">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>202.0816090522714</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B94" t="n">
-        <v>47.36275231806718</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C94" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="E94" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>202.2052493477286</v>
+        <v>202.1016529381428</v>
       </c>
       <c r="B95" t="n">
-        <v>47.38374582059588</v>
+        <v>47.3661561867</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D95" t="n">
-        <v>0.59</v>
+        <v>0.47</v>
       </c>
       <c r="E95" t="n">
-        <v>0.37</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>202.2052493477286</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B96" t="n">
-        <v>47.38374582059588</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="E96" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B97" t="n">
-        <v>47.36275231806718</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="E97" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>202.1425035261798</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B98" t="n">
-        <v>47.3730928463169</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="E98" t="n">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1075186031524</v>
       </c>
       <c r="B99" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36715226073199</v>
       </c>
       <c r="C99" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E99" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>202.2419585285108</v>
+        <v>202.2155099875484</v>
       </c>
       <c r="B100" t="n">
-        <v>47.3899773894429</v>
+        <v>47.38548768361002</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D100" t="n">
-        <v>0.61</v>
+        <v>0.54</v>
       </c>
       <c r="E100" t="n">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B101" t="n">
-        <v>47.36275231806718</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C101" t="n">
         <v>10</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="E101" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>202.1443548738203</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B102" t="n">
-        <v>47.37340719586602</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D102" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="E102" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1075186031524</v>
       </c>
       <c r="B103" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36715226073199</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>202.2419585285108</v>
+        <v>202.1407338734737</v>
       </c>
       <c r="B104" t="n">
-        <v>47.3899773894429</v>
+        <v>47.37279236656199</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="E104" t="n">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>202.2052493477286</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B105" t="n">
-        <v>47.38374582059588</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>0.59</v>
+        <v>0.51</v>
       </c>
       <c r="E105" t="n">
-        <v>0.37</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>202.2425306263942</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B106" t="n">
-        <v>47.39007450063703</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="E106" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>202.0831068239751</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B107" t="n">
-        <v>47.36300667776938</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C107" t="n">
         <v>10</v>
       </c>
       <c r="D107" t="n">
-        <v>0.57</v>
+        <v>0.51</v>
       </c>
       <c r="E107" t="n">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B108" t="n">
-        <v>47.36275231806718</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C108" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="E108" t="n">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>202.0831068239751</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B109" t="n">
-        <v>47.36300667776938</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D109" t="n">
-        <v>0.57</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>202.0443277736058</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B110" t="n">
-        <v>47.35642064920658</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="E110" t="n">
-        <v>0.31</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>202.1443548738203</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B111" t="n">
-        <v>47.37340719586602</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D111" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
       <c r="E111" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B112" t="n">
-        <v>47.3730928463169</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C112" t="n">
         <v>10</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="E112" t="n">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>202.2052493477286</v>
+        <v>202.1075186031524</v>
       </c>
       <c r="B113" t="n">
-        <v>47.38374582059588</v>
+        <v>47.36715226073199</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D113" t="n">
-        <v>0.59</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E113" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>202.2419585285108</v>
+        <v>202.0989337497235</v>
       </c>
       <c r="B114" t="n">
-        <v>47.3899773894429</v>
+        <v>47.36569442369761</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="E114" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>202.0443277736058</v>
+        <v>202.0989337497235</v>
       </c>
       <c r="B115" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36569442369761</v>
       </c>
       <c r="C115" t="n">
         <v>10</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="E115" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>202.0816090522714</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B116" t="n">
-        <v>47.36275231806718</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C116" t="n">
         <v>10</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1016529381428</v>
       </c>
       <c r="B117" t="n">
-        <v>47.35642064920658</v>
+        <v>47.3661561867</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D117" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="E117" t="n">
-        <v>0.31</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>202.0443277736058</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B118" t="n">
-        <v>47.35642064920658</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C118" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="E118" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>202.2425306263942</v>
+        <v>202.2155099875484</v>
       </c>
       <c r="B119" t="n">
-        <v>47.39007450063703</v>
+        <v>47.38548768361002</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="E119" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>202.2425306263942</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B120" t="n">
-        <v>47.39007450063703</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C120" t="n">
         <v>10</v>
       </c>
       <c r="D120" t="n">
-        <v>0.6</v>
+        <v>0.49</v>
       </c>
       <c r="E120" t="n">
-        <v>0.36</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>202.0831068239751</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B121" t="n">
-        <v>47.36300667776938</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C121" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
         <v>0.57</v>
@@ -2502,268 +2502,268 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1016529381428</v>
       </c>
       <c r="B122" t="n">
-        <v>47.3730928463169</v>
+        <v>47.3661561867</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="E122" t="n">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>202.2419585285108</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B123" t="n">
-        <v>47.3899773894429</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C123" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0.61</v>
+        <v>0.53</v>
       </c>
       <c r="E123" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1075186031524</v>
       </c>
       <c r="B124" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36715226073199</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>202.0831068239751</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B125" t="n">
-        <v>47.36300667776938</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D125" t="n">
-        <v>0.57</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>202.1443548738203</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B126" t="n">
-        <v>47.37340719586602</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D126" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
       <c r="E126" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B127" t="n">
-        <v>47.36275231806718</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C127" t="n">
         <v>10</v>
       </c>
       <c r="D127" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="E127" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>202.0831068239751</v>
+        <v>202.2155099875484</v>
       </c>
       <c r="B128" t="n">
-        <v>47.36300667776938</v>
+        <v>47.38548768361002</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="E128" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>202.0816090522714</v>
+        <v>202.2155099875484</v>
       </c>
       <c r="B129" t="n">
-        <v>47.36275231806718</v>
+        <v>47.38548768361002</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="E129" t="n">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>202.0816090522714</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B130" t="n">
-        <v>47.36275231806718</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0.54</v>
+        <v>0.61</v>
       </c>
       <c r="E130" t="n">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>202.2425306263942</v>
+        <v>202.1016529381428</v>
       </c>
       <c r="B131" t="n">
-        <v>47.39007450063703</v>
+        <v>47.3661561867</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>0.6</v>
+        <v>0.47</v>
       </c>
       <c r="E131" t="n">
-        <v>0.36</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>202.1443548738203</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B132" t="n">
-        <v>47.37340719586602</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C132" t="n">
         <v>10</v>
       </c>
       <c r="D132" t="n">
-        <v>0.58</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B133" t="n">
-        <v>47.3730928463169</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C133" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="E133" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>202.0443277736058</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B134" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D134" t="n">
-        <v>0.55</v>
+        <v>0.61</v>
       </c>
       <c r="E134" t="n">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B135" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C135" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="E135" t="n">
-        <v>0.31</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>202.2419585285108</v>
+        <v>202.2155099875484</v>
       </c>
       <c r="B136" t="n">
-        <v>47.3899773894429</v>
+        <v>47.38548768361002</v>
       </c>
       <c r="C136" t="n">
         <v>10</v>
       </c>
       <c r="D136" t="n">
-        <v>0.61</v>
+        <v>0.54</v>
       </c>
       <c r="E136" t="n">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>202.0443277736058</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B137" t="n">
-        <v>47.35642064920658</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C137" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
         <v>0.6499999999999999</v>
@@ -2774,163 +2774,163 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>202.2425306263942</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B138" t="n">
-        <v>47.39007450063703</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="E138" t="n">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>202.0831068239751</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B139" t="n">
-        <v>47.36300667776938</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C139" t="n">
         <v>10</v>
       </c>
       <c r="D139" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="E139" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B140" t="n">
-        <v>47.35642064920658</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C140" t="n">
         <v>10</v>
       </c>
       <c r="D140" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="E140" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>202.1443548738203</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B141" t="n">
-        <v>47.37340719586602</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C141" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
       <c r="E141" t="n">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>202.2425306263942</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B142" t="n">
-        <v>47.39007450063703</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C142" t="n">
         <v>10</v>
       </c>
       <c r="D142" t="n">
-        <v>0.6</v>
+        <v>0.53</v>
       </c>
       <c r="E142" t="n">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>202.1443548738203</v>
+        <v>202.2155099875484</v>
       </c>
       <c r="B143" t="n">
-        <v>47.37340719586602</v>
+        <v>47.38548768361002</v>
       </c>
       <c r="C143" t="n">
         <v>10</v>
       </c>
       <c r="D143" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="E143" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1075186031524</v>
       </c>
       <c r="B144" t="n">
-        <v>47.36275231806718</v>
+        <v>47.36715226073199</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D144" t="n">
-        <v>0.54</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E144" t="n">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>202.2052493477286</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B145" t="n">
-        <v>47.38374582059588</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C145" t="n">
         <v>10</v>
       </c>
       <c r="D145" t="n">
-        <v>0.59</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E145" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B146" t="n">
-        <v>47.3730928463169</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C146" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>0.53</v>
+        <v>0.59</v>
       </c>
       <c r="E146" t="n">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>202.2425306263942</v>
+        <v>202.0989337497235</v>
       </c>
       <c r="B147" t="n">
-        <v>47.39007450063703</v>
+        <v>47.36569442369761</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -2944,333 +2944,333 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>202.0816090522714</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B148" t="n">
-        <v>47.36275231806718</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>0.54</v>
+        <v>0.61</v>
       </c>
       <c r="E148" t="n">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>202.0816090522714</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B149" t="n">
-        <v>47.36275231806718</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C149" t="n">
         <v>10</v>
       </c>
       <c r="D149" t="n">
-        <v>0.54</v>
+        <v>0.61</v>
       </c>
       <c r="E149" t="n">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>202.0816090522714</v>
+        <v>202.2155099875484</v>
       </c>
       <c r="B150" t="n">
-        <v>47.36275231806718</v>
+        <v>47.38548768361002</v>
       </c>
       <c r="C150" t="n">
         <v>10</v>
       </c>
       <c r="D150" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="E150" t="n">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>202.0831068239751</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B151" t="n">
-        <v>47.36300667776938</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C151" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="E151" t="n">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>202.2419585285108</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B152" t="n">
-        <v>47.3899773894429</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D152" t="n">
-        <v>0.61</v>
+        <v>0.51</v>
       </c>
       <c r="E152" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>202.2052493477286</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B153" t="n">
-        <v>47.38374582059588</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>0.59</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E153" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>202.1425035261798</v>
+        <v>202.2155099875484</v>
       </c>
       <c r="B154" t="n">
-        <v>47.3730928463169</v>
+        <v>47.38548768361002</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D154" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="E154" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>202.2425306263942</v>
+        <v>202.1016529381428</v>
       </c>
       <c r="B155" t="n">
-        <v>47.39007450063703</v>
+        <v>47.3661561867</v>
       </c>
       <c r="C155" t="n">
         <v>10</v>
       </c>
       <c r="D155" t="n">
-        <v>0.6</v>
+        <v>0.47</v>
       </c>
       <c r="E155" t="n">
-        <v>0.36</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>202.0443277736058</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B156" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>0.55</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E156" t="n">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>202.2052493477286</v>
+        <v>202.1075186031524</v>
       </c>
       <c r="B157" t="n">
-        <v>47.38374582059588</v>
+        <v>47.36715226073199</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>0.59</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E157" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B158" t="n">
-        <v>47.36275231806718</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D158" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E158" t="n">
-        <v>0.32</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>202.2425306263942</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B159" t="n">
-        <v>47.39007450063703</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="E159" t="n">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>202.0816090522714</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B160" t="n">
-        <v>47.36275231806718</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C160" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="E160" t="n">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B161" t="n">
-        <v>47.3730928463169</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C161" t="n">
         <v>10</v>
       </c>
       <c r="D161" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E161" t="n">
-        <v>0.33</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>202.2419585285108</v>
+        <v>202.1407338734737</v>
       </c>
       <c r="B162" t="n">
-        <v>47.3899773894429</v>
+        <v>47.37279236656199</v>
       </c>
       <c r="C162" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D162" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="E162" t="n">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>202.2425306263942</v>
+        <v>202.1075186031524</v>
       </c>
       <c r="B163" t="n">
-        <v>47.39007450063703</v>
+        <v>47.36715226073199</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D163" t="n">
-        <v>0.6</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E163" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>202.2052493477286</v>
+        <v>202.1407338734737</v>
       </c>
       <c r="B164" t="n">
-        <v>47.38374582059588</v>
+        <v>47.37279236656199</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D164" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="E164" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>202.0443277736058</v>
+        <v>202.0989337497235</v>
       </c>
       <c r="B165" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36569442369761</v>
       </c>
       <c r="C165" t="n">
         <v>10</v>
       </c>
       <c r="D165" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="E165" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1075186031524</v>
       </c>
       <c r="B166" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36715226073199</v>
       </c>
       <c r="C166" t="n">
         <v>10</v>
       </c>
       <c r="D166" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E166" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>202.1443548738203</v>
+        <v>202.1407338734737</v>
       </c>
       <c r="B167" t="n">
-        <v>47.37340719586602</v>
+        <v>47.37279236656199</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -3284,163 +3284,163 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1407338734737</v>
       </c>
       <c r="B168" t="n">
-        <v>47.3730928463169</v>
+        <v>47.37279236656199</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D168" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="E168" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>202.0443277736058</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B169" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C169" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="E169" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>202.1443548738203</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B170" t="n">
-        <v>47.37340719586602</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C170" t="n">
         <v>10</v>
       </c>
       <c r="D170" t="n">
-        <v>0.58</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E170" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>202.1443548738203</v>
+        <v>202.0989337497235</v>
       </c>
       <c r="B171" t="n">
-        <v>47.37340719586602</v>
+        <v>47.36569442369761</v>
       </c>
       <c r="C171" t="n">
         <v>10</v>
       </c>
       <c r="D171" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="E171" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>202.1443548738203</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B172" t="n">
-        <v>47.37340719586602</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C172" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
       <c r="E172" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>202.2052493477286</v>
+        <v>202.2155099875484</v>
       </c>
       <c r="B173" t="n">
-        <v>47.38374582059588</v>
+        <v>47.38548768361002</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D173" t="n">
-        <v>0.59</v>
+        <v>0.54</v>
       </c>
       <c r="E173" t="n">
-        <v>0.37</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>202.0831068239751</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B174" t="n">
-        <v>47.36300667776938</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C174" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="E174" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B175" t="n">
-        <v>47.36275231806718</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C175" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D175" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="E175" t="n">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>202.0443277736058</v>
+        <v>202.2155099875484</v>
       </c>
       <c r="B176" t="n">
-        <v>47.35642064920658</v>
+        <v>47.38548768361002</v>
       </c>
       <c r="C176" t="n">
         <v>10</v>
       </c>
       <c r="D176" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="E176" t="n">
-        <v>0.31</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>202.1425035261798</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B177" t="n">
-        <v>47.3730928463169</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -3454,370 +3454,370 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>202.1425035261798</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B178" t="n">
-        <v>47.3730928463169</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C178" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E178" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>202.1425035261798</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B179" t="n">
-        <v>47.3730928463169</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C179" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>0.53</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E179" t="n">
-        <v>0.43</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>202.2052493477286</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B180" t="n">
-        <v>47.38374582059588</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C180" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>0.59</v>
+        <v>0.53</v>
       </c>
       <c r="E180" t="n">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>202.1443548738203</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B181" t="n">
-        <v>47.37340719586602</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C181" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
       <c r="E181" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>202.1443548738203</v>
+        <v>202.1016529381428</v>
       </c>
       <c r="B182" t="n">
-        <v>47.37340719586602</v>
+        <v>47.3661561867</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D182" t="n">
-        <v>0.58</v>
+        <v>0.47</v>
       </c>
       <c r="E182" t="n">
-        <v>0.38</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>202.0443277736058</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B183" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>0.55</v>
+        <v>0.61</v>
       </c>
       <c r="E183" t="n">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>202.0816090522714</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B184" t="n">
-        <v>47.36275231806718</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C184" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>0.54</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E184" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>202.0443277736058</v>
+        <v>202.2155099875484</v>
       </c>
       <c r="B185" t="n">
-        <v>47.35642064920658</v>
+        <v>47.38548768361002</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="E185" t="n">
-        <v>0.31</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B186" t="n">
-        <v>47.3730928463169</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E186" t="n">
-        <v>0.33</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>202.0831068239751</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B187" t="n">
-        <v>47.36300667776938</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
       <c r="E187" t="n">
-        <v>0.39</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>202.0831068239751</v>
+        <v>202.2155099875484</v>
       </c>
       <c r="B188" t="n">
-        <v>47.36300667776938</v>
+        <v>47.38548768361002</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D188" t="n">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="E188" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B189" t="n">
-        <v>47.3730928463169</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E189" t="n">
-        <v>0.33</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>202.0831068239751</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B190" t="n">
-        <v>47.36300667776938</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C190" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="E190" t="n">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1016529381428</v>
       </c>
       <c r="B191" t="n">
-        <v>47.35642064920658</v>
+        <v>47.3661561867</v>
       </c>
       <c r="C191" t="n">
         <v>10</v>
       </c>
       <c r="D191" t="n">
-        <v>0.55</v>
+        <v>0.47</v>
       </c>
       <c r="E191" t="n">
-        <v>0.41</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B192" t="n">
-        <v>47.36275231806718</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C192" t="n">
         <v>10</v>
       </c>
       <c r="D192" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E192" t="n">
-        <v>0.32</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B193" t="n">
-        <v>47.36275231806718</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
       </c>
       <c r="D193" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E193" t="n">
-        <v>0.32</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>202.2419585285108</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B194" t="n">
-        <v>47.3899773894429</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C194" t="n">
         <v>10</v>
       </c>
       <c r="D194" t="n">
-        <v>0.61</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E194" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1075186031524</v>
       </c>
       <c r="B195" t="n">
-        <v>47.36275231806718</v>
+        <v>47.36715226073199</v>
       </c>
       <c r="C195" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D195" t="n">
-        <v>0.54</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E195" t="n">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>202.0831068239751</v>
+        <v>202.0989337497235</v>
       </c>
       <c r="B196" t="n">
-        <v>47.36300667776938</v>
+        <v>47.36569442369761</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D196" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="E196" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>202.2419585285108</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B197" t="n">
-        <v>47.3899773894429</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C197" t="n">
         <v>10</v>
       </c>
       <c r="D197" t="n">
-        <v>0.61</v>
+        <v>0.49</v>
       </c>
       <c r="E197" t="n">
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B198" t="n">
-        <v>47.36275231806718</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D198" t="n">
-        <v>0.54</v>
+        <v>0.49</v>
       </c>
       <c r="E198" t="n">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>202.2419585285108</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B199" t="n">
-        <v>47.3899773894429</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D199" t="n">
         <v>0.61</v>
@@ -3828,81 +3828,81 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1016529381428</v>
       </c>
       <c r="B200" t="n">
-        <v>47.36275231806718</v>
+        <v>47.3661561867</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D200" t="n">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
       <c r="E200" t="n">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>202.0831068239751</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B201" t="n">
-        <v>47.36300667776938</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C201" t="n">
         <v>10</v>
       </c>
       <c r="D201" t="n">
-        <v>0.57</v>
+        <v>0.61</v>
       </c>
       <c r="E201" t="n">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>202.2052493477286</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B202" t="n">
-        <v>47.38374582059588</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C202" t="n">
         <v>10</v>
       </c>
       <c r="D202" t="n">
-        <v>0.59</v>
+        <v>0.49</v>
       </c>
       <c r="E202" t="n">
-        <v>0.37</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>202.2425306263942</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B203" t="n">
-        <v>47.39007450063703</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C203" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D203" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="E203" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>202.0831068239751</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B204" t="n">
-        <v>47.36300667776938</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C204" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D204" t="n">
         <v>0.57</v>
@@ -3913,10 +3913,10 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>202.0831068239751</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B205" t="n">
-        <v>47.36300667776938</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -3930,248 +3930,248 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>202.0816090522714</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B206" t="n">
-        <v>47.36275231806718</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C206" t="n">
         <v>10</v>
       </c>
       <c r="D206" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="E206" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>202.0831068239751</v>
+        <v>202.1407338734737</v>
       </c>
       <c r="B207" t="n">
-        <v>47.36300667776938</v>
+        <v>47.37279236656199</v>
       </c>
       <c r="C207" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D207" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="E207" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>202.0831068239751</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B208" t="n">
-        <v>47.36300667776938</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D208" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="E208" t="n">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>202.0816090522714</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B209" t="n">
-        <v>47.36275231806718</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D209" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E209" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>202.0831068239751</v>
+        <v>202.2155099875484</v>
       </c>
       <c r="B210" t="n">
-        <v>47.36300667776938</v>
+        <v>47.38548768361002</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D210" t="n">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="E210" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1016529381428</v>
       </c>
       <c r="B211" t="n">
-        <v>47.36275231806718</v>
+        <v>47.3661561867</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D211" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="E211" t="n">
-        <v>0.32</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B212" t="n">
-        <v>47.3730928463169</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D212" t="n">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
       <c r="E212" t="n">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>202.0816090522714</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B213" t="n">
-        <v>47.36275231806718</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C213" t="n">
         <v>10</v>
       </c>
       <c r="D213" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="E213" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B214" t="n">
-        <v>47.36275231806718</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="E214" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B215" t="n">
-        <v>47.35642064920658</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
       </c>
       <c r="D215" t="n">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
       <c r="E215" t="n">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B216" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>0.55</v>
+        <v>0.59</v>
       </c>
       <c r="E216" t="n">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>202.0831068239751</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B217" t="n">
-        <v>47.36300667776938</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C217" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D217" t="n">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="E217" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>202.2052493477286</v>
+        <v>202.1407338734737</v>
       </c>
       <c r="B218" t="n">
-        <v>47.38374582059588</v>
+        <v>47.37279236656199</v>
       </c>
       <c r="C218" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D218" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="E218" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>202.2052493477286</v>
+        <v>202.0989337497235</v>
       </c>
       <c r="B219" t="n">
-        <v>47.38374582059588</v>
+        <v>47.36569442369761</v>
       </c>
       <c r="C219" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D219" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="E219" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>202.1443548738203</v>
+        <v>202.1407338734737</v>
       </c>
       <c r="B220" t="n">
-        <v>47.37340719586602</v>
+        <v>47.37279236656199</v>
       </c>
       <c r="C220" t="n">
         <v>10</v>
@@ -4185,316 +4185,316 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>202.2425306263942</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B221" t="n">
-        <v>47.39007450063703</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C221" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D221" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="E221" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>202.2419585285108</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B222" t="n">
-        <v>47.3899773894429</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D222" t="n">
-        <v>0.61</v>
+        <v>0.49</v>
       </c>
       <c r="E222" t="n">
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B223" t="n">
-        <v>47.3730928463169</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D223" t="n">
-        <v>0.53</v>
+        <v>0.59</v>
       </c>
       <c r="E223" t="n">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>202.2419585285108</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B224" t="n">
-        <v>47.3899773894429</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C224" t="n">
         <v>10</v>
       </c>
       <c r="D224" t="n">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="E224" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B225" t="n">
-        <v>47.35642064920658</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C225" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E225" t="n">
-        <v>0.31</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>202.1425035261798</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B226" t="n">
-        <v>47.3730928463169</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C226" t="n">
         <v>10</v>
       </c>
       <c r="D226" t="n">
-        <v>0.53</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E226" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1075186031524</v>
       </c>
       <c r="B227" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36715226073199</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
       </c>
       <c r="D227" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E227" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>202.1443548738203</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B228" t="n">
-        <v>47.37340719586602</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D228" t="n">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
       <c r="E228" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>202.2052493477286</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B229" t="n">
-        <v>47.38374582059588</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D229" t="n">
-        <v>0.59</v>
+        <v>0.55</v>
       </c>
       <c r="E229" t="n">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>202.1425035261798</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B230" t="n">
-        <v>47.3730928463169</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C230" t="n">
         <v>10</v>
       </c>
       <c r="D230" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E230" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1075186031524</v>
       </c>
       <c r="B231" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36715226073199</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D231" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E231" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B232" t="n">
-        <v>47.36275231806718</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D232" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E232" t="n">
-        <v>0.32</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B233" t="n">
-        <v>47.36275231806718</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D233" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="E233" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>202.1443548738203</v>
+        <v>202.0989337497235</v>
       </c>
       <c r="B234" t="n">
-        <v>47.37340719586602</v>
+        <v>47.36569442369761</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
       </c>
       <c r="D234" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="E234" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>202.2419585285108</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B235" t="n">
-        <v>47.3899773894429</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D235" t="n">
-        <v>0.61</v>
+        <v>0.49</v>
       </c>
       <c r="E235" t="n">
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B236" t="n">
-        <v>47.35642064920658</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C236" t="n">
         <v>10</v>
       </c>
       <c r="D236" t="n">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
       <c r="E236" t="n">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>202.2425306263942</v>
+        <v>202.1407338734737</v>
       </c>
       <c r="B237" t="n">
-        <v>47.39007450063703</v>
+        <v>47.37279236656199</v>
       </c>
       <c r="C237" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="E237" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B238" t="n">
-        <v>47.36275231806718</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C238" t="n">
         <v>10</v>
       </c>
       <c r="D238" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="E238" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>202.2052493477286</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B239" t="n">
-        <v>47.38374582059588</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C239" t="n">
         <v>10</v>
@@ -4508,231 +4508,231 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B240" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
       </c>
       <c r="D240" t="n">
-        <v>0.55</v>
+        <v>0.59</v>
       </c>
       <c r="E240" t="n">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>202.1425035261798</v>
+        <v>202.0989337497235</v>
       </c>
       <c r="B241" t="n">
-        <v>47.3730928463169</v>
+        <v>47.36569442369761</v>
       </c>
       <c r="C241" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="E241" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>202.0443277736058</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B242" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
       </c>
       <c r="D242" t="n">
-        <v>0.55</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E242" t="n">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>202.1443548738203</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B243" t="n">
-        <v>47.37340719586602</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
       </c>
       <c r="D243" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="E243" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>202.1443548738203</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B244" t="n">
-        <v>47.37340719586602</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
       </c>
       <c r="D244" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="E244" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>202.0443277736058</v>
+        <v>202.0989337497235</v>
       </c>
       <c r="B245" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36569442369761</v>
       </c>
       <c r="C245" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D245" t="n">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="E245" t="n">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>202.2419585285108</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B246" t="n">
-        <v>47.3899773894429</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D246" t="n">
-        <v>0.61</v>
+        <v>0.53</v>
       </c>
       <c r="E246" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1075186031524</v>
       </c>
       <c r="B247" t="n">
-        <v>47.3730928463169</v>
+        <v>47.36715226073199</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D247" t="n">
-        <v>0.53</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E247" t="n">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1407338734737</v>
       </c>
       <c r="B248" t="n">
-        <v>47.3730928463169</v>
+        <v>47.37279236656199</v>
       </c>
       <c r="C248" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D248" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="E248" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B249" t="n">
-        <v>47.3730928463169</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C249" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D249" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="E249" t="n">
-        <v>0.33</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1075186031524</v>
       </c>
       <c r="B250" t="n">
-        <v>47.3730928463169</v>
+        <v>47.36715226073199</v>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D250" t="n">
-        <v>0.53</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E250" t="n">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1407338734737</v>
       </c>
       <c r="B251" t="n">
-        <v>47.36275231806718</v>
+        <v>47.37279236656199</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D251" t="n">
-        <v>0.54</v>
+        <v>0.58</v>
       </c>
       <c r="E251" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>202.1425035261798</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B252" t="n">
-        <v>47.3730928463169</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D252" t="n">
-        <v>0.53</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E252" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>202.2419585285108</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B253" t="n">
-        <v>47.3899773894429</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C253" t="n">
         <v>10</v>
@@ -4746,78 +4746,78 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>202.2052493477286</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B254" t="n">
-        <v>47.38374582059588</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C254" t="n">
         <v>10</v>
       </c>
       <c r="D254" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="E254" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>202.0816090522714</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B255" t="n">
-        <v>47.36275231806718</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C255" t="n">
         <v>10</v>
       </c>
       <c r="D255" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="E255" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>202.2425306263942</v>
+        <v>202.1407338734737</v>
       </c>
       <c r="B256" t="n">
-        <v>47.39007450063703</v>
+        <v>47.37279236656199</v>
       </c>
       <c r="C256" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D256" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="E256" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>202.0443277736058</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B257" t="n">
-        <v>47.35642064920658</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C257" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D257" t="n">
-        <v>0.55</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E257" t="n">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>202.1443548738203</v>
+        <v>202.1407338734737</v>
       </c>
       <c r="B258" t="n">
-        <v>47.37340719586602</v>
+        <v>47.37279236656199</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -4831,438 +4831,438 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B259" t="n">
-        <v>47.35642064920658</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
       </c>
       <c r="D259" t="n">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="E259" t="n">
-        <v>0.41</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>202.2419585285108</v>
+        <v>202.1016529381428</v>
       </c>
       <c r="B260" t="n">
-        <v>47.3899773894429</v>
+        <v>47.3661561867</v>
       </c>
       <c r="C260" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D260" t="n">
-        <v>0.61</v>
+        <v>0.47</v>
       </c>
       <c r="E260" t="n">
-        <v>0.35</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B261" t="n">
-        <v>47.35642064920658</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C261" t="n">
         <v>10</v>
       </c>
       <c r="D261" t="n">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="E261" t="n">
-        <v>0.41</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>202.2052493477286</v>
+        <v>202.1075186031524</v>
       </c>
       <c r="B262" t="n">
-        <v>47.38374582059588</v>
+        <v>47.36715226073199</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D262" t="n">
-        <v>0.59</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E262" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>202.1443548738203</v>
+        <v>202.1016529381428</v>
       </c>
       <c r="B263" t="n">
-        <v>47.37340719586602</v>
+        <v>47.3661561867</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D263" t="n">
-        <v>0.58</v>
+        <v>0.47</v>
       </c>
       <c r="E263" t="n">
-        <v>0.38</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>202.2419585285108</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B264" t="n">
-        <v>47.3899773894429</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D264" t="n">
-        <v>0.61</v>
+        <v>0.51</v>
       </c>
       <c r="E264" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1016529381428</v>
       </c>
       <c r="B265" t="n">
-        <v>47.36275231806718</v>
+        <v>47.3661561867</v>
       </c>
       <c r="C265" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D265" t="n">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
       <c r="E265" t="n">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>202.1425035261798</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B266" t="n">
-        <v>47.3730928463169</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D266" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="E266" t="n">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>202.2419585285108</v>
+        <v>202.0989337497235</v>
       </c>
       <c r="B267" t="n">
-        <v>47.3899773894429</v>
+        <v>47.36569442369761</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
       </c>
       <c r="D267" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="E267" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>202.0816090522714</v>
+        <v>202.0989337497235</v>
       </c>
       <c r="B268" t="n">
-        <v>47.36275231806718</v>
+        <v>47.36569442369761</v>
       </c>
       <c r="C268" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D268" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="E268" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1016529381428</v>
       </c>
       <c r="B269" t="n">
-        <v>47.3730928463169</v>
+        <v>47.3661561867</v>
       </c>
       <c r="C269" t="n">
         <v>10</v>
       </c>
       <c r="D269" t="n">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="E269" t="n">
-        <v>0.43</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>202.2425306263942</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B270" t="n">
-        <v>47.39007450063703</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
       </c>
       <c r="D270" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="E270" t="n">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B271" t="n">
-        <v>47.3730928463169</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C271" t="n">
         <v>10</v>
       </c>
       <c r="D271" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="E271" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B272" t="n">
-        <v>47.35642064920658</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
       </c>
       <c r="D272" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="E272" t="n">
-        <v>0.31</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>202.1425035261798</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B273" t="n">
-        <v>47.3730928463169</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D273" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E273" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1016529381428</v>
       </c>
       <c r="B274" t="n">
-        <v>47.3730928463169</v>
+        <v>47.3661561867</v>
       </c>
       <c r="C274" t="n">
         <v>10</v>
       </c>
       <c r="D274" t="n">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="E274" t="n">
-        <v>0.43</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>202.2052493477286</v>
+        <v>202.1407338734737</v>
       </c>
       <c r="B275" t="n">
-        <v>47.38374582059588</v>
+        <v>47.37279236656199</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
       </c>
       <c r="D275" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="E275" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>202.2419585285108</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B276" t="n">
-        <v>47.3899773894429</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D276" t="n">
-        <v>0.61</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E276" t="n">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B277" t="n">
-        <v>47.3730928463169</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
       </c>
       <c r="D277" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="E277" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1407338734737</v>
       </c>
       <c r="B278" t="n">
-        <v>47.3730928463169</v>
+        <v>47.37279236656199</v>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D278" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="E278" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>202.2052493477286</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B279" t="n">
-        <v>47.38374582059588</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C279" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D279" t="n">
-        <v>0.59</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E279" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>202.2425306263942</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B280" t="n">
-        <v>47.39007450063703</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C280" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D280" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="E280" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>202.1443548738203</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B281" t="n">
-        <v>47.37340719586602</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D281" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="E281" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>202.2425306263942</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B282" t="n">
-        <v>47.39007450063703</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
       </c>
       <c r="D282" t="n">
-        <v>0.6</v>
+        <v>0.49</v>
       </c>
       <c r="E282" t="n">
-        <v>0.36</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>202.2425306263942</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B283" t="n">
-        <v>47.39007450063703</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
       </c>
       <c r="D283" t="n">
-        <v>0.6</v>
+        <v>0.53</v>
       </c>
       <c r="E283" t="n">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>202.0816090522714</v>
+        <v>202.2155099875484</v>
       </c>
       <c r="B284" t="n">
-        <v>47.36275231806718</v>
+        <v>47.38548768361002</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D284" t="n">
         <v>0.54</v>
@@ -5273,801 +5273,2331 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>202.2419585285108</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B285" t="n">
-        <v>47.3899773894429</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
       </c>
       <c r="D285" t="n">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="E285" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>202.0816090522714</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B286" t="n">
-        <v>47.36275231806718</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C286" t="n">
         <v>10</v>
       </c>
       <c r="D286" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E286" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1016529381428</v>
       </c>
       <c r="B287" t="n">
-        <v>47.36275231806718</v>
+        <v>47.3661561867</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
       </c>
       <c r="D287" t="n">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
       <c r="E287" t="n">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>202.2419585285108</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B288" t="n">
-        <v>47.3899773894429</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C288" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D288" t="n">
-        <v>0.61</v>
+        <v>0.49</v>
       </c>
       <c r="E288" t="n">
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>202.1425035261798</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B289" t="n">
-        <v>47.3730928463169</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C289" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D289" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="E289" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B290" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D290" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="E290" t="n">
-        <v>0.31</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>202.0443277736058</v>
+        <v>202.2155099875484</v>
       </c>
       <c r="B291" t="n">
-        <v>47.35642064920658</v>
+        <v>47.38548768361002</v>
       </c>
       <c r="C291" t="n">
         <v>10</v>
       </c>
       <c r="D291" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="E291" t="n">
-        <v>0.31</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>202.2052493477286</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B292" t="n">
-        <v>47.38374582059588</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C292" t="n">
         <v>10</v>
       </c>
       <c r="D292" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="E292" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>202.1425035261798</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B293" t="n">
-        <v>47.3730928463169</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
       </c>
       <c r="D293" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="E293" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>202.1425035261798</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B294" t="n">
-        <v>47.3730928463169</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C294" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D294" t="n">
-        <v>0.53</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E294" t="n">
-        <v>0.43</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>202.0443277736058</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B295" t="n">
-        <v>47.35642064920658</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C295" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D295" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E295" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1016529381428</v>
       </c>
       <c r="B296" t="n">
-        <v>47.35642064920658</v>
+        <v>47.3661561867</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
       </c>
       <c r="D296" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="E296" t="n">
-        <v>0.31</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>202.1443548738203</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B297" t="n">
-        <v>47.37340719586602</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C297" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D297" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="E297" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>202.2425306263942</v>
+        <v>202.1654549711855</v>
       </c>
       <c r="B298" t="n">
-        <v>47.39007450063703</v>
+        <v>47.37698976600116</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
       </c>
       <c r="D298" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="E298" t="n">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>202.2425306263942</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B299" t="n">
-        <v>47.39007450063703</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C299" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D299" t="n">
-        <v>0.6</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E299" t="n">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>202.0831068239751</v>
+        <v>202.1916135448988</v>
       </c>
       <c r="B300" t="n">
-        <v>47.36300667776938</v>
+        <v>47.38143090323386</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
       </c>
       <c r="D300" t="n">
-        <v>0.57</v>
+        <v>0.51</v>
       </c>
       <c r="E300" t="n">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>202.0443277736058</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B301" t="n">
-        <v>47.35642064920658</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C301" t="n">
         <v>10</v>
       </c>
       <c r="D301" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="E301" t="n">
-        <v>0.31</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>202.0831068239751</v>
+        <v>202.2155099875484</v>
       </c>
       <c r="B302" t="n">
-        <v>47.36300667776938</v>
+        <v>47.38548768361002</v>
       </c>
       <c r="C302" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D302" t="n">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="E302" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>202.1443548738203</v>
+        <v>202.1174710690708</v>
       </c>
       <c r="B303" t="n">
-        <v>47.37340719586602</v>
+        <v>47.36884229294331</v>
       </c>
       <c r="C303" t="n">
         <v>10</v>
       </c>
       <c r="D303" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="E303" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>202.2419585285108</v>
+        <v>202.1016529381428</v>
       </c>
       <c r="B304" t="n">
-        <v>47.3899773894429</v>
+        <v>47.3661561867</v>
       </c>
       <c r="C304" t="n">
         <v>10</v>
       </c>
       <c r="D304" t="n">
-        <v>0.61</v>
+        <v>0.47</v>
       </c>
       <c r="E304" t="n">
-        <v>0.35</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>202.1425035261798</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B305" t="n">
-        <v>47.3730928463169</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C305" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D305" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E305" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>202.0443277736058</v>
+        <v>202.1407338734737</v>
       </c>
       <c r="B306" t="n">
-        <v>47.35642064920658</v>
+        <v>47.37279236656199</v>
       </c>
       <c r="C306" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D306" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="E306" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1016529381428</v>
       </c>
       <c r="B307" t="n">
-        <v>47.3730928463169</v>
+        <v>47.3661561867</v>
       </c>
       <c r="C307" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D307" t="n">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="E307" t="n">
-        <v>0.43</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>202.0816090522714</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B308" t="n">
-        <v>47.36275231806718</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C308" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D308" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="E308" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>202.2052493477286</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B309" t="n">
-        <v>47.38374582059588</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
       </c>
       <c r="D309" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="E309" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>202.0831068239751</v>
+        <v>202.0989337497235</v>
       </c>
       <c r="B310" t="n">
-        <v>47.36300667776938</v>
+        <v>47.36569442369761</v>
       </c>
       <c r="C310" t="n">
         <v>10</v>
       </c>
       <c r="D310" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="E310" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>202.2425306263942</v>
+        <v>202.2155099875484</v>
       </c>
       <c r="B311" t="n">
-        <v>47.39007450063703</v>
+        <v>47.38548768361002</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
       </c>
       <c r="D311" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="E311" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>202.2052493477286</v>
+        <v>202.1449661377905</v>
       </c>
       <c r="B312" t="n">
-        <v>47.38374582059588</v>
+        <v>47.37351098504899</v>
       </c>
       <c r="C312" t="n">
         <v>10</v>
       </c>
       <c r="D312" t="n">
-        <v>0.59</v>
+        <v>0.49</v>
       </c>
       <c r="E312" t="n">
-        <v>0.37</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>202.1425035261798</v>
+        <v>202.2155099875484</v>
       </c>
       <c r="B313" t="n">
-        <v>47.3730928463169</v>
+        <v>47.38548768361002</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
       </c>
       <c r="D313" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="E313" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>202.2052493477286</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B314" t="n">
-        <v>47.38374582059588</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D314" t="n">
-        <v>0.59</v>
+        <v>0.55</v>
       </c>
       <c r="E314" t="n">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>202.2052493477286</v>
+        <v>202.1075186031524</v>
       </c>
       <c r="B315" t="n">
-        <v>47.38374582059588</v>
+        <v>47.36715226073199</v>
       </c>
       <c r="C315" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D315" t="n">
-        <v>0.59</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E315" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>202.2052493477286</v>
+        <v>202.128818436632</v>
       </c>
       <c r="B316" t="n">
-        <v>47.38374582059588</v>
+        <v>47.37076913374894</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
       </c>
       <c r="D316" t="n">
-        <v>0.59</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="E316" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>202.2425306263942</v>
+        <v>202.2163093379161</v>
       </c>
       <c r="B317" t="n">
-        <v>47.39007450063703</v>
+        <v>47.3856233804354</v>
       </c>
       <c r="C317" t="n">
         <v>10</v>
       </c>
       <c r="D317" t="n">
-        <v>0.6</v>
+        <v>0.53</v>
       </c>
       <c r="E317" t="n">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>202.1443548738203</v>
+        <v>202.2155099875484</v>
       </c>
       <c r="B318" t="n">
-        <v>47.37340719586602</v>
+        <v>47.38548768361002</v>
       </c>
       <c r="C318" t="n">
         <v>10</v>
       </c>
       <c r="D318" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="E318" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>202.0443277736058</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B319" t="n">
-        <v>47.35642064920658</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C319" t="n">
         <v>10</v>
       </c>
       <c r="D319" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="E319" t="n">
-        <v>0.31</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>202.1425035261798</v>
+        <v>202.0877254268452</v>
       </c>
       <c r="B320" t="n">
-        <v>47.3730928463169</v>
+        <v>47.36379102688297</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
       </c>
       <c r="D320" t="n">
-        <v>0.53</v>
+        <v>0.61</v>
       </c>
       <c r="E320" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1407338734737</v>
       </c>
       <c r="B321" t="n">
-        <v>47.3730928463169</v>
+        <v>47.37279236656199</v>
       </c>
       <c r="C321" t="n">
         <v>10</v>
       </c>
       <c r="D321" t="n">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="E321" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>202.1425035261798</v>
+        <v>202.0989337497235</v>
       </c>
       <c r="B322" t="n">
-        <v>47.3730928463169</v>
+        <v>47.36569442369761</v>
       </c>
       <c r="C322" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D322" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="E322" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>202.0816090522714</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B323" t="n">
-        <v>47.36275231806718</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C323" t="n">
         <v>10</v>
       </c>
       <c r="D323" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E323" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1075186031524</v>
       </c>
       <c r="B324" t="n">
-        <v>47.3730928463169</v>
+        <v>47.36715226073199</v>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D324" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E324" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1075186031524</v>
       </c>
       <c r="B325" t="n">
-        <v>47.3730928463169</v>
+        <v>47.36715226073199</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
       </c>
       <c r="D325" t="n">
-        <v>0.53</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E325" t="n">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>202.2419585285108</v>
+        <v>202.1407338734737</v>
       </c>
       <c r="B326" t="n">
-        <v>47.3899773894429</v>
+        <v>47.37279236656199</v>
       </c>
       <c r="C326" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D326" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="E326" t="n">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>202.1425035261798</v>
+        <v>202.09234204899</v>
       </c>
       <c r="B327" t="n">
-        <v>47.3730928463169</v>
+        <v>47.36457502899982</v>
       </c>
       <c r="C327" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D327" t="n">
-        <v>0.53</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="E327" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>202.1425035261798</v>
+        <v>202.1075186031524</v>
       </c>
       <c r="B328" t="n">
-        <v>47.3730928463169</v>
+        <v>47.36715226073199</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
       </c>
       <c r="D328" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="E328" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>202.0831068239751</v>
+        <v>202.1016529381428</v>
       </c>
       <c r="B329" t="n">
-        <v>47.36300667776938</v>
+        <v>47.3661561867</v>
       </c>
       <c r="C329" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D329" t="n">
-        <v>0.57</v>
+        <v>0.47</v>
       </c>
       <c r="E329" t="n">
-        <v>0.39</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>202.2419585285108</v>
+        <v>202.2056668474857</v>
       </c>
       <c r="B330" t="n">
-        <v>47.3899773894429</v>
+        <v>47.38381669706164</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
       </c>
       <c r="D330" t="n">
-        <v>0.61</v>
+        <v>0.55</v>
       </c>
       <c r="E330" t="n">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>202.0816090522714</v>
+        <v>202.1075186031524</v>
       </c>
       <c r="B331" t="n">
-        <v>47.36275231806718</v>
+        <v>47.36715226073199</v>
       </c>
       <c r="C331" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D331" t="n">
         <v>0.6399999999999999</v>
       </c>
       <c r="E331" t="n">
         <v>0.32</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>202.0989337497235</v>
+      </c>
+      <c r="B332" t="n">
+        <v>47.36569442369761</v>
+      </c>
+      <c r="C332" t="n">
+        <v>10</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E332" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>202.0877254268452</v>
+      </c>
+      <c r="B333" t="n">
+        <v>47.36379102688297</v>
+      </c>
+      <c r="C333" t="n">
+        <v>10</v>
+      </c>
+      <c r="D333" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E333" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>202.2056668474857</v>
+      </c>
+      <c r="B334" t="n">
+        <v>47.38381669706164</v>
+      </c>
+      <c r="C334" t="n">
+        <v>10</v>
+      </c>
+      <c r="D334" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E334" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>202.1916135448988</v>
+      </c>
+      <c r="B335" t="n">
+        <v>47.38143090323386</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E335" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>202.0989337497235</v>
+      </c>
+      <c r="B336" t="n">
+        <v>47.36569442369761</v>
+      </c>
+      <c r="C336" t="n">
+        <v>10</v>
+      </c>
+      <c r="D336" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E336" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>202.1407338734737</v>
+      </c>
+      <c r="B337" t="n">
+        <v>47.37279236656199</v>
+      </c>
+      <c r="C337" t="n">
+        <v>10</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E337" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>202.1449661377905</v>
+      </c>
+      <c r="B338" t="n">
+        <v>47.37351098504899</v>
+      </c>
+      <c r="C338" t="n">
+        <v>10</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E338" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>202.1174710690708</v>
+      </c>
+      <c r="B339" t="n">
+        <v>47.36884229294331</v>
+      </c>
+      <c r="C339" t="n">
+        <v>10</v>
+      </c>
+      <c r="D339" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E339" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>202.128818436632</v>
+      </c>
+      <c r="B340" t="n">
+        <v>47.37076913374894</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0</v>
+      </c>
+      <c r="D340" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="E340" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>202.2056668474857</v>
+      </c>
+      <c r="B341" t="n">
+        <v>47.38381669706164</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E341" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>202.1407338734737</v>
+      </c>
+      <c r="B342" t="n">
+        <v>47.37279236656199</v>
+      </c>
+      <c r="C342" t="n">
+        <v>10</v>
+      </c>
+      <c r="D342" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E342" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>202.128818436632</v>
+      </c>
+      <c r="B343" t="n">
+        <v>47.37076913374894</v>
+      </c>
+      <c r="C343" t="n">
+        <v>10</v>
+      </c>
+      <c r="D343" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="E343" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>202.1449661377905</v>
+      </c>
+      <c r="B344" t="n">
+        <v>47.37351098504899</v>
+      </c>
+      <c r="C344" t="n">
+        <v>10</v>
+      </c>
+      <c r="D344" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E344" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>202.09234204899</v>
+      </c>
+      <c r="B345" t="n">
+        <v>47.36457502899982</v>
+      </c>
+      <c r="C345" t="n">
+        <v>0</v>
+      </c>
+      <c r="D345" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="E345" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>202.0989337497235</v>
+      </c>
+      <c r="B346" t="n">
+        <v>47.36569442369761</v>
+      </c>
+      <c r="C346" t="n">
+        <v>10</v>
+      </c>
+      <c r="D346" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E346" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>202.1075186031524</v>
+      </c>
+      <c r="B347" t="n">
+        <v>47.36715226073199</v>
+      </c>
+      <c r="C347" t="n">
+        <v>0</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="E347" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>202.0877254268452</v>
+      </c>
+      <c r="B348" t="n">
+        <v>47.36379102688297</v>
+      </c>
+      <c r="C348" t="n">
+        <v>10</v>
+      </c>
+      <c r="D348" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E348" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>202.0989337497235</v>
+      </c>
+      <c r="B349" t="n">
+        <v>47.36569442369761</v>
+      </c>
+      <c r="C349" t="n">
+        <v>0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E349" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>202.1654549711855</v>
+      </c>
+      <c r="B350" t="n">
+        <v>47.37698976600116</v>
+      </c>
+      <c r="C350" t="n">
+        <v>10</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E350" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>202.1075186031524</v>
+      </c>
+      <c r="B351" t="n">
+        <v>47.36715226073199</v>
+      </c>
+      <c r="C351" t="n">
+        <v>10</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="E351" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>202.2163093379161</v>
+      </c>
+      <c r="B352" t="n">
+        <v>47.3856233804354</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0</v>
+      </c>
+      <c r="D352" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E352" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>202.1174710690708</v>
+      </c>
+      <c r="B353" t="n">
+        <v>47.36884229294331</v>
+      </c>
+      <c r="C353" t="n">
+        <v>10</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E353" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>202.1075186031524</v>
+      </c>
+      <c r="B354" t="n">
+        <v>47.36715226073199</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0</v>
+      </c>
+      <c r="D354" t="n">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="E354" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>202.1916135448988</v>
+      </c>
+      <c r="B355" t="n">
+        <v>47.38143090323386</v>
+      </c>
+      <c r="C355" t="n">
+        <v>10</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E355" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>202.1449661377905</v>
+      </c>
+      <c r="B356" t="n">
+        <v>47.37351098504899</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0</v>
+      </c>
+      <c r="D356" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E356" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>202.2163093379161</v>
+      </c>
+      <c r="B357" t="n">
+        <v>47.3856233804354</v>
+      </c>
+      <c r="C357" t="n">
+        <v>10</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E357" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>202.1654549711855</v>
+      </c>
+      <c r="B358" t="n">
+        <v>47.37698976600116</v>
+      </c>
+      <c r="C358" t="n">
+        <v>10</v>
+      </c>
+      <c r="D358" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E358" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>202.1174710690708</v>
+      </c>
+      <c r="B359" t="n">
+        <v>47.36884229294331</v>
+      </c>
+      <c r="C359" t="n">
+        <v>10</v>
+      </c>
+      <c r="D359" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E359" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>202.09234204899</v>
+      </c>
+      <c r="B360" t="n">
+        <v>47.36457502899982</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0</v>
+      </c>
+      <c r="D360" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="E360" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>202.0877254268452</v>
+      </c>
+      <c r="B361" t="n">
+        <v>47.36379102688297</v>
+      </c>
+      <c r="C361" t="n">
+        <v>10</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E361" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>202.2056668474857</v>
+      </c>
+      <c r="B362" t="n">
+        <v>47.38381669706164</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0</v>
+      </c>
+      <c r="D362" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E362" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>202.0989337497235</v>
+      </c>
+      <c r="B363" t="n">
+        <v>47.36569442369761</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0</v>
+      </c>
+      <c r="D363" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E363" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>202.1075186031524</v>
+      </c>
+      <c r="B364" t="n">
+        <v>47.36715226073199</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0</v>
+      </c>
+      <c r="D364" t="n">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="E364" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>202.1174710690708</v>
+      </c>
+      <c r="B365" t="n">
+        <v>47.36884229294331</v>
+      </c>
+      <c r="C365" t="n">
+        <v>10</v>
+      </c>
+      <c r="D365" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E365" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>202.0877254268452</v>
+      </c>
+      <c r="B366" t="n">
+        <v>47.36379102688297</v>
+      </c>
+      <c r="C366" t="n">
+        <v>10</v>
+      </c>
+      <c r="D366" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E366" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>202.1174710690708</v>
+      </c>
+      <c r="B367" t="n">
+        <v>47.36884229294331</v>
+      </c>
+      <c r="C367" t="n">
+        <v>10</v>
+      </c>
+      <c r="D367" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E367" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>202.0877254268452</v>
+      </c>
+      <c r="B368" t="n">
+        <v>47.36379102688297</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0</v>
+      </c>
+      <c r="D368" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E368" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>202.1916135448988</v>
+      </c>
+      <c r="B369" t="n">
+        <v>47.38143090323386</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0</v>
+      </c>
+      <c r="D369" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E369" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>202.1916135448988</v>
+      </c>
+      <c r="B370" t="n">
+        <v>47.38143090323386</v>
+      </c>
+      <c r="C370" t="n">
+        <v>10</v>
+      </c>
+      <c r="D370" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E370" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>202.0989337497235</v>
+      </c>
+      <c r="B371" t="n">
+        <v>47.36569442369761</v>
+      </c>
+      <c r="C371" t="n">
+        <v>10</v>
+      </c>
+      <c r="D371" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E371" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>202.1654549711855</v>
+      </c>
+      <c r="B372" t="n">
+        <v>47.37698976600116</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0</v>
+      </c>
+      <c r="D372" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E372" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>202.0989337497235</v>
+      </c>
+      <c r="B373" t="n">
+        <v>47.36569442369761</v>
+      </c>
+      <c r="C373" t="n">
+        <v>10</v>
+      </c>
+      <c r="D373" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E373" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>202.1016529381428</v>
+      </c>
+      <c r="B374" t="n">
+        <v>47.3661561867</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0</v>
+      </c>
+      <c r="D374" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E374" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>202.1016529381428</v>
+      </c>
+      <c r="B375" t="n">
+        <v>47.3661561867</v>
+      </c>
+      <c r="C375" t="n">
+        <v>10</v>
+      </c>
+      <c r="D375" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E375" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>202.1654549711855</v>
+      </c>
+      <c r="B376" t="n">
+        <v>47.37698976600116</v>
+      </c>
+      <c r="C376" t="n">
+        <v>10</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E376" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>202.0989337497235</v>
+      </c>
+      <c r="B377" t="n">
+        <v>47.36569442369761</v>
+      </c>
+      <c r="C377" t="n">
+        <v>10</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E377" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>202.128818436632</v>
+      </c>
+      <c r="B378" t="n">
+        <v>47.37076913374894</v>
+      </c>
+      <c r="C378" t="n">
+        <v>10</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="E378" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>202.09234204899</v>
+      </c>
+      <c r="B379" t="n">
+        <v>47.36457502899982</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0</v>
+      </c>
+      <c r="D379" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="E379" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>202.2163093379161</v>
+      </c>
+      <c r="B380" t="n">
+        <v>47.3856233804354</v>
+      </c>
+      <c r="C380" t="n">
+        <v>0</v>
+      </c>
+      <c r="D380" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E380" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>202.2155099875484</v>
+      </c>
+      <c r="B381" t="n">
+        <v>47.38548768361002</v>
+      </c>
+      <c r="C381" t="n">
+        <v>0</v>
+      </c>
+      <c r="D381" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E381" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>202.1449661377905</v>
+      </c>
+      <c r="B382" t="n">
+        <v>47.37351098504899</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0</v>
+      </c>
+      <c r="D382" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E382" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>202.09234204899</v>
+      </c>
+      <c r="B383" t="n">
+        <v>47.36457502899982</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="E383" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>202.2056668474857</v>
+      </c>
+      <c r="B384" t="n">
+        <v>47.38381669706164</v>
+      </c>
+      <c r="C384" t="n">
+        <v>10</v>
+      </c>
+      <c r="D384" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E384" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>202.0989337497235</v>
+      </c>
+      <c r="B385" t="n">
+        <v>47.36569442369761</v>
+      </c>
+      <c r="C385" t="n">
+        <v>10</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E385" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>202.09234204899</v>
+      </c>
+      <c r="B386" t="n">
+        <v>47.36457502899982</v>
+      </c>
+      <c r="C386" t="n">
+        <v>10</v>
+      </c>
+      <c r="D386" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="E386" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>202.0877254268452</v>
+      </c>
+      <c r="B387" t="n">
+        <v>47.36379102688297</v>
+      </c>
+      <c r="C387" t="n">
+        <v>0</v>
+      </c>
+      <c r="D387" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E387" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>202.2163093379161</v>
+      </c>
+      <c r="B388" t="n">
+        <v>47.3856233804354</v>
+      </c>
+      <c r="C388" t="n">
+        <v>10</v>
+      </c>
+      <c r="D388" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E388" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>202.128818436632</v>
+      </c>
+      <c r="B389" t="n">
+        <v>47.37076913374894</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0</v>
+      </c>
+      <c r="D389" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="E389" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>202.128818436632</v>
+      </c>
+      <c r="B390" t="n">
+        <v>47.37076913374894</v>
+      </c>
+      <c r="C390" t="n">
+        <v>10</v>
+      </c>
+      <c r="D390" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="E390" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>202.2056668474857</v>
+      </c>
+      <c r="B391" t="n">
+        <v>47.38381669706164</v>
+      </c>
+      <c r="C391" t="n">
+        <v>10</v>
+      </c>
+      <c r="D391" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E391" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>202.09234204899</v>
+      </c>
+      <c r="B392" t="n">
+        <v>47.36457502899982</v>
+      </c>
+      <c r="C392" t="n">
+        <v>10</v>
+      </c>
+      <c r="D392" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="E392" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>202.1916135448988</v>
+      </c>
+      <c r="B393" t="n">
+        <v>47.38143090323386</v>
+      </c>
+      <c r="C393" t="n">
+        <v>10</v>
+      </c>
+      <c r="D393" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E393" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>202.0877254268452</v>
+      </c>
+      <c r="B394" t="n">
+        <v>47.36379102688297</v>
+      </c>
+      <c r="C394" t="n">
+        <v>10</v>
+      </c>
+      <c r="D394" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E394" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>202.1407338734737</v>
+      </c>
+      <c r="B395" t="n">
+        <v>47.37279236656199</v>
+      </c>
+      <c r="C395" t="n">
+        <v>10</v>
+      </c>
+      <c r="D395" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E395" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>202.1449661377905</v>
+      </c>
+      <c r="B396" t="n">
+        <v>47.37351098504899</v>
+      </c>
+      <c r="C396" t="n">
+        <v>10</v>
+      </c>
+      <c r="D396" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E396" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>202.1449661377905</v>
+      </c>
+      <c r="B397" t="n">
+        <v>47.37351098504899</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0</v>
+      </c>
+      <c r="D397" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E397" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>202.2056668474857</v>
+      </c>
+      <c r="B398" t="n">
+        <v>47.38381669706164</v>
+      </c>
+      <c r="C398" t="n">
+        <v>10</v>
+      </c>
+      <c r="D398" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E398" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>202.2163093379161</v>
+      </c>
+      <c r="B399" t="n">
+        <v>47.3856233804354</v>
+      </c>
+      <c r="C399" t="n">
+        <v>0</v>
+      </c>
+      <c r="D399" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E399" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>202.2056668474857</v>
+      </c>
+      <c r="B400" t="n">
+        <v>47.38381669706164</v>
+      </c>
+      <c r="C400" t="n">
+        <v>0</v>
+      </c>
+      <c r="D400" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E400" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>202.0989337497235</v>
+      </c>
+      <c r="B401" t="n">
+        <v>47.36569442369761</v>
+      </c>
+      <c r="C401" t="n">
+        <v>0</v>
+      </c>
+      <c r="D401" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E401" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>202.1654549711855</v>
+      </c>
+      <c r="B402" t="n">
+        <v>47.37698976600116</v>
+      </c>
+      <c r="C402" t="n">
+        <v>10</v>
+      </c>
+      <c r="D402" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E402" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>202.128818436632</v>
+      </c>
+      <c r="B403" t="n">
+        <v>47.37076913374894</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0</v>
+      </c>
+      <c r="D403" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="E403" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>202.1654549711855</v>
+      </c>
+      <c r="B404" t="n">
+        <v>47.37698976600116</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0</v>
+      </c>
+      <c r="D404" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E404" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>202.1449661377905</v>
+      </c>
+      <c r="B405" t="n">
+        <v>47.37351098504899</v>
+      </c>
+      <c r="C405" t="n">
+        <v>10</v>
+      </c>
+      <c r="D405" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E405" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>202.2056668474857</v>
+      </c>
+      <c r="B406" t="n">
+        <v>47.38381669706164</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0</v>
+      </c>
+      <c r="D406" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E406" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>202.1654549711855</v>
+      </c>
+      <c r="B407" t="n">
+        <v>47.37698976600116</v>
+      </c>
+      <c r="C407" t="n">
+        <v>10</v>
+      </c>
+      <c r="D407" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E407" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>202.1075186031524</v>
+      </c>
+      <c r="B408" t="n">
+        <v>47.36715226073199</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0</v>
+      </c>
+      <c r="D408" t="n">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="E408" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>202.1654549711855</v>
+      </c>
+      <c r="B409" t="n">
+        <v>47.37698976600116</v>
+      </c>
+      <c r="C409" t="n">
+        <v>10</v>
+      </c>
+      <c r="D409" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E409" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>202.1916135448988</v>
+      </c>
+      <c r="B410" t="n">
+        <v>47.38143090323386</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0</v>
+      </c>
+      <c r="D410" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E410" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>202.1449661377905</v>
+      </c>
+      <c r="B411" t="n">
+        <v>47.37351098504899</v>
+      </c>
+      <c r="C411" t="n">
+        <v>10</v>
+      </c>
+      <c r="D411" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E411" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>202.1916135448988</v>
+      </c>
+      <c r="B412" t="n">
+        <v>47.38143090323386</v>
+      </c>
+      <c r="C412" t="n">
+        <v>10</v>
+      </c>
+      <c r="D412" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E412" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>202.2155099875484</v>
+      </c>
+      <c r="B413" t="n">
+        <v>47.38548768361002</v>
+      </c>
+      <c r="C413" t="n">
+        <v>0</v>
+      </c>
+      <c r="D413" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E413" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>202.1654549711855</v>
+      </c>
+      <c r="B414" t="n">
+        <v>47.37698976600116</v>
+      </c>
+      <c r="C414" t="n">
+        <v>0</v>
+      </c>
+      <c r="D414" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E414" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>202.0877254268452</v>
+      </c>
+      <c r="B415" t="n">
+        <v>47.36379102688297</v>
+      </c>
+      <c r="C415" t="n">
+        <v>0</v>
+      </c>
+      <c r="D415" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E415" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>202.1407338734737</v>
+      </c>
+      <c r="B416" t="n">
+        <v>47.37279236656199</v>
+      </c>
+      <c r="C416" t="n">
+        <v>10</v>
+      </c>
+      <c r="D416" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E416" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>202.1916135448988</v>
+      </c>
+      <c r="B417" t="n">
+        <v>47.38143090323386</v>
+      </c>
+      <c r="C417" t="n">
+        <v>0</v>
+      </c>
+      <c r="D417" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E417" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>202.2163093379161</v>
+      </c>
+      <c r="B418" t="n">
+        <v>47.3856233804354</v>
+      </c>
+      <c r="C418" t="n">
+        <v>10</v>
+      </c>
+      <c r="D418" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E418" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>202.2056668474857</v>
+      </c>
+      <c r="B419" t="n">
+        <v>47.38381669706164</v>
+      </c>
+      <c r="C419" t="n">
+        <v>10</v>
+      </c>
+      <c r="D419" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E419" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>202.128818436632</v>
+      </c>
+      <c r="B420" t="n">
+        <v>47.37076913374894</v>
+      </c>
+      <c r="C420" t="n">
+        <v>0</v>
+      </c>
+      <c r="D420" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="E420" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>202.1916135448988</v>
+      </c>
+      <c r="B421" t="n">
+        <v>47.38143090323386</v>
+      </c>
+      <c r="C421" t="n">
+        <v>10</v>
+      </c>
+      <c r="D421" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E421" t="n">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
